--- a/Proyecto/tablaNoIndexada.xlsx
+++ b/Proyecto/tablaNoIndexada.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
   <si>
     <t>nombreObjeto</t>
   </si>
@@ -81,15 +81,6 @@
     <t>obj3IMG008.bmp</t>
   </si>
   <si>
-    <t>obj4IMG008.bmp</t>
-  </si>
-  <si>
-    <t>obj5IMG008.bmp</t>
-  </si>
-  <si>
-    <t>obj6IMG008.bmp</t>
-  </si>
-  <si>
     <t>obj1IMG009.bmp</t>
   </si>
   <si>
@@ -120,9 +111,6 @@
     <t>obj1IMG011.bmp</t>
   </si>
   <si>
-    <t>obj2IMG011.bmp</t>
-  </si>
-  <si>
     <t>obj1IMG012.bmp</t>
   </si>
   <si>
@@ -132,6 +120,12 @@
     <t>obj1IMG013.bmp</t>
   </si>
   <si>
+    <t>obj2IMG013.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG013.bmp</t>
+  </si>
+  <si>
     <t>obj1IMG014.bmp</t>
   </si>
   <si>
@@ -141,9 +135,24 @@
     <t>obj3IMG014.bmp</t>
   </si>
   <si>
+    <t>obj4IMG014.bmp</t>
+  </si>
+  <si>
     <t>obj1IMG015.bmp</t>
   </si>
   <si>
+    <t>obj2IMG015.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG015.bmp</t>
+  </si>
+  <si>
+    <t>obj4IMG015.bmp</t>
+  </si>
+  <si>
+    <t>obj5IMG015.bmp</t>
+  </si>
+  <si>
     <t>obj1IMG016.bmp</t>
   </si>
   <si>
@@ -192,24 +201,12 @@
     <t>obj1IMG021.bmp</t>
   </si>
   <si>
-    <t>obj2IMG021.bmp</t>
-  </si>
-  <si>
     <t>obj1IMG022.bmp</t>
   </si>
   <si>
     <t>obj2IMG022.bmp</t>
   </si>
   <si>
-    <t>obj3IMG022.bmp</t>
-  </si>
-  <si>
-    <t>obj4IMG022.bmp</t>
-  </si>
-  <si>
-    <t>obj5IMG022.bmp</t>
-  </si>
-  <si>
     <t>obj1IMG023.bmp</t>
   </si>
   <si>
@@ -222,7 +219,454 @@
     <t>obj1IMG024.bmp</t>
   </si>
   <si>
+    <t>obj2IMG024.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG024.bmp</t>
+  </si>
+  <si>
+    <t>obj4IMG024.bmp</t>
+  </si>
+  <si>
     <t>obj1IMG025.bmp</t>
+  </si>
+  <si>
+    <t>obj2IMG025.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG025.bmp</t>
+  </si>
+  <si>
+    <t>obj4IMG025.bmp</t>
+  </si>
+  <si>
+    <t>obj5IMG025.bmp</t>
+  </si>
+  <si>
+    <t>obj1IMG026.bmp</t>
+  </si>
+  <si>
+    <t>obj2IMG026.bmp</t>
+  </si>
+  <si>
+    <t>obj1IMG027.bmp</t>
+  </si>
+  <si>
+    <t>obj2IMG027.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG027.bmp</t>
+  </si>
+  <si>
+    <t>obj1IMG028.bmp</t>
+  </si>
+  <si>
+    <t>obj2IMG028.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG028.bmp</t>
+  </si>
+  <si>
+    <t>obj1IMG029.bmp</t>
+  </si>
+  <si>
+    <t>obj2IMG029.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG029.bmp</t>
+  </si>
+  <si>
+    <t>obj4IMG029.bmp</t>
+  </si>
+  <si>
+    <t>obj1IMG030.bmp</t>
+  </si>
+  <si>
+    <t>obj2IMG030.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG030.bmp</t>
+  </si>
+  <si>
+    <t>obj4IMG030.bmp</t>
+  </si>
+  <si>
+    <t>obj5IMG030.bmp</t>
+  </si>
+  <si>
+    <t>obj1IMG031.bmp</t>
+  </si>
+  <si>
+    <t>obj2IMG031.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG031.bmp</t>
+  </si>
+  <si>
+    <t>obj4IMG031.bmp</t>
+  </si>
+  <si>
+    <t>obj5IMG031.bmp</t>
+  </si>
+  <si>
+    <t>obj1IMG032.bmp</t>
+  </si>
+  <si>
+    <t>obj2IMG032.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG032.bmp</t>
+  </si>
+  <si>
+    <t>obj4IMG032.bmp</t>
+  </si>
+  <si>
+    <t>obj5IMG032.bmp</t>
+  </si>
+  <si>
+    <t>obj1IMG033.bmp</t>
+  </si>
+  <si>
+    <t>obj2IMG033.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG033.bmp</t>
+  </si>
+  <si>
+    <t>obj4IMG033.bmp</t>
+  </si>
+  <si>
+    <t>obj5IMG033.bmp</t>
+  </si>
+  <si>
+    <t>obj6IMG033.bmp</t>
+  </si>
+  <si>
+    <t>obj1IMG034.bmp</t>
+  </si>
+  <si>
+    <t>obj2IMG034.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG034.bmp</t>
+  </si>
+  <si>
+    <t>obj4IMG034.bmp</t>
+  </si>
+  <si>
+    <t>obj5IMG034.bmp</t>
+  </si>
+  <si>
+    <t>obj6IMG034.bmp</t>
+  </si>
+  <si>
+    <t>obj1IMG035.bmp</t>
+  </si>
+  <si>
+    <t>obj2IMG035.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG035.bmp</t>
+  </si>
+  <si>
+    <t>obj4IMG035.bmp</t>
+  </si>
+  <si>
+    <t>obj5IMG035.bmp</t>
+  </si>
+  <si>
+    <t>obj6IMG035.bmp</t>
+  </si>
+  <si>
+    <t>obj7IMG035.bmp</t>
+  </si>
+  <si>
+    <t>obj1IMG036.bmp</t>
+  </si>
+  <si>
+    <t>obj2IMG036.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG036.bmp</t>
+  </si>
+  <si>
+    <t>obj4IMG036.bmp</t>
+  </si>
+  <si>
+    <t>obj5IMG036.bmp</t>
+  </si>
+  <si>
+    <t>obj1IMG037.bmp</t>
+  </si>
+  <si>
+    <t>obj2IMG037.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG037.bmp</t>
+  </si>
+  <si>
+    <t>obj4IMG037.bmp</t>
+  </si>
+  <si>
+    <t>obj5IMG037.bmp</t>
+  </si>
+  <si>
+    <t>obj6IMG037.bmp</t>
+  </si>
+  <si>
+    <t>obj7IMG037.bmp</t>
+  </si>
+  <si>
+    <t>obj1IMG038.bmp</t>
+  </si>
+  <si>
+    <t>obj2IMG038.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG038.bmp</t>
+  </si>
+  <si>
+    <t>obj4IMG038.bmp</t>
+  </si>
+  <si>
+    <t>obj5IMG038.bmp</t>
+  </si>
+  <si>
+    <t>obj6IMG038.bmp</t>
+  </si>
+  <si>
+    <t>obj7IMG038.bmp</t>
+  </si>
+  <si>
+    <t>obj8IMG038.bmp</t>
+  </si>
+  <si>
+    <t>obj1IMG039.bmp</t>
+  </si>
+  <si>
+    <t>obj2IMG039.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG039.bmp</t>
+  </si>
+  <si>
+    <t>obj4IMG039.bmp</t>
+  </si>
+  <si>
+    <t>obj5IMG039.bmp</t>
+  </si>
+  <si>
+    <t>obj6IMG039.bmp</t>
+  </si>
+  <si>
+    <t>obj7IMG039.bmp</t>
+  </si>
+  <si>
+    <t>obj8IMG039.bmp</t>
+  </si>
+  <si>
+    <t>obj9IMG039.bmp</t>
+  </si>
+  <si>
+    <t>obj1IMG040.bmp</t>
+  </si>
+  <si>
+    <t>obj2IMG040.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG040.bmp</t>
+  </si>
+  <si>
+    <t>obj1IMG041.bmp</t>
+  </si>
+  <si>
+    <t>obj2IMG041.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG041.bmp</t>
+  </si>
+  <si>
+    <t>obj1IMG042.bmp</t>
+  </si>
+  <si>
+    <t>obj2IMG042.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG042.bmp</t>
+  </si>
+  <si>
+    <t>obj4IMG042.bmp</t>
+  </si>
+  <si>
+    <t>obj5IMG042.bmp</t>
+  </si>
+  <si>
+    <t>obj1IMG043.bmp</t>
+  </si>
+  <si>
+    <t>obj2IMG043.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG043.bmp</t>
+  </si>
+  <si>
+    <t>obj4IMG043.bmp</t>
+  </si>
+  <si>
+    <t>obj1IMG044.bmp</t>
+  </si>
+  <si>
+    <t>obj2IMG044.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG044.bmp</t>
+  </si>
+  <si>
+    <t>obj4IMG044.bmp</t>
+  </si>
+  <si>
+    <t>obj5IMG044.bmp</t>
+  </si>
+  <si>
+    <t>obj1IMG045.bmp</t>
+  </si>
+  <si>
+    <t>obj2IMG045.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG045.bmp</t>
+  </si>
+  <si>
+    <t>obj1IMG046.bmp</t>
+  </si>
+  <si>
+    <t>obj2IMG046.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG046.bmp</t>
+  </si>
+  <si>
+    <t>obj1IMG047.bmp</t>
+  </si>
+  <si>
+    <t>obj2IMG047.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG047.bmp</t>
+  </si>
+  <si>
+    <t>obj4IMG047.bmp</t>
+  </si>
+  <si>
+    <t>obj5IMG047.bmp</t>
+  </si>
+  <si>
+    <t>obj1IMG048.bmp</t>
+  </si>
+  <si>
+    <t>obj2IMG048.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG048.bmp</t>
+  </si>
+  <si>
+    <t>obj4IMG048.bmp</t>
+  </si>
+  <si>
+    <t>obj5IMG048.bmp</t>
+  </si>
+  <si>
+    <t>obj1IMG049.bmp</t>
+  </si>
+  <si>
+    <t>obj2IMG049.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG049.bmp</t>
+  </si>
+  <si>
+    <t>obj4IMG049.bmp</t>
+  </si>
+  <si>
+    <t>obj5IMG049.bmp</t>
+  </si>
+  <si>
+    <t>obj6IMG049.bmp</t>
+  </si>
+  <si>
+    <t>obj1IMG050.bmp</t>
+  </si>
+  <si>
+    <t>obj2IMG050.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG050.bmp</t>
+  </si>
+  <si>
+    <t>obj1IMG051.bmp</t>
+  </si>
+  <si>
+    <t>obj2IMG051.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG051.bmp</t>
+  </si>
+  <si>
+    <t>obj1IMG052.bmp</t>
+  </si>
+  <si>
+    <t>obj2IMG052.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG052.bmp</t>
+  </si>
+  <si>
+    <t>obj4IMG052.bmp</t>
+  </si>
+  <si>
+    <t>obj5IMG052.bmp</t>
+  </si>
+  <si>
+    <t>obj1IMG053.bmp</t>
+  </si>
+  <si>
+    <t>obj2IMG053.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG053.bmp</t>
+  </si>
+  <si>
+    <t>obj4IMG053.bmp</t>
+  </si>
+  <si>
+    <t>obj5IMG053.bmp</t>
+  </si>
+  <si>
+    <t>obj1IMG054.bmp</t>
+  </si>
+  <si>
+    <t>obj2IMG054.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG054.bmp</t>
+  </si>
+  <si>
+    <t>obj4IMG054.bmp</t>
+  </si>
+  <si>
+    <t>obj5IMG054.bmp</t>
+  </si>
+  <si>
+    <t>obj1IMG055.bmp</t>
+  </si>
+  <si>
+    <t>obj2IMG055.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG055.bmp</t>
+  </si>
+  <si>
+    <t>obj4IMG055.bmp</t>
   </si>
   <si>
     <t>perimetro</t>
@@ -280,12 +724,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E218"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="true"/>
     <col min="2" max="2" width="10.140625" customWidth="true"/>
-    <col min="3" max="3" width="6.140625" customWidth="true"/>
+    <col min="3" max="3" width="7.140625" customWidth="true"/>
     <col min="4" max="4" width="13.7109375" customWidth="true"/>
     <col min="5" max="5" width="11.5703125" customWidth="true"/>
   </cols>
@@ -295,16 +739,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>70</v>
+        <v>218</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>71</v>
+        <v>219</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>72</v>
+        <v>220</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>73</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2">
@@ -618,16 +1062,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="0">
-        <v>331.04300000000001</v>
+        <v>3801.7599999999998</v>
       </c>
       <c r="C20" s="0">
-        <v>548</v>
+        <v>155753</v>
       </c>
       <c r="D20" s="0">
-        <v>0.062837891558679235</v>
+        <v>0.13541815440399596</v>
       </c>
       <c r="E20" s="0">
-        <v>1091</v>
+        <v>225472</v>
       </c>
     </row>
     <row r="21">
@@ -635,16 +1079,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="0">
-        <v>41.433999999999997</v>
+        <v>2072.587</v>
       </c>
       <c r="C21" s="0">
-        <v>32</v>
+        <v>54073</v>
       </c>
       <c r="D21" s="0">
-        <v>0.23423194189161675</v>
+        <v>0.15818481451858782</v>
       </c>
       <c r="E21" s="0">
-        <v>47</v>
+        <v>86847</v>
       </c>
     </row>
     <row r="22">
@@ -652,16 +1096,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="0">
-        <v>69.271999999999991</v>
+        <v>1483.6579999999999</v>
       </c>
       <c r="C22" s="0">
-        <v>54</v>
+        <v>56907</v>
       </c>
       <c r="D22" s="0">
-        <v>0.14141262062097096</v>
+        <v>0.32486875937075427</v>
       </c>
       <c r="E22" s="0">
-        <v>86</v>
+        <v>80378</v>
       </c>
     </row>
     <row r="23">
@@ -669,16 +1113,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="0">
-        <v>89.111999999999995</v>
+        <v>195.52699999999996</v>
       </c>
       <c r="C23" s="0">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="D23" s="0">
-        <v>0.12026827291468938</v>
+        <v>0.092035297735850494</v>
       </c>
       <c r="E23" s="0">
-        <v>146</v>
+        <v>446</v>
       </c>
     </row>
     <row r="24">
@@ -686,16 +1130,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="0">
-        <v>64.730999999999995</v>
+        <v>174.90799999999999</v>
       </c>
       <c r="C24" s="0">
-        <v>53</v>
+        <v>307</v>
       </c>
       <c r="D24" s="0">
-        <v>0.15895020817631914</v>
+        <v>0.12610400850082173</v>
       </c>
       <c r="E24" s="0">
-        <v>94</v>
+        <v>477</v>
       </c>
     </row>
     <row r="25">
@@ -703,16 +1147,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="0">
-        <v>65.120000000000005</v>
+        <v>140.65299999999999</v>
       </c>
       <c r="C25" s="0">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="D25" s="0">
-        <v>0.18076357224932063</v>
+        <v>0.094645099693330279</v>
       </c>
       <c r="E25" s="0">
-        <v>139</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26">
@@ -720,16 +1164,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="0">
-        <v>68.875</v>
+        <v>98.846000000000004</v>
       </c>
       <c r="C26" s="0">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="D26" s="0">
-        <v>0.30993634131745773</v>
+        <v>0.17748871762442017</v>
       </c>
       <c r="E26" s="0">
-        <v>156</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27">
@@ -737,16 +1181,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="0">
-        <v>118.53799999999998</v>
+        <v>241.51900000000001</v>
       </c>
       <c r="C27" s="0">
-        <v>251</v>
+        <v>480</v>
       </c>
       <c r="D27" s="0">
-        <v>0.22447521417743327</v>
+        <v>0.10340665688776307</v>
       </c>
       <c r="E27" s="0">
-        <v>328</v>
+        <v>793</v>
       </c>
     </row>
     <row r="28">
@@ -754,16 +1198,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="0">
-        <v>70.536999999999992</v>
+        <v>141.38</v>
       </c>
       <c r="C28" s="0">
-        <v>95</v>
+        <v>323</v>
       </c>
       <c r="D28" s="0">
-        <v>0.23993825702967134</v>
+        <v>0.20306563414343506</v>
       </c>
       <c r="E28" s="0">
-        <v>141</v>
+        <v>519</v>
       </c>
     </row>
     <row r="29">
@@ -771,16 +1215,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="0">
-        <v>61.174999999999997</v>
+        <v>128.55300000000003</v>
       </c>
       <c r="C29" s="0">
-        <v>43</v>
+        <v>203</v>
       </c>
       <c r="D29" s="0">
-        <v>0.14438775489797873</v>
+        <v>0.15436238132991487</v>
       </c>
       <c r="E29" s="0">
-        <v>91</v>
+        <v>363</v>
       </c>
     </row>
     <row r="30">
@@ -788,16 +1232,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="0">
-        <v>241.51900000000001</v>
+        <v>63.548999999999992</v>
       </c>
       <c r="C30" s="0">
-        <v>480</v>
+        <v>151</v>
       </c>
       <c r="D30" s="0">
-        <v>0.10340665688776307</v>
+        <v>0.46986096839871166</v>
       </c>
       <c r="E30" s="0">
-        <v>793</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31">
@@ -805,16 +1249,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="0">
-        <v>141.38</v>
+        <v>93.98299999999999</v>
       </c>
       <c r="C31" s="0">
-        <v>323</v>
+        <v>171</v>
       </c>
       <c r="D31" s="0">
-        <v>0.20306563414343506</v>
+        <v>0.24328053749945586</v>
       </c>
       <c r="E31" s="0">
-        <v>519</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32">
@@ -822,16 +1266,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="0">
-        <v>128.55300000000003</v>
+        <v>773.25799999999992</v>
       </c>
       <c r="C32" s="0">
-        <v>203</v>
+        <v>13090</v>
       </c>
       <c r="D32" s="0">
-        <v>0.15436238132991487</v>
+        <v>0.27510638294882139</v>
       </c>
       <c r="E32" s="0">
-        <v>363</v>
+        <v>19878</v>
       </c>
     </row>
     <row r="33">
@@ -839,16 +1283,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="0">
-        <v>63.548999999999992</v>
+        <v>467.37299999999999</v>
       </c>
       <c r="C33" s="0">
-        <v>151</v>
+        <v>6489</v>
       </c>
       <c r="D33" s="0">
-        <v>0.46986096839871166</v>
+        <v>0.37330207051938069</v>
       </c>
       <c r="E33" s="0">
-        <v>210</v>
+        <v>9343</v>
       </c>
     </row>
     <row r="34">
@@ -856,16 +1300,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="0">
-        <v>93.98299999999999</v>
+        <v>559.4129999999999</v>
       </c>
       <c r="C34" s="0">
-        <v>171</v>
+        <v>8266</v>
       </c>
       <c r="D34" s="0">
-        <v>0.24328053749945586</v>
+        <v>0.33192514666965428</v>
       </c>
       <c r="E34" s="0">
-        <v>258</v>
+        <v>12565</v>
       </c>
     </row>
     <row r="35">
@@ -873,16 +1317,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="0">
-        <v>1513.2239999999999</v>
+        <v>505.75599999999997</v>
       </c>
       <c r="C35" s="0">
-        <v>23466</v>
+        <v>7107</v>
       </c>
       <c r="D35" s="0">
-        <v>0.12877824109643385</v>
+        <v>0.34915164463772841</v>
       </c>
       <c r="E35" s="0">
-        <v>26712</v>
+        <v>10335</v>
       </c>
     </row>
     <row r="36">
@@ -890,16 +1334,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="0">
-        <v>50.489999999999995</v>
+        <v>560.54500000000007</v>
       </c>
       <c r="C36" s="0">
-        <v>47</v>
+        <v>8113</v>
       </c>
       <c r="D36" s="0">
-        <v>0.23168450036341467</v>
+        <v>0.32446688085283193</v>
       </c>
       <c r="E36" s="0">
-        <v>81</v>
+        <v>12270</v>
       </c>
     </row>
     <row r="37">
@@ -907,16 +1351,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="0">
-        <v>1553.5029999999997</v>
+        <v>554.98199999999997</v>
       </c>
       <c r="C37" s="0">
-        <v>21114</v>
+        <v>8044</v>
       </c>
       <c r="D37" s="0">
-        <v>0.10994011545460035</v>
+        <v>0.32818908313757977</v>
       </c>
       <c r="E37" s="0">
-        <v>25999</v>
+        <v>12215</v>
       </c>
     </row>
     <row r="38">
@@ -924,16 +1368,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="0">
-        <v>215.38399999999999</v>
+        <v>772.03200000000004</v>
       </c>
       <c r="C38" s="0">
-        <v>190</v>
+        <v>12721</v>
       </c>
       <c r="D38" s="0">
-        <v>0.051467916605413659</v>
+        <v>0.26820107424351808</v>
       </c>
       <c r="E38" s="0">
-        <v>509</v>
+        <v>19614</v>
       </c>
     </row>
     <row r="39">
@@ -941,16 +1385,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="0">
-        <v>1408.0329999999999</v>
+        <v>717.29899999999998</v>
       </c>
       <c r="C39" s="0">
-        <v>21579</v>
+        <v>12133</v>
       </c>
       <c r="D39" s="0">
-        <v>0.13677776789585616</v>
+        <v>0.29633135772361291</v>
       </c>
       <c r="E39" s="0">
-        <v>26168</v>
+        <v>18483</v>
       </c>
     </row>
     <row r="40">
@@ -958,16 +1402,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="0">
-        <v>193.12200000000001</v>
+        <v>759.048</v>
       </c>
       <c r="C40" s="0">
-        <v>92</v>
+        <v>13817</v>
       </c>
       <c r="D40" s="0">
-        <v>0.03099803687598858</v>
+        <v>0.3013596765260399</v>
       </c>
       <c r="E40" s="0">
-        <v>283</v>
+        <v>21055</v>
       </c>
     </row>
     <row r="41">
@@ -975,16 +1419,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="0">
-        <v>1504.356</v>
+        <v>622.19100000000003</v>
       </c>
       <c r="C41" s="0">
-        <v>18721</v>
+        <v>9492</v>
       </c>
       <c r="D41" s="0">
-        <v>0.10395315199888051</v>
+        <v>0.30812018083848647</v>
       </c>
       <c r="E41" s="0">
-        <v>21443</v>
+        <v>13880</v>
       </c>
     </row>
     <row r="42">
@@ -992,16 +1436,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="0">
-        <v>56.709999999999994</v>
+        <v>811.15199999999993</v>
       </c>
       <c r="C42" s="0">
-        <v>52</v>
+        <v>14612</v>
       </c>
       <c r="D42" s="0">
-        <v>0.2031860619286644</v>
+        <v>0.27907121353291997</v>
       </c>
       <c r="E42" s="0">
-        <v>102</v>
+        <v>21820</v>
       </c>
     </row>
     <row r="43">
@@ -1009,16 +1453,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="0">
-        <v>1426.5839999999998</v>
+        <v>677.42999999999995</v>
       </c>
       <c r="C43" s="0">
-        <v>19418</v>
+        <v>13027</v>
       </c>
       <c r="D43" s="0">
-        <v>0.11990013251843072</v>
+        <v>0.35671833004221981</v>
       </c>
       <c r="E43" s="0">
-        <v>21807</v>
+        <v>18387</v>
       </c>
     </row>
     <row r="44">
@@ -1026,16 +1470,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="0">
-        <v>214.18699999999998</v>
+        <v>617.64300000000003</v>
       </c>
       <c r="C44" s="0">
-        <v>507</v>
+        <v>10645</v>
       </c>
       <c r="D44" s="0">
-        <v>0.13887740965840994</v>
+        <v>0.35065536043369994</v>
       </c>
       <c r="E44" s="0">
-        <v>1400</v>
+        <v>15307</v>
       </c>
     </row>
     <row r="45">
@@ -1043,16 +1487,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="0">
-        <v>194.25599999999997</v>
+        <v>760.83299999999997</v>
       </c>
       <c r="C45" s="0">
-        <v>527</v>
+        <v>14805</v>
       </c>
       <c r="D45" s="0">
-        <v>0.17549776730032948</v>
+        <v>0.32139535317263551</v>
       </c>
       <c r="E45" s="0">
-        <v>1417</v>
+        <v>22045</v>
       </c>
     </row>
     <row r="46">
@@ -1060,16 +1504,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="0">
-        <v>200.071</v>
+        <v>1051.5289999999998</v>
       </c>
       <c r="C46" s="0">
-        <v>515</v>
+        <v>8442</v>
       </c>
       <c r="D46" s="0">
-        <v>0.16167721046507372</v>
+        <v>0.095942869358750571</v>
       </c>
       <c r="E46" s="0">
-        <v>1437</v>
+        <v>21225</v>
       </c>
     </row>
     <row r="47">
@@ -1077,16 +1521,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="0">
-        <v>276.55199999999996</v>
+        <v>214.18699999999998</v>
       </c>
       <c r="C47" s="0">
-        <v>686</v>
+        <v>507</v>
       </c>
       <c r="D47" s="0">
-        <v>0.11271465148706304</v>
+        <v>0.13887740965840994</v>
       </c>
       <c r="E47" s="0">
-        <v>1917</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="48">
@@ -1094,16 +1538,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="0">
-        <v>261.12</v>
+        <v>194.25599999999997</v>
       </c>
       <c r="C48" s="0">
-        <v>703</v>
+        <v>527</v>
       </c>
       <c r="D48" s="0">
-        <v>0.12956416929589648</v>
+        <v>0.17549776730032948</v>
       </c>
       <c r="E48" s="0">
-        <v>1922</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="49">
@@ -1111,16 +1555,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="0">
-        <v>258.64699999999999</v>
+        <v>200.071</v>
       </c>
       <c r="C49" s="0">
-        <v>701</v>
+        <v>515</v>
       </c>
       <c r="D49" s="0">
-        <v>0.13167793009406553</v>
+        <v>0.16167721046507372</v>
       </c>
       <c r="E49" s="0">
-        <v>1924</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="50">
@@ -1128,16 +1572,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="0">
-        <v>198.87900000000002</v>
+        <v>276.55199999999996</v>
       </c>
       <c r="C50" s="0">
-        <v>513</v>
+        <v>686</v>
       </c>
       <c r="D50" s="0">
-        <v>0.16298565192593051</v>
+        <v>0.11271465148706304</v>
       </c>
       <c r="E50" s="0">
-        <v>1402</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="51">
@@ -1145,16 +1589,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="0">
-        <v>199.15200000000002</v>
+        <v>261.12</v>
       </c>
       <c r="C51" s="0">
-        <v>520</v>
+        <v>703</v>
       </c>
       <c r="D51" s="0">
-        <v>0.16475699537206431</v>
+        <v>0.12956416929589648</v>
       </c>
       <c r="E51" s="0">
-        <v>1422</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="52">
@@ -1162,16 +1606,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="0">
-        <v>198.65700000000001</v>
+        <v>258.64699999999999</v>
       </c>
       <c r="C52" s="0">
-        <v>495</v>
+        <v>701</v>
       </c>
       <c r="D52" s="0">
-        <v>0.15761854621503107</v>
+        <v>0.13167793009406553</v>
       </c>
       <c r="E52" s="0">
-        <v>1411</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="53">
@@ -1179,16 +1623,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="0">
-        <v>195.07499999999999</v>
+        <v>198.87900000000002</v>
       </c>
       <c r="C53" s="0">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D53" s="0">
-        <v>0.16874368657257205</v>
+        <v>0.16298565192593051</v>
       </c>
       <c r="E53" s="0">
-        <v>1390</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="54">
@@ -1196,16 +1640,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="0">
-        <v>197.15100000000001</v>
+        <v>199.15200000000002</v>
       </c>
       <c r="C54" s="0">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D54" s="0">
-        <v>0.16973491955753839</v>
+        <v>0.16475699537206431</v>
       </c>
       <c r="E54" s="0">
-        <v>1446</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="55">
@@ -1213,16 +1657,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="0">
-        <v>196.084</v>
+        <v>198.65700000000001</v>
       </c>
       <c r="C55" s="0">
-        <v>533</v>
+        <v>495</v>
       </c>
       <c r="D55" s="0">
-        <v>0.17420184792369761</v>
+        <v>0.15761854621503107</v>
       </c>
       <c r="E55" s="0">
-        <v>1443</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="56">
@@ -1230,16 +1674,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="0">
-        <v>200.27799999999999</v>
+        <v>195.07499999999999</v>
       </c>
       <c r="C56" s="0">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="D56" s="0">
-        <v>0.15821029869778661</v>
+        <v>0.16874368657257205</v>
       </c>
       <c r="E56" s="0">
-        <v>1429</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="57">
@@ -1247,16 +1691,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="0">
-        <v>199.61599999999999</v>
+        <v>197.15100000000001</v>
       </c>
       <c r="C57" s="0">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="D57" s="0">
-        <v>0.16399194250599544</v>
+        <v>0.16973491955753839</v>
       </c>
       <c r="E57" s="0">
-        <v>1413</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="58">
@@ -1264,16 +1708,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="0">
-        <v>219.745</v>
+        <v>196.084</v>
       </c>
       <c r="C58" s="0">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="D58" s="0">
-        <v>0.13428316272944049</v>
+        <v>0.17420184792369761</v>
       </c>
       <c r="E58" s="0">
-        <v>1441</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="59">
@@ -1281,16 +1725,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="0">
-        <v>2623.6090000000004</v>
+        <v>200.27799999999999</v>
       </c>
       <c r="C59" s="0">
-        <v>36124</v>
+        <v>505</v>
       </c>
       <c r="D59" s="0">
-        <v>0.065948887467801073</v>
+        <v>0.15821029869778661</v>
       </c>
       <c r="E59" s="0">
-        <v>42034</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="60">
@@ -1298,16 +1742,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="0">
-        <v>58.859999999999999</v>
+        <v>199.61599999999999</v>
       </c>
       <c r="C60" s="0">
-        <v>34</v>
+        <v>520</v>
       </c>
       <c r="D60" s="0">
-        <v>0.12332418825743605</v>
+        <v>0.16399194250599544</v>
       </c>
       <c r="E60" s="0">
-        <v>85</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="61">
@@ -1315,16 +1759,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="0">
-        <v>811.11799999999994</v>
+        <v>219.745</v>
       </c>
       <c r="C61" s="0">
-        <v>1189</v>
+        <v>516</v>
       </c>
       <c r="D61" s="0">
-        <v>0.022710340214131305</v>
+        <v>0.13428316272944049</v>
       </c>
       <c r="E61" s="0">
-        <v>2377</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="62">
@@ -1332,16 +1776,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="0">
-        <v>1582.9349999999997</v>
+        <v>789.82099999999991</v>
       </c>
       <c r="C62" s="0">
-        <v>12071</v>
+        <v>35499</v>
       </c>
       <c r="D62" s="0">
-        <v>0.060537844059767323</v>
+        <v>0.71510304914417322</v>
       </c>
       <c r="E62" s="0">
-        <v>15564</v>
+        <v>39544</v>
       </c>
     </row>
     <row r="63">
@@ -1349,16 +1793,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="0">
-        <v>132.80600000000001</v>
+        <v>733.89400000000001</v>
       </c>
       <c r="C63" s="0">
-        <v>78</v>
+        <v>25297</v>
       </c>
       <c r="D63" s="0">
-        <v>0.055573669511609851</v>
+        <v>0.59021767440480843</v>
       </c>
       <c r="E63" s="0">
-        <v>210</v>
+        <v>28798</v>
       </c>
     </row>
     <row r="64">
@@ -1366,16 +1810,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="0">
-        <v>55.940000000000005</v>
+        <v>662.60200000000009</v>
       </c>
       <c r="C64" s="0">
-        <v>77</v>
+        <v>24830</v>
       </c>
       <c r="D64" s="0">
-        <v>0.30921151962885568</v>
+        <v>0.71069146317523624</v>
       </c>
       <c r="E64" s="0">
-        <v>112</v>
+        <v>27547</v>
       </c>
     </row>
     <row r="65">
@@ -1383,16 +1827,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="0">
-        <v>145.53399999999999</v>
+        <v>670.96699999999998</v>
       </c>
       <c r="C65" s="0">
-        <v>184</v>
+        <v>23730</v>
       </c>
       <c r="D65" s="0">
-        <v>0.10916885488799753</v>
+        <v>0.66237705581612605</v>
       </c>
       <c r="E65" s="0">
-        <v>320</v>
+        <v>26837</v>
       </c>
     </row>
     <row r="66">
@@ -1400,16 +1844,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="0">
-        <v>162.33499999999998</v>
+        <v>677.78899999999999</v>
       </c>
       <c r="C66" s="0">
-        <v>1495</v>
+        <v>24178</v>
       </c>
       <c r="D66" s="0">
-        <v>0.71289689963898761</v>
+        <v>0.66136499503194313</v>
       </c>
       <c r="E66" s="0">
-        <v>1718</v>
+        <v>26986</v>
       </c>
     </row>
     <row r="67">
@@ -1417,16 +1861,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="0">
-        <v>160.93899999999999</v>
+        <v>691.38800000000003</v>
       </c>
       <c r="C67" s="0">
-        <v>1530</v>
+        <v>25294</v>
       </c>
       <c r="D67" s="0">
-        <v>0.74229869638016999</v>
+        <v>0.66494190497228189</v>
       </c>
       <c r="E67" s="0">
-        <v>1721</v>
+        <v>28311</v>
       </c>
     </row>
     <row r="68">
@@ -1434,16 +1878,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="0">
-        <v>163.68600000000001</v>
+        <v>704.78899999999999</v>
       </c>
       <c r="C68" s="0">
-        <v>1600</v>
+        <v>27645</v>
       </c>
       <c r="D68" s="0">
-        <v>0.75042410296596107</v>
+        <v>0.69937197254216743</v>
       </c>
       <c r="E68" s="0">
-        <v>1784</v>
+        <v>30919</v>
       </c>
     </row>
     <row r="69">
@@ -1451,16 +1895,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="0">
-        <v>1298.7820000000002</v>
+        <v>702.19399999999996</v>
       </c>
       <c r="C69" s="0">
-        <v>14254</v>
+        <v>27930</v>
       </c>
       <c r="D69" s="0">
-        <v>0.1061876711966049</v>
+        <v>0.71181407496435645</v>
       </c>
       <c r="E69" s="0">
-        <v>18827</v>
+        <v>31102</v>
       </c>
     </row>
     <row r="70">
@@ -1468,16 +1912,2532 @@
         <v>69</v>
       </c>
       <c r="B70" s="0">
-        <v>1109.625</v>
+        <v>734.73799999999994</v>
       </c>
       <c r="C70" s="0">
-        <v>18173</v>
+        <v>30458</v>
       </c>
       <c r="D70" s="0">
-        <v>0.18547442135231276</v>
+        <v>0.70900001252881706</v>
       </c>
       <c r="E70" s="0">
-        <v>20869</v>
+        <v>34264</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="0">
+        <v>784.82999999999993</v>
+      </c>
+      <c r="C71" s="0">
+        <v>29493</v>
+      </c>
+      <c r="D71" s="0">
+        <v>0.60169669193450126</v>
+      </c>
+      <c r="E71" s="0">
+        <v>33034</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="0">
+        <v>676.029</v>
+      </c>
+      <c r="C72" s="0">
+        <v>24261</v>
+      </c>
+      <c r="D72" s="0">
+        <v>0.66709534294959549</v>
+      </c>
+      <c r="E72" s="0">
+        <v>27121</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="0">
+        <v>671.53599999999994</v>
+      </c>
+      <c r="C73" s="0">
+        <v>25679</v>
+      </c>
+      <c r="D73" s="0">
+        <v>0.71556546516455621</v>
+      </c>
+      <c r="E73" s="0">
+        <v>28543</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="0">
+        <v>652.97900000000004</v>
+      </c>
+      <c r="C74" s="0">
+        <v>23596</v>
+      </c>
+      <c r="D74" s="0">
+        <v>0.69542423685911181</v>
+      </c>
+      <c r="E74" s="0">
+        <v>26365</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="0">
+        <v>620.73299999999995</v>
+      </c>
+      <c r="C75" s="0">
+        <v>21567</v>
+      </c>
+      <c r="D75" s="0">
+        <v>0.70337986756605231</v>
+      </c>
+      <c r="E75" s="0">
+        <v>24156</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="0">
+        <v>647.95999999999992</v>
+      </c>
+      <c r="C76" s="0">
+        <v>24303</v>
+      </c>
+      <c r="D76" s="0">
+        <v>0.72740010168562885</v>
+      </c>
+      <c r="E76" s="0">
+        <v>27028</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="0">
+        <v>754.73299999999995</v>
+      </c>
+      <c r="C77" s="0">
+        <v>32087</v>
+      </c>
+      <c r="D77" s="0">
+        <v>0.70786803139152643</v>
+      </c>
+      <c r="E77" s="0">
+        <v>35615</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="0">
+        <v>746.03200000000004</v>
+      </c>
+      <c r="C78" s="0">
+        <v>14909</v>
+      </c>
+      <c r="D78" s="0">
+        <v>0.3366227519570143</v>
+      </c>
+      <c r="E78" s="0">
+        <v>21155</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="0">
+        <v>607.27700000000004</v>
+      </c>
+      <c r="C79" s="0">
+        <v>11445</v>
+      </c>
+      <c r="D79" s="0">
+        <v>0.38998867454220798</v>
+      </c>
+      <c r="E79" s="0">
+        <v>16094</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" s="0">
+        <v>582.80799999999999</v>
+      </c>
+      <c r="C80" s="0">
+        <v>9758</v>
+      </c>
+      <c r="D80" s="0">
+        <v>0.36101036296734823</v>
+      </c>
+      <c r="E80" s="0">
+        <v>13735</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" s="0">
+        <v>687.21899999999994</v>
+      </c>
+      <c r="C81" s="0">
+        <v>26777</v>
+      </c>
+      <c r="D81" s="0">
+        <v>0.71249441790337331</v>
+      </c>
+      <c r="E81" s="0">
+        <v>29678</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="0">
+        <v>866.74799999999982</v>
+      </c>
+      <c r="C82" s="0">
+        <v>33932</v>
+      </c>
+      <c r="D82" s="0">
+        <v>0.56758855015288967</v>
+      </c>
+      <c r="E82" s="0">
+        <v>37793</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" s="0">
+        <v>807.21199999999999</v>
+      </c>
+      <c r="C83" s="0">
+        <v>14807</v>
+      </c>
+      <c r="D83" s="0">
+        <v>0.28556285902954276</v>
+      </c>
+      <c r="E83" s="0">
+        <v>20885</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="0">
+        <v>826.60199999999998</v>
+      </c>
+      <c r="C84" s="0">
+        <v>39413</v>
+      </c>
+      <c r="D84" s="0">
+        <v>0.72486387079599712</v>
+      </c>
+      <c r="E84" s="0">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" s="0">
+        <v>851.67600000000004</v>
+      </c>
+      <c r="C85" s="0">
+        <v>40726</v>
+      </c>
+      <c r="D85" s="0">
+        <v>0.70555813357832031</v>
+      </c>
+      <c r="E85" s="0">
+        <v>45097</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" s="0">
+        <v>842.40899999999999</v>
+      </c>
+      <c r="C86" s="0">
+        <v>40229</v>
+      </c>
+      <c r="D86" s="0">
+        <v>0.71236587190789369</v>
+      </c>
+      <c r="E86" s="0">
+        <v>44906</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" s="0">
+        <v>815.67200000000003</v>
+      </c>
+      <c r="C87" s="0">
+        <v>19199</v>
+      </c>
+      <c r="D87" s="0">
+        <v>0.36262468454982527</v>
+      </c>
+      <c r="E87" s="0">
+        <v>26704</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" s="0">
+        <v>830.28399999999999</v>
+      </c>
+      <c r="C88" s="0">
+        <v>19461</v>
+      </c>
+      <c r="D88" s="0">
+        <v>0.35474940753764855</v>
+      </c>
+      <c r="E88" s="0">
+        <v>27997</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" s="0">
+        <v>936.57299999999998</v>
+      </c>
+      <c r="C89" s="0">
+        <v>20998</v>
+      </c>
+      <c r="D89" s="0">
+        <v>0.30081849093440427</v>
+      </c>
+      <c r="E89" s="0">
+        <v>30196</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" s="0">
+        <v>891.23599999999999</v>
+      </c>
+      <c r="C90" s="0">
+        <v>45147</v>
+      </c>
+      <c r="D90" s="0">
+        <v>0.71425504950457952</v>
+      </c>
+      <c r="E90" s="0">
+        <v>50225</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" s="0">
+        <v>1180.0709999999999</v>
+      </c>
+      <c r="C91" s="0">
+        <v>28171</v>
+      </c>
+      <c r="D91" s="0">
+        <v>0.25421188563061903</v>
+      </c>
+      <c r="E91" s="0">
+        <v>42801</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" s="0">
+        <v>828.61899999999991</v>
+      </c>
+      <c r="C92" s="0">
+        <v>19954</v>
+      </c>
+      <c r="D92" s="0">
+        <v>0.36519940160410558</v>
+      </c>
+      <c r="E92" s="0">
+        <v>27650</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" s="0">
+        <v>883.44100000000003</v>
+      </c>
+      <c r="C93" s="0">
+        <v>21286</v>
+      </c>
+      <c r="D93" s="0">
+        <v>0.34272739527103924</v>
+      </c>
+      <c r="E93" s="0">
+        <v>29976</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" s="0">
+        <v>712.13400000000001</v>
+      </c>
+      <c r="C94" s="0">
+        <v>29299</v>
+      </c>
+      <c r="D94" s="0">
+        <v>0.7260043443634826</v>
+      </c>
+      <c r="E94" s="0">
+        <v>32563</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" s="0">
+        <v>956.65700000000004</v>
+      </c>
+      <c r="C95" s="0">
+        <v>7786</v>
+      </c>
+      <c r="D95" s="0">
+        <v>0.10690838183174912</v>
+      </c>
+      <c r="E95" s="0">
+        <v>17177</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" s="0">
+        <v>664.41899999999998</v>
+      </c>
+      <c r="C96" s="0">
+        <v>11174</v>
+      </c>
+      <c r="D96" s="0">
+        <v>0.31807859516481984</v>
+      </c>
+      <c r="E96" s="0">
+        <v>15875</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" s="0">
+        <v>743.56400000000008</v>
+      </c>
+      <c r="C97" s="0">
+        <v>29844</v>
+      </c>
+      <c r="D97" s="0">
+        <v>0.67831306994322793</v>
+      </c>
+      <c r="E97" s="0">
+        <v>33416</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" s="0">
+        <v>691.40499999999997</v>
+      </c>
+      <c r="C98" s="0">
+        <v>25842</v>
+      </c>
+      <c r="D98" s="0">
+        <v>0.67931460898317853</v>
+      </c>
+      <c r="E98" s="0">
+        <v>28786</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" s="0">
+        <v>734.17999999999995</v>
+      </c>
+      <c r="C99" s="0">
+        <v>12798</v>
+      </c>
+      <c r="D99" s="0">
+        <v>0.29836430902031635</v>
+      </c>
+      <c r="E99" s="0">
+        <v>18405</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" s="0">
+        <v>740.18299999999988</v>
+      </c>
+      <c r="C100" s="0">
+        <v>31086</v>
+      </c>
+      <c r="D100" s="0">
+        <v>0.71301143357060115</v>
+      </c>
+      <c r="E100" s="0">
+        <v>34711</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" s="0">
+        <v>815.16099999999994</v>
+      </c>
+      <c r="C101" s="0">
+        <v>34541</v>
+      </c>
+      <c r="D101" s="0">
+        <v>0.65321775982808694</v>
+      </c>
+      <c r="E101" s="0">
+        <v>38706</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" s="0">
+        <v>748.60599999999999</v>
+      </c>
+      <c r="C102" s="0">
+        <v>31737</v>
+      </c>
+      <c r="D102" s="0">
+        <v>0.71165438327275243</v>
+      </c>
+      <c r="E102" s="0">
+        <v>35231</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" s="0">
+        <v>796.67499999999984</v>
+      </c>
+      <c r="C103" s="0">
+        <v>36560</v>
+      </c>
+      <c r="D103" s="0">
+        <v>0.72385849081890707</v>
+      </c>
+      <c r="E103" s="0">
+        <v>40740</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" s="0">
+        <v>762.87300000000005</v>
+      </c>
+      <c r="C104" s="0">
+        <v>15454</v>
+      </c>
+      <c r="D104" s="0">
+        <v>0.33369237513826544</v>
+      </c>
+      <c r="E104" s="0">
+        <v>22136</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" s="0">
+        <v>862.178</v>
+      </c>
+      <c r="C105" s="0">
+        <v>40836</v>
+      </c>
+      <c r="D105" s="0">
+        <v>0.69033387578434513</v>
+      </c>
+      <c r="E105" s="0">
+        <v>45238</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" s="0">
+        <v>820.09300000000007</v>
+      </c>
+      <c r="C106" s="0">
+        <v>38051</v>
+      </c>
+      <c r="D106" s="0">
+        <v>0.71096746778649078</v>
+      </c>
+      <c r="E106" s="0">
+        <v>42492</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" s="0">
+        <v>731.97299999999996</v>
+      </c>
+      <c r="C107" s="0">
+        <v>14194</v>
+      </c>
+      <c r="D107" s="0">
+        <v>0.33290823750771936</v>
+      </c>
+      <c r="E107" s="0">
+        <v>20328</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" s="0">
+        <v>980.86400000000003</v>
+      </c>
+      <c r="C108" s="0">
+        <v>20911</v>
+      </c>
+      <c r="D108" s="0">
+        <v>0.27312853523614672</v>
+      </c>
+      <c r="E108" s="0">
+        <v>31782</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" s="0">
+        <v>899.15099999999995</v>
+      </c>
+      <c r="C109" s="0">
+        <v>40042</v>
+      </c>
+      <c r="D109" s="0">
+        <v>0.62238678395851754</v>
+      </c>
+      <c r="E109" s="0">
+        <v>45032</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" s="0">
+        <v>787.21600000000001</v>
+      </c>
+      <c r="C110" s="0">
+        <v>36124</v>
+      </c>
+      <c r="D110" s="0">
+        <v>0.7325172776529969</v>
+      </c>
+      <c r="E110" s="0">
+        <v>39808</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" s="0">
+        <v>1009.826</v>
+      </c>
+      <c r="C111" s="0">
+        <v>8089</v>
+      </c>
+      <c r="D111" s="0">
+        <v>0.099680820210079665</v>
+      </c>
+      <c r="E111" s="0">
+        <v>20028</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" s="0">
+        <v>726.19799999999998</v>
+      </c>
+      <c r="C112" s="0">
+        <v>13908</v>
+      </c>
+      <c r="D112" s="0">
+        <v>0.33140911503655618</v>
+      </c>
+      <c r="E112" s="0">
+        <v>20258</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" s="0">
+        <v>871.09900000000005</v>
+      </c>
+      <c r="C113" s="0">
+        <v>17596</v>
+      </c>
+      <c r="D113" s="0">
+        <v>0.29139948974686947</v>
+      </c>
+      <c r="E113" s="0">
+        <v>27307</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" s="0">
+        <v>1034.5540000000001</v>
+      </c>
+      <c r="C114" s="0">
+        <v>8925</v>
+      </c>
+      <c r="D114" s="0">
+        <v>0.10478805042175653</v>
+      </c>
+      <c r="E114" s="0">
+        <v>21124</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" s="0">
+        <v>805.46199999999999</v>
+      </c>
+      <c r="C115" s="0">
+        <v>36922</v>
+      </c>
+      <c r="D115" s="0">
+        <v>0.71516288834001274</v>
+      </c>
+      <c r="E115" s="0">
+        <v>40921</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" s="0">
+        <v>752.50799999999992</v>
+      </c>
+      <c r="C116" s="0">
+        <v>32253</v>
+      </c>
+      <c r="D116" s="0">
+        <v>0.71574403606304504</v>
+      </c>
+      <c r="E116" s="0">
+        <v>35796</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" s="0">
+        <v>806.45799999999997</v>
+      </c>
+      <c r="C117" s="0">
+        <v>34136</v>
+      </c>
+      <c r="D117" s="0">
+        <v>0.65956710093956628</v>
+      </c>
+      <c r="E117" s="0">
+        <v>37929</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118" s="0">
+        <v>647.73099999999999</v>
+      </c>
+      <c r="C118" s="0">
+        <v>13126</v>
+      </c>
+      <c r="D118" s="0">
+        <v>0.39314512856034489</v>
+      </c>
+      <c r="E118" s="0">
+        <v>17904</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" s="0">
+        <v>660.59900000000005</v>
+      </c>
+      <c r="C119" s="0">
+        <v>12373</v>
+      </c>
+      <c r="D119" s="0">
+        <v>0.35629444646403158</v>
+      </c>
+      <c r="E119" s="0">
+        <v>17914</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" s="0">
+        <v>807.05799999999999</v>
+      </c>
+      <c r="C120" s="0">
+        <v>17569</v>
+      </c>
+      <c r="D120" s="0">
+        <v>0.33895919001138158</v>
+      </c>
+      <c r="E120" s="0">
+        <v>26087</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" s="0">
+        <v>833.48699999999997</v>
+      </c>
+      <c r="C121" s="0">
+        <v>34930</v>
+      </c>
+      <c r="D121" s="0">
+        <v>0.63184534275850102</v>
+      </c>
+      <c r="E121" s="0">
+        <v>38306</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" s="0">
+        <v>777.63900000000001</v>
+      </c>
+      <c r="C122" s="0">
+        <v>34338</v>
+      </c>
+      <c r="D122" s="0">
+        <v>0.71355720234112807</v>
+      </c>
+      <c r="E122" s="0">
+        <v>38179</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" s="0">
+        <v>2719.3849999999998</v>
+      </c>
+      <c r="C123" s="0">
+        <v>59208</v>
+      </c>
+      <c r="D123" s="0">
+        <v>0.10061178634211063</v>
+      </c>
+      <c r="E123" s="0">
+        <v>75288</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" s="0">
+        <v>827.44999999999993</v>
+      </c>
+      <c r="C124" s="0">
+        <v>41720</v>
+      </c>
+      <c r="D124" s="0">
+        <v>0.76572115047064315</v>
+      </c>
+      <c r="E124" s="0">
+        <v>42575</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" s="0">
+        <v>1730.434</v>
+      </c>
+      <c r="C125" s="0">
+        <v>43829</v>
+      </c>
+      <c r="D125" s="0">
+        <v>0.1839337167246973</v>
+      </c>
+      <c r="E125" s="0">
+        <v>64569</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" s="0">
+        <v>718.13499999999999</v>
+      </c>
+      <c r="C126" s="0">
+        <v>15726</v>
+      </c>
+      <c r="D126" s="0">
+        <v>0.38319157164296375</v>
+      </c>
+      <c r="E126" s="0">
+        <v>19847</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" s="0">
+        <v>875.96999999999991</v>
+      </c>
+      <c r="C127" s="0">
+        <v>52528</v>
+      </c>
+      <c r="D127" s="0">
+        <v>0.86024521140242782</v>
+      </c>
+      <c r="E127" s="0">
+        <v>53197</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128" s="0">
+        <v>1650.8359999999998</v>
+      </c>
+      <c r="C128" s="0">
+        <v>38215</v>
+      </c>
+      <c r="D128" s="0">
+        <v>0.17621215639181301</v>
+      </c>
+      <c r="E128" s="0">
+        <v>51442</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" s="0">
+        <v>2159.0340000000001</v>
+      </c>
+      <c r="C129" s="0">
+        <v>53901</v>
+      </c>
+      <c r="D129" s="0">
+        <v>0.14530739713975827</v>
+      </c>
+      <c r="E129" s="0">
+        <v>65476</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" s="0">
+        <v>547.70199999999988</v>
+      </c>
+      <c r="C130" s="0">
+        <v>20713</v>
+      </c>
+      <c r="D130" s="0">
+        <v>0.86768924733149799</v>
+      </c>
+      <c r="E130" s="0">
+        <v>21072</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" s="0">
+        <v>724.86599999999999</v>
+      </c>
+      <c r="C131" s="0">
+        <v>36861</v>
+      </c>
+      <c r="D131" s="0">
+        <v>0.88157957155196809</v>
+      </c>
+      <c r="E131" s="0">
+        <v>37351</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132" s="0">
+        <v>631.29700000000003</v>
+      </c>
+      <c r="C132" s="0">
+        <v>13078</v>
+      </c>
+      <c r="D132" s="0">
+        <v>0.41236685072454171</v>
+      </c>
+      <c r="E132" s="0">
+        <v>16668</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" s="0">
+        <v>611.4559999999999</v>
+      </c>
+      <c r="C133" s="0">
+        <v>25290</v>
+      </c>
+      <c r="D133" s="0">
+        <v>0.85001829175157784</v>
+      </c>
+      <c r="E133" s="0">
+        <v>25708</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134" s="0">
+        <v>827.904</v>
+      </c>
+      <c r="C134" s="0">
+        <v>48627</v>
+      </c>
+      <c r="D134" s="0">
+        <v>0.89151238173683234</v>
+      </c>
+      <c r="E134" s="0">
+        <v>49186</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135" s="0">
+        <v>1714.374</v>
+      </c>
+      <c r="C135" s="0">
+        <v>42916</v>
+      </c>
+      <c r="D135" s="0">
+        <v>0.18349234773905748</v>
+      </c>
+      <c r="E135" s="0">
+        <v>60760</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136" s="0">
+        <v>2237.8300000000004</v>
+      </c>
+      <c r="C136" s="0">
+        <v>59076</v>
+      </c>
+      <c r="D136" s="0">
+        <v>0.14824046294022761</v>
+      </c>
+      <c r="E136" s="0">
+        <v>76137</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" s="0">
+        <v>608.75300000000004</v>
+      </c>
+      <c r="C137" s="0">
+        <v>22030</v>
+      </c>
+      <c r="D137" s="0">
+        <v>0.7470370338783715</v>
+      </c>
+      <c r="E137" s="0">
+        <v>22486</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138" s="0">
+        <v>995.23899999999992</v>
+      </c>
+      <c r="C138" s="0">
+        <v>38857</v>
+      </c>
+      <c r="D138" s="0">
+        <v>0.4929743908011972</v>
+      </c>
+      <c r="E138" s="0">
+        <v>40475</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139" s="0">
+        <v>735.83199999999999</v>
+      </c>
+      <c r="C139" s="0">
+        <v>15038</v>
+      </c>
+      <c r="D139" s="0">
+        <v>0.34901380325063563</v>
+      </c>
+      <c r="E139" s="0">
+        <v>19072</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140" s="0">
+        <v>657.65499999999997</v>
+      </c>
+      <c r="C140" s="0">
+        <v>26323</v>
+      </c>
+      <c r="D140" s="0">
+        <v>0.76480196515054433</v>
+      </c>
+      <c r="E140" s="0">
+        <v>26832</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" s="0">
+        <v>867.30200000000002</v>
+      </c>
+      <c r="C141" s="0">
+        <v>49956</v>
+      </c>
+      <c r="D141" s="0">
+        <v>0.83455857764927499</v>
+      </c>
+      <c r="E141" s="0">
+        <v>50757</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142" s="0">
+        <v>837.93799999999987</v>
+      </c>
+      <c r="C142" s="0">
+        <v>17023</v>
+      </c>
+      <c r="D142" s="0">
+        <v>0.30466473778250502</v>
+      </c>
+      <c r="E142" s="0">
+        <v>23866</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143" s="0">
+        <v>442.15099999999995</v>
+      </c>
+      <c r="C143" s="0">
+        <v>12587</v>
+      </c>
+      <c r="D143" s="0">
+        <v>0.80907889574236691</v>
+      </c>
+      <c r="E143" s="0">
+        <v>12894</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144" s="0">
+        <v>1805.5529999999999</v>
+      </c>
+      <c r="C144" s="0">
+        <v>42934</v>
+      </c>
+      <c r="D144" s="0">
+        <v>0.16549723168417241</v>
+      </c>
+      <c r="E144" s="0">
+        <v>61794</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145" s="0">
+        <v>2413.739</v>
+      </c>
+      <c r="C145" s="0">
+        <v>58950</v>
+      </c>
+      <c r="D145" s="0">
+        <v>0.12714903201488079</v>
+      </c>
+      <c r="E145" s="0">
+        <v>77481</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146" s="0">
+        <v>609.43200000000002</v>
+      </c>
+      <c r="C146" s="0">
+        <v>22331</v>
+      </c>
+      <c r="D146" s="0">
+        <v>0.75555751024070117</v>
+      </c>
+      <c r="E146" s="0">
+        <v>22856</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" s="0">
+        <v>1017.5840000000001</v>
+      </c>
+      <c r="C147" s="0">
+        <v>39051</v>
+      </c>
+      <c r="D147" s="0">
+        <v>0.47391612317156673</v>
+      </c>
+      <c r="E147" s="0">
+        <v>40452</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148" s="0">
+        <v>640.49300000000005</v>
+      </c>
+      <c r="C148" s="0">
+        <v>14560</v>
+      </c>
+      <c r="D148" s="0">
+        <v>0.44600780999730616</v>
+      </c>
+      <c r="E148" s="0">
+        <v>18061</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149" s="0">
+        <v>695.66699999999992</v>
+      </c>
+      <c r="C149" s="0">
+        <v>26530</v>
+      </c>
+      <c r="D149" s="0">
+        <v>0.68888116253005727</v>
+      </c>
+      <c r="E149" s="0">
+        <v>27243</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" s="0">
+        <v>885.25900000000001</v>
+      </c>
+      <c r="C150" s="0">
+        <v>50974</v>
+      </c>
+      <c r="D150" s="0">
+        <v>0.81736846326641177</v>
+      </c>
+      <c r="E150" s="0">
+        <v>51695</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151" s="0">
+        <v>862.25900000000001</v>
+      </c>
+      <c r="C151" s="0">
+        <v>17410</v>
+      </c>
+      <c r="D151" s="0">
+        <v>0.29426130925475086</v>
+      </c>
+      <c r="E151" s="0">
+        <v>24437</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152" s="0">
+        <v>1103.444</v>
+      </c>
+      <c r="C152" s="0">
+        <v>68055</v>
+      </c>
+      <c r="D152" s="0">
+        <v>0.70237542403057129</v>
+      </c>
+      <c r="E152" s="0">
+        <v>75534</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" s="0">
+        <v>1022.282</v>
+      </c>
+      <c r="C153" s="0">
+        <v>59804</v>
+      </c>
+      <c r="D153" s="0">
+        <v>0.71911553177334819</v>
+      </c>
+      <c r="E153" s="0">
+        <v>66655</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154" s="0">
+        <v>1236.9939999999999</v>
+      </c>
+      <c r="C154" s="0">
+        <v>17700</v>
+      </c>
+      <c r="D154" s="0">
+        <v>0.1453610141153153</v>
+      </c>
+      <c r="E154" s="0">
+        <v>47641</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155" s="0">
+        <v>1200.021</v>
+      </c>
+      <c r="C155" s="0">
+        <v>81771</v>
+      </c>
+      <c r="D155" s="0">
+        <v>0.71356161644903759</v>
+      </c>
+      <c r="E155" s="0">
+        <v>90800</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156" s="0">
+        <v>1438.6109999999999</v>
+      </c>
+      <c r="C156" s="0">
+        <v>22344</v>
+      </c>
+      <c r="D156" s="0">
+        <v>0.135670065070814</v>
+      </c>
+      <c r="E156" s="0">
+        <v>63888</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157" s="0">
+        <v>1399.5340000000001</v>
+      </c>
+      <c r="C157" s="0">
+        <v>21418</v>
+      </c>
+      <c r="D157" s="0">
+        <v>0.13741111734929257</v>
+      </c>
+      <c r="E157" s="0">
+        <v>60441</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158" s="0">
+        <v>925.89199999999994</v>
+      </c>
+      <c r="C158" s="0">
+        <v>48150</v>
+      </c>
+      <c r="D158" s="0">
+        <v>0.70580623759649186</v>
+      </c>
+      <c r="E158" s="0">
+        <v>53545</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159" s="0">
+        <v>1140.3980000000001</v>
+      </c>
+      <c r="C159" s="0">
+        <v>14459</v>
+      </c>
+      <c r="D159" s="0">
+        <v>0.13971248836685027</v>
+      </c>
+      <c r="E159" s="0">
+        <v>40474</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160" s="0">
+        <v>887.42599999999993</v>
+      </c>
+      <c r="C160" s="0">
+        <v>45132</v>
+      </c>
+      <c r="D160" s="0">
+        <v>0.72016190805351255</v>
+      </c>
+      <c r="E160" s="0">
+        <v>50257</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161" s="0">
+        <v>1095.2080000000001</v>
+      </c>
+      <c r="C161" s="0">
+        <v>13095</v>
+      </c>
+      <c r="D161" s="0">
+        <v>0.13718990389243615</v>
+      </c>
+      <c r="E161" s="0">
+        <v>37109</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162" s="0">
+        <v>1185.2349999999999</v>
+      </c>
+      <c r="C162" s="0">
+        <v>15341</v>
+      </c>
+      <c r="D162" s="0">
+        <v>0.13723174903853283</v>
+      </c>
+      <c r="E162" s="0">
+        <v>39187</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163" s="0">
+        <v>1004.0500000000001</v>
+      </c>
+      <c r="C163" s="0">
+        <v>57428</v>
+      </c>
+      <c r="D163" s="0">
+        <v>0.71585139360076877</v>
+      </c>
+      <c r="E163" s="0">
+        <v>64061</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164" s="0">
+        <v>983.846</v>
+      </c>
+      <c r="C164" s="0">
+        <v>55686</v>
+      </c>
+      <c r="D164" s="0">
+        <v>0.72293897424522713</v>
+      </c>
+      <c r="E164" s="0">
+        <v>62164</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165" s="0">
+        <v>1180.578</v>
+      </c>
+      <c r="C165" s="0">
+        <v>14527</v>
+      </c>
+      <c r="D165" s="0">
+        <v>0.13097741918943384</v>
+      </c>
+      <c r="E165" s="0">
+        <v>42081</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166" s="0">
+        <v>957.76799999999992</v>
+      </c>
+      <c r="C166" s="0">
+        <v>51896</v>
+      </c>
+      <c r="D166" s="0">
+        <v>0.71092388166729614</v>
+      </c>
+      <c r="E166" s="0">
+        <v>57610</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167" s="0">
+        <v>1314.2259999999999</v>
+      </c>
+      <c r="C167" s="0">
+        <v>16037</v>
+      </c>
+      <c r="D167" s="0">
+        <v>0.11667904977673015</v>
+      </c>
+      <c r="E167" s="0">
+        <v>47789</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168" s="0">
+        <v>932.9559999999999</v>
+      </c>
+      <c r="C168" s="0">
+        <v>49766</v>
+      </c>
+      <c r="D168" s="0">
+        <v>0.71848925080575599</v>
+      </c>
+      <c r="E168" s="0">
+        <v>55309</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169" s="0">
+        <v>1012.1479999999999</v>
+      </c>
+      <c r="C169" s="0">
+        <v>58071</v>
+      </c>
+      <c r="D169" s="0">
+        <v>0.71232982131511247</v>
+      </c>
+      <c r="E169" s="0">
+        <v>64508</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170" s="0">
+        <v>935.90899999999988</v>
+      </c>
+      <c r="C170" s="0">
+        <v>50110</v>
+      </c>
+      <c r="D170" s="0">
+        <v>0.71889757648967423</v>
+      </c>
+      <c r="E170" s="0">
+        <v>55823</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171" s="0">
+        <v>984.28599999999994</v>
+      </c>
+      <c r="C171" s="0">
+        <v>55331</v>
+      </c>
+      <c r="D171" s="0">
+        <v>0.71768813663613673</v>
+      </c>
+      <c r="E171" s="0">
+        <v>61656</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172" s="0">
+        <v>705.21699999999998</v>
+      </c>
+      <c r="C172" s="0">
+        <v>39049</v>
+      </c>
+      <c r="D172" s="0">
+        <v>0.98667525100751408</v>
+      </c>
+      <c r="E172" s="0">
+        <v>39339</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173" s="0">
+        <v>1137.1109999999999</v>
+      </c>
+      <c r="C173" s="0">
+        <v>72694</v>
+      </c>
+      <c r="D173" s="0">
+        <v>0.70648461567986764</v>
+      </c>
+      <c r="E173" s="0">
+        <v>80580</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174" s="0">
+        <v>574.82899999999995</v>
+      </c>
+      <c r="C174" s="0">
+        <v>26223</v>
+      </c>
+      <c r="D174" s="0">
+        <v>0.99727492347138069</v>
+      </c>
+      <c r="E174" s="0">
+        <v>26408</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175" s="0">
+        <v>1274.4009999999998</v>
+      </c>
+      <c r="C175" s="0">
+        <v>88438</v>
+      </c>
+      <c r="D175" s="0">
+        <v>0.68428428998665092</v>
+      </c>
+      <c r="E175" s="0">
+        <v>98465</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176" s="0">
+        <v>1200.194</v>
+      </c>
+      <c r="C176" s="0">
+        <v>80068</v>
+      </c>
+      <c r="D176" s="0">
+        <v>0.69849924639768746</v>
+      </c>
+      <c r="E176" s="0">
+        <v>89121</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177" s="0">
+        <v>715.24899999999991</v>
+      </c>
+      <c r="C177" s="0">
+        <v>40529</v>
+      </c>
+      <c r="D177" s="0">
+        <v>0.99554577518775156</v>
+      </c>
+      <c r="E177" s="0">
+        <v>40787</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178" s="0">
+        <v>855.36899999999991</v>
+      </c>
+      <c r="C178" s="0">
+        <v>41974</v>
+      </c>
+      <c r="D178" s="0">
+        <v>0.72091358400113359</v>
+      </c>
+      <c r="E178" s="0">
+        <v>46650</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179" s="0">
+        <v>836.23299999999995</v>
+      </c>
+      <c r="C179" s="0">
+        <v>39550</v>
+      </c>
+      <c r="D179" s="0">
+        <v>0.71072525484687243</v>
+      </c>
+      <c r="E179" s="0">
+        <v>43989</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180" s="0">
+        <v>438.32099999999997</v>
+      </c>
+      <c r="C180" s="0">
+        <v>15337</v>
+      </c>
+      <c r="D180" s="0">
+        <v>1.0031496480393116</v>
+      </c>
+      <c r="E180" s="0">
+        <v>15460</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181" s="0">
+        <v>837.31899999999996</v>
+      </c>
+      <c r="C181" s="0">
+        <v>39352</v>
+      </c>
+      <c r="D181" s="0">
+        <v>0.70533393867772876</v>
+      </c>
+      <c r="E181" s="0">
+        <v>43818</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182" s="0">
+        <v>514.53999999999996</v>
+      </c>
+      <c r="C182" s="0">
+        <v>21009</v>
+      </c>
+      <c r="D182" s="0">
+        <v>0.99718780965726073</v>
+      </c>
+      <c r="E182" s="0">
+        <v>21189</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183" s="0">
+        <v>1204.7460000000001</v>
+      </c>
+      <c r="C183" s="0">
+        <v>81645</v>
+      </c>
+      <c r="D183" s="0">
+        <v>0.7068845202349886</v>
+      </c>
+      <c r="E183" s="0">
+        <v>90573</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184" s="0">
+        <v>578.601</v>
+      </c>
+      <c r="C184" s="0">
+        <v>26523</v>
+      </c>
+      <c r="D184" s="0">
+        <v>0.99557538293088244</v>
+      </c>
+      <c r="E184" s="0">
+        <v>26706</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185" s="0">
+        <v>545.41200000000003</v>
+      </c>
+      <c r="C185" s="0">
+        <v>23793</v>
+      </c>
+      <c r="D185" s="0">
+        <v>1.0051009668391586</v>
+      </c>
+      <c r="E185" s="0">
+        <v>23956</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186" s="0">
+        <v>691.22400000000005</v>
+      </c>
+      <c r="C186" s="0">
+        <v>36955</v>
+      </c>
+      <c r="D186" s="0">
+        <v>0.97195342140975094</v>
+      </c>
+      <c r="E186" s="0">
+        <v>37221</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187" s="0">
+        <v>1185.9880000000001</v>
+      </c>
+      <c r="C187" s="0">
+        <v>80455</v>
+      </c>
+      <c r="D187" s="0">
+        <v>0.71879047525149276</v>
+      </c>
+      <c r="E187" s="0">
+        <v>88873</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188" s="0">
+        <v>608.21600000000001</v>
+      </c>
+      <c r="C188" s="0">
+        <v>28874</v>
+      </c>
+      <c r="D188" s="0">
+        <v>0.98084669885649745</v>
+      </c>
+      <c r="E188" s="0">
+        <v>29121</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189" s="0">
+        <v>1035.0160000000001</v>
+      </c>
+      <c r="C189" s="0">
+        <v>60479</v>
+      </c>
+      <c r="D189" s="0">
+        <v>0.70944762426091079</v>
+      </c>
+      <c r="E189" s="0">
+        <v>67230</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190" s="0">
+        <v>1013.002</v>
+      </c>
+      <c r="C190" s="0">
+        <v>57428</v>
+      </c>
+      <c r="D190" s="0">
+        <v>0.70325519680339998</v>
+      </c>
+      <c r="E190" s="0">
+        <v>64012</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191" s="0">
+        <v>1016.543</v>
+      </c>
+      <c r="C191" s="0">
+        <v>58275</v>
+      </c>
+      <c r="D191" s="0">
+        <v>0.7086644352494661</v>
+      </c>
+      <c r="E191" s="0">
+        <v>64992</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192" s="0">
+        <v>1028.1089999999999</v>
+      </c>
+      <c r="C192" s="0">
+        <v>59588</v>
+      </c>
+      <c r="D192" s="0">
+        <v>0.70841924571630843</v>
+      </c>
+      <c r="E192" s="0">
+        <v>66220</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193" s="0">
+        <v>504.65599999999995</v>
+      </c>
+      <c r="C193" s="0">
+        <v>20258</v>
+      </c>
+      <c r="D193" s="0">
+        <v>0.99957537530961327</v>
+      </c>
+      <c r="E193" s="0">
+        <v>20410</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194" s="0">
+        <v>728.99400000000003</v>
+      </c>
+      <c r="C194" s="0">
+        <v>12786</v>
+      </c>
+      <c r="D194" s="0">
+        <v>0.30234072933968659</v>
+      </c>
+      <c r="E194" s="0">
+        <v>16703</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195" s="0">
+        <v>2096.9989999999998</v>
+      </c>
+      <c r="C195" s="0">
+        <v>34279</v>
+      </c>
+      <c r="D195" s="0">
+        <v>0.097958372561418483</v>
+      </c>
+      <c r="E195" s="0">
+        <v>52474</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B196" s="0">
+        <v>1083.6669999999999</v>
+      </c>
+      <c r="C196" s="0">
+        <v>66186</v>
+      </c>
+      <c r="D196" s="0">
+        <v>0.70824628026052461</v>
+      </c>
+      <c r="E196" s="0">
+        <v>73720</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B197" s="0">
+        <v>1432.2759999999998</v>
+      </c>
+      <c r="C197" s="0">
+        <v>114198</v>
+      </c>
+      <c r="D197" s="0">
+        <v>0.69954383344454085</v>
+      </c>
+      <c r="E197" s="0">
+        <v>126977</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B198" s="0">
+        <v>2347.3679999999999</v>
+      </c>
+      <c r="C198" s="0">
+        <v>68769</v>
+      </c>
+      <c r="D198" s="0">
+        <v>0.1568339979377735</v>
+      </c>
+      <c r="E198" s="0">
+        <v>98770</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B199" s="0">
+        <v>1345.912</v>
+      </c>
+      <c r="C199" s="0">
+        <v>102893</v>
+      </c>
+      <c r="D199" s="0">
+        <v>0.71377669399589805</v>
+      </c>
+      <c r="E199" s="0">
+        <v>114246</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="B200" s="0">
+        <v>1124.982</v>
+      </c>
+      <c r="C200" s="0">
+        <v>71862</v>
+      </c>
+      <c r="D200" s="0">
+        <v>0.71353949487994839</v>
+      </c>
+      <c r="E200" s="0">
+        <v>79951</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201" s="0">
+        <v>1196.7729999999999</v>
+      </c>
+      <c r="C201" s="0">
+        <v>82500</v>
+      </c>
+      <c r="D201" s="0">
+        <v>0.72383611384079405</v>
+      </c>
+      <c r="E201" s="0">
+        <v>91568</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B202" s="0">
+        <v>1824.5559999999998</v>
+      </c>
+      <c r="C202" s="0">
+        <v>39559</v>
+      </c>
+      <c r="D202" s="0">
+        <v>0.14932783678373696</v>
+      </c>
+      <c r="E202" s="0">
+        <v>56829</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B203" s="0">
+        <v>1072.5129999999999</v>
+      </c>
+      <c r="C203" s="0">
+        <v>64077</v>
+      </c>
+      <c r="D203" s="0">
+        <v>0.70001428798110854</v>
+      </c>
+      <c r="E203" s="0">
+        <v>71480</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B204" s="0">
+        <v>740.404</v>
+      </c>
+      <c r="C204" s="0">
+        <v>13065</v>
+      </c>
+      <c r="D204" s="0">
+        <v>0.29948961352335268</v>
+      </c>
+      <c r="E204" s="0">
+        <v>17068</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B205" s="0">
+        <v>1063.492</v>
+      </c>
+      <c r="C205" s="0">
+        <v>62765</v>
+      </c>
+      <c r="D205" s="0">
+        <v>0.69736306625700351</v>
+      </c>
+      <c r="E205" s="0">
+        <v>69863</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B206" s="0">
+        <v>1892.2930000000001</v>
+      </c>
+      <c r="C206" s="0">
+        <v>37395</v>
+      </c>
+      <c r="D206" s="0">
+        <v>0.13123408148270277</v>
+      </c>
+      <c r="E206" s="0">
+        <v>55135</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B207" s="0">
+        <v>1147.568</v>
+      </c>
+      <c r="C207" s="0">
+        <v>76054</v>
+      </c>
+      <c r="D207" s="0">
+        <v>0.72572998224057694</v>
+      </c>
+      <c r="E207" s="0">
+        <v>84734</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B208" s="0">
+        <v>1018.1</v>
+      </c>
+      <c r="C208" s="0">
+        <v>59273</v>
+      </c>
+      <c r="D208" s="0">
+        <v>0.71859782435019859</v>
+      </c>
+      <c r="E208" s="0">
+        <v>65786</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B209" s="0">
+        <v>1105.645</v>
+      </c>
+      <c r="C209" s="0">
+        <v>68304</v>
+      </c>
+      <c r="D209" s="0">
+        <v>0.70214141304034672</v>
+      </c>
+      <c r="E209" s="0">
+        <v>76084</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="B210" s="0">
+        <v>2292.4809999999998</v>
+      </c>
+      <c r="C210" s="0">
+        <v>51056</v>
+      </c>
+      <c r="D210" s="0">
+        <v>0.12208018001092323</v>
+      </c>
+      <c r="E210" s="0">
+        <v>75888</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B211" s="0">
+        <v>1307.9689999999998</v>
+      </c>
+      <c r="C211" s="0">
+        <v>94322</v>
+      </c>
+      <c r="D211" s="0">
+        <v>0.69283203944255367</v>
+      </c>
+      <c r="E211" s="0">
+        <v>105253</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="B212" s="0">
+        <v>839.27299999999991</v>
+      </c>
+      <c r="C212" s="0">
+        <v>21939</v>
+      </c>
+      <c r="D212" s="0">
+        <v>0.39139942977611686</v>
+      </c>
+      <c r="E212" s="0">
+        <v>28894</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B213" s="0">
+        <v>1326.3679999999999</v>
+      </c>
+      <c r="C213" s="0">
+        <v>95294</v>
+      </c>
+      <c r="D213" s="0">
+        <v>0.68068683321512025</v>
+      </c>
+      <c r="E213" s="0">
+        <v>106101</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="B214" s="0">
+        <v>1024.598</v>
+      </c>
+      <c r="C214" s="0">
+        <v>19974</v>
+      </c>
+      <c r="D214" s="0">
+        <v>0.23909357289818703</v>
+      </c>
+      <c r="E214" s="0">
+        <v>28404</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B215" s="0">
+        <v>1701.425</v>
+      </c>
+      <c r="C215" s="0">
+        <v>68510</v>
+      </c>
+      <c r="D215" s="0">
+        <v>0.29739811523093612</v>
+      </c>
+      <c r="E215" s="0">
+        <v>99296</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B216" s="0">
+        <v>999.56200000000001</v>
+      </c>
+      <c r="C216" s="0">
+        <v>78196</v>
+      </c>
+      <c r="D216" s="0">
+        <v>0.98350127499850992</v>
+      </c>
+      <c r="E216" s="0">
+        <v>78631</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="B217" s="0">
+        <v>1322.8699999999999</v>
+      </c>
+      <c r="C217" s="0">
+        <v>45772</v>
+      </c>
+      <c r="D217" s="0">
+        <v>0.32868161934650664</v>
+      </c>
+      <c r="E217" s="0">
+        <v>63469</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="B218" s="0">
+        <v>40.846000000000004</v>
+      </c>
+      <c r="C218" s="0">
+        <v>31</v>
+      </c>
+      <c r="D218" s="0">
+        <v>0.23349226164348066</v>
+      </c>
+      <c r="E218" s="0">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Proyecto/tablaNoIndexada.xlsx
+++ b/Proyecto/tablaNoIndexada.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
   <si>
     <t>nombreObjeto</t>
   </si>
@@ -667,6 +667,189 @@
   </si>
   <si>
     <t>obj4IMG055.bmp</t>
+  </si>
+  <si>
+    <t>obj1IMG056.bmp</t>
+  </si>
+  <si>
+    <t>obj2IMG056.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG056.bmp</t>
+  </si>
+  <si>
+    <t>obj4IMG056.bmp</t>
+  </si>
+  <si>
+    <t>obj5IMG056.bmp</t>
+  </si>
+  <si>
+    <t>obj6IMG056.bmp</t>
+  </si>
+  <si>
+    <t>obj1IMG057.bmp</t>
+  </si>
+  <si>
+    <t>obj2IMG057.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG057.bmp</t>
+  </si>
+  <si>
+    <t>obj4IMG057.bmp</t>
+  </si>
+  <si>
+    <t>obj5IMG057.bmp</t>
+  </si>
+  <si>
+    <t>obj6IMG057.bmp</t>
+  </si>
+  <si>
+    <t>obj1IMG058.bmp</t>
+  </si>
+  <si>
+    <t>obj2IMG058.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG058.bmp</t>
+  </si>
+  <si>
+    <t>obj4IMG058.bmp</t>
+  </si>
+  <si>
+    <t>obj5IMG058.bmp</t>
+  </si>
+  <si>
+    <t>obj6IMG058.bmp</t>
+  </si>
+  <si>
+    <t>obj7IMG058.bmp</t>
+  </si>
+  <si>
+    <t>obj1IMG059.bmp</t>
+  </si>
+  <si>
+    <t>obj2IMG059.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG059.bmp</t>
+  </si>
+  <si>
+    <t>obj4IMG059.bmp</t>
+  </si>
+  <si>
+    <t>obj5IMG059.bmp</t>
+  </si>
+  <si>
+    <t>obj6IMG059.bmp</t>
+  </si>
+  <si>
+    <t>obj1IMG060.bmp</t>
+  </si>
+  <si>
+    <t>obj2IMG060.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG060.bmp</t>
+  </si>
+  <si>
+    <t>obj4IMG060.bmp</t>
+  </si>
+  <si>
+    <t>obj5IMG060.bmp</t>
+  </si>
+  <si>
+    <t>obj6IMG060.bmp</t>
+  </si>
+  <si>
+    <t>obj1IMG061.bmp</t>
+  </si>
+  <si>
+    <t>obj2IMG061.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG061.bmp</t>
+  </si>
+  <si>
+    <t>obj4IMG061.bmp</t>
+  </si>
+  <si>
+    <t>obj5IMG061.bmp</t>
+  </si>
+  <si>
+    <t>obj6IMG061.bmp</t>
+  </si>
+  <si>
+    <t>obj1IMG062.bmp</t>
+  </si>
+  <si>
+    <t>obj2IMG062.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG062.bmp</t>
+  </si>
+  <si>
+    <t>obj4IMG062.bmp</t>
+  </si>
+  <si>
+    <t>obj5IMG062.bmp</t>
+  </si>
+  <si>
+    <t>obj6IMG062.bmp</t>
+  </si>
+  <si>
+    <t>obj1IMG063.bmp</t>
+  </si>
+  <si>
+    <t>obj2IMG063.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG063.bmp</t>
+  </si>
+  <si>
+    <t>obj4IMG063.bmp</t>
+  </si>
+  <si>
+    <t>obj5IMG063.bmp</t>
+  </si>
+  <si>
+    <t>obj6IMG063.bmp</t>
+  </si>
+  <si>
+    <t>obj1IMG064.bmp</t>
+  </si>
+  <si>
+    <t>obj2IMG064.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG064.bmp</t>
+  </si>
+  <si>
+    <t>obj4IMG064.bmp</t>
+  </si>
+  <si>
+    <t>obj5IMG064.bmp</t>
+  </si>
+  <si>
+    <t>obj6IMG064.bmp</t>
+  </si>
+  <si>
+    <t>obj1IMG065.bmp</t>
+  </si>
+  <si>
+    <t>obj2IMG065.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG065.bmp</t>
+  </si>
+  <si>
+    <t>obj4IMG065.bmp</t>
+  </si>
+  <si>
+    <t>obj5IMG065.bmp</t>
+  </si>
+  <si>
+    <t>obj6IMG065.bmp</t>
   </si>
   <si>
     <t>perimetro</t>
@@ -724,7 +907,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E218"/>
+  <dimension ref="A1:E279"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="true"/>
@@ -739,16 +922,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>218</v>
+        <v>279</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>219</v>
+        <v>280</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>220</v>
+        <v>281</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>221</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2">
@@ -4440,6 +4623,1043 @@
         <v>47</v>
       </c>
     </row>
+    <row r="219">
+      <c r="A219" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B219" s="0">
+        <v>3512.2620000000002</v>
+      </c>
+      <c r="C219" s="0">
+        <v>68324</v>
+      </c>
+      <c r="D219" s="0">
+        <v>0.069600015777667029</v>
+      </c>
+      <c r="E219" s="0">
+        <v>161526</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B220" s="0">
+        <v>2140.3389999999999</v>
+      </c>
+      <c r="C220" s="0">
+        <v>108600</v>
+      </c>
+      <c r="D220" s="0">
+        <v>0.29790278220354743</v>
+      </c>
+      <c r="E220" s="0">
+        <v>151498</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B221" s="0">
+        <v>1169.1519999999998</v>
+      </c>
+      <c r="C221" s="0">
+        <v>90537</v>
+      </c>
+      <c r="D221" s="0">
+        <v>0.8323270516455884</v>
+      </c>
+      <c r="E221" s="0">
+        <v>91548</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B222" s="0">
+        <v>988.36500000000001</v>
+      </c>
+      <c r="C222" s="0">
+        <v>65510</v>
+      </c>
+      <c r="D222" s="0">
+        <v>0.84271892679428362</v>
+      </c>
+      <c r="E222" s="0">
+        <v>66251</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B223" s="0">
+        <v>2622.7669999999998</v>
+      </c>
+      <c r="C223" s="0">
+        <v>146552</v>
+      </c>
+      <c r="D223" s="0">
+        <v>0.26772084822145409</v>
+      </c>
+      <c r="E223" s="0">
+        <v>215727</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B224" s="0">
+        <v>2599.402</v>
+      </c>
+      <c r="C224" s="0">
+        <v>132148</v>
+      </c>
+      <c r="D224" s="0">
+        <v>0.24576699602217539</v>
+      </c>
+      <c r="E224" s="0">
+        <v>196540</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B225" s="0">
+        <v>1671.3579999999997</v>
+      </c>
+      <c r="C225" s="0">
+        <v>138291</v>
+      </c>
+      <c r="D225" s="0">
+        <v>0.62210660475256618</v>
+      </c>
+      <c r="E225" s="0">
+        <v>141044</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B226" s="0">
+        <v>3810.538</v>
+      </c>
+      <c r="C226" s="0">
+        <v>68632</v>
+      </c>
+      <c r="D226" s="0">
+        <v>0.059396919942374164</v>
+      </c>
+      <c r="E226" s="0">
+        <v>167448</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B227" s="0">
+        <v>1763.3779999999999</v>
+      </c>
+      <c r="C227" s="0">
+        <v>95624</v>
+      </c>
+      <c r="D227" s="0">
+        <v>0.38644343527650687</v>
+      </c>
+      <c r="E227" s="0">
+        <v>99909</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B228" s="0">
+        <v>2926.6080000000002</v>
+      </c>
+      <c r="C228" s="0">
+        <v>137484</v>
+      </c>
+      <c r="D228" s="0">
+        <v>0.20171254658782309</v>
+      </c>
+      <c r="E228" s="0">
+        <v>211547</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B229" s="0">
+        <v>2924.489</v>
+      </c>
+      <c r="C229" s="0">
+        <v>145767</v>
+      </c>
+      <c r="D229" s="0">
+        <v>0.21417515773838233</v>
+      </c>
+      <c r="E229" s="0">
+        <v>216114</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="B230" s="0">
+        <v>1064.019</v>
+      </c>
+      <c r="C230" s="0">
+        <v>68197</v>
+      </c>
+      <c r="D230" s="0">
+        <v>0.75696599128097641</v>
+      </c>
+      <c r="E230" s="0">
+        <v>69320</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B231" s="0">
+        <v>2756.5300000000002</v>
+      </c>
+      <c r="C231" s="0">
+        <v>139832</v>
+      </c>
+      <c r="D231" s="0">
+        <v>0.23125492287918345</v>
+      </c>
+      <c r="E231" s="0">
+        <v>208939</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B232" s="0">
+        <v>2982.2829999999999</v>
+      </c>
+      <c r="C232" s="0">
+        <v>140116</v>
+      </c>
+      <c r="D232" s="0">
+        <v>0.19797023057363938</v>
+      </c>
+      <c r="E232" s="0">
+        <v>210266</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B233" s="0">
+        <v>2277.1459999999997</v>
+      </c>
+      <c r="C233" s="0">
+        <v>110634</v>
+      </c>
+      <c r="D233" s="0">
+        <v>0.26811229232242667</v>
+      </c>
+      <c r="E233" s="0">
+        <v>156419</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B234" s="0">
+        <v>1528.6090000000002</v>
+      </c>
+      <c r="C234" s="0">
+        <v>86575</v>
+      </c>
+      <c r="D234" s="0">
+        <v>0.46559632072278795</v>
+      </c>
+      <c r="E234" s="0">
+        <v>89726</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B235" s="0">
+        <v>3320.2019999999998</v>
+      </c>
+      <c r="C235" s="0">
+        <v>69961</v>
+      </c>
+      <c r="D235" s="0">
+        <v>0.079751132484580309</v>
+      </c>
+      <c r="E235" s="0">
+        <v>160994</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B236" s="0">
+        <v>4360.6060000000007</v>
+      </c>
+      <c r="C236" s="0">
+        <v>64195</v>
+      </c>
+      <c r="D236" s="0">
+        <v>0.042424562381400813</v>
+      </c>
+      <c r="E236" s="0">
+        <v>161510</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B237" s="0">
+        <v>31.286000000000001</v>
+      </c>
+      <c r="C237" s="0">
+        <v>47</v>
+      </c>
+      <c r="D237" s="0">
+        <v>0.60340324307697135</v>
+      </c>
+      <c r="E237" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B238" s="0">
+        <v>1305.0819999999999</v>
+      </c>
+      <c r="C238" s="0">
+        <v>109523</v>
+      </c>
+      <c r="D238" s="0">
+        <v>0.80805253238216357</v>
+      </c>
+      <c r="E238" s="0">
+        <v>110753</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B239" s="0">
+        <v>1560.492</v>
+      </c>
+      <c r="C239" s="0">
+        <v>154009</v>
+      </c>
+      <c r="D239" s="0">
+        <v>0.79475427349008276</v>
+      </c>
+      <c r="E239" s="0">
+        <v>155685</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="B240" s="0">
+        <v>3172.2259999999997</v>
+      </c>
+      <c r="C240" s="0">
+        <v>180732</v>
+      </c>
+      <c r="D240" s="0">
+        <v>0.22569226648746177</v>
+      </c>
+      <c r="E240" s="0">
+        <v>267820</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B241" s="0">
+        <v>2966.0540000000001</v>
+      </c>
+      <c r="C241" s="0">
+        <v>172804</v>
+      </c>
+      <c r="D241" s="0">
+        <v>0.24683432224905141</v>
+      </c>
+      <c r="E241" s="0">
+        <v>254498</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="B242" s="0">
+        <v>857.30799999999988</v>
+      </c>
+      <c r="C242" s="0">
+        <v>48645</v>
+      </c>
+      <c r="D242" s="0">
+        <v>0.8317145881117548</v>
+      </c>
+      <c r="E242" s="0">
+        <v>49335</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B243" s="0">
+        <v>1194.2189999999998</v>
+      </c>
+      <c r="C243" s="0">
+        <v>83561</v>
+      </c>
+      <c r="D243" s="0">
+        <v>0.73628429944311702</v>
+      </c>
+      <c r="E243" s="0">
+        <v>85011</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B244" s="0">
+        <v>1079.0160000000001</v>
+      </c>
+      <c r="C244" s="0">
+        <v>65996</v>
+      </c>
+      <c r="D244" s="0">
+        <v>0.71231437485207993</v>
+      </c>
+      <c r="E244" s="0">
+        <v>67234</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B245" s="0">
+        <v>1223.5689999999997</v>
+      </c>
+      <c r="C245" s="0">
+        <v>89083</v>
+      </c>
+      <c r="D245" s="0">
+        <v>0.74773509979462416</v>
+      </c>
+      <c r="E245" s="0">
+        <v>90417</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B246" s="0">
+        <v>1705.414</v>
+      </c>
+      <c r="C246" s="0">
+        <v>181303</v>
+      </c>
+      <c r="D246" s="0">
+        <v>0.78334884369267821</v>
+      </c>
+      <c r="E246" s="0">
+        <v>183808</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="B247" s="0">
+        <v>2754.8449999999998</v>
+      </c>
+      <c r="C247" s="0">
+        <v>148767</v>
+      </c>
+      <c r="D247" s="0">
+        <v>0.24633273694648125</v>
+      </c>
+      <c r="E247" s="0">
+        <v>217718</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="B248" s="0">
+        <v>1544.6849999999999</v>
+      </c>
+      <c r="C248" s="0">
+        <v>133539</v>
+      </c>
+      <c r="D248" s="0">
+        <v>0.70329596414493689</v>
+      </c>
+      <c r="E248" s="0">
+        <v>136200</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B249" s="0">
+        <v>850.86299999999994</v>
+      </c>
+      <c r="C249" s="0">
+        <v>41616</v>
+      </c>
+      <c r="D249" s="0">
+        <v>0.72235539639752289</v>
+      </c>
+      <c r="E249" s="0">
+        <v>42782</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="B250" s="0">
+        <v>1696.5469999999998</v>
+      </c>
+      <c r="C250" s="0">
+        <v>50247</v>
+      </c>
+      <c r="D250" s="0">
+        <v>0.21937554372237289</v>
+      </c>
+      <c r="E250" s="0">
+        <v>70488</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="B251" s="0">
+        <v>2242.9180000000001</v>
+      </c>
+      <c r="C251" s="0">
+        <v>120654</v>
+      </c>
+      <c r="D251" s="0">
+        <v>0.30138719459116148</v>
+      </c>
+      <c r="E251" s="0">
+        <v>165475</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B252" s="0">
+        <v>3733.8420000000001</v>
+      </c>
+      <c r="C252" s="0">
+        <v>142449</v>
+      </c>
+      <c r="D252" s="0">
+        <v>0.12839774479221391</v>
+      </c>
+      <c r="E252" s="0">
+        <v>215696</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="B253" s="0">
+        <v>1293.5899999999997</v>
+      </c>
+      <c r="C253" s="0">
+        <v>42886</v>
+      </c>
+      <c r="D253" s="0">
+        <v>0.32205652755313524</v>
+      </c>
+      <c r="E253" s="0">
+        <v>50402</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B254" s="0">
+        <v>2415.779</v>
+      </c>
+      <c r="C254" s="0">
+        <v>120706</v>
+      </c>
+      <c r="D254" s="0">
+        <v>0.25991079580937337</v>
+      </c>
+      <c r="E254" s="0">
+        <v>167223</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B255" s="0">
+        <v>2005.954</v>
+      </c>
+      <c r="C255" s="0">
+        <v>61847</v>
+      </c>
+      <c r="D255" s="0">
+        <v>0.19314637556112238</v>
+      </c>
+      <c r="E255" s="0">
+        <v>90224</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B256" s="0">
+        <v>3874.3729999999996</v>
+      </c>
+      <c r="C256" s="0">
+        <v>156689</v>
+      </c>
+      <c r="D256" s="0">
+        <v>0.13117332096300871</v>
+      </c>
+      <c r="E256" s="0">
+        <v>228584</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="B257" s="0">
+        <v>2224.9179999999997</v>
+      </c>
+      <c r="C257" s="0">
+        <v>124966</v>
+      </c>
+      <c r="D257" s="0">
+        <v>0.31722960740203465</v>
+      </c>
+      <c r="E257" s="0">
+        <v>171830</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="B258" s="0">
+        <v>1488.9099999999999</v>
+      </c>
+      <c r="C258" s="0">
+        <v>54593</v>
+      </c>
+      <c r="D258" s="0">
+        <v>0.30946385467702647</v>
+      </c>
+      <c r="E258" s="0">
+        <v>71784</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="B259" s="0">
+        <v>2773.7519999999995</v>
+      </c>
+      <c r="C259" s="0">
+        <v>160599</v>
+      </c>
+      <c r="D259" s="0">
+        <v>0.26231156829358415</v>
+      </c>
+      <c r="E259" s="0">
+        <v>237831</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="B260" s="0">
+        <v>2500.8510000000001</v>
+      </c>
+      <c r="C260" s="0">
+        <v>134743</v>
+      </c>
+      <c r="D260" s="0">
+        <v>0.27073253003368569</v>
+      </c>
+      <c r="E260" s="0">
+        <v>187080</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B261" s="0">
+        <v>2068.6759999999999</v>
+      </c>
+      <c r="C261" s="0">
+        <v>66150</v>
+      </c>
+      <c r="D261" s="0">
+        <v>0.1942471970045877</v>
+      </c>
+      <c r="E261" s="0">
+        <v>97381</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B262" s="0">
+        <v>3476.8990000000003</v>
+      </c>
+      <c r="C262" s="0">
+        <v>140643</v>
+      </c>
+      <c r="D262" s="0">
+        <v>0.14619880924578713</v>
+      </c>
+      <c r="E262" s="0">
+        <v>201326</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="B263" s="0">
+        <v>5934.0240000000003</v>
+      </c>
+      <c r="C263" s="0">
+        <v>184573</v>
+      </c>
+      <c r="D263" s="0">
+        <v>0.065868752486702861</v>
+      </c>
+      <c r="E263" s="0">
+        <v>249404</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="B264" s="0">
+        <v>2152.9989999999998</v>
+      </c>
+      <c r="C264" s="0">
+        <v>64446</v>
+      </c>
+      <c r="D264" s="0">
+        <v>0.17471016536292452</v>
+      </c>
+      <c r="E264" s="0">
+        <v>90357</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B265" s="0">
+        <v>1557.1689999999999</v>
+      </c>
+      <c r="C265" s="0">
+        <v>47505</v>
+      </c>
+      <c r="D265" s="0">
+        <v>0.24619412667812249</v>
+      </c>
+      <c r="E265" s="0">
+        <v>62417</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B266" s="0">
+        <v>2145.7969999999996</v>
+      </c>
+      <c r="C266" s="0">
+        <v>111951</v>
+      </c>
+      <c r="D266" s="0">
+        <v>0.3055347231609733</v>
+      </c>
+      <c r="E266" s="0">
+        <v>155114</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="B267" s="0">
+        <v>2240.4290000000001</v>
+      </c>
+      <c r="C267" s="0">
+        <v>75474</v>
+      </c>
+      <c r="D267" s="0">
+        <v>0.18894911429608025</v>
+      </c>
+      <c r="E267" s="0">
+        <v>109278</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="B268" s="0">
+        <v>2299.0160000000001</v>
+      </c>
+      <c r="C268" s="0">
+        <v>106420</v>
+      </c>
+      <c r="D268" s="0">
+        <v>0.25301666737966433</v>
+      </c>
+      <c r="E268" s="0">
+        <v>156460</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="B269" s="0">
+        <v>3440.6569999999997</v>
+      </c>
+      <c r="C269" s="0">
+        <v>114653</v>
+      </c>
+      <c r="D269" s="0">
+        <v>0.12170615081117611</v>
+      </c>
+      <c r="E269" s="0">
+        <v>165231</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B270" s="0">
+        <v>2848.3789999999999</v>
+      </c>
+      <c r="C270" s="0">
+        <v>135483</v>
+      </c>
+      <c r="D270" s="0">
+        <v>0.20984523799233618</v>
+      </c>
+      <c r="E270" s="0">
+        <v>209769</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B271" s="0">
+        <v>1187.1890000000001</v>
+      </c>
+      <c r="C271" s="0">
+        <v>34288</v>
+      </c>
+      <c r="D271" s="0">
+        <v>0.30571186170343956</v>
+      </c>
+      <c r="E271" s="0">
+        <v>42253</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="B272" s="0">
+        <v>3211.3820000000001</v>
+      </c>
+      <c r="C272" s="0">
+        <v>66192</v>
+      </c>
+      <c r="D272" s="0">
+        <v>0.080655024969764635</v>
+      </c>
+      <c r="E272" s="0">
+        <v>153138</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="B273" s="0">
+        <v>3265.8679999999999</v>
+      </c>
+      <c r="C273" s="0">
+        <v>68551</v>
+      </c>
+      <c r="D273" s="0">
+        <v>0.080765596270614498</v>
+      </c>
+      <c r="E273" s="0">
+        <v>156322</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="B274" s="0">
+        <v>2146.0059999999999</v>
+      </c>
+      <c r="C274" s="0">
+        <v>101596</v>
+      </c>
+      <c r="D274" s="0">
+        <v>0.27722003223148739</v>
+      </c>
+      <c r="E274" s="0">
+        <v>142768</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B275" s="0">
+        <v>2582.4739999999997</v>
+      </c>
+      <c r="C275" s="0">
+        <v>126130</v>
+      </c>
+      <c r="D275" s="0">
+        <v>0.23766013756053525</v>
+      </c>
+      <c r="E275" s="0">
+        <v>184205</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="B276" s="0">
+        <v>2799.7669999999998</v>
+      </c>
+      <c r="C276" s="0">
+        <v>133878</v>
+      </c>
+      <c r="D276" s="0">
+        <v>0.21462252460811784</v>
+      </c>
+      <c r="E276" s="0">
+        <v>198505</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="B277" s="0">
+        <v>3295.2090000000003</v>
+      </c>
+      <c r="C277" s="0">
+        <v>119501</v>
+      </c>
+      <c r="D277" s="0">
+        <v>0.1382978642596957</v>
+      </c>
+      <c r="E277" s="0">
+        <v>181424</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B278" s="0">
+        <v>2086.8879999999995</v>
+      </c>
+      <c r="C278" s="0">
+        <v>106437</v>
+      </c>
+      <c r="D278" s="0">
+        <v>0.30711724664572393</v>
+      </c>
+      <c r="E278" s="0">
+        <v>147985</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="B279" s="0">
+        <v>2182.4090000000001</v>
+      </c>
+      <c r="C279" s="0">
+        <v>108843</v>
+      </c>
+      <c r="D279" s="0">
+        <v>0.28716934636998498</v>
+      </c>
+      <c r="E279" s="0">
+        <v>151824</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/Proyecto/tablaNoIndexada.xlsx
+++ b/Proyecto/tablaNoIndexada.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
   <si>
     <t>nombreObjeto</t>
   </si>
@@ -72,6 +72,12 @@
     <t>obj2IMG007.bmp</t>
   </si>
   <si>
+    <t>obj3IMG007.bmp</t>
+  </si>
+  <si>
+    <t>obj4IMG007.bmp</t>
+  </si>
+  <si>
     <t>obj1IMG008.bmp</t>
   </si>
   <si>
@@ -93,6 +99,12 @@
     <t>obj4IMG009.bmp</t>
   </si>
   <si>
+    <t>obj5IMG009.bmp</t>
+  </si>
+  <si>
+    <t>obj6IMG009.bmp</t>
+  </si>
+  <si>
     <t>obj1IMG010.bmp</t>
   </si>
   <si>
@@ -666,9 +678,6 @@
     <t>obj3IMG055.bmp</t>
   </si>
   <si>
-    <t>obj4IMG055.bmp</t>
-  </si>
-  <si>
     <t>obj1IMG056.bmp</t>
   </si>
   <si>
@@ -721,9 +730,6 @@
   </si>
   <si>
     <t>obj6IMG058.bmp</t>
-  </si>
-  <si>
-    <t>obj7IMG058.bmp</t>
   </si>
   <si>
     <t>obj1IMG059.bmp</t>
@@ -907,12 +913,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E279"/>
+  <dimension ref="A1:E281"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="true"/>
     <col min="2" max="2" width="10.140625" customWidth="true"/>
-    <col min="3" max="3" width="7.140625" customWidth="true"/>
+    <col min="3" max="3" width="5.140625" customWidth="true"/>
     <col min="4" max="4" width="13.7109375" customWidth="true"/>
     <col min="5" max="5" width="11.5703125" customWidth="true"/>
   </cols>
@@ -922,16 +928,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2">
@@ -939,16 +945,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>852.07999999999993</v>
+        <v>100.896</v>
       </c>
       <c r="C2" s="0">
-        <v>36727</v>
+        <v>721</v>
       </c>
       <c r="D2" s="0">
-        <v>0.63567418609100745</v>
+        <v>0.89001480419167722</v>
       </c>
       <c r="E2" s="0">
-        <v>37497</v>
+        <v>735</v>
       </c>
     </row>
     <row r="3">
@@ -956,16 +962,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>1073.2939999999999</v>
+        <v>114.48399999999999</v>
       </c>
       <c r="C3" s="0">
-        <v>47042</v>
+        <v>917</v>
       </c>
       <c r="D3" s="0">
-        <v>0.51316643033202503</v>
+        <v>0.87920390773700807</v>
       </c>
       <c r="E3" s="0">
-        <v>48102</v>
+        <v>936</v>
       </c>
     </row>
     <row r="4">
@@ -973,16 +979,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>833.93200000000002</v>
+        <v>103.90599999999999</v>
       </c>
       <c r="C4" s="0">
-        <v>38143</v>
+        <v>741</v>
       </c>
       <c r="D4" s="0">
-        <v>0.68922882736547875</v>
+        <v>0.86247560349530861</v>
       </c>
       <c r="E4" s="0">
-        <v>38762</v>
+        <v>767</v>
       </c>
     </row>
     <row r="5">
@@ -990,16 +996,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>914.26499999999987</v>
+        <v>100.896</v>
       </c>
       <c r="C5" s="0">
-        <v>37036</v>
+        <v>721</v>
       </c>
       <c r="D5" s="0">
-        <v>0.55678785127300823</v>
+        <v>0.89001480419167722</v>
       </c>
       <c r="E5" s="0">
-        <v>38033</v>
+        <v>737</v>
       </c>
     </row>
     <row r="6">
@@ -1007,16 +1013,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>762.79600000000005</v>
+        <v>76.838000000000008</v>
       </c>
       <c r="C6" s="0">
-        <v>21863</v>
+        <v>422</v>
       </c>
       <c r="D6" s="0">
-        <v>0.47217479974984822</v>
+        <v>0.89819412617858418</v>
       </c>
       <c r="E6" s="0">
-        <v>22609</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7">
@@ -1024,16 +1030,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>1214.5749999999998</v>
+        <v>118.983</v>
       </c>
       <c r="C7" s="0">
-        <v>49325</v>
+        <v>958</v>
       </c>
       <c r="D7" s="0">
-        <v>0.42017313652474347</v>
+        <v>0.85036532595927816</v>
       </c>
       <c r="E7" s="0">
-        <v>50849</v>
+        <v>988</v>
       </c>
     </row>
     <row r="8">
@@ -1041,16 +1047,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>1584.521</v>
+        <v>165.114</v>
       </c>
       <c r="C8" s="0">
-        <v>98317</v>
+        <v>1900</v>
       </c>
       <c r="D8" s="0">
-        <v>0.49208767027955147</v>
+        <v>0.87578130002283905</v>
       </c>
       <c r="E8" s="0">
-        <v>99743</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="9">
@@ -1058,16 +1064,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>920.53800000000001</v>
+        <v>102.49199999999999</v>
       </c>
       <c r="C9" s="0">
-        <v>37802</v>
+        <v>736</v>
       </c>
       <c r="D9" s="0">
-        <v>0.56058464762731974</v>
+        <v>0.88045617265364029</v>
       </c>
       <c r="E9" s="0">
-        <v>38589</v>
+        <v>751</v>
       </c>
     </row>
     <row r="10">
@@ -1075,16 +1081,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>1208.7089999999998</v>
+        <v>117.36199999999999</v>
       </c>
       <c r="C10" s="0">
-        <v>49000</v>
+        <v>952</v>
       </c>
       <c r="D10" s="0">
-        <v>0.4214658901836198</v>
+        <v>0.8685439685082712</v>
       </c>
       <c r="E10" s="0">
-        <v>50150</v>
+        <v>971</v>
       </c>
     </row>
     <row r="11">
@@ -1092,16 +1098,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>737.15499999999986</v>
+        <v>77.970999999999989</v>
       </c>
       <c r="C11" s="0">
-        <v>22157</v>
+        <v>423</v>
       </c>
       <c r="D11" s="0">
-        <v>0.51239300284580713</v>
+        <v>0.87434740009628575</v>
       </c>
       <c r="E11" s="0">
-        <v>22789</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12">
@@ -1109,16 +1115,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>1264.4949999999999</v>
+        <v>165.75899999999999</v>
       </c>
       <c r="C12" s="0">
-        <v>97874</v>
+        <v>1906</v>
       </c>
       <c r="D12" s="0">
-        <v>0.76920654163058688</v>
+        <v>0.87172303905587512</v>
       </c>
       <c r="E12" s="0">
-        <v>99060</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="13">
@@ -1126,16 +1132,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>552.87400000000002</v>
+        <v>74.051000000000002</v>
       </c>
       <c r="C13" s="0">
-        <v>19955</v>
+        <v>394</v>
       </c>
       <c r="D13" s="0">
-        <v>0.82036904058866367</v>
+        <v>0.90290951653744278</v>
       </c>
       <c r="E13" s="0">
-        <v>20340</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14">
@@ -1143,16 +1149,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="0">
-        <v>756.33199999999999</v>
+        <v>99.978000000000009</v>
       </c>
       <c r="C14" s="0">
-        <v>35405</v>
+        <v>696</v>
       </c>
       <c r="D14" s="0">
-        <v>0.77776699855091591</v>
+        <v>0.87500435432509038</v>
       </c>
       <c r="E14" s="0">
-        <v>36024</v>
+        <v>715</v>
       </c>
     </row>
     <row r="15">
@@ -1160,16 +1166,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="0">
-        <v>888.39699999999993</v>
+        <v>114.732</v>
       </c>
       <c r="C15" s="0">
-        <v>47188</v>
+        <v>912</v>
       </c>
       <c r="D15" s="0">
-        <v>0.75132401059694209</v>
+        <v>0.87063390106221017</v>
       </c>
       <c r="E15" s="0">
-        <v>48053</v>
+        <v>930</v>
       </c>
     </row>
     <row r="16">
@@ -1177,16 +1183,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="0">
-        <v>1042.019</v>
+        <v>139.65000000000001</v>
       </c>
       <c r="C16" s="0">
-        <v>69327</v>
+        <v>1342</v>
       </c>
       <c r="D16" s="0">
-        <v>0.80234471363090965</v>
+        <v>0.86472994744392595</v>
       </c>
       <c r="E16" s="0">
-        <v>70188</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="17">
@@ -1194,16 +1200,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="0">
-        <v>96.165999999999997</v>
+        <v>128.59300000000002</v>
       </c>
       <c r="C17" s="0">
-        <v>186</v>
+        <v>399</v>
       </c>
       <c r="D17" s="0">
-        <v>0.25274333053870013</v>
+        <v>0.30321319953103631</v>
       </c>
       <c r="E17" s="0">
-        <v>246</v>
+        <v>512</v>
       </c>
     </row>
     <row r="18">
@@ -1211,16 +1217,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="0">
-        <v>271.637</v>
+        <v>43.351999999999997</v>
       </c>
       <c r="C18" s="0">
-        <v>574</v>
+        <v>34</v>
       </c>
       <c r="D18" s="0">
-        <v>0.097756108695309235</v>
+        <v>0.22733719913875686</v>
       </c>
       <c r="E18" s="0">
-        <v>883</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19">
@@ -1228,16 +1234,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="0">
-        <v>138.68399999999997</v>
+        <v>58.817</v>
       </c>
       <c r="C19" s="0">
-        <v>283</v>
+        <v>50</v>
       </c>
       <c r="D19" s="0">
-        <v>0.18490283964925205</v>
+        <v>0.18162437375066881</v>
       </c>
       <c r="E19" s="0">
-        <v>454</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -1245,16 +1251,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="0">
-        <v>3801.7599999999998</v>
+        <v>430.678</v>
       </c>
       <c r="C20" s="0">
-        <v>155753</v>
+        <v>1193</v>
       </c>
       <c r="D20" s="0">
-        <v>0.13541815440399596</v>
+        <v>0.080824854693150386</v>
       </c>
       <c r="E20" s="0">
-        <v>225472</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="21">
@@ -1262,16 +1268,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="0">
-        <v>2072.587</v>
+        <v>231.37499999999997</v>
       </c>
       <c r="C21" s="0">
-        <v>54073</v>
+        <v>590</v>
       </c>
       <c r="D21" s="0">
-        <v>0.15818481451858782</v>
+        <v>0.13849337922620492</v>
       </c>
       <c r="E21" s="0">
-        <v>86847</v>
+        <v>954</v>
       </c>
     </row>
     <row r="22">
@@ -1279,16 +1285,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="0">
-        <v>1483.6579999999999</v>
+        <v>214.48699999999999</v>
       </c>
       <c r="C22" s="0">
-        <v>56907</v>
+        <v>1000</v>
       </c>
       <c r="D22" s="0">
-        <v>0.32486875937075427</v>
+        <v>0.27315421996796085</v>
       </c>
       <c r="E22" s="0">
-        <v>80378</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="23">
@@ -1296,16 +1302,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="0">
-        <v>195.52699999999996</v>
+        <v>115.05599999999998</v>
       </c>
       <c r="C23" s="0">
-        <v>280</v>
+        <v>359</v>
       </c>
       <c r="D23" s="0">
-        <v>0.092035297735850494</v>
+        <v>0.34078915822172007</v>
       </c>
       <c r="E23" s="0">
-        <v>446</v>
+        <v>542</v>
       </c>
     </row>
     <row r="24">
@@ -1313,16 +1319,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="0">
-        <v>174.90799999999999</v>
+        <v>100.441</v>
       </c>
       <c r="C24" s="0">
-        <v>307</v>
+        <v>365</v>
       </c>
       <c r="D24" s="0">
-        <v>0.12610400850082173</v>
+        <v>0.45465364016836546</v>
       </c>
       <c r="E24" s="0">
-        <v>477</v>
+        <v>523</v>
       </c>
     </row>
     <row r="25">
@@ -1330,16 +1336,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="0">
-        <v>140.65299999999999</v>
+        <v>27.523</v>
       </c>
       <c r="C25" s="0">
-        <v>149</v>
+        <v>34</v>
       </c>
       <c r="D25" s="0">
-        <v>0.094645099693330279</v>
+        <v>0.5640235540151044</v>
       </c>
       <c r="E25" s="0">
-        <v>268</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26">
@@ -1347,16 +1353,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="0">
-        <v>98.846000000000004</v>
+        <v>56.542999999999999</v>
       </c>
       <c r="C26" s="0">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="D26" s="0">
-        <v>0.17748871762442017</v>
+        <v>0.19652697713452311</v>
       </c>
       <c r="E26" s="0">
-        <v>240</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27">
@@ -1364,16 +1370,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="0">
-        <v>241.51900000000001</v>
+        <v>334.851</v>
       </c>
       <c r="C27" s="0">
-        <v>480</v>
+        <v>599</v>
       </c>
       <c r="D27" s="0">
-        <v>0.10340665688776307</v>
+        <v>0.067132602854383439</v>
       </c>
       <c r="E27" s="0">
-        <v>793</v>
+        <v>961</v>
       </c>
     </row>
     <row r="28">
@@ -1381,16 +1387,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="0">
-        <v>141.38</v>
+        <v>241.33399999999997</v>
       </c>
       <c r="C28" s="0">
-        <v>323</v>
+        <v>653</v>
       </c>
       <c r="D28" s="0">
-        <v>0.20306563414343506</v>
+        <v>0.14089189905124549</v>
       </c>
       <c r="E28" s="0">
-        <v>519</v>
+        <v>979</v>
       </c>
     </row>
     <row r="29">
@@ -1398,16 +1404,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="0">
-        <v>128.55300000000003</v>
+        <v>221.97899999999998</v>
       </c>
       <c r="C29" s="0">
-        <v>203</v>
+        <v>340</v>
       </c>
       <c r="D29" s="0">
-        <v>0.15436238132991487</v>
+        <v>0.086709164168697478</v>
       </c>
       <c r="E29" s="0">
-        <v>363</v>
+        <v>561</v>
       </c>
     </row>
     <row r="30">
@@ -1415,16 +1421,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="0">
-        <v>63.548999999999992</v>
+        <v>145.952</v>
       </c>
       <c r="C30" s="0">
-        <v>151</v>
+        <v>305</v>
       </c>
       <c r="D30" s="0">
-        <v>0.46986096839871166</v>
+        <v>0.17992420907058096</v>
       </c>
       <c r="E30" s="0">
-        <v>210</v>
+        <v>492</v>
       </c>
     </row>
     <row r="31">
@@ -1432,16 +1438,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="0">
-        <v>93.98299999999999</v>
+        <v>371.35000000000002</v>
       </c>
       <c r="C31" s="0">
-        <v>171</v>
+        <v>933</v>
       </c>
       <c r="D31" s="0">
-        <v>0.24328053749945586</v>
+        <v>0.085020695095543081</v>
       </c>
       <c r="E31" s="0">
-        <v>258</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="32">
@@ -1449,16 +1455,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="0">
-        <v>773.25799999999992</v>
+        <v>256.25900000000001</v>
       </c>
       <c r="C32" s="0">
-        <v>13090</v>
+        <v>633</v>
       </c>
       <c r="D32" s="0">
-        <v>0.27510638294882139</v>
+        <v>0.12113100483720349</v>
       </c>
       <c r="E32" s="0">
-        <v>19878</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="33">
@@ -1466,16 +1472,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="0">
-        <v>467.37299999999999</v>
+        <v>213.13</v>
       </c>
       <c r="C33" s="0">
-        <v>6489</v>
+        <v>414</v>
       </c>
       <c r="D33" s="0">
-        <v>0.37330207051938069</v>
+        <v>0.11453046797292089</v>
       </c>
       <c r="E33" s="0">
-        <v>9343</v>
+        <v>732</v>
       </c>
     </row>
     <row r="34">
@@ -1483,16 +1489,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="0">
-        <v>559.4129999999999</v>
+        <v>97.108999999999995</v>
       </c>
       <c r="C34" s="0">
-        <v>8266</v>
+        <v>305</v>
       </c>
       <c r="D34" s="0">
-        <v>0.33192514666965428</v>
+        <v>0.40643466267959383</v>
       </c>
       <c r="E34" s="0">
-        <v>12565</v>
+        <v>415</v>
       </c>
     </row>
     <row r="35">
@@ -1500,16 +1506,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="0">
-        <v>505.75599999999997</v>
+        <v>146.548</v>
       </c>
       <c r="C35" s="0">
-        <v>7107</v>
+        <v>344</v>
       </c>
       <c r="D35" s="0">
-        <v>0.34915164463772841</v>
+        <v>0.2012836573157763</v>
       </c>
       <c r="E35" s="0">
-        <v>10335</v>
+        <v>531</v>
       </c>
     </row>
     <row r="36">
@@ -1517,16 +1523,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="0">
-        <v>560.54500000000007</v>
+        <v>211.518</v>
       </c>
       <c r="C36" s="0">
-        <v>8113</v>
+        <v>1090</v>
       </c>
       <c r="D36" s="0">
-        <v>0.32446688085283193</v>
+        <v>0.30615524156392604</v>
       </c>
       <c r="E36" s="0">
-        <v>12270</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="37">
@@ -1534,16 +1540,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="0">
-        <v>554.98199999999997</v>
+        <v>124.384</v>
       </c>
       <c r="C37" s="0">
-        <v>8044</v>
+        <v>546</v>
       </c>
       <c r="D37" s="0">
-        <v>0.32818908313757977</v>
+        <v>0.44347941791184187</v>
       </c>
       <c r="E37" s="0">
-        <v>12215</v>
+        <v>778</v>
       </c>
     </row>
     <row r="38">
@@ -1551,16 +1557,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="0">
-        <v>772.03200000000004</v>
+        <v>172.14399999999998</v>
       </c>
       <c r="C38" s="0">
-        <v>12721</v>
+        <v>700</v>
       </c>
       <c r="D38" s="0">
-        <v>0.26820107424351808</v>
+        <v>0.29684116248405445</v>
       </c>
       <c r="E38" s="0">
-        <v>19614</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="39">
@@ -1568,16 +1574,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="0">
-        <v>717.29899999999998</v>
+        <v>148.97</v>
       </c>
       <c r="C39" s="0">
-        <v>12133</v>
+        <v>586</v>
       </c>
       <c r="D39" s="0">
-        <v>0.29633135772361291</v>
+        <v>0.33182556650313061</v>
       </c>
       <c r="E39" s="0">
-        <v>18483</v>
+        <v>876</v>
       </c>
     </row>
     <row r="40">
@@ -1585,16 +1591,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="0">
-        <v>759.048</v>
+        <v>150.61799999999999</v>
       </c>
       <c r="C40" s="0">
-        <v>13817</v>
+        <v>688</v>
       </c>
       <c r="D40" s="0">
-        <v>0.3013596765260399</v>
+        <v>0.38110491459554202</v>
       </c>
       <c r="E40" s="0">
-        <v>21055</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="41">
@@ -1602,16 +1608,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="0">
-        <v>622.19100000000003</v>
+        <v>158.48199999999997</v>
       </c>
       <c r="C41" s="0">
-        <v>9492</v>
+        <v>666</v>
       </c>
       <c r="D41" s="0">
-        <v>0.30812018083848647</v>
+        <v>0.33321474169382681</v>
       </c>
       <c r="E41" s="0">
-        <v>13880</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="42">
@@ -1619,16 +1625,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="0">
-        <v>811.15199999999993</v>
+        <v>204.059</v>
       </c>
       <c r="C42" s="0">
-        <v>14612</v>
+        <v>1068</v>
       </c>
       <c r="D42" s="0">
-        <v>0.27907121353291997</v>
+        <v>0.32230690413276092</v>
       </c>
       <c r="E42" s="0">
-        <v>21820</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="43">
@@ -1636,16 +1642,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="0">
-        <v>677.42999999999995</v>
+        <v>177.75900000000001</v>
       </c>
       <c r="C43" s="0">
-        <v>13027</v>
+        <v>1025</v>
       </c>
       <c r="D43" s="0">
-        <v>0.35671833004221981</v>
+        <v>0.4076341238863006</v>
       </c>
       <c r="E43" s="0">
-        <v>18387</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="44">
@@ -1653,16 +1659,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="0">
-        <v>617.64300000000003</v>
+        <v>216.24000000000001</v>
       </c>
       <c r="C44" s="0">
-        <v>10645</v>
+        <v>1165</v>
       </c>
       <c r="D44" s="0">
-        <v>0.35065536043369994</v>
+        <v>0.3130860547371514</v>
       </c>
       <c r="E44" s="0">
-        <v>15307</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="45">
@@ -1670,16 +1676,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="0">
-        <v>760.83299999999997</v>
+        <v>155.60399999999998</v>
       </c>
       <c r="C45" s="0">
-        <v>14805</v>
+        <v>794</v>
       </c>
       <c r="D45" s="0">
-        <v>0.32139535317263551</v>
+        <v>0.41208694164156157</v>
       </c>
       <c r="E45" s="0">
-        <v>22045</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="46">
@@ -1687,16 +1693,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="0">
-        <v>1051.5289999999998</v>
+        <v>211.03100000000001</v>
       </c>
       <c r="C46" s="0">
-        <v>8442</v>
+        <v>1225</v>
       </c>
       <c r="D46" s="0">
-        <v>0.095942869358750571</v>
+        <v>0.34566343301760272</v>
       </c>
       <c r="E46" s="0">
-        <v>21225</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="47">
@@ -1704,16 +1710,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="0">
-        <v>214.18699999999998</v>
+        <v>193.68700000000001</v>
       </c>
       <c r="C47" s="0">
-        <v>507</v>
+        <v>1094</v>
       </c>
       <c r="D47" s="0">
-        <v>0.13887740965840994</v>
+        <v>0.36645971634095792</v>
       </c>
       <c r="E47" s="0">
-        <v>1400</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="48">
@@ -1721,16 +1727,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="0">
-        <v>194.25599999999997</v>
+        <v>183.89499999999998</v>
       </c>
       <c r="C48" s="0">
-        <v>527</v>
+        <v>887</v>
       </c>
       <c r="D48" s="0">
-        <v>0.17549776730032948</v>
+        <v>0.32960488639688956</v>
       </c>
       <c r="E48" s="0">
-        <v>1417</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="49">
@@ -1738,16 +1744,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="0">
-        <v>200.071</v>
+        <v>230.88600000000002</v>
       </c>
       <c r="C49" s="0">
-        <v>515</v>
+        <v>1245</v>
       </c>
       <c r="D49" s="0">
-        <v>0.16167721046507372</v>
+        <v>0.29348372034530618</v>
       </c>
       <c r="E49" s="0">
-        <v>1437</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="50">
@@ -1755,16 +1761,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="0">
-        <v>276.55199999999996</v>
+        <v>211.96799999999999</v>
       </c>
       <c r="C50" s="0">
-        <v>686</v>
+        <v>1185</v>
       </c>
       <c r="D50" s="0">
-        <v>0.11271465148706304</v>
+        <v>0.33142678972315665</v>
       </c>
       <c r="E50" s="0">
-        <v>1917</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="51">
@@ -1772,16 +1778,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="0">
-        <v>261.12</v>
+        <v>262.54199999999997</v>
       </c>
       <c r="C51" s="0">
-        <v>703</v>
+        <v>752</v>
       </c>
       <c r="D51" s="0">
-        <v>0.12956416929589648</v>
+        <v>0.13709768643877451</v>
       </c>
       <c r="E51" s="0">
-        <v>1922</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="52">
@@ -1789,16 +1795,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="0">
-        <v>258.64699999999999</v>
+        <v>232.34799999999998</v>
       </c>
       <c r="C52" s="0">
-        <v>701</v>
+        <v>804</v>
       </c>
       <c r="D52" s="0">
-        <v>0.13167793009406553</v>
+        <v>0.18714922617375448</v>
       </c>
       <c r="E52" s="0">
-        <v>1924</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="53">
@@ -1806,16 +1812,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="0">
-        <v>198.87900000000002</v>
+        <v>246.53999999999996</v>
       </c>
       <c r="C53" s="0">
-        <v>513</v>
+        <v>766</v>
       </c>
       <c r="D53" s="0">
-        <v>0.16298565192593051</v>
+        <v>0.15836669389314656</v>
       </c>
       <c r="E53" s="0">
-        <v>1402</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="54">
@@ -1823,16 +1829,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="0">
-        <v>199.15200000000002</v>
+        <v>280.93599999999998</v>
       </c>
       <c r="C54" s="0">
-        <v>520</v>
+        <v>731</v>
       </c>
       <c r="D54" s="0">
-        <v>0.16475699537206431</v>
+        <v>0.11638913801601813</v>
       </c>
       <c r="E54" s="0">
-        <v>1422</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="55">
@@ -1840,16 +1846,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="0">
-        <v>198.65700000000001</v>
+        <v>257.21699999999998</v>
       </c>
       <c r="C55" s="0">
-        <v>495</v>
+        <v>748</v>
       </c>
       <c r="D55" s="0">
-        <v>0.15761854621503107</v>
+        <v>0.14207318763726395</v>
       </c>
       <c r="E55" s="0">
-        <v>1411</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="56">
@@ -1857,16 +1863,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="0">
-        <v>195.07499999999999</v>
+        <v>270.30799999999999</v>
       </c>
       <c r="C56" s="0">
-        <v>511</v>
+        <v>734</v>
       </c>
       <c r="D56" s="0">
-        <v>0.16874368657257205</v>
+        <v>0.12623742451450401</v>
       </c>
       <c r="E56" s="0">
-        <v>1390</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="57">
@@ -1874,16 +1880,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="0">
-        <v>197.15100000000001</v>
+        <v>234.81299999999999</v>
       </c>
       <c r="C57" s="0">
-        <v>525</v>
+        <v>776</v>
       </c>
       <c r="D57" s="0">
-        <v>0.16973491955753839</v>
+        <v>0.17685905939136584</v>
       </c>
       <c r="E57" s="0">
-        <v>1446</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="58">
@@ -1891,16 +1897,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="0">
-        <v>196.084</v>
+        <v>247.09399999999999</v>
       </c>
       <c r="C58" s="0">
-        <v>533</v>
+        <v>752</v>
       </c>
       <c r="D58" s="0">
-        <v>0.17420184792369761</v>
+        <v>0.15477588816822718</v>
       </c>
       <c r="E58" s="0">
-        <v>1443</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="59">
@@ -1908,16 +1914,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="0">
-        <v>200.27799999999999</v>
+        <v>240.12199999999999</v>
       </c>
       <c r="C59" s="0">
-        <v>505</v>
+        <v>770</v>
       </c>
       <c r="D59" s="0">
-        <v>0.15821029869778661</v>
+        <v>0.16781728290238476</v>
       </c>
       <c r="E59" s="0">
-        <v>1429</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="60">
@@ -1925,16 +1931,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="0">
-        <v>199.61599999999999</v>
+        <v>229.834</v>
       </c>
       <c r="C60" s="0">
-        <v>520</v>
+        <v>768</v>
       </c>
       <c r="D60" s="0">
-        <v>0.16399194250599544</v>
+        <v>0.1827016766981685</v>
       </c>
       <c r="E60" s="0">
-        <v>1413</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="61">
@@ -1942,16 +1948,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="0">
-        <v>219.745</v>
+        <v>233.142</v>
       </c>
       <c r="C61" s="0">
-        <v>516</v>
+        <v>761</v>
       </c>
       <c r="D61" s="0">
-        <v>0.13428316272944049</v>
+        <v>0.17593550232834992</v>
       </c>
       <c r="E61" s="0">
-        <v>1441</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="62">
@@ -1959,16 +1965,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="0">
-        <v>789.82099999999991</v>
+        <v>253.834</v>
       </c>
       <c r="C62" s="0">
-        <v>35499</v>
+        <v>769</v>
       </c>
       <c r="D62" s="0">
-        <v>0.71510304914417322</v>
+        <v>0.14998112837367047</v>
       </c>
       <c r="E62" s="0">
-        <v>39544</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="63">
@@ -1976,16 +1982,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="0">
-        <v>733.89400000000001</v>
+        <v>233.27399999999997</v>
       </c>
       <c r="C63" s="0">
-        <v>25297</v>
+        <v>757</v>
       </c>
       <c r="D63" s="0">
-        <v>0.59021767440480843</v>
+        <v>0.17481273630765345</v>
       </c>
       <c r="E63" s="0">
-        <v>28798</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="64">
@@ -1993,16 +1999,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="0">
-        <v>662.60200000000009</v>
+        <v>230.42100000000002</v>
       </c>
       <c r="C64" s="0">
-        <v>24830</v>
+        <v>762</v>
       </c>
       <c r="D64" s="0">
-        <v>0.71069146317523624</v>
+        <v>0.18035189968803497</v>
       </c>
       <c r="E64" s="0">
-        <v>27547</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="65">
@@ -2010,16 +2016,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="0">
-        <v>670.96699999999998</v>
+        <v>245.05099999999999</v>
       </c>
       <c r="C65" s="0">
-        <v>23730</v>
+        <v>771</v>
       </c>
       <c r="D65" s="0">
-        <v>0.66237705581612605</v>
+        <v>0.16134342943298849</v>
       </c>
       <c r="E65" s="0">
-        <v>26837</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="66">
@@ -2027,16 +2033,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="0">
-        <v>677.78899999999999</v>
+        <v>228.52399999999997</v>
       </c>
       <c r="C66" s="0">
-        <v>24178</v>
+        <v>2975</v>
       </c>
       <c r="D66" s="0">
-        <v>0.66136499503194313</v>
+        <v>0.71586841250147293</v>
       </c>
       <c r="E66" s="0">
-        <v>26986</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="67">
@@ -2044,16 +2050,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="0">
-        <v>691.38800000000003</v>
+        <v>201.41200000000001</v>
       </c>
       <c r="C67" s="0">
-        <v>25294</v>
+        <v>2111</v>
       </c>
       <c r="D67" s="0">
-        <v>0.66494190497228189</v>
+        <v>0.6539242054552501</v>
       </c>
       <c r="E67" s="0">
-        <v>28311</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="68">
@@ -2061,16 +2067,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="0">
-        <v>704.78899999999999</v>
+        <v>192.952</v>
       </c>
       <c r="C68" s="0">
-        <v>27645</v>
+        <v>2058</v>
       </c>
       <c r="D68" s="0">
-        <v>0.69937197254216743</v>
+        <v>0.69463500553826252</v>
       </c>
       <c r="E68" s="0">
-        <v>30919</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="69">
@@ -2078,16 +2084,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="0">
-        <v>702.19399999999996</v>
+        <v>193.81099999999998</v>
       </c>
       <c r="C69" s="0">
-        <v>27930</v>
+        <v>1971</v>
       </c>
       <c r="D69" s="0">
-        <v>0.71181407496435645</v>
+        <v>0.65938588086924188</v>
       </c>
       <c r="E69" s="0">
-        <v>31102</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="70">
@@ -2095,16 +2101,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="0">
-        <v>734.73799999999994</v>
+        <v>189.17400000000001</v>
       </c>
       <c r="C70" s="0">
-        <v>30458</v>
+        <v>2020</v>
       </c>
       <c r="D70" s="0">
-        <v>0.70900001252881706</v>
+        <v>0.70931368623647761</v>
       </c>
       <c r="E70" s="0">
-        <v>34264</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="71">
@@ -2112,16 +2118,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="0">
-        <v>784.82999999999993</v>
+        <v>195.898</v>
       </c>
       <c r="C71" s="0">
-        <v>29493</v>
+        <v>2100</v>
       </c>
       <c r="D71" s="0">
-        <v>0.60169669193450126</v>
+        <v>0.68765270307932802</v>
       </c>
       <c r="E71" s="0">
-        <v>33034</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="72">
@@ -2129,16 +2135,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="0">
-        <v>676.029</v>
+        <v>203.43299999999999</v>
       </c>
       <c r="C72" s="0">
-        <v>24261</v>
+        <v>2309</v>
       </c>
       <c r="D72" s="0">
-        <v>0.66709534294959549</v>
+        <v>0.70111779442976063</v>
       </c>
       <c r="E72" s="0">
-        <v>27121</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="73">
@@ -2146,16 +2152,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="0">
-        <v>671.53599999999994</v>
+        <v>210.04499999999999</v>
       </c>
       <c r="C73" s="0">
-        <v>25679</v>
+        <v>2329</v>
       </c>
       <c r="D73" s="0">
-        <v>0.71556546516455621</v>
+        <v>0.6633682122066028</v>
       </c>
       <c r="E73" s="0">
-        <v>28543</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="74">
@@ -2163,16 +2169,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="0">
-        <v>652.97900000000004</v>
+        <v>218.49699999999999</v>
       </c>
       <c r="C74" s="0">
-        <v>23596</v>
+        <v>2530</v>
       </c>
       <c r="D74" s="0">
-        <v>0.69542423685911181</v>
+        <v>0.66594663436207635</v>
       </c>
       <c r="E74" s="0">
-        <v>26365</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="75">
@@ -2180,16 +2186,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="0">
-        <v>620.73299999999995</v>
+        <v>213.35599999999999</v>
       </c>
       <c r="C75" s="0">
-        <v>21567</v>
+        <v>2460</v>
       </c>
       <c r="D75" s="0">
-        <v>0.70337986756605231</v>
+        <v>0.67910237595444234</v>
       </c>
       <c r="E75" s="0">
-        <v>24156</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="76">
@@ -2197,16 +2203,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="0">
-        <v>647.95999999999992</v>
+        <v>194.977</v>
       </c>
       <c r="C76" s="0">
-        <v>24303</v>
+        <v>2008</v>
       </c>
       <c r="D76" s="0">
-        <v>0.72740010168562885</v>
+        <v>0.66375347037835442</v>
       </c>
       <c r="E76" s="0">
-        <v>27028</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="77">
@@ -2214,16 +2220,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="0">
-        <v>754.73299999999995</v>
+        <v>184.70599999999999</v>
       </c>
       <c r="C77" s="0">
-        <v>32087</v>
+        <v>2127</v>
       </c>
       <c r="D77" s="0">
-        <v>0.70786803139152643</v>
+        <v>0.78345732844448535</v>
       </c>
       <c r="E77" s="0">
-        <v>35615</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="78">
@@ -2231,16 +2237,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="0">
-        <v>746.03200000000004</v>
+        <v>181.06700000000001</v>
       </c>
       <c r="C78" s="0">
-        <v>14909</v>
+        <v>1967</v>
       </c>
       <c r="D78" s="0">
-        <v>0.3366227519570143</v>
+        <v>0.75393796290298609</v>
       </c>
       <c r="E78" s="0">
-        <v>21155</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="79">
@@ -2248,16 +2254,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="0">
-        <v>607.27700000000004</v>
+        <v>181.34999999999999</v>
       </c>
       <c r="C79" s="0">
-        <v>11445</v>
+        <v>1794</v>
       </c>
       <c r="D79" s="0">
-        <v>0.38998867454220798</v>
+        <v>0.68548377996628873</v>
       </c>
       <c r="E79" s="0">
-        <v>16094</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="80">
@@ -2265,16 +2271,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="0">
-        <v>582.80799999999999</v>
+        <v>181.96899999999999</v>
       </c>
       <c r="C80" s="0">
-        <v>9758</v>
+        <v>2027</v>
       </c>
       <c r="D80" s="0">
-        <v>0.36101036296734823</v>
+        <v>0.76925228652504973</v>
       </c>
       <c r="E80" s="0">
-        <v>13735</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="81">
@@ -2282,16 +2288,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="0">
-        <v>687.21899999999994</v>
+        <v>222.25399999999999</v>
       </c>
       <c r="C81" s="0">
-        <v>26777</v>
+        <v>2686</v>
       </c>
       <c r="D81" s="0">
-        <v>0.71249441790337331</v>
+        <v>0.68330830712210844</v>
       </c>
       <c r="E81" s="0">
-        <v>29678</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="82">
@@ -2299,16 +2305,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="0">
-        <v>866.74799999999982</v>
+        <v>198.023</v>
       </c>
       <c r="C82" s="0">
-        <v>33932</v>
+        <v>1249</v>
       </c>
       <c r="D82" s="0">
-        <v>0.56758855015288967</v>
+        <v>0.40025893090641101</v>
       </c>
       <c r="E82" s="0">
-        <v>37793</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="83">
@@ -2316,16 +2322,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="0">
-        <v>807.21199999999999</v>
+        <v>173.303</v>
       </c>
       <c r="C83" s="0">
-        <v>14807</v>
+        <v>958</v>
       </c>
       <c r="D83" s="0">
-        <v>0.28556285902954276</v>
+        <v>0.40083276231632509</v>
       </c>
       <c r="E83" s="0">
-        <v>20885</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="84">
@@ -2333,16 +2339,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="0">
-        <v>826.60199999999998</v>
+        <v>153.65200000000002</v>
       </c>
       <c r="C84" s="0">
-        <v>39413</v>
+        <v>810</v>
       </c>
       <c r="D84" s="0">
-        <v>0.72486387079599712</v>
+        <v>0.43114012938373097</v>
       </c>
       <c r="E84" s="0">
-        <v>43701</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="85">
@@ -2350,16 +2356,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="0">
-        <v>851.67600000000004</v>
+        <v>203.446</v>
       </c>
       <c r="C85" s="0">
-        <v>40726</v>
+        <v>2232</v>
       </c>
       <c r="D85" s="0">
-        <v>0.70555813357832031</v>
+        <v>0.67765046905758197</v>
       </c>
       <c r="E85" s="0">
-        <v>45097</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="86">
@@ -2367,16 +2373,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="0">
-        <v>842.40899999999999</v>
+        <v>231.05099999999999</v>
       </c>
       <c r="C86" s="0">
-        <v>40229</v>
+        <v>2839</v>
       </c>
       <c r="D86" s="0">
-        <v>0.71236587190789369</v>
+        <v>0.66828167356632173</v>
       </c>
       <c r="E86" s="0">
-        <v>44906</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="87">
@@ -2384,16 +2390,16 @@
         <v>86</v>
       </c>
       <c r="B87" s="0">
-        <v>815.67200000000003</v>
+        <v>215.71100000000001</v>
       </c>
       <c r="C87" s="0">
-        <v>19199</v>
+        <v>1243</v>
       </c>
       <c r="D87" s="0">
-        <v>0.36262468454982527</v>
+        <v>0.33568845741478309</v>
       </c>
       <c r="E87" s="0">
-        <v>26704</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="88">
@@ -2401,16 +2407,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="0">
-        <v>830.28399999999999</v>
+        <v>236.09100000000001</v>
       </c>
       <c r="C88" s="0">
-        <v>19461</v>
+        <v>3302</v>
       </c>
       <c r="D88" s="0">
-        <v>0.35474940753764855</v>
+        <v>0.74443720441549543</v>
       </c>
       <c r="E88" s="0">
-        <v>27997</v>
+        <v>3678</v>
       </c>
     </row>
     <row r="89">
@@ -2418,16 +2424,16 @@
         <v>88</v>
       </c>
       <c r="B89" s="0">
-        <v>936.57299999999998</v>
+        <v>194.12899999999999</v>
       </c>
       <c r="C89" s="0">
-        <v>20998</v>
+        <v>2191</v>
       </c>
       <c r="D89" s="0">
-        <v>0.30081849093440427</v>
+        <v>0.73058610274107816</v>
       </c>
       <c r="E89" s="0">
-        <v>30196</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="90">
@@ -2435,16 +2441,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="0">
-        <v>891.23599999999999</v>
+        <v>197.55799999999999</v>
       </c>
       <c r="C90" s="0">
-        <v>45147</v>
+        <v>2141</v>
       </c>
       <c r="D90" s="0">
-        <v>0.71425504950457952</v>
+        <v>0.68934604706795855</v>
       </c>
       <c r="E90" s="0">
-        <v>50225</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="91">
@@ -2452,16 +2458,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="0">
-        <v>1180.0709999999999</v>
+        <v>169.26599999999999</v>
       </c>
       <c r="C91" s="0">
-        <v>28171</v>
+        <v>1027</v>
       </c>
       <c r="D91" s="0">
-        <v>0.25421188563061903</v>
+        <v>0.45044404000488841</v>
       </c>
       <c r="E91" s="0">
-        <v>42801</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="92">
@@ -2469,16 +2475,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="0">
-        <v>828.61899999999991</v>
+        <v>202.255</v>
       </c>
       <c r="C92" s="0">
-        <v>19954</v>
+        <v>1041</v>
       </c>
       <c r="D92" s="0">
-        <v>0.36519940160410558</v>
+        <v>0.31978792430585562</v>
       </c>
       <c r="E92" s="0">
-        <v>27650</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="93">
@@ -2486,16 +2492,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="0">
-        <v>883.44100000000003</v>
+        <v>198.22099999999998</v>
       </c>
       <c r="C93" s="0">
-        <v>21286</v>
+        <v>1124</v>
       </c>
       <c r="D93" s="0">
-        <v>0.34272739527103924</v>
+        <v>0.35948175206809174</v>
       </c>
       <c r="E93" s="0">
-        <v>29976</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="94">
@@ -2503,16 +2509,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="0">
-        <v>712.13400000000001</v>
+        <v>200.22999999999999</v>
       </c>
       <c r="C94" s="0">
-        <v>29299</v>
+        <v>2427</v>
       </c>
       <c r="D94" s="0">
-        <v>0.7260043443634826</v>
+        <v>0.76071388903733872</v>
       </c>
       <c r="E94" s="0">
-        <v>32563</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="95">
@@ -2520,16 +2526,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="0">
-        <v>956.65700000000004</v>
+        <v>236.24000000000001</v>
       </c>
       <c r="C95" s="0">
-        <v>7786</v>
+        <v>1508</v>
       </c>
       <c r="D95" s="0">
-        <v>0.10690838183174912</v>
+        <v>0.33955047132567345</v>
       </c>
       <c r="E95" s="0">
-        <v>17177</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="96">
@@ -2537,16 +2543,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="0">
-        <v>664.41899999999998</v>
+        <v>177.87700000000001</v>
       </c>
       <c r="C96" s="0">
-        <v>11174</v>
+        <v>1069</v>
       </c>
       <c r="D96" s="0">
-        <v>0.31807859516481984</v>
+        <v>0.42456870274605146</v>
       </c>
       <c r="E96" s="0">
-        <v>15875</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="97">
@@ -2554,16 +2560,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="0">
-        <v>743.56400000000008</v>
+        <v>195.011</v>
       </c>
       <c r="C97" s="0">
-        <v>29844</v>
+        <v>1138</v>
       </c>
       <c r="D97" s="0">
-        <v>0.67831306994322793</v>
+        <v>0.37603988172379532</v>
       </c>
       <c r="E97" s="0">
-        <v>33416</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="98">
@@ -2571,16 +2577,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="0">
-        <v>691.40499999999997</v>
+        <v>158.11699999999999</v>
       </c>
       <c r="C98" s="0">
-        <v>25842</v>
+        <v>1574</v>
       </c>
       <c r="D98" s="0">
-        <v>0.67931460898317853</v>
+        <v>0.79114750086449437</v>
       </c>
       <c r="E98" s="0">
-        <v>28786</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="99">
@@ -2588,16 +2594,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="0">
-        <v>734.17999999999995</v>
+        <v>139.86699999999999</v>
       </c>
       <c r="C99" s="0">
-        <v>12798</v>
+        <v>655</v>
       </c>
       <c r="D99" s="0">
-        <v>0.29836430902031635</v>
+        <v>0.42074662827832837</v>
       </c>
       <c r="E99" s="0">
-        <v>18405</v>
+        <v>916</v>
       </c>
     </row>
     <row r="100">
@@ -2605,16 +2611,16 @@
         <v>99</v>
       </c>
       <c r="B100" s="0">
-        <v>740.18299999999988</v>
+        <v>147.86199999999997</v>
       </c>
       <c r="C100" s="0">
-        <v>31086</v>
+        <v>602</v>
       </c>
       <c r="D100" s="0">
-        <v>0.71301143357060115</v>
+        <v>0.34601362696287857</v>
       </c>
       <c r="E100" s="0">
-        <v>34711</v>
+        <v>847</v>
       </c>
     </row>
     <row r="101">
@@ -2622,16 +2628,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="0">
-        <v>815.16099999999994</v>
+        <v>166.97699999999998</v>
       </c>
       <c r="C101" s="0">
-        <v>34541</v>
+        <v>1607</v>
       </c>
       <c r="D101" s="0">
-        <v>0.65321775982808694</v>
+        <v>0.72428990602688992</v>
       </c>
       <c r="E101" s="0">
-        <v>38706</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="102">
@@ -2639,16 +2645,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="0">
-        <v>748.60599999999999</v>
+        <v>154.398</v>
       </c>
       <c r="C102" s="0">
-        <v>31737</v>
+        <v>1390</v>
       </c>
       <c r="D102" s="0">
-        <v>0.71165438327275243</v>
+        <v>0.73272552964154469</v>
       </c>
       <c r="E102" s="0">
-        <v>35231</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="103">
@@ -2656,16 +2662,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="0">
-        <v>796.67499999999984</v>
+        <v>139.57599999999999</v>
       </c>
       <c r="C103" s="0">
-        <v>36560</v>
+        <v>689</v>
       </c>
       <c r="D103" s="0">
-        <v>0.72385849081890707</v>
+        <v>0.44443432129043497</v>
       </c>
       <c r="E103" s="0">
-        <v>40740</v>
+        <v>991</v>
       </c>
     </row>
     <row r="104">
@@ -2673,16 +2679,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="0">
-        <v>762.87300000000005</v>
+        <v>175.096</v>
       </c>
       <c r="C104" s="0">
-        <v>15454</v>
+        <v>1676</v>
       </c>
       <c r="D104" s="0">
-        <v>0.33369237513826544</v>
+        <v>0.6869599661642386</v>
       </c>
       <c r="E104" s="0">
-        <v>22136</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="105">
@@ -2690,16 +2696,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="0">
-        <v>862.178</v>
+        <v>180.73899999999998</v>
       </c>
       <c r="C105" s="0">
-        <v>40836</v>
+        <v>1868</v>
       </c>
       <c r="D105" s="0">
-        <v>0.69033387578434513</v>
+        <v>0.71859300572986673</v>
       </c>
       <c r="E105" s="0">
-        <v>45238</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="106">
@@ -2707,16 +2713,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="0">
-        <v>820.09300000000007</v>
+        <v>165.13</v>
       </c>
       <c r="C106" s="0">
-        <v>38051</v>
+        <v>1708</v>
       </c>
       <c r="D106" s="0">
-        <v>0.71096746778649078</v>
+        <v>0.78712873770439973</v>
       </c>
       <c r="E106" s="0">
-        <v>42492</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="107">
@@ -2724,16 +2730,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="0">
-        <v>731.97299999999996</v>
+        <v>180.93600000000001</v>
       </c>
       <c r="C107" s="0">
-        <v>14194</v>
+        <v>1962</v>
       </c>
       <c r="D107" s="0">
-        <v>0.33290823750771936</v>
+        <v>0.75311083704720294</v>
       </c>
       <c r="E107" s="0">
-        <v>20328</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="108">
@@ -2741,16 +2747,16 @@
         <v>107</v>
       </c>
       <c r="B108" s="0">
-        <v>980.86400000000003</v>
+        <v>165.99299999999997</v>
       </c>
       <c r="C108" s="0">
-        <v>20911</v>
+        <v>823</v>
       </c>
       <c r="D108" s="0">
-        <v>0.27312853523614672</v>
+        <v>0.3753445818708806</v>
       </c>
       <c r="E108" s="0">
-        <v>31782</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="109">
@@ -2758,16 +2764,16 @@
         <v>108</v>
       </c>
       <c r="B109" s="0">
-        <v>899.15099999999995</v>
+        <v>196.28700000000001</v>
       </c>
       <c r="C109" s="0">
-        <v>40042</v>
+        <v>2210</v>
       </c>
       <c r="D109" s="0">
-        <v>0.62238678395851754</v>
+        <v>0.72080711167951872</v>
       </c>
       <c r="E109" s="0">
-        <v>45032</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="110">
@@ -2775,16 +2781,16 @@
         <v>109</v>
       </c>
       <c r="B110" s="0">
-        <v>787.21600000000001</v>
+        <v>182.57199999999997</v>
       </c>
       <c r="C110" s="0">
-        <v>36124</v>
+        <v>2049</v>
       </c>
       <c r="D110" s="0">
-        <v>0.7325172776529969</v>
+        <v>0.77247329813609633</v>
       </c>
       <c r="E110" s="0">
-        <v>39808</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="111">
@@ -2792,16 +2798,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="0">
-        <v>1009.826</v>
+        <v>160.36799999999999</v>
       </c>
       <c r="C111" s="0">
-        <v>8089</v>
+        <v>757</v>
       </c>
       <c r="D111" s="0">
-        <v>0.099680820210079665</v>
+        <v>0.36988806425398946</v>
       </c>
       <c r="E111" s="0">
-        <v>20028</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="112">
@@ -2809,16 +2815,16 @@
         <v>111</v>
       </c>
       <c r="B112" s="0">
-        <v>726.19799999999998</v>
+        <v>191.79499999999999</v>
       </c>
       <c r="C112" s="0">
-        <v>13908</v>
+        <v>1113</v>
       </c>
       <c r="D112" s="0">
-        <v>0.33140911503655618</v>
+        <v>0.38021606781847278</v>
       </c>
       <c r="E112" s="0">
-        <v>20258</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="113">
@@ -2826,16 +2832,16 @@
         <v>112</v>
       </c>
       <c r="B113" s="0">
-        <v>871.09900000000005</v>
+        <v>192.09299999999999</v>
       </c>
       <c r="C113" s="0">
-        <v>17596</v>
+        <v>2150</v>
       </c>
       <c r="D113" s="0">
-        <v>0.29139948974686947</v>
+        <v>0.73219244876869871</v>
       </c>
       <c r="E113" s="0">
-        <v>27307</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="114">
@@ -2843,16 +2849,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="0">
-        <v>1034.5540000000001</v>
+        <v>182.23599999999999</v>
       </c>
       <c r="C114" s="0">
-        <v>8925</v>
+        <v>1946</v>
       </c>
       <c r="D114" s="0">
-        <v>0.10478805042175653</v>
+        <v>0.73635010217999008</v>
       </c>
       <c r="E114" s="0">
-        <v>21124</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="115">
@@ -2860,16 +2866,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="0">
-        <v>805.46199999999999</v>
+        <v>147.34200000000001</v>
       </c>
       <c r="C115" s="0">
-        <v>36922</v>
+        <v>732</v>
       </c>
       <c r="D115" s="0">
-        <v>0.71516288834001274</v>
+        <v>0.42370913162245671</v>
       </c>
       <c r="E115" s="0">
-        <v>40921</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="116">
@@ -2877,16 +2883,16 @@
         <v>115</v>
       </c>
       <c r="B116" s="0">
-        <v>752.50799999999992</v>
+        <v>170.38200000000001</v>
       </c>
       <c r="C116" s="0">
-        <v>32253</v>
+        <v>747</v>
       </c>
       <c r="D116" s="0">
-        <v>0.71574403606304504</v>
+        <v>0.32335757720304753</v>
       </c>
       <c r="E116" s="0">
-        <v>35796</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="117">
@@ -2894,16 +2900,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="0">
-        <v>806.45799999999997</v>
+        <v>180.53899999999999</v>
       </c>
       <c r="C117" s="0">
-        <v>34136</v>
+        <v>956</v>
       </c>
       <c r="D117" s="0">
-        <v>0.65956710093956628</v>
+        <v>0.36857484462174483</v>
       </c>
       <c r="E117" s="0">
-        <v>37929</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="118">
@@ -2911,16 +2917,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="0">
-        <v>647.73099999999999</v>
+        <v>171.78800000000001</v>
       </c>
       <c r="C118" s="0">
-        <v>13126</v>
+        <v>776</v>
       </c>
       <c r="D118" s="0">
-        <v>0.39314512856034489</v>
+        <v>0.33043492102474709</v>
       </c>
       <c r="E118" s="0">
-        <v>17904</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="119">
@@ -2928,16 +2934,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="0">
-        <v>660.59900000000005</v>
+        <v>186.46200000000002</v>
       </c>
       <c r="C119" s="0">
-        <v>12373</v>
+        <v>1991</v>
       </c>
       <c r="D119" s="0">
-        <v>0.35629444646403158</v>
+        <v>0.71961539816193654</v>
       </c>
       <c r="E119" s="0">
-        <v>17914</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="120">
@@ -2945,16 +2951,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="0">
-        <v>807.05799999999999</v>
+        <v>167.21599999999998</v>
       </c>
       <c r="C120" s="0">
-        <v>17569</v>
+        <v>1720</v>
       </c>
       <c r="D120" s="0">
-        <v>0.33895919001138158</v>
+        <v>0.77300561777256604</v>
       </c>
       <c r="E120" s="0">
-        <v>26087</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="121">
@@ -2962,16 +2968,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="0">
-        <v>833.48699999999997</v>
+        <v>183.07599999999999</v>
       </c>
       <c r="C121" s="0">
-        <v>34930</v>
+        <v>1839</v>
       </c>
       <c r="D121" s="0">
-        <v>0.63184534275850102</v>
+        <v>0.68949125648763965</v>
       </c>
       <c r="E121" s="0">
-        <v>38306</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="122">
@@ -2979,16 +2985,16 @@
         <v>121</v>
       </c>
       <c r="B122" s="0">
-        <v>777.63900000000001</v>
+        <v>151.69999999999999</v>
       </c>
       <c r="C122" s="0">
-        <v>34338</v>
+        <v>700</v>
       </c>
       <c r="D122" s="0">
-        <v>0.71355720234112807</v>
+        <v>0.38224053693610066</v>
       </c>
       <c r="E122" s="0">
-        <v>38179</v>
+        <v>980</v>
       </c>
     </row>
     <row r="123">
@@ -2996,16 +3002,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="0">
-        <v>2719.3849999999998</v>
+        <v>138.18699999999998</v>
       </c>
       <c r="C123" s="0">
-        <v>59208</v>
+        <v>662</v>
       </c>
       <c r="D123" s="0">
-        <v>0.10061178634211063</v>
+        <v>0.43564574482397966</v>
       </c>
       <c r="E123" s="0">
-        <v>75288</v>
+        <v>956</v>
       </c>
     </row>
     <row r="124">
@@ -3013,16 +3019,16 @@
         <v>123</v>
       </c>
       <c r="B124" s="0">
-        <v>827.44999999999993</v>
+        <v>173.47699999999998</v>
       </c>
       <c r="C124" s="0">
-        <v>41720</v>
+        <v>940</v>
       </c>
       <c r="D124" s="0">
-        <v>0.76572115047064315</v>
+        <v>0.39251287910858751</v>
       </c>
       <c r="E124" s="0">
-        <v>42575</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="125">
@@ -3030,16 +3036,16 @@
         <v>124</v>
       </c>
       <c r="B125" s="0">
-        <v>1730.434</v>
+        <v>182.07499999999999</v>
       </c>
       <c r="C125" s="0">
-        <v>43829</v>
+        <v>1873</v>
       </c>
       <c r="D125" s="0">
-        <v>0.1839337167246973</v>
+        <v>0.70998145373029287</v>
       </c>
       <c r="E125" s="0">
-        <v>64569</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="126">
@@ -3047,16 +3053,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="0">
-        <v>718.13499999999999</v>
+        <v>178.29899999999998</v>
       </c>
       <c r="C126" s="0">
-        <v>15726</v>
+        <v>1830</v>
       </c>
       <c r="D126" s="0">
-        <v>0.38319157164296375</v>
+        <v>0.7233744062801386</v>
       </c>
       <c r="E126" s="0">
-        <v>19847</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="127">
@@ -3064,16 +3070,16 @@
         <v>126</v>
       </c>
       <c r="B127" s="0">
-        <v>875.96999999999991</v>
+        <v>305.19299999999998</v>
       </c>
       <c r="C127" s="0">
-        <v>52528</v>
+        <v>1099</v>
       </c>
       <c r="D127" s="0">
-        <v>0.86024521140242782</v>
+        <v>0.1482717522044526</v>
       </c>
       <c r="E127" s="0">
-        <v>53197</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="128">
@@ -3081,16 +3087,16 @@
         <v>127</v>
       </c>
       <c r="B128" s="0">
-        <v>1650.8359999999998</v>
+        <v>108.10799999999999</v>
       </c>
       <c r="C128" s="0">
-        <v>38215</v>
+        <v>818</v>
       </c>
       <c r="D128" s="0">
-        <v>0.17621215639181301</v>
+        <v>0.87952360914166428</v>
       </c>
       <c r="E128" s="0">
-        <v>51442</v>
+        <v>839</v>
       </c>
     </row>
     <row r="129">
@@ -3098,16 +3104,16 @@
         <v>128</v>
       </c>
       <c r="B129" s="0">
-        <v>2159.0340000000001</v>
+        <v>249.203</v>
       </c>
       <c r="C129" s="0">
-        <v>53901</v>
+        <v>836</v>
       </c>
       <c r="D129" s="0">
-        <v>0.14530739713975827</v>
+        <v>0.16916464785387583</v>
       </c>
       <c r="E129" s="0">
-        <v>65476</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="130">
@@ -3115,16 +3121,16 @@
         <v>129</v>
       </c>
       <c r="B130" s="0">
-        <v>547.70199999999988</v>
+        <v>88.99499999999999</v>
       </c>
       <c r="C130" s="0">
-        <v>20713</v>
+        <v>295</v>
       </c>
       <c r="D130" s="0">
-        <v>0.86768924733149799</v>
+        <v>0.46805906982787865</v>
       </c>
       <c r="E130" s="0">
-        <v>21072</v>
+        <v>372</v>
       </c>
     </row>
     <row r="131">
@@ -3132,16 +3138,16 @@
         <v>130</v>
       </c>
       <c r="B131" s="0">
-        <v>724.86599999999999</v>
+        <v>121.21599999999999</v>
       </c>
       <c r="C131" s="0">
-        <v>36861</v>
+        <v>1016</v>
       </c>
       <c r="D131" s="0">
-        <v>0.88157957155196809</v>
+        <v>0.86892776527209903</v>
       </c>
       <c r="E131" s="0">
-        <v>37351</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="132">
@@ -3149,16 +3155,16 @@
         <v>131</v>
       </c>
       <c r="B132" s="0">
-        <v>631.29700000000003</v>
+        <v>222.66500000000002</v>
       </c>
       <c r="C132" s="0">
-        <v>13078</v>
+        <v>713</v>
       </c>
       <c r="D132" s="0">
-        <v>0.41236685072454171</v>
+        <v>0.18071553167820761</v>
       </c>
       <c r="E132" s="0">
-        <v>16668</v>
+        <v>970</v>
       </c>
     </row>
     <row r="133">
@@ -3166,16 +3172,16 @@
         <v>132</v>
       </c>
       <c r="B133" s="0">
-        <v>611.4559999999999</v>
+        <v>194.548</v>
       </c>
       <c r="C133" s="0">
-        <v>25290</v>
+        <v>1021</v>
       </c>
       <c r="D133" s="0">
-        <v>0.85001829175157784</v>
+        <v>0.33898623628531416</v>
       </c>
       <c r="E133" s="0">
-        <v>25708</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="134">
@@ -3183,16 +3189,16 @@
         <v>133</v>
       </c>
       <c r="B134" s="0">
-        <v>827.904</v>
+        <v>75.24199999999999</v>
       </c>
       <c r="C134" s="0">
-        <v>48627</v>
+        <v>401</v>
       </c>
       <c r="D134" s="0">
-        <v>0.89151238173683234</v>
+        <v>0.89008928853248115</v>
       </c>
       <c r="E134" s="0">
-        <v>49186</v>
+        <v>415</v>
       </c>
     </row>
     <row r="135">
@@ -3200,16 +3206,16 @@
         <v>134</v>
       </c>
       <c r="B135" s="0">
-        <v>1714.374</v>
+        <v>101.19399999999999</v>
       </c>
       <c r="C135" s="0">
-        <v>42916</v>
+        <v>724</v>
       </c>
       <c r="D135" s="0">
-        <v>0.18349234773905748</v>
+        <v>0.88846209528932718</v>
       </c>
       <c r="E135" s="0">
-        <v>60760</v>
+        <v>745</v>
       </c>
     </row>
     <row r="136">
@@ -3217,16 +3223,16 @@
         <v>135</v>
       </c>
       <c r="B136" s="0">
-        <v>2237.8300000000004</v>
+        <v>70.817000000000007</v>
       </c>
       <c r="C136" s="0">
-        <v>59076</v>
+        <v>240</v>
       </c>
       <c r="D136" s="0">
-        <v>0.14824046294022761</v>
+        <v>0.60137594989107002</v>
       </c>
       <c r="E136" s="0">
-        <v>76137</v>
+        <v>299</v>
       </c>
     </row>
     <row r="137">
@@ -3234,16 +3240,16 @@
         <v>136</v>
       </c>
       <c r="B137" s="0">
-        <v>608.75300000000004</v>
+        <v>83.106999999999999</v>
       </c>
       <c r="C137" s="0">
-        <v>22030</v>
+        <v>491</v>
       </c>
       <c r="D137" s="0">
-        <v>0.7470370338783715</v>
+        <v>0.89333869385041031</v>
       </c>
       <c r="E137" s="0">
-        <v>22486</v>
+        <v>507</v>
       </c>
     </row>
     <row r="138">
@@ -3251,16 +3257,16 @@
         <v>137</v>
       </c>
       <c r="B138" s="0">
-        <v>995.23899999999992</v>
+        <v>116.08</v>
       </c>
       <c r="C138" s="0">
-        <v>38857</v>
+        <v>938</v>
       </c>
       <c r="D138" s="0">
-        <v>0.4929743908011972</v>
+        <v>0.8747781031580284</v>
       </c>
       <c r="E138" s="0">
-        <v>40475</v>
+        <v>958</v>
       </c>
     </row>
     <row r="139">
@@ -3268,16 +3274,16 @@
         <v>138</v>
       </c>
       <c r="B139" s="0">
-        <v>735.83199999999999</v>
+        <v>230.96000000000001</v>
       </c>
       <c r="C139" s="0">
-        <v>15038</v>
+        <v>826</v>
       </c>
       <c r="D139" s="0">
-        <v>0.34901380325063563</v>
+        <v>0.194588141244914</v>
       </c>
       <c r="E139" s="0">
-        <v>19072</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="140">
@@ -3285,16 +3291,16 @@
         <v>139</v>
       </c>
       <c r="B140" s="0">
-        <v>657.65499999999997</v>
+        <v>193.34899999999999</v>
       </c>
       <c r="C140" s="0">
-        <v>26323</v>
+        <v>1150</v>
       </c>
       <c r="D140" s="0">
-        <v>0.76480196515054433</v>
+        <v>0.38656616949206918</v>
       </c>
       <c r="E140" s="0">
-        <v>26832</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="141">
@@ -3302,16 +3308,16 @@
         <v>140</v>
       </c>
       <c r="B141" s="0">
-        <v>867.30200000000002</v>
+        <v>77.566000000000003</v>
       </c>
       <c r="C141" s="0">
-        <v>49956</v>
+        <v>428</v>
       </c>
       <c r="D141" s="0">
-        <v>0.83455857764927499</v>
+        <v>0.89394508565156583</v>
       </c>
       <c r="E141" s="0">
-        <v>50757</v>
+        <v>439</v>
       </c>
     </row>
     <row r="142">
@@ -3319,16 +3325,16 @@
         <v>141</v>
       </c>
       <c r="B142" s="0">
-        <v>837.93799999999987</v>
+        <v>104.75</v>
       </c>
       <c r="C142" s="0">
-        <v>17023</v>
+        <v>767</v>
       </c>
       <c r="D142" s="0">
-        <v>0.30466473778250502</v>
+        <v>0.87840978451601304</v>
       </c>
       <c r="E142" s="0">
-        <v>23866</v>
+        <v>785</v>
       </c>
     </row>
     <row r="143">
@@ -3336,16 +3342,16 @@
         <v>142</v>
       </c>
       <c r="B143" s="0">
-        <v>442.15099999999995</v>
+        <v>84.743999999999986</v>
       </c>
       <c r="C143" s="0">
-        <v>12587</v>
+        <v>291</v>
       </c>
       <c r="D143" s="0">
-        <v>0.80907889574236691</v>
+        <v>0.50919594263483625</v>
       </c>
       <c r="E143" s="0">
-        <v>12894</v>
+        <v>363</v>
       </c>
     </row>
     <row r="144">
@@ -3353,16 +3359,16 @@
         <v>143</v>
       </c>
       <c r="B144" s="0">
-        <v>1805.5529999999999</v>
+        <v>85.745000000000005</v>
       </c>
       <c r="C144" s="0">
-        <v>42934</v>
+        <v>517</v>
       </c>
       <c r="D144" s="0">
-        <v>0.16549723168417241</v>
+        <v>0.88365511918292727</v>
       </c>
       <c r="E144" s="0">
-        <v>61794</v>
+        <v>532</v>
       </c>
     </row>
     <row r="145">
@@ -3370,16 +3376,16 @@
         <v>144</v>
       </c>
       <c r="B145" s="0">
-        <v>2413.739</v>
+        <v>118.685</v>
       </c>
       <c r="C145" s="0">
-        <v>58950</v>
+        <v>973</v>
       </c>
       <c r="D145" s="0">
-        <v>0.12714903201488079</v>
+        <v>0.86802260666975206</v>
       </c>
       <c r="E145" s="0">
-        <v>77481</v>
+        <v>993</v>
       </c>
     </row>
     <row r="146">
@@ -3387,16 +3393,16 @@
         <v>145</v>
       </c>
       <c r="B146" s="0">
-        <v>609.43200000000002</v>
+        <v>117.47699999999999</v>
       </c>
       <c r="C146" s="0">
-        <v>22331</v>
+        <v>330</v>
       </c>
       <c r="D146" s="0">
-        <v>0.75555751024070117</v>
+        <v>0.30048175628258111</v>
       </c>
       <c r="E146" s="0">
-        <v>22856</v>
+        <v>463</v>
       </c>
     </row>
     <row r="147">
@@ -3404,16 +3410,16 @@
         <v>146</v>
       </c>
       <c r="B147" s="0">
-        <v>1017.5840000000001</v>
+        <v>57.18</v>
       </c>
       <c r="C147" s="0">
-        <v>39051</v>
+        <v>242</v>
       </c>
       <c r="D147" s="0">
-        <v>0.47391612317156673</v>
+        <v>0.93011559890427808</v>
       </c>
       <c r="E147" s="0">
-        <v>40452</v>
+        <v>247</v>
       </c>
     </row>
     <row r="148">
@@ -3421,16 +3427,16 @@
         <v>147</v>
       </c>
       <c r="B148" s="0">
-        <v>640.49300000000005</v>
+        <v>228.51199999999997</v>
       </c>
       <c r="C148" s="0">
-        <v>14560</v>
+        <v>845</v>
       </c>
       <c r="D148" s="0">
-        <v>0.44600780999730616</v>
+        <v>0.20335204778994831</v>
       </c>
       <c r="E148" s="0">
-        <v>18061</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="149">
@@ -3438,16 +3444,16 @@
         <v>148</v>
       </c>
       <c r="B149" s="0">
-        <v>695.66699999999992</v>
+        <v>200.875</v>
       </c>
       <c r="C149" s="0">
-        <v>26530</v>
+        <v>1162</v>
       </c>
       <c r="D149" s="0">
-        <v>0.68888116253005727</v>
+        <v>0.36187969243484108</v>
       </c>
       <c r="E149" s="0">
-        <v>27243</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="150">
@@ -3455,16 +3461,16 @@
         <v>149</v>
       </c>
       <c r="B150" s="0">
-        <v>885.25900000000001</v>
+        <v>78.251999999999995</v>
       </c>
       <c r="C150" s="0">
-        <v>50974</v>
+        <v>435</v>
       </c>
       <c r="D150" s="0">
-        <v>0.81736846326641177</v>
+        <v>0.8927055369502358</v>
       </c>
       <c r="E150" s="0">
-        <v>51695</v>
+        <v>448</v>
       </c>
     </row>
     <row r="151">
@@ -3472,16 +3478,16 @@
         <v>150</v>
       </c>
       <c r="B151" s="0">
-        <v>862.25900000000001</v>
+        <v>106.12299999999999</v>
       </c>
       <c r="C151" s="0">
-        <v>17410</v>
+        <v>760</v>
       </c>
       <c r="D151" s="0">
-        <v>0.29426130925475086</v>
+        <v>0.84801672775675629</v>
       </c>
       <c r="E151" s="0">
-        <v>24437</v>
+        <v>783</v>
       </c>
     </row>
     <row r="152">
@@ -3489,16 +3495,16 @@
         <v>151</v>
       </c>
       <c r="B152" s="0">
-        <v>1103.444</v>
+        <v>75.712999999999994</v>
       </c>
       <c r="C152" s="0">
-        <v>68055</v>
+        <v>283</v>
       </c>
       <c r="D152" s="0">
-        <v>0.70237542403057129</v>
+        <v>0.62037657405334512</v>
       </c>
       <c r="E152" s="0">
-        <v>75534</v>
+        <v>350</v>
       </c>
     </row>
     <row r="153">
@@ -3506,16 +3512,16 @@
         <v>152</v>
       </c>
       <c r="B153" s="0">
-        <v>1022.282</v>
+        <v>85.438999999999993</v>
       </c>
       <c r="C153" s="0">
-        <v>59804</v>
+        <v>518</v>
       </c>
       <c r="D153" s="0">
-        <v>0.71911553177334819</v>
+        <v>0.89171754260716274</v>
       </c>
       <c r="E153" s="0">
-        <v>66655</v>
+        <v>533</v>
       </c>
     </row>
     <row r="154">
@@ -3523,16 +3529,16 @@
         <v>153</v>
       </c>
       <c r="B154" s="0">
-        <v>1236.9939999999999</v>
+        <v>119.711</v>
       </c>
       <c r="C154" s="0">
-        <v>17700</v>
+        <v>988</v>
       </c>
       <c r="D154" s="0">
-        <v>0.1453610141153153</v>
+        <v>0.86636059573637647</v>
       </c>
       <c r="E154" s="0">
-        <v>47641</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="155">
@@ -3540,16 +3546,16 @@
         <v>154</v>
       </c>
       <c r="B155" s="0">
-        <v>1200.021</v>
+        <v>118.87499999999999</v>
       </c>
       <c r="C155" s="0">
-        <v>81771</v>
+        <v>338</v>
       </c>
       <c r="D155" s="0">
-        <v>0.71356161644903759</v>
+        <v>0.30056991216265538</v>
       </c>
       <c r="E155" s="0">
-        <v>90800</v>
+        <v>473</v>
       </c>
     </row>
     <row r="156">
@@ -3557,16 +3563,16 @@
         <v>155</v>
       </c>
       <c r="B156" s="0">
-        <v>1438.6109999999999</v>
+        <v>248.63599999999994</v>
       </c>
       <c r="C156" s="0">
-        <v>22344</v>
+        <v>3644</v>
       </c>
       <c r="D156" s="0">
-        <v>0.135670065070814</v>
+        <v>0.74073047320590069</v>
       </c>
       <c r="E156" s="0">
-        <v>63888</v>
+        <v>4081</v>
       </c>
     </row>
     <row r="157">
@@ -3574,16 +3580,16 @@
         <v>156</v>
       </c>
       <c r="B157" s="0">
-        <v>1399.5340000000001</v>
+        <v>228.79399999999998</v>
       </c>
       <c r="C157" s="0">
-        <v>21418</v>
+        <v>3201</v>
       </c>
       <c r="D157" s="0">
-        <v>0.13741111734929257</v>
+        <v>0.76843347550328056</v>
       </c>
       <c r="E157" s="0">
-        <v>60441</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="158">
@@ -3591,16 +3597,16 @@
         <v>157</v>
       </c>
       <c r="B158" s="0">
-        <v>925.89199999999994</v>
+        <v>298.80000000000001</v>
       </c>
       <c r="C158" s="0">
-        <v>48150</v>
+        <v>955</v>
       </c>
       <c r="D158" s="0">
-        <v>0.70580623759649186</v>
+        <v>0.1344163348699686</v>
       </c>
       <c r="E158" s="0">
-        <v>53545</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="159">
@@ -3608,16 +3614,16 @@
         <v>158</v>
       </c>
       <c r="B159" s="0">
-        <v>1140.3980000000001</v>
+        <v>279.22999999999996</v>
       </c>
       <c r="C159" s="0">
-        <v>14459</v>
+        <v>4385</v>
       </c>
       <c r="D159" s="0">
-        <v>0.13971248836685027</v>
+        <v>0.70673289985261634</v>
       </c>
       <c r="E159" s="0">
-        <v>40474</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="160">
@@ -3625,16 +3631,16 @@
         <v>159</v>
       </c>
       <c r="B160" s="0">
-        <v>887.42599999999993</v>
+        <v>310.97500000000002</v>
       </c>
       <c r="C160" s="0">
-        <v>45132</v>
+        <v>1197</v>
       </c>
       <c r="D160" s="0">
-        <v>0.72016190805351255</v>
+        <v>0.15554392775353376</v>
       </c>
       <c r="E160" s="0">
-        <v>50257</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="161">
@@ -3642,16 +3648,16 @@
         <v>160</v>
       </c>
       <c r="B161" s="0">
-        <v>1095.2080000000001</v>
+        <v>325.29099999999994</v>
       </c>
       <c r="C161" s="0">
-        <v>13095</v>
+        <v>1140</v>
       </c>
       <c r="D161" s="0">
-        <v>0.13718990389243615</v>
+        <v>0.13538502209610348</v>
       </c>
       <c r="E161" s="0">
-        <v>37109</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="162">
@@ -3659,16 +3665,16 @@
         <v>161</v>
       </c>
       <c r="B162" s="0">
-        <v>1185.2349999999999</v>
+        <v>205.13299999999998</v>
       </c>
       <c r="C162" s="0">
-        <v>15341</v>
+        <v>2580</v>
       </c>
       <c r="D162" s="0">
-        <v>0.13723174903853283</v>
+        <v>0.77047492108670879</v>
       </c>
       <c r="E162" s="0">
-        <v>39187</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="163">
@@ -3676,16 +3682,16 @@
         <v>162</v>
       </c>
       <c r="B163" s="0">
-        <v>1004.0500000000001</v>
+        <v>277.637</v>
       </c>
       <c r="C163" s="0">
-        <v>57428</v>
+        <v>765</v>
       </c>
       <c r="D163" s="0">
-        <v>0.71585139360076877</v>
+        <v>0.12471440330576773</v>
       </c>
       <c r="E163" s="0">
-        <v>64061</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="164">
@@ -3693,16 +3699,16 @@
         <v>163</v>
       </c>
       <c r="B164" s="0">
-        <v>983.846</v>
+        <v>209.08900000000003</v>
       </c>
       <c r="C164" s="0">
-        <v>55686</v>
+        <v>2409</v>
       </c>
       <c r="D164" s="0">
-        <v>0.72293897424522713</v>
+        <v>0.69244342036634787</v>
       </c>
       <c r="E164" s="0">
-        <v>62164</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="165">
@@ -3710,16 +3716,16 @@
         <v>164</v>
       </c>
       <c r="B165" s="0">
-        <v>1180.578</v>
+        <v>260.56999999999999</v>
       </c>
       <c r="C165" s="0">
-        <v>14527</v>
+        <v>708</v>
       </c>
       <c r="D165" s="0">
-        <v>0.13097741918943384</v>
+        <v>0.13103710684234041</v>
       </c>
       <c r="E165" s="0">
-        <v>42081</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="166">
@@ -3727,16 +3733,16 @@
         <v>165</v>
       </c>
       <c r="B166" s="0">
-        <v>957.76799999999992</v>
+        <v>264.75700000000001</v>
       </c>
       <c r="C166" s="0">
-        <v>51896</v>
+        <v>823</v>
       </c>
       <c r="D166" s="0">
-        <v>0.71092388166729614</v>
+        <v>0.1475417045148017</v>
       </c>
       <c r="E166" s="0">
-        <v>57610</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="167">
@@ -3744,16 +3750,16 @@
         <v>166</v>
       </c>
       <c r="B167" s="0">
-        <v>1314.2259999999999</v>
+        <v>228.995</v>
       </c>
       <c r="C167" s="0">
-        <v>16037</v>
+        <v>3080</v>
       </c>
       <c r="D167" s="0">
-        <v>0.11667904977673015</v>
+        <v>0.73808874157609972</v>
       </c>
       <c r="E167" s="0">
-        <v>47789</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="168">
@@ -3761,16 +3767,16 @@
         <v>167</v>
       </c>
       <c r="B168" s="0">
-        <v>932.9559999999999</v>
+        <v>230.691</v>
       </c>
       <c r="C168" s="0">
-        <v>49766</v>
+        <v>2975</v>
       </c>
       <c r="D168" s="0">
-        <v>0.71848925080575599</v>
+        <v>0.70248253416532802</v>
       </c>
       <c r="E168" s="0">
-        <v>55309</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="169">
@@ -3778,16 +3784,16 @@
         <v>168</v>
       </c>
       <c r="B169" s="0">
-        <v>1012.1479999999999</v>
+        <v>272.05799999999999</v>
       </c>
       <c r="C169" s="0">
-        <v>58071</v>
+        <v>757</v>
       </c>
       <c r="D169" s="0">
-        <v>0.71232982131511247</v>
+        <v>0.12852355843697069</v>
       </c>
       <c r="E169" s="0">
-        <v>64508</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="170">
@@ -3795,16 +3801,16 @@
         <v>169</v>
       </c>
       <c r="B170" s="0">
-        <v>935.90899999999988</v>
+        <v>219.99799999999999</v>
       </c>
       <c r="C170" s="0">
-        <v>50110</v>
+        <v>2762</v>
       </c>
       <c r="D170" s="0">
-        <v>0.71889757648967423</v>
+        <v>0.7171269980526821</v>
       </c>
       <c r="E170" s="0">
-        <v>55823</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="171">
@@ -3812,16 +3818,16 @@
         <v>170</v>
       </c>
       <c r="B171" s="0">
-        <v>984.28599999999994</v>
+        <v>305.62900000000002</v>
       </c>
       <c r="C171" s="0">
-        <v>55331</v>
+        <v>853</v>
       </c>
       <c r="D171" s="0">
-        <v>0.71768813663613673</v>
+        <v>0.11475451301648795</v>
       </c>
       <c r="E171" s="0">
-        <v>61656</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="172">
@@ -3829,16 +3835,16 @@
         <v>171</v>
       </c>
       <c r="B172" s="0">
-        <v>705.21699999999998</v>
+        <v>207.79599999999996</v>
       </c>
       <c r="C172" s="0">
-        <v>39049</v>
+        <v>2649</v>
       </c>
       <c r="D172" s="0">
-        <v>0.98667525100751408</v>
+        <v>0.77093445487721624</v>
       </c>
       <c r="E172" s="0">
-        <v>39339</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="173">
@@ -3846,16 +3852,16 @@
         <v>172</v>
       </c>
       <c r="B173" s="0">
-        <v>1137.1109999999999</v>
+        <v>230.97199999999998</v>
       </c>
       <c r="C173" s="0">
-        <v>72694</v>
+        <v>3116</v>
       </c>
       <c r="D173" s="0">
-        <v>0.70648461567986764</v>
+        <v>0.73398746501648149</v>
       </c>
       <c r="E173" s="0">
-        <v>80580</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="174">
@@ -3863,16 +3869,16 @@
         <v>173</v>
       </c>
       <c r="B174" s="0">
-        <v>574.82899999999995</v>
+        <v>216.09399999999999</v>
       </c>
       <c r="C174" s="0">
-        <v>26223</v>
+        <v>2669</v>
       </c>
       <c r="D174" s="0">
-        <v>0.99727492347138069</v>
+        <v>0.718245676930235</v>
       </c>
       <c r="E174" s="0">
-        <v>26408</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="175">
@@ -3880,16 +3886,16 @@
         <v>174</v>
       </c>
       <c r="B175" s="0">
-        <v>1274.4009999999998</v>
+        <v>222.69200000000001</v>
       </c>
       <c r="C175" s="0">
-        <v>88438</v>
+        <v>2960</v>
       </c>
       <c r="D175" s="0">
-        <v>0.68428428998665092</v>
+        <v>0.75005367569696546</v>
       </c>
       <c r="E175" s="0">
-        <v>98465</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="176">
@@ -3897,16 +3903,16 @@
         <v>175</v>
       </c>
       <c r="B176" s="0">
-        <v>1200.194</v>
+        <v>161.23600000000002</v>
       </c>
       <c r="C176" s="0">
-        <v>80068</v>
+        <v>2084</v>
       </c>
       <c r="D176" s="0">
-        <v>0.69849924639768746</v>
+        <v>1.0073573225145076</v>
       </c>
       <c r="E176" s="0">
-        <v>89121</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="177">
@@ -3914,16 +3920,16 @@
         <v>176</v>
       </c>
       <c r="B177" s="0">
-        <v>715.24899999999991</v>
+        <v>263.57400000000001</v>
       </c>
       <c r="C177" s="0">
-        <v>40529</v>
+        <v>3888</v>
       </c>
       <c r="D177" s="0">
-        <v>0.99554577518775156</v>
+        <v>0.70328440187864583</v>
       </c>
       <c r="E177" s="0">
-        <v>40787</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="178">
@@ -3931,16 +3937,16 @@
         <v>177</v>
       </c>
       <c r="B178" s="0">
-        <v>855.36899999999991</v>
+        <v>131.73599999999999</v>
       </c>
       <c r="C178" s="0">
-        <v>41974</v>
+        <v>1398</v>
       </c>
       <c r="D178" s="0">
-        <v>0.72091358400113359</v>
+        <v>1.0122973278444103</v>
       </c>
       <c r="E178" s="0">
-        <v>46650</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="179">
@@ -3948,16 +3954,16 @@
         <v>178</v>
       </c>
       <c r="B179" s="0">
-        <v>836.23299999999995</v>
+        <v>295.67700000000002</v>
       </c>
       <c r="C179" s="0">
-        <v>39550</v>
+        <v>4729</v>
       </c>
       <c r="D179" s="0">
-        <v>0.71072525484687243</v>
+        <v>0.67974197932823666</v>
       </c>
       <c r="E179" s="0">
-        <v>43989</v>
+        <v>5303</v>
       </c>
     </row>
     <row r="180">
@@ -3965,16 +3971,16 @@
         <v>179</v>
       </c>
       <c r="B180" s="0">
-        <v>438.32099999999997</v>
+        <v>268.79000000000002</v>
       </c>
       <c r="C180" s="0">
-        <v>15337</v>
+        <v>4272</v>
       </c>
       <c r="D180" s="0">
-        <v>1.0031496480393116</v>
+        <v>0.74304461902588714</v>
       </c>
       <c r="E180" s="0">
-        <v>15460</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="181">
@@ -3982,16 +3988,16 @@
         <v>180</v>
       </c>
       <c r="B181" s="0">
-        <v>837.31899999999996</v>
+        <v>164.90799999999996</v>
       </c>
       <c r="C181" s="0">
-        <v>39352</v>
+        <v>2156</v>
       </c>
       <c r="D181" s="0">
-        <v>0.70533393867772876</v>
+        <v>0.99626568368493362</v>
       </c>
       <c r="E181" s="0">
-        <v>43818</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="182">
@@ -3999,16 +4005,16 @@
         <v>181</v>
       </c>
       <c r="B182" s="0">
-        <v>514.53999999999996</v>
+        <v>202.10599999999999</v>
       </c>
       <c r="C182" s="0">
-        <v>21009</v>
+        <v>2277</v>
       </c>
       <c r="D182" s="0">
-        <v>0.99718780965726073</v>
+        <v>0.70051022860340151</v>
       </c>
       <c r="E182" s="0">
-        <v>21189</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="183">
@@ -4016,16 +4022,16 @@
         <v>182</v>
       </c>
       <c r="B183" s="0">
-        <v>1204.7460000000001</v>
+        <v>199.39399999999998</v>
       </c>
       <c r="C183" s="0">
-        <v>81645</v>
+        <v>2113</v>
       </c>
       <c r="D183" s="0">
-        <v>0.7068845202349886</v>
+        <v>0.66785962548150579</v>
       </c>
       <c r="E183" s="0">
-        <v>90573</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="184">
@@ -4033,16 +4039,16 @@
         <v>183</v>
       </c>
       <c r="B184" s="0">
-        <v>578.601</v>
+        <v>100.54899999999999</v>
       </c>
       <c r="C184" s="0">
-        <v>26523</v>
+        <v>823</v>
       </c>
       <c r="D184" s="0">
-        <v>0.99557538293088244</v>
+        <v>1.0229494844230396</v>
       </c>
       <c r="E184" s="0">
-        <v>26706</v>
+        <v>837</v>
       </c>
     </row>
     <row r="185">
@@ -4050,16 +4056,16 @@
         <v>184</v>
       </c>
       <c r="B185" s="0">
-        <v>545.41200000000003</v>
+        <v>200.50899999999999</v>
       </c>
       <c r="C185" s="0">
-        <v>23793</v>
+        <v>2092</v>
       </c>
       <c r="D185" s="0">
-        <v>1.0051009668391586</v>
+        <v>0.65388865462577639</v>
       </c>
       <c r="E185" s="0">
-        <v>23956</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="186">
@@ -4067,16 +4073,16 @@
         <v>185</v>
       </c>
       <c r="B186" s="0">
-        <v>691.22400000000005</v>
+        <v>118.08199999999999</v>
       </c>
       <c r="C186" s="0">
-        <v>36955</v>
+        <v>1121</v>
       </c>
       <c r="D186" s="0">
-        <v>0.97195342140975094</v>
+        <v>1.0102947028429787</v>
       </c>
       <c r="E186" s="0">
-        <v>37221</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="187">
@@ -4084,16 +4090,16 @@
         <v>186</v>
       </c>
       <c r="B187" s="0">
-        <v>1185.9880000000001</v>
+        <v>289.24799999999999</v>
       </c>
       <c r="C187" s="0">
-        <v>80455</v>
+        <v>4373</v>
       </c>
       <c r="D187" s="0">
-        <v>0.71879047525149276</v>
+        <v>0.65682339300152404</v>
       </c>
       <c r="E187" s="0">
-        <v>88873</v>
+        <v>4877</v>
       </c>
     </row>
     <row r="188">
@@ -4101,16 +4107,16 @@
         <v>187</v>
       </c>
       <c r="B188" s="0">
-        <v>608.21600000000001</v>
+        <v>133.51400000000001</v>
       </c>
       <c r="C188" s="0">
-        <v>28874</v>
+        <v>1421</v>
       </c>
       <c r="D188" s="0">
-        <v>0.98084669885649745</v>
+        <v>1.0017291858754456</v>
       </c>
       <c r="E188" s="0">
-        <v>29121</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="189">
@@ -4118,16 +4124,16 @@
         <v>188</v>
       </c>
       <c r="B189" s="0">
-        <v>1035.0160000000001</v>
+        <v>125.36799999999999</v>
       </c>
       <c r="C189" s="0">
-        <v>60479</v>
+        <v>1273</v>
       </c>
       <c r="D189" s="0">
-        <v>0.70944762426091079</v>
+        <v>1.0178056853573898</v>
       </c>
       <c r="E189" s="0">
-        <v>67230</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="190">
@@ -4135,16 +4141,16 @@
         <v>189</v>
       </c>
       <c r="B190" s="0">
-        <v>1013.002</v>
+        <v>157.56399999999999</v>
       </c>
       <c r="C190" s="0">
-        <v>57428</v>
+        <v>1978</v>
       </c>
       <c r="D190" s="0">
-        <v>0.70325519680339998</v>
+        <v>1.0012030323463934</v>
       </c>
       <c r="E190" s="0">
-        <v>64012</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="191">
@@ -4152,16 +4158,16 @@
         <v>190</v>
       </c>
       <c r="B191" s="0">
-        <v>1016.543</v>
+        <v>264.06599999999997</v>
       </c>
       <c r="C191" s="0">
-        <v>58275</v>
+        <v>4303</v>
       </c>
       <c r="D191" s="0">
-        <v>0.7086644352494661</v>
+        <v>0.77545434949691672</v>
       </c>
       <c r="E191" s="0">
-        <v>64992</v>
+        <v>4759</v>
       </c>
     </row>
     <row r="192">
@@ -4169,16 +4175,16 @@
         <v>191</v>
       </c>
       <c r="B192" s="0">
-        <v>1028.1089999999999</v>
+        <v>139.50999999999999</v>
       </c>
       <c r="C192" s="0">
-        <v>59588</v>
+        <v>1555</v>
       </c>
       <c r="D192" s="0">
-        <v>0.70841924571630843</v>
+        <v>1.0039904457335271</v>
       </c>
       <c r="E192" s="0">
-        <v>66220</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="193">
@@ -4186,16 +4192,16 @@
         <v>192</v>
       </c>
       <c r="B193" s="0">
-        <v>504.65599999999995</v>
+        <v>235.131</v>
       </c>
       <c r="C193" s="0">
-        <v>20258</v>
+        <v>3247</v>
       </c>
       <c r="D193" s="0">
-        <v>0.99957537530961327</v>
+        <v>0.73802720479022965</v>
       </c>
       <c r="E193" s="0">
-        <v>20410</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="194">
@@ -4203,16 +4209,16 @@
         <v>193</v>
       </c>
       <c r="B194" s="0">
-        <v>728.99400000000003</v>
+        <v>272.51999999999998</v>
       </c>
       <c r="C194" s="0">
-        <v>12786</v>
+        <v>2997</v>
       </c>
       <c r="D194" s="0">
-        <v>0.30234072933968659</v>
+        <v>0.50710728132682537</v>
       </c>
       <c r="E194" s="0">
-        <v>16703</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="195">
@@ -4220,16 +4226,16 @@
         <v>194</v>
       </c>
       <c r="B195" s="0">
-        <v>2096.9989999999998</v>
+        <v>232.20399999999998</v>
       </c>
       <c r="C195" s="0">
-        <v>34279</v>
+        <v>3103</v>
       </c>
       <c r="D195" s="0">
-        <v>0.097958372561418483</v>
+        <v>0.72318972342509769</v>
       </c>
       <c r="E195" s="0">
-        <v>52474</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="196">
@@ -4237,16 +4243,16 @@
         <v>195</v>
       </c>
       <c r="B196" s="0">
-        <v>1083.6669999999999</v>
+        <v>231.63199999999998</v>
       </c>
       <c r="C196" s="0">
-        <v>66186</v>
+        <v>3202</v>
       </c>
       <c r="D196" s="0">
-        <v>0.70824628026052461</v>
+        <v>0.74995305308517035</v>
       </c>
       <c r="E196" s="0">
-        <v>73720</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="197">
@@ -4254,16 +4260,16 @@
         <v>196</v>
       </c>
       <c r="B197" s="0">
-        <v>1432.2759999999998</v>
+        <v>115.45199999999998</v>
       </c>
       <c r="C197" s="0">
-        <v>114198</v>
+        <v>1076</v>
       </c>
       <c r="D197" s="0">
-        <v>0.69954383344454085</v>
+        <v>1.014423295614473</v>
       </c>
       <c r="E197" s="0">
-        <v>126977</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="198">
@@ -4271,16 +4277,16 @@
         <v>197</v>
       </c>
       <c r="B198" s="0">
-        <v>2347.3679999999999</v>
+        <v>128.58499999999998</v>
       </c>
       <c r="C198" s="0">
-        <v>68769</v>
+        <v>698</v>
       </c>
       <c r="D198" s="0">
-        <v>0.1568339979377735</v>
+        <v>0.53049912051228443</v>
       </c>
       <c r="E198" s="0">
-        <v>98770</v>
+        <v>896</v>
       </c>
     </row>
     <row r="199">
@@ -4288,16 +4294,16 @@
         <v>198</v>
       </c>
       <c r="B199" s="0">
-        <v>1345.912</v>
+        <v>388.22300000000001</v>
       </c>
       <c r="C199" s="0">
-        <v>102893</v>
+        <v>1832</v>
       </c>
       <c r="D199" s="0">
-        <v>0.71377669399589805</v>
+        <v>0.15274704272039827</v>
       </c>
       <c r="E199" s="0">
-        <v>114246</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="200">
@@ -4305,16 +4311,16 @@
         <v>199</v>
       </c>
       <c r="B200" s="0">
-        <v>1124.982</v>
+        <v>243.52399999999997</v>
       </c>
       <c r="C200" s="0">
-        <v>71862</v>
+        <v>3548</v>
       </c>
       <c r="D200" s="0">
-        <v>0.71353949487994839</v>
+        <v>0.75181318493051785</v>
       </c>
       <c r="E200" s="0">
-        <v>79951</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="201">
@@ -4322,16 +4328,16 @@
         <v>200</v>
       </c>
       <c r="B201" s="0">
-        <v>1196.7729999999999</v>
+        <v>317.75599999999997</v>
       </c>
       <c r="C201" s="0">
-        <v>82500</v>
+        <v>6140</v>
       </c>
       <c r="D201" s="0">
-        <v>0.72383611384079405</v>
+        <v>0.76417128706811399</v>
       </c>
       <c r="E201" s="0">
-        <v>91568</v>
+        <v>6826</v>
       </c>
     </row>
     <row r="202">
@@ -4339,16 +4345,16 @@
         <v>201</v>
       </c>
       <c r="B202" s="0">
-        <v>1824.5559999999998</v>
+        <v>461.411</v>
       </c>
       <c r="C202" s="0">
-        <v>39559</v>
+        <v>3651</v>
       </c>
       <c r="D202" s="0">
-        <v>0.14932783678373696</v>
+        <v>0.21549927294330898</v>
       </c>
       <c r="E202" s="0">
-        <v>56829</v>
+        <v>5262</v>
       </c>
     </row>
     <row r="203">
@@ -4356,16 +4362,16 @@
         <v>202</v>
       </c>
       <c r="B203" s="0">
-        <v>1072.5129999999999</v>
+        <v>309.48200000000003</v>
       </c>
       <c r="C203" s="0">
-        <v>64077</v>
+        <v>5491</v>
       </c>
       <c r="D203" s="0">
-        <v>0.70001428798110854</v>
+        <v>0.72042789133124496</v>
       </c>
       <c r="E203" s="0">
-        <v>71480</v>
+        <v>6119</v>
       </c>
     </row>
     <row r="204">
@@ -4373,16 +4379,16 @@
         <v>203</v>
       </c>
       <c r="B204" s="0">
-        <v>740.404</v>
+        <v>254.97799999999998</v>
       </c>
       <c r="C204" s="0">
-        <v>13065</v>
+        <v>3835</v>
       </c>
       <c r="D204" s="0">
-        <v>0.29948961352335268</v>
+        <v>0.74125871388032216</v>
       </c>
       <c r="E204" s="0">
-        <v>17068</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="205">
@@ -4390,16 +4396,16 @@
         <v>204</v>
       </c>
       <c r="B205" s="0">
-        <v>1063.492</v>
+        <v>286.80799999999999</v>
       </c>
       <c r="C205" s="0">
-        <v>62765</v>
+        <v>4431</v>
       </c>
       <c r="D205" s="0">
-        <v>0.69736306625700351</v>
+        <v>0.67690713521201307</v>
       </c>
       <c r="E205" s="0">
-        <v>69863</v>
+        <v>4931</v>
       </c>
     </row>
     <row r="206">
@@ -4407,16 +4413,16 @@
         <v>205</v>
       </c>
       <c r="B206" s="0">
-        <v>1892.2930000000001</v>
+        <v>328.99899999999997</v>
       </c>
       <c r="C206" s="0">
-        <v>37395</v>
+        <v>2119</v>
       </c>
       <c r="D206" s="0">
-        <v>0.13123408148270277</v>
+        <v>0.24600937912392296</v>
       </c>
       <c r="E206" s="0">
-        <v>55135</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="207">
@@ -4424,16 +4430,16 @@
         <v>206</v>
       </c>
       <c r="B207" s="0">
-        <v>1147.568</v>
+        <v>254.77100000000002</v>
       </c>
       <c r="C207" s="0">
-        <v>76054</v>
+        <v>3426</v>
       </c>
       <c r="D207" s="0">
-        <v>0.72572998224057694</v>
+        <v>0.66328051477156813</v>
       </c>
       <c r="E207" s="0">
-        <v>84734</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="208">
@@ -4441,16 +4447,16 @@
         <v>207</v>
       </c>
       <c r="B208" s="0">
-        <v>1018.1</v>
+        <v>131.11699999999996</v>
       </c>
       <c r="C208" s="0">
-        <v>59273</v>
+        <v>692</v>
       </c>
       <c r="D208" s="0">
-        <v>0.71859782435019859</v>
+        <v>0.5058222752118805</v>
       </c>
       <c r="E208" s="0">
-        <v>65786</v>
+        <v>897</v>
       </c>
     </row>
     <row r="209">
@@ -4458,16 +4464,16 @@
         <v>208</v>
       </c>
       <c r="B209" s="0">
-        <v>1105.645</v>
+        <v>255.00099999999998</v>
       </c>
       <c r="C209" s="0">
-        <v>68304</v>
+        <v>3367</v>
       </c>
       <c r="D209" s="0">
-        <v>0.70214141304034672</v>
+        <v>0.65068262990781089</v>
       </c>
       <c r="E209" s="0">
-        <v>76084</v>
+        <v>3758</v>
       </c>
     </row>
     <row r="210">
@@ -4475,16 +4481,16 @@
         <v>209</v>
       </c>
       <c r="B210" s="0">
-        <v>2292.4809999999998</v>
+        <v>340.58600000000001</v>
       </c>
       <c r="C210" s="0">
-        <v>51056</v>
+        <v>2016</v>
       </c>
       <c r="D210" s="0">
-        <v>0.12208018001092323</v>
+        <v>0.21839707004667497</v>
       </c>
       <c r="E210" s="0">
-        <v>75888</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="211">
@@ -4492,16 +4498,16 @@
         <v>210</v>
       </c>
       <c r="B211" s="0">
-        <v>1307.9689999999998</v>
+        <v>272.02200000000005</v>
       </c>
       <c r="C211" s="0">
-        <v>94322</v>
+        <v>4063</v>
       </c>
       <c r="D211" s="0">
-        <v>0.69283203944255367</v>
+        <v>0.68999926417857871</v>
       </c>
       <c r="E211" s="0">
-        <v>105253</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="212">
@@ -4509,16 +4515,16 @@
         <v>211</v>
       </c>
       <c r="B212" s="0">
-        <v>839.27299999999991</v>
+        <v>229.92799999999997</v>
       </c>
       <c r="C212" s="0">
-        <v>21939</v>
+        <v>3159</v>
       </c>
       <c r="D212" s="0">
-        <v>0.39139942977611686</v>
+        <v>0.75088904202691442</v>
       </c>
       <c r="E212" s="0">
-        <v>28894</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="213">
@@ -4526,16 +4532,16 @@
         <v>212</v>
       </c>
       <c r="B213" s="0">
-        <v>1326.3679999999999</v>
+        <v>257.24699999999996</v>
       </c>
       <c r="C213" s="0">
-        <v>95294</v>
+        <v>3650</v>
       </c>
       <c r="D213" s="0">
-        <v>0.68068683321512025</v>
+        <v>0.69310988223956183</v>
       </c>
       <c r="E213" s="0">
-        <v>106101</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="214">
@@ -4543,16 +4549,16 @@
         <v>213</v>
       </c>
       <c r="B214" s="0">
-        <v>1024.598</v>
+        <v>438.36399999999998</v>
       </c>
       <c r="C214" s="0">
-        <v>19974</v>
+        <v>2736</v>
       </c>
       <c r="D214" s="0">
-        <v>0.23909357289818703</v>
+        <v>0.17891888983736978</v>
       </c>
       <c r="E214" s="0">
-        <v>28404</v>
+        <v>4029</v>
       </c>
     </row>
     <row r="215">
@@ -4560,16 +4566,16 @@
         <v>214</v>
       </c>
       <c r="B215" s="0">
-        <v>1701.425</v>
+        <v>304.34599999999995</v>
       </c>
       <c r="C215" s="0">
-        <v>68510</v>
+        <v>5030</v>
       </c>
       <c r="D215" s="0">
-        <v>0.29739811523093612</v>
+        <v>0.68240571081600199</v>
       </c>
       <c r="E215" s="0">
-        <v>99296</v>
+        <v>5649</v>
       </c>
     </row>
     <row r="216">
@@ -4577,16 +4583,16 @@
         <v>215</v>
       </c>
       <c r="B216" s="0">
-        <v>999.56200000000001</v>
+        <v>171.17699999999996</v>
       </c>
       <c r="C216" s="0">
-        <v>78196</v>
+        <v>1167</v>
       </c>
       <c r="D216" s="0">
-        <v>0.98350127499850992</v>
+        <v>0.50048365479106793</v>
       </c>
       <c r="E216" s="0">
-        <v>78631</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="217">
@@ -4594,16 +4600,16 @@
         <v>216</v>
       </c>
       <c r="B217" s="0">
-        <v>1322.8699999999999</v>
+        <v>295.42899999999992</v>
       </c>
       <c r="C217" s="0">
-        <v>45772</v>
+        <v>5110</v>
       </c>
       <c r="D217" s="0">
-        <v>0.32868161934650664</v>
+        <v>0.73574024956548822</v>
       </c>
       <c r="E217" s="0">
-        <v>63469</v>
+        <v>5732</v>
       </c>
     </row>
     <row r="218">
@@ -4611,16 +4617,16 @@
         <v>217</v>
       </c>
       <c r="B218" s="0">
-        <v>40.846000000000004</v>
+        <v>189.25599999999997</v>
       </c>
       <c r="C218" s="0">
-        <v>31</v>
+        <v>1069</v>
       </c>
       <c r="D218" s="0">
-        <v>0.23349226164348066</v>
+        <v>0.37504921042329897</v>
       </c>
       <c r="E218" s="0">
-        <v>47</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="219">
@@ -4628,16 +4634,16 @@
         <v>218</v>
       </c>
       <c r="B219" s="0">
-        <v>3512.2620000000002</v>
+        <v>351.21999999999997</v>
       </c>
       <c r="C219" s="0">
-        <v>68324</v>
+        <v>3667</v>
       </c>
       <c r="D219" s="0">
-        <v>0.069600015777667029</v>
+        <v>0.37356166021110004</v>
       </c>
       <c r="E219" s="0">
-        <v>161526</v>
+        <v>5317</v>
       </c>
     </row>
     <row r="220">
@@ -4645,16 +4651,16 @@
         <v>219</v>
       </c>
       <c r="B220" s="0">
-        <v>2140.3389999999999</v>
+        <v>230.25899999999999</v>
       </c>
       <c r="C220" s="0">
-        <v>108600</v>
+        <v>4195</v>
       </c>
       <c r="D220" s="0">
-        <v>0.29790278220354743</v>
+        <v>0.99427976443895272</v>
       </c>
       <c r="E220" s="0">
-        <v>151498</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="221">
@@ -4662,16 +4668,16 @@
         <v>220</v>
       </c>
       <c r="B221" s="0">
-        <v>1169.1519999999998</v>
+        <v>295.64299999999997</v>
       </c>
       <c r="C221" s="0">
-        <v>90537</v>
+        <v>2447</v>
       </c>
       <c r="D221" s="0">
-        <v>0.8323270516455884</v>
+        <v>0.35181036643468411</v>
       </c>
       <c r="E221" s="0">
-        <v>91548</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="222">
@@ -4679,16 +4685,16 @@
         <v>221</v>
       </c>
       <c r="B222" s="0">
-        <v>988.36500000000001</v>
+        <v>154.67899999999997</v>
       </c>
       <c r="C222" s="0">
-        <v>65510</v>
+        <v>732</v>
       </c>
       <c r="D222" s="0">
-        <v>0.84271892679428362</v>
+        <v>0.38446626062508882</v>
       </c>
       <c r="E222" s="0">
-        <v>66251</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="223">
@@ -4696,16 +4702,16 @@
         <v>222</v>
       </c>
       <c r="B223" s="0">
-        <v>2622.7669999999998</v>
+        <v>154.62699999999998</v>
       </c>
       <c r="C223" s="0">
-        <v>146552</v>
+        <v>710</v>
       </c>
       <c r="D223" s="0">
-        <v>0.26772084822145409</v>
+        <v>0.37316212089746809</v>
       </c>
       <c r="E223" s="0">
-        <v>215727</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="224">
@@ -4713,16 +4719,16 @@
         <v>223</v>
       </c>
       <c r="B224" s="0">
-        <v>2599.402</v>
+        <v>84.355999999999995</v>
       </c>
       <c r="C224" s="0">
-        <v>132148</v>
+        <v>586</v>
       </c>
       <c r="D224" s="0">
-        <v>0.24576699602217539</v>
+        <v>1.0348455196982116</v>
       </c>
       <c r="E224" s="0">
-        <v>196540</v>
+        <v>597</v>
       </c>
     </row>
     <row r="225">
@@ -4730,16 +4736,16 @@
         <v>224</v>
       </c>
       <c r="B225" s="0">
-        <v>1671.3579999999997</v>
+        <v>166.75200000000001</v>
       </c>
       <c r="C225" s="0">
-        <v>138291</v>
+        <v>957</v>
       </c>
       <c r="D225" s="0">
-        <v>0.62210660475256618</v>
+        <v>0.43249361357000066</v>
       </c>
       <c r="E225" s="0">
-        <v>141044</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="226">
@@ -4747,16 +4753,16 @@
         <v>225</v>
       </c>
       <c r="B226" s="0">
-        <v>3810.538</v>
+        <v>71.528999999999996</v>
       </c>
       <c r="C226" s="0">
-        <v>68632</v>
+        <v>425</v>
       </c>
       <c r="D226" s="0">
-        <v>0.059396919942374164</v>
+        <v>1.0438413268618705</v>
       </c>
       <c r="E226" s="0">
-        <v>167448</v>
+        <v>435</v>
       </c>
     </row>
     <row r="227">
@@ -4764,16 +4770,16 @@
         <v>226</v>
       </c>
       <c r="B227" s="0">
-        <v>1763.3779999999999</v>
+        <v>185.55699999999999</v>
       </c>
       <c r="C227" s="0">
-        <v>95624</v>
+        <v>867</v>
       </c>
       <c r="D227" s="0">
-        <v>0.38644343527650687</v>
+        <v>0.31642754125184991</v>
       </c>
       <c r="E227" s="0">
-        <v>99909</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="228">
@@ -4781,16 +4787,16 @@
         <v>227</v>
       </c>
       <c r="B228" s="0">
-        <v>2926.6080000000002</v>
+        <v>104.312</v>
       </c>
       <c r="C228" s="0">
-        <v>137484</v>
+        <v>885</v>
       </c>
       <c r="D228" s="0">
-        <v>0.20171254658782309</v>
+        <v>1.0220792938762659</v>
       </c>
       <c r="E228" s="0">
-        <v>211547</v>
+        <v>903</v>
       </c>
     </row>
     <row r="229">
@@ -4798,16 +4804,16 @@
         <v>228</v>
       </c>
       <c r="B229" s="0">
-        <v>2924.489</v>
+        <v>162.41200000000001</v>
       </c>
       <c r="C229" s="0">
-        <v>145767</v>
+        <v>748</v>
       </c>
       <c r="D229" s="0">
-        <v>0.21417515773838233</v>
+        <v>0.35634874448542547</v>
       </c>
       <c r="E229" s="0">
-        <v>216114</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="230">
@@ -4815,16 +4821,16 @@
         <v>229</v>
       </c>
       <c r="B230" s="0">
-        <v>1064.019</v>
+        <v>90.632999999999996</v>
       </c>
       <c r="C230" s="0">
-        <v>68197</v>
+        <v>623</v>
       </c>
       <c r="D230" s="0">
-        <v>0.75696599128097641</v>
+        <v>0.95307087801088475</v>
       </c>
       <c r="E230" s="0">
-        <v>69320</v>
+        <v>644</v>
       </c>
     </row>
     <row r="231">
@@ -4832,16 +4838,16 @@
         <v>230</v>
       </c>
       <c r="B231" s="0">
-        <v>2756.5300000000002</v>
+        <v>180.21800000000002</v>
       </c>
       <c r="C231" s="0">
-        <v>139832</v>
+        <v>896</v>
       </c>
       <c r="D231" s="0">
-        <v>0.23125492287918345</v>
+        <v>0.3466742161308155</v>
       </c>
       <c r="E231" s="0">
-        <v>208939</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="232">
@@ -4849,16 +4855,16 @@
         <v>231</v>
       </c>
       <c r="B232" s="0">
-        <v>2982.2829999999999</v>
+        <v>167.83500000000001</v>
       </c>
       <c r="C232" s="0">
-        <v>140116</v>
+        <v>958</v>
       </c>
       <c r="D232" s="0">
-        <v>0.19797023057363938</v>
+        <v>0.42737617447394316</v>
       </c>
       <c r="E232" s="0">
-        <v>210266</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="233">
@@ -4866,16 +4872,16 @@
         <v>232</v>
       </c>
       <c r="B233" s="0">
-        <v>2277.1459999999997</v>
+        <v>73.88600000000001</v>
       </c>
       <c r="C233" s="0">
-        <v>110634</v>
+        <v>449</v>
       </c>
       <c r="D233" s="0">
-        <v>0.26811229232242667</v>
+        <v>1.0335509579220377</v>
       </c>
       <c r="E233" s="0">
-        <v>156419</v>
+        <v>460</v>
       </c>
     </row>
     <row r="234">
@@ -4883,16 +4889,16 @@
         <v>233</v>
       </c>
       <c r="B234" s="0">
-        <v>1528.6090000000002</v>
+        <v>190.04900000000001</v>
       </c>
       <c r="C234" s="0">
-        <v>86575</v>
+        <v>919</v>
       </c>
       <c r="D234" s="0">
-        <v>0.46559632072278795</v>
+        <v>0.3197379586181654</v>
       </c>
       <c r="E234" s="0">
-        <v>89726</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="235">
@@ -4900,16 +4906,16 @@
         <v>234</v>
       </c>
       <c r="B235" s="0">
-        <v>3320.2019999999998</v>
+        <v>170.91200000000001</v>
       </c>
       <c r="C235" s="0">
-        <v>69961</v>
+        <v>917</v>
       </c>
       <c r="D235" s="0">
-        <v>0.079751132484580309</v>
+        <v>0.39448826364463924</v>
       </c>
       <c r="E235" s="0">
-        <v>160994</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="236">
@@ -4917,16 +4923,16 @@
         <v>235</v>
       </c>
       <c r="B236" s="0">
-        <v>4360.6060000000007</v>
+        <v>159.34100000000001</v>
       </c>
       <c r="C236" s="0">
-        <v>64195</v>
+        <v>725</v>
       </c>
       <c r="D236" s="0">
-        <v>0.042424562381400813</v>
+        <v>0.35883334518511939</v>
       </c>
       <c r="E236" s="0">
-        <v>161510</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="237">
@@ -4934,16 +4940,16 @@
         <v>236</v>
       </c>
       <c r="B237" s="0">
-        <v>31.286000000000001</v>
+        <v>83.892999999999986</v>
       </c>
       <c r="C237" s="0">
-        <v>47</v>
+        <v>564</v>
       </c>
       <c r="D237" s="0">
-        <v>0.60340324307697135</v>
+        <v>1.0070186599451689</v>
       </c>
       <c r="E237" s="0">
-        <v>61</v>
+        <v>580</v>
       </c>
     </row>
     <row r="238">
@@ -4951,16 +4957,16 @@
         <v>237</v>
       </c>
       <c r="B238" s="0">
-        <v>1305.0819999999999</v>
+        <v>164.56799999999998</v>
       </c>
       <c r="C238" s="0">
-        <v>109523</v>
+        <v>734</v>
       </c>
       <c r="D238" s="0">
-        <v>0.80805253238216357</v>
+        <v>0.34057686349985677</v>
       </c>
       <c r="E238" s="0">
-        <v>110753</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="239">
@@ -4968,16 +4974,16 @@
         <v>238</v>
       </c>
       <c r="B239" s="0">
-        <v>1560.492</v>
+        <v>160.39400000000001</v>
       </c>
       <c r="C239" s="0">
-        <v>154009</v>
+        <v>704</v>
       </c>
       <c r="D239" s="0">
-        <v>0.79475427349008276</v>
+        <v>0.34387950010381596</v>
       </c>
       <c r="E239" s="0">
-        <v>155685</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="240">
@@ -4985,16 +4991,16 @@
         <v>239</v>
       </c>
       <c r="B240" s="0">
-        <v>3172.2259999999997</v>
+        <v>92.799999999999997</v>
       </c>
       <c r="C240" s="0">
-        <v>180732</v>
+        <v>706</v>
       </c>
       <c r="D240" s="0">
-        <v>0.22569226648746177</v>
+        <v>1.0301930428035793</v>
       </c>
       <c r="E240" s="0">
-        <v>267820</v>
+        <v>719</v>
       </c>
     </row>
     <row r="241">
@@ -5002,16 +5008,16 @@
         <v>240</v>
       </c>
       <c r="B241" s="0">
-        <v>2966.0540000000001</v>
+        <v>110.48999999999999</v>
       </c>
       <c r="C241" s="0">
-        <v>172804</v>
+        <v>991</v>
       </c>
       <c r="D241" s="0">
-        <v>0.24683432224905141</v>
+        <v>1.0200878418502197</v>
       </c>
       <c r="E241" s="0">
-        <v>254498</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="242">
@@ -5019,16 +5025,16 @@
         <v>241</v>
       </c>
       <c r="B242" s="0">
-        <v>857.30799999999988</v>
+        <v>187.047</v>
       </c>
       <c r="C242" s="0">
-        <v>48645</v>
+        <v>1175</v>
       </c>
       <c r="D242" s="0">
-        <v>0.8317145881117548</v>
+        <v>0.42203283040717798</v>
       </c>
       <c r="E242" s="0">
-        <v>49335</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="243">
@@ -5036,16 +5042,16 @@
         <v>242</v>
       </c>
       <c r="B243" s="0">
-        <v>1194.2189999999998</v>
+        <v>205.38199999999998</v>
       </c>
       <c r="C243" s="0">
-        <v>83561</v>
+        <v>1114</v>
       </c>
       <c r="D243" s="0">
-        <v>0.73628429944311702</v>
+        <v>0.33187175922455153</v>
       </c>
       <c r="E243" s="0">
-        <v>85011</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="244">
@@ -5053,16 +5059,16 @@
         <v>243</v>
       </c>
       <c r="B244" s="0">
-        <v>1079.0160000000001</v>
+        <v>60.851999999999997</v>
       </c>
       <c r="C244" s="0">
-        <v>65996</v>
+        <v>314</v>
       </c>
       <c r="D244" s="0">
-        <v>0.71231437485207993</v>
+        <v>1.0655891723567921</v>
       </c>
       <c r="E244" s="0">
-        <v>67234</v>
+        <v>321</v>
       </c>
     </row>
     <row r="245">
@@ -5070,16 +5076,16 @@
         <v>244</v>
       </c>
       <c r="B245" s="0">
-        <v>1223.5689999999997</v>
+        <v>80.625999999999991</v>
       </c>
       <c r="C245" s="0">
-        <v>89083</v>
+        <v>541</v>
       </c>
       <c r="D245" s="0">
-        <v>0.74773509979462416</v>
+        <v>1.0458198983793963</v>
       </c>
       <c r="E245" s="0">
-        <v>90417</v>
+        <v>553</v>
       </c>
     </row>
     <row r="246">
@@ -5087,16 +5093,16 @@
         <v>245</v>
       </c>
       <c r="B246" s="0">
-        <v>1705.414</v>
+        <v>71.810000000000002</v>
       </c>
       <c r="C246" s="0">
-        <v>181303</v>
+        <v>430</v>
       </c>
       <c r="D246" s="0">
-        <v>0.78334884369267821</v>
+        <v>1.047872555767938</v>
       </c>
       <c r="E246" s="0">
-        <v>183808</v>
+        <v>440</v>
       </c>
     </row>
     <row r="247">
@@ -5104,16 +5110,16 @@
         <v>246</v>
       </c>
       <c r="B247" s="0">
-        <v>2754.8449999999998</v>
+        <v>83.776999999999987</v>
       </c>
       <c r="C247" s="0">
-        <v>148767</v>
+        <v>576</v>
       </c>
       <c r="D247" s="0">
-        <v>0.24633273694648125</v>
+        <v>1.0312945874499106</v>
       </c>
       <c r="E247" s="0">
-        <v>217718</v>
+        <v>586</v>
       </c>
     </row>
     <row r="248">
@@ -5121,16 +5127,16 @@
         <v>247</v>
       </c>
       <c r="B248" s="0">
-        <v>1544.6849999999999</v>
+        <v>120.753</v>
       </c>
       <c r="C248" s="0">
-        <v>133539</v>
+        <v>1168</v>
       </c>
       <c r="D248" s="0">
-        <v>0.70329596414493689</v>
+        <v>1.006599819927563</v>
       </c>
       <c r="E248" s="0">
-        <v>136200</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="249">
@@ -5138,16 +5144,16 @@
         <v>248</v>
       </c>
       <c r="B249" s="0">
-        <v>850.86299999999994</v>
+        <v>172.45999999999998</v>
       </c>
       <c r="C249" s="0">
-        <v>41616</v>
+        <v>964</v>
       </c>
       <c r="D249" s="0">
-        <v>0.72235539639752289</v>
+        <v>0.4072959900939116</v>
       </c>
       <c r="E249" s="0">
-        <v>42782</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="250">
@@ -5155,16 +5161,16 @@
         <v>249</v>
       </c>
       <c r="B250" s="0">
-        <v>1696.5469999999998</v>
+        <v>103.20399999999999</v>
       </c>
       <c r="C250" s="0">
-        <v>50247</v>
+        <v>861</v>
       </c>
       <c r="D250" s="0">
-        <v>0.21937554372237289</v>
+        <v>1.0158274757701247</v>
       </c>
       <c r="E250" s="0">
-        <v>70488</v>
+        <v>878</v>
       </c>
     </row>
     <row r="251">
@@ -5172,16 +5178,16 @@
         <v>250</v>
       </c>
       <c r="B251" s="0">
-        <v>2242.9180000000001</v>
+        <v>55.988999999999997</v>
       </c>
       <c r="C251" s="0">
-        <v>120654</v>
+        <v>267</v>
       </c>
       <c r="D251" s="0">
-        <v>0.30138719459116148</v>
+        <v>1.0703250845116972</v>
       </c>
       <c r="E251" s="0">
-        <v>165475</v>
+        <v>275</v>
       </c>
     </row>
     <row r="252">
@@ -5189,16 +5195,16 @@
         <v>251</v>
       </c>
       <c r="B252" s="0">
-        <v>3733.8420000000001</v>
+        <v>92.611000000000004</v>
       </c>
       <c r="C252" s="0">
-        <v>142449</v>
+        <v>327</v>
       </c>
       <c r="D252" s="0">
-        <v>0.12839774479221391</v>
+        <v>0.47910694832839335</v>
       </c>
       <c r="E252" s="0">
-        <v>215696</v>
+        <v>437</v>
       </c>
     </row>
     <row r="253">
@@ -5206,16 +5212,16 @@
         <v>252</v>
       </c>
       <c r="B253" s="0">
-        <v>1293.5899999999997</v>
+        <v>150.511</v>
       </c>
       <c r="C253" s="0">
-        <v>42886</v>
+        <v>790</v>
       </c>
       <c r="D253" s="0">
-        <v>0.32205652755313524</v>
+        <v>0.43822835325175219</v>
       </c>
       <c r="E253" s="0">
-        <v>50402</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="254">
@@ -5223,16 +5229,16 @@
         <v>253</v>
       </c>
       <c r="B254" s="0">
-        <v>2415.779</v>
+        <v>194.03399999999999</v>
       </c>
       <c r="C254" s="0">
-        <v>120706</v>
+        <v>935</v>
       </c>
       <c r="D254" s="0">
-        <v>0.25991079580937337</v>
+        <v>0.31207990236978955</v>
       </c>
       <c r="E254" s="0">
-        <v>167223</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="255">
@@ -5240,16 +5246,16 @@
         <v>254</v>
       </c>
       <c r="B255" s="0">
-        <v>2005.954</v>
+        <v>72.820000000000007</v>
       </c>
       <c r="C255" s="0">
-        <v>61847</v>
+        <v>280</v>
       </c>
       <c r="D255" s="0">
-        <v>0.19314637556112238</v>
+        <v>0.66353914092247024</v>
       </c>
       <c r="E255" s="0">
-        <v>90224</v>
+        <v>318</v>
       </c>
     </row>
     <row r="256">
@@ -5257,16 +5263,16 @@
         <v>255</v>
       </c>
       <c r="B256" s="0">
-        <v>3874.3729999999996</v>
+        <v>165.71799999999996</v>
       </c>
       <c r="C256" s="0">
-        <v>156689</v>
+        <v>786</v>
       </c>
       <c r="D256" s="0">
-        <v>0.13117332096300871</v>
+        <v>0.35966074826245803</v>
       </c>
       <c r="E256" s="0">
-        <v>228584</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="257">
@@ -5274,16 +5280,16 @@
         <v>256</v>
       </c>
       <c r="B257" s="0">
-        <v>2224.9179999999997</v>
+        <v>112.72999999999999</v>
       </c>
       <c r="C257" s="0">
-        <v>124966</v>
+        <v>398</v>
       </c>
       <c r="D257" s="0">
-        <v>0.31722960740203465</v>
+        <v>0.39356269161540491</v>
       </c>
       <c r="E257" s="0">
-        <v>171830</v>
+        <v>552</v>
       </c>
     </row>
     <row r="258">
@@ -5291,16 +5297,16 @@
         <v>257</v>
       </c>
       <c r="B258" s="0">
-        <v>1488.9099999999999</v>
+        <v>254.47499999999997</v>
       </c>
       <c r="C258" s="0">
-        <v>54593</v>
+        <v>1036</v>
       </c>
       <c r="D258" s="0">
-        <v>0.30946385467702647</v>
+        <v>0.20103856394800457</v>
       </c>
       <c r="E258" s="0">
-        <v>71784</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="259">
@@ -5308,16 +5314,16 @@
         <v>258</v>
       </c>
       <c r="B259" s="0">
-        <v>2773.7519999999995</v>
+        <v>145.72900000000001</v>
       </c>
       <c r="C259" s="0">
-        <v>160599</v>
+        <v>802</v>
       </c>
       <c r="D259" s="0">
-        <v>0.26231156829358415</v>
+        <v>0.47456123852463256</v>
       </c>
       <c r="E259" s="0">
-        <v>237831</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="260">
@@ -5325,16 +5331,16 @@
         <v>259</v>
       </c>
       <c r="B260" s="0">
-        <v>2500.8510000000001</v>
+        <v>87.441999999999993</v>
       </c>
       <c r="C260" s="0">
-        <v>134743</v>
+        <v>356</v>
       </c>
       <c r="D260" s="0">
-        <v>0.27073253003368569</v>
+        <v>0.58508598769079712</v>
       </c>
       <c r="E260" s="0">
-        <v>187080</v>
+        <v>456</v>
       </c>
     </row>
     <row r="261">
@@ -5342,16 +5348,16 @@
         <v>260</v>
       </c>
       <c r="B261" s="0">
-        <v>2068.6759999999999</v>
+        <v>177.536</v>
       </c>
       <c r="C261" s="0">
-        <v>66150</v>
+        <v>1044</v>
       </c>
       <c r="D261" s="0">
-        <v>0.1942471970045877</v>
+        <v>0.41623395078946829</v>
       </c>
       <c r="E261" s="0">
-        <v>97381</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="262">
@@ -5359,16 +5365,16 @@
         <v>261</v>
       </c>
       <c r="B262" s="0">
-        <v>3476.8990000000003</v>
+        <v>154.04899999999998</v>
       </c>
       <c r="C262" s="0">
-        <v>140643</v>
+        <v>872</v>
       </c>
       <c r="D262" s="0">
-        <v>0.14619880924578713</v>
+        <v>0.46175178399102607</v>
       </c>
       <c r="E262" s="0">
-        <v>201326</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="263">
@@ -5376,16 +5382,16 @@
         <v>262</v>
       </c>
       <c r="B263" s="0">
-        <v>5934.0240000000003</v>
+        <v>121.44699999999999</v>
       </c>
       <c r="C263" s="0">
-        <v>184573</v>
+        <v>433</v>
       </c>
       <c r="D263" s="0">
-        <v>0.065868752486702861</v>
+        <v>0.36891318550061458</v>
       </c>
       <c r="E263" s="0">
-        <v>249404</v>
+        <v>616</v>
       </c>
     </row>
     <row r="264">
@@ -5393,16 +5399,16 @@
         <v>263</v>
       </c>
       <c r="B264" s="0">
-        <v>2152.9989999999998</v>
+        <v>218.66200000000001</v>
       </c>
       <c r="C264" s="0">
-        <v>64446</v>
+        <v>926</v>
       </c>
       <c r="D264" s="0">
-        <v>0.17471016536292452</v>
+        <v>0.24337402157011317</v>
       </c>
       <c r="E264" s="0">
-        <v>90357</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="265">
@@ -5410,16 +5416,16 @@
         <v>264</v>
       </c>
       <c r="B265" s="0">
-        <v>1557.1689999999999</v>
+        <v>231.51599999999999</v>
       </c>
       <c r="C265" s="0">
-        <v>47505</v>
+        <v>1201</v>
       </c>
       <c r="D265" s="0">
-        <v>0.24619412667812249</v>
+        <v>0.28157289801667584</v>
       </c>
       <c r="E265" s="0">
-        <v>62417</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="266">
@@ -5427,16 +5433,16 @@
         <v>265</v>
       </c>
       <c r="B266" s="0">
-        <v>2145.7969999999996</v>
+        <v>112.672</v>
       </c>
       <c r="C266" s="0">
-        <v>111951</v>
+        <v>429</v>
       </c>
       <c r="D266" s="0">
-        <v>0.3055347231609733</v>
+        <v>0.4246539317286141</v>
       </c>
       <c r="E266" s="0">
-        <v>155114</v>
+        <v>565</v>
       </c>
     </row>
     <row r="267">
@@ -5444,16 +5450,16 @@
         <v>266</v>
       </c>
       <c r="B267" s="0">
-        <v>2240.4290000000001</v>
+        <v>82.825999999999993</v>
       </c>
       <c r="C267" s="0">
-        <v>75474</v>
+        <v>317</v>
       </c>
       <c r="D267" s="0">
-        <v>0.18894911429608025</v>
+        <v>0.58067850516367892</v>
       </c>
       <c r="E267" s="0">
-        <v>109278</v>
+        <v>401</v>
       </c>
     </row>
     <row r="268">
@@ -5461,16 +5467,16 @@
         <v>267</v>
       </c>
       <c r="B268" s="0">
-        <v>2299.0160000000001</v>
+        <v>148.06199999999998</v>
       </c>
       <c r="C268" s="0">
-        <v>106420</v>
+        <v>722</v>
       </c>
       <c r="D268" s="0">
-        <v>0.25301666737966433</v>
+        <v>0.41386608483734288</v>
       </c>
       <c r="E268" s="0">
-        <v>156460</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="269">
@@ -5478,16 +5484,16 @@
         <v>268</v>
       </c>
       <c r="B269" s="0">
-        <v>3440.6569999999997</v>
+        <v>145.339</v>
       </c>
       <c r="C269" s="0">
-        <v>114653</v>
+        <v>499</v>
       </c>
       <c r="D269" s="0">
-        <v>0.12170615081117611</v>
+        <v>0.29685616608181981</v>
       </c>
       <c r="E269" s="0">
-        <v>165231</v>
+        <v>722</v>
       </c>
     </row>
     <row r="270">
@@ -5495,16 +5501,16 @@
         <v>269</v>
       </c>
       <c r="B270" s="0">
-        <v>2848.3789999999999</v>
+        <v>143.595</v>
       </c>
       <c r="C270" s="0">
-        <v>135483</v>
+        <v>688</v>
       </c>
       <c r="D270" s="0">
-        <v>0.20984523799233618</v>
+        <v>0.41929498334669296</v>
       </c>
       <c r="E270" s="0">
-        <v>209769</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="271">
@@ -5512,16 +5518,16 @@
         <v>270</v>
       </c>
       <c r="B271" s="0">
-        <v>1187.1890000000001</v>
+        <v>179.72699999999998</v>
       </c>
       <c r="C271" s="0">
-        <v>34288</v>
+        <v>744</v>
       </c>
       <c r="D271" s="0">
-        <v>0.30571186170343956</v>
+        <v>0.28943840035542029</v>
       </c>
       <c r="E271" s="0">
-        <v>42253</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="272">
@@ -5529,16 +5535,16 @@
         <v>271</v>
       </c>
       <c r="B272" s="0">
-        <v>3211.3820000000001</v>
+        <v>193.48899999999998</v>
       </c>
       <c r="C272" s="0">
-        <v>66192</v>
+        <v>874</v>
       </c>
       <c r="D272" s="0">
-        <v>0.080655024969764635</v>
+        <v>0.29336529555557955</v>
       </c>
       <c r="E272" s="0">
-        <v>153138</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="273">
@@ -5546,16 +5552,16 @@
         <v>272</v>
       </c>
       <c r="B273" s="0">
-        <v>3265.8679999999999</v>
+        <v>69.203999999999994</v>
       </c>
       <c r="C273" s="0">
-        <v>68551</v>
+        <v>225</v>
       </c>
       <c r="D273" s="0">
-        <v>0.080765596270614498</v>
+        <v>0.59037775770534118</v>
       </c>
       <c r="E273" s="0">
-        <v>156322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="274">
@@ -5563,16 +5569,16 @@
         <v>273</v>
       </c>
       <c r="B274" s="0">
-        <v>2146.0059999999999</v>
+        <v>154.45499999999998</v>
       </c>
       <c r="C274" s="0">
-        <v>101596</v>
+        <v>681</v>
       </c>
       <c r="D274" s="0">
-        <v>0.27722003223148739</v>
+        <v>0.35871788666599502</v>
       </c>
       <c r="E274" s="0">
-        <v>142768</v>
+        <v>991</v>
       </c>
     </row>
     <row r="275">
@@ -5580,16 +5586,16 @@
         <v>274</v>
       </c>
       <c r="B275" s="0">
-        <v>2582.4739999999997</v>
+        <v>163.16999999999999</v>
       </c>
       <c r="C275" s="0">
-        <v>126130</v>
+        <v>706</v>
       </c>
       <c r="D275" s="0">
-        <v>0.23766013756053525</v>
+        <v>0.33322220816888259</v>
       </c>
       <c r="E275" s="0">
-        <v>184205</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="276">
@@ -5597,16 +5603,16 @@
         <v>275</v>
       </c>
       <c r="B276" s="0">
-        <v>2799.7669999999998</v>
+        <v>136.40099999999998</v>
       </c>
       <c r="C276" s="0">
-        <v>133878</v>
+        <v>609</v>
       </c>
       <c r="D276" s="0">
-        <v>0.21462252460811784</v>
+        <v>0.41133157461665337</v>
       </c>
       <c r="E276" s="0">
-        <v>198505</v>
+        <v>869</v>
       </c>
     </row>
     <row r="277">
@@ -5614,16 +5620,16 @@
         <v>276</v>
       </c>
       <c r="B277" s="0">
-        <v>3295.2090000000003</v>
+        <v>159.37700000000001</v>
       </c>
       <c r="C277" s="0">
-        <v>119501</v>
+        <v>764</v>
       </c>
       <c r="D277" s="0">
-        <v>0.1382978642596957</v>
+        <v>0.37796529733414269</v>
       </c>
       <c r="E277" s="0">
-        <v>181424</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="278">
@@ -5631,16 +5637,16 @@
         <v>277</v>
       </c>
       <c r="B278" s="0">
-        <v>2086.8879999999995</v>
+        <v>185.47599999999997</v>
       </c>
       <c r="C278" s="0">
-        <v>106437</v>
+        <v>800</v>
       </c>
       <c r="D278" s="0">
-        <v>0.30711724664572393</v>
+        <v>0.29222973784697298</v>
       </c>
       <c r="E278" s="0">
-        <v>147985</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="279">
@@ -5648,16 +5654,50 @@
         <v>278</v>
       </c>
       <c r="B279" s="0">
-        <v>2182.4090000000001</v>
+        <v>170.685</v>
       </c>
       <c r="C279" s="0">
-        <v>108843</v>
+        <v>637</v>
       </c>
       <c r="D279" s="0">
-        <v>0.28716934636998498</v>
+        <v>0.27476321120036168</v>
       </c>
       <c r="E279" s="0">
-        <v>151824</v>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="B280" s="0">
+        <v>137.78999999999999</v>
+      </c>
+      <c r="C280" s="0">
+        <v>643</v>
+      </c>
+      <c r="D280" s="0">
+        <v>0.42558414165209296</v>
+      </c>
+      <c r="E280" s="0">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B281" s="0">
+        <v>158.81999999999999</v>
+      </c>
+      <c r="C281" s="0">
+        <v>643</v>
+      </c>
+      <c r="D281" s="0">
+        <v>0.32033947064331803</v>
+      </c>
+      <c r="E281" s="0">
+        <v>933</v>
       </c>
     </row>
   </sheetData>

--- a/Proyecto/tablaNoIndexada.xlsx
+++ b/Proyecto/tablaNoIndexada.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t>nombreObjeto</t>
   </si>
@@ -72,12 +72,6 @@
     <t>obj2IMG007.bmp</t>
   </si>
   <si>
-    <t>obj3IMG007.bmp</t>
-  </si>
-  <si>
-    <t>obj4IMG007.bmp</t>
-  </si>
-  <si>
     <t>obj1IMG008.bmp</t>
   </si>
   <si>
@@ -99,12 +93,6 @@
     <t>obj4IMG009.bmp</t>
   </si>
   <si>
-    <t>obj5IMG009.bmp</t>
-  </si>
-  <si>
-    <t>obj6IMG009.bmp</t>
-  </si>
-  <si>
     <t>obj1IMG010.bmp</t>
   </si>
   <si>
@@ -261,6 +249,9 @@
     <t>obj2IMG026.bmp</t>
   </si>
   <si>
+    <t>obj3IMG026.bmp</t>
+  </si>
+  <si>
     <t>obj1IMG027.bmp</t>
   </si>
   <si>
@@ -279,6 +270,9 @@
     <t>obj3IMG028.bmp</t>
   </si>
   <si>
+    <t>obj4IMG028.bmp</t>
+  </si>
+  <si>
     <t>obj1IMG029.bmp</t>
   </si>
   <si>
@@ -288,9 +282,6 @@
     <t>obj3IMG029.bmp</t>
   </si>
   <si>
-    <t>obj4IMG029.bmp</t>
-  </si>
-  <si>
     <t>obj1IMG030.bmp</t>
   </si>
   <si>
@@ -300,12 +291,6 @@
     <t>obj3IMG030.bmp</t>
   </si>
   <si>
-    <t>obj4IMG030.bmp</t>
-  </si>
-  <si>
-    <t>obj5IMG030.bmp</t>
-  </si>
-  <si>
     <t>obj1IMG031.bmp</t>
   </si>
   <si>
@@ -318,9 +303,6 @@
     <t>obj4IMG031.bmp</t>
   </si>
   <si>
-    <t>obj5IMG031.bmp</t>
-  </si>
-  <si>
     <t>obj1IMG032.bmp</t>
   </si>
   <si>
@@ -330,12 +312,6 @@
     <t>obj3IMG032.bmp</t>
   </si>
   <si>
-    <t>obj4IMG032.bmp</t>
-  </si>
-  <si>
-    <t>obj5IMG032.bmp</t>
-  </si>
-  <si>
     <t>obj1IMG033.bmp</t>
   </si>
   <si>
@@ -345,15 +321,6 @@
     <t>obj3IMG033.bmp</t>
   </si>
   <si>
-    <t>obj4IMG033.bmp</t>
-  </si>
-  <si>
-    <t>obj5IMG033.bmp</t>
-  </si>
-  <si>
-    <t>obj6IMG033.bmp</t>
-  </si>
-  <si>
     <t>obj1IMG034.bmp</t>
   </si>
   <si>
@@ -366,12 +333,6 @@
     <t>obj4IMG034.bmp</t>
   </si>
   <si>
-    <t>obj5IMG034.bmp</t>
-  </si>
-  <si>
-    <t>obj6IMG034.bmp</t>
-  </si>
-  <si>
     <t>obj1IMG035.bmp</t>
   </si>
   <si>
@@ -381,18 +342,6 @@
     <t>obj3IMG035.bmp</t>
   </si>
   <si>
-    <t>obj4IMG035.bmp</t>
-  </si>
-  <si>
-    <t>obj5IMG035.bmp</t>
-  </si>
-  <si>
-    <t>obj6IMG035.bmp</t>
-  </si>
-  <si>
-    <t>obj7IMG035.bmp</t>
-  </si>
-  <si>
     <t>obj1IMG036.bmp</t>
   </si>
   <si>
@@ -402,12 +351,6 @@
     <t>obj3IMG036.bmp</t>
   </si>
   <si>
-    <t>obj4IMG036.bmp</t>
-  </si>
-  <si>
-    <t>obj5IMG036.bmp</t>
-  </si>
-  <si>
     <t>obj1IMG037.bmp</t>
   </si>
   <si>
@@ -420,15 +363,6 @@
     <t>obj4IMG037.bmp</t>
   </si>
   <si>
-    <t>obj5IMG037.bmp</t>
-  </si>
-  <si>
-    <t>obj6IMG037.bmp</t>
-  </si>
-  <si>
-    <t>obj7IMG037.bmp</t>
-  </si>
-  <si>
     <t>obj1IMG038.bmp</t>
   </si>
   <si>
@@ -438,21 +372,6 @@
     <t>obj3IMG038.bmp</t>
   </si>
   <si>
-    <t>obj4IMG038.bmp</t>
-  </si>
-  <si>
-    <t>obj5IMG038.bmp</t>
-  </si>
-  <si>
-    <t>obj6IMG038.bmp</t>
-  </si>
-  <si>
-    <t>obj7IMG038.bmp</t>
-  </si>
-  <si>
-    <t>obj8IMG038.bmp</t>
-  </si>
-  <si>
     <t>obj1IMG039.bmp</t>
   </si>
   <si>
@@ -462,24 +381,6 @@
     <t>obj3IMG039.bmp</t>
   </si>
   <si>
-    <t>obj4IMG039.bmp</t>
-  </si>
-  <si>
-    <t>obj5IMG039.bmp</t>
-  </si>
-  <si>
-    <t>obj6IMG039.bmp</t>
-  </si>
-  <si>
-    <t>obj7IMG039.bmp</t>
-  </si>
-  <si>
-    <t>obj8IMG039.bmp</t>
-  </si>
-  <si>
-    <t>obj9IMG039.bmp</t>
-  </si>
-  <si>
     <t>obj1IMG040.bmp</t>
   </si>
   <si>
@@ -489,6 +390,9 @@
     <t>obj3IMG040.bmp</t>
   </si>
   <si>
+    <t>obj4IMG040.bmp</t>
+  </si>
+  <si>
     <t>obj1IMG041.bmp</t>
   </si>
   <si>
@@ -507,12 +411,6 @@
     <t>obj3IMG042.bmp</t>
   </si>
   <si>
-    <t>obj4IMG042.bmp</t>
-  </si>
-  <si>
-    <t>obj5IMG042.bmp</t>
-  </si>
-  <si>
     <t>obj1IMG043.bmp</t>
   </si>
   <si>
@@ -534,12 +432,6 @@
     <t>obj3IMG044.bmp</t>
   </si>
   <si>
-    <t>obj4IMG044.bmp</t>
-  </si>
-  <si>
-    <t>obj5IMG044.bmp</t>
-  </si>
-  <si>
     <t>obj1IMG045.bmp</t>
   </si>
   <si>
@@ -558,6 +450,12 @@
     <t>obj3IMG046.bmp</t>
   </si>
   <si>
+    <t>obj4IMG046.bmp</t>
+  </si>
+  <si>
+    <t>obj5IMG046.bmp</t>
+  </si>
+  <si>
     <t>obj1IMG047.bmp</t>
   </si>
   <si>
@@ -567,12 +465,6 @@
     <t>obj3IMG047.bmp</t>
   </si>
   <si>
-    <t>obj4IMG047.bmp</t>
-  </si>
-  <si>
-    <t>obj5IMG047.bmp</t>
-  </si>
-  <si>
     <t>obj1IMG048.bmp</t>
   </si>
   <si>
@@ -582,12 +474,6 @@
     <t>obj3IMG048.bmp</t>
   </si>
   <si>
-    <t>obj4IMG048.bmp</t>
-  </si>
-  <si>
-    <t>obj5IMG048.bmp</t>
-  </si>
-  <si>
     <t>obj1IMG049.bmp</t>
   </si>
   <si>
@@ -600,12 +486,6 @@
     <t>obj4IMG049.bmp</t>
   </si>
   <si>
-    <t>obj5IMG049.bmp</t>
-  </si>
-  <si>
-    <t>obj6IMG049.bmp</t>
-  </si>
-  <si>
     <t>obj1IMG050.bmp</t>
   </si>
   <si>
@@ -636,9 +516,6 @@
     <t>obj4IMG052.bmp</t>
   </si>
   <si>
-    <t>obj5IMG052.bmp</t>
-  </si>
-  <si>
     <t>obj1IMG053.bmp</t>
   </si>
   <si>
@@ -648,12 +525,6 @@
     <t>obj3IMG053.bmp</t>
   </si>
   <si>
-    <t>obj4IMG053.bmp</t>
-  </si>
-  <si>
-    <t>obj5IMG053.bmp</t>
-  </si>
-  <si>
     <t>obj1IMG054.bmp</t>
   </si>
   <si>
@@ -663,12 +534,6 @@
     <t>obj3IMG054.bmp</t>
   </si>
   <si>
-    <t>obj4IMG054.bmp</t>
-  </si>
-  <si>
-    <t>obj5IMG054.bmp</t>
-  </si>
-  <si>
     <t>obj1IMG055.bmp</t>
   </si>
   <si>
@@ -678,184 +543,7 @@
     <t>obj3IMG055.bmp</t>
   </si>
   <si>
-    <t>obj1IMG056.bmp</t>
-  </si>
-  <si>
-    <t>obj2IMG056.bmp</t>
-  </si>
-  <si>
-    <t>obj3IMG056.bmp</t>
-  </si>
-  <si>
-    <t>obj4IMG056.bmp</t>
-  </si>
-  <si>
-    <t>obj5IMG056.bmp</t>
-  </si>
-  <si>
-    <t>obj6IMG056.bmp</t>
-  </si>
-  <si>
-    <t>obj1IMG057.bmp</t>
-  </si>
-  <si>
-    <t>obj2IMG057.bmp</t>
-  </si>
-  <si>
-    <t>obj3IMG057.bmp</t>
-  </si>
-  <si>
-    <t>obj4IMG057.bmp</t>
-  </si>
-  <si>
-    <t>obj5IMG057.bmp</t>
-  </si>
-  <si>
-    <t>obj6IMG057.bmp</t>
-  </si>
-  <si>
-    <t>obj1IMG058.bmp</t>
-  </si>
-  <si>
-    <t>obj2IMG058.bmp</t>
-  </si>
-  <si>
-    <t>obj3IMG058.bmp</t>
-  </si>
-  <si>
-    <t>obj4IMG058.bmp</t>
-  </si>
-  <si>
-    <t>obj5IMG058.bmp</t>
-  </si>
-  <si>
-    <t>obj6IMG058.bmp</t>
-  </si>
-  <si>
-    <t>obj1IMG059.bmp</t>
-  </si>
-  <si>
-    <t>obj2IMG059.bmp</t>
-  </si>
-  <si>
-    <t>obj3IMG059.bmp</t>
-  </si>
-  <si>
-    <t>obj4IMG059.bmp</t>
-  </si>
-  <si>
-    <t>obj5IMG059.bmp</t>
-  </si>
-  <si>
-    <t>obj6IMG059.bmp</t>
-  </si>
-  <si>
-    <t>obj1IMG060.bmp</t>
-  </si>
-  <si>
-    <t>obj2IMG060.bmp</t>
-  </si>
-  <si>
-    <t>obj3IMG060.bmp</t>
-  </si>
-  <si>
-    <t>obj4IMG060.bmp</t>
-  </si>
-  <si>
-    <t>obj5IMG060.bmp</t>
-  </si>
-  <si>
-    <t>obj6IMG060.bmp</t>
-  </si>
-  <si>
-    <t>obj1IMG061.bmp</t>
-  </si>
-  <si>
-    <t>obj2IMG061.bmp</t>
-  </si>
-  <si>
-    <t>obj3IMG061.bmp</t>
-  </si>
-  <si>
-    <t>obj4IMG061.bmp</t>
-  </si>
-  <si>
-    <t>obj5IMG061.bmp</t>
-  </si>
-  <si>
-    <t>obj6IMG061.bmp</t>
-  </si>
-  <si>
-    <t>obj1IMG062.bmp</t>
-  </si>
-  <si>
-    <t>obj2IMG062.bmp</t>
-  </si>
-  <si>
-    <t>obj3IMG062.bmp</t>
-  </si>
-  <si>
-    <t>obj4IMG062.bmp</t>
-  </si>
-  <si>
-    <t>obj5IMG062.bmp</t>
-  </si>
-  <si>
-    <t>obj6IMG062.bmp</t>
-  </si>
-  <si>
-    <t>obj1IMG063.bmp</t>
-  </si>
-  <si>
-    <t>obj2IMG063.bmp</t>
-  </si>
-  <si>
-    <t>obj3IMG063.bmp</t>
-  </si>
-  <si>
-    <t>obj4IMG063.bmp</t>
-  </si>
-  <si>
-    <t>obj5IMG063.bmp</t>
-  </si>
-  <si>
-    <t>obj6IMG063.bmp</t>
-  </si>
-  <si>
-    <t>obj1IMG064.bmp</t>
-  </si>
-  <si>
-    <t>obj2IMG064.bmp</t>
-  </si>
-  <si>
-    <t>obj3IMG064.bmp</t>
-  </si>
-  <si>
-    <t>obj4IMG064.bmp</t>
-  </si>
-  <si>
-    <t>obj5IMG064.bmp</t>
-  </si>
-  <si>
-    <t>obj6IMG064.bmp</t>
-  </si>
-  <si>
-    <t>obj1IMG065.bmp</t>
-  </si>
-  <si>
-    <t>obj2IMG065.bmp</t>
-  </si>
-  <si>
-    <t>obj3IMG065.bmp</t>
-  </si>
-  <si>
-    <t>obj4IMG065.bmp</t>
-  </si>
-  <si>
-    <t>obj5IMG065.bmp</t>
-  </si>
-  <si>
-    <t>obj6IMG065.bmp</t>
+    <t>obj4IMG055.bmp</t>
   </si>
   <si>
     <t>perimetro</t>
@@ -913,13 +601,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E281"/>
+  <dimension ref="A1:E177"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="true"/>
     <col min="2" max="2" width="10.140625" customWidth="true"/>
     <col min="3" max="3" width="5.140625" customWidth="true"/>
-    <col min="4" max="4" width="13.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
     <col min="5" max="5" width="11.5703125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -928,16 +616,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>281</v>
+        <v>177</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>282</v>
+        <v>178</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>283</v>
+        <v>179</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>284</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2">
@@ -1217,16 +905,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="0">
-        <v>43.351999999999997</v>
+        <v>314.92000000000002</v>
       </c>
       <c r="C18" s="0">
-        <v>34</v>
+        <v>1084</v>
       </c>
       <c r="D18" s="0">
-        <v>0.22733719913875686</v>
+        <v>0.1373531616654376</v>
       </c>
       <c r="E18" s="0">
-        <v>63</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="19">
@@ -1234,16 +922,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="0">
-        <v>58.817</v>
+        <v>182.89399999999998</v>
       </c>
       <c r="C19" s="0">
-        <v>50</v>
+        <v>524</v>
       </c>
       <c r="D19" s="0">
-        <v>0.18162437375066881</v>
+        <v>0.19685308914955793</v>
       </c>
       <c r="E19" s="0">
-        <v>100</v>
+        <v>808</v>
       </c>
     </row>
     <row r="20">
@@ -1251,16 +939,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="0">
-        <v>430.678</v>
+        <v>214.48699999999999</v>
       </c>
       <c r="C20" s="0">
-        <v>1193</v>
+        <v>1000</v>
       </c>
       <c r="D20" s="0">
-        <v>0.080824854693150386</v>
+        <v>0.27315421996796085</v>
       </c>
       <c r="E20" s="0">
-        <v>1762</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="21">
@@ -1268,16 +956,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="0">
-        <v>231.37499999999997</v>
+        <v>115.05599999999998</v>
       </c>
       <c r="C21" s="0">
-        <v>590</v>
+        <v>359</v>
       </c>
       <c r="D21" s="0">
-        <v>0.13849337922620492</v>
+        <v>0.34078915822172007</v>
       </c>
       <c r="E21" s="0">
-        <v>954</v>
+        <v>542</v>
       </c>
     </row>
     <row r="22">
@@ -1285,16 +973,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="0">
-        <v>214.48699999999999</v>
+        <v>100.441</v>
       </c>
       <c r="C22" s="0">
-        <v>1000</v>
+        <v>365</v>
       </c>
       <c r="D22" s="0">
-        <v>0.27315421996796085</v>
+        <v>0.45465364016836546</v>
       </c>
       <c r="E22" s="0">
-        <v>1425</v>
+        <v>523</v>
       </c>
     </row>
     <row r="23">
@@ -1302,16 +990,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="0">
-        <v>115.05599999999998</v>
+        <v>290.48899999999998</v>
       </c>
       <c r="C23" s="0">
-        <v>359</v>
+        <v>1363</v>
       </c>
       <c r="D23" s="0">
-        <v>0.34078915822172007</v>
+        <v>0.20297676979683243</v>
       </c>
       <c r="E23" s="0">
-        <v>542</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="24">
@@ -1319,16 +1007,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="0">
-        <v>100.441</v>
+        <v>184.101</v>
       </c>
       <c r="C24" s="0">
-        <v>365</v>
+        <v>1027</v>
       </c>
       <c r="D24" s="0">
-        <v>0.45465364016836546</v>
+        <v>0.38077463684317736</v>
       </c>
       <c r="E24" s="0">
-        <v>523</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="25">
@@ -1336,16 +1024,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="0">
-        <v>27.523</v>
+        <v>170.94299999999998</v>
       </c>
       <c r="C25" s="0">
-        <v>34</v>
+        <v>559</v>
       </c>
       <c r="D25" s="0">
-        <v>0.5640235540151044</v>
+        <v>0.24039145663453951</v>
       </c>
       <c r="E25" s="0">
-        <v>46</v>
+        <v>802</v>
       </c>
     </row>
     <row r="26">
@@ -1353,16 +1041,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="0">
-        <v>56.542999999999999</v>
+        <v>105.477</v>
       </c>
       <c r="C26" s="0">
-        <v>50</v>
+        <v>424</v>
       </c>
       <c r="D26" s="0">
-        <v>0.19652697713452311</v>
+        <v>0.47891692198860292</v>
       </c>
       <c r="E26" s="0">
-        <v>93</v>
+        <v>577</v>
       </c>
     </row>
     <row r="27">
@@ -1370,16 +1058,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="0">
-        <v>334.851</v>
+        <v>371.35000000000002</v>
       </c>
       <c r="C27" s="0">
-        <v>599</v>
+        <v>933</v>
       </c>
       <c r="D27" s="0">
-        <v>0.067132602854383439</v>
+        <v>0.085020695095543081</v>
       </c>
       <c r="E27" s="0">
-        <v>961</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="28">
@@ -1387,16 +1075,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="0">
-        <v>241.33399999999997</v>
+        <v>256.25900000000001</v>
       </c>
       <c r="C28" s="0">
-        <v>653</v>
+        <v>633</v>
       </c>
       <c r="D28" s="0">
-        <v>0.14089189905124549</v>
+        <v>0.12113100483720349</v>
       </c>
       <c r="E28" s="0">
-        <v>979</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="29">
@@ -1404,16 +1092,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="0">
-        <v>221.97899999999998</v>
+        <v>213.13</v>
       </c>
       <c r="C29" s="0">
-        <v>340</v>
+        <v>414</v>
       </c>
       <c r="D29" s="0">
-        <v>0.086709164168697478</v>
+        <v>0.11453046797292089</v>
       </c>
       <c r="E29" s="0">
-        <v>561</v>
+        <v>732</v>
       </c>
     </row>
     <row r="30">
@@ -1421,16 +1109,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="0">
-        <v>145.952</v>
+        <v>97.108999999999995</v>
       </c>
       <c r="C30" s="0">
         <v>305</v>
       </c>
       <c r="D30" s="0">
-        <v>0.17992420907058096</v>
+        <v>0.40643466267959383</v>
       </c>
       <c r="E30" s="0">
-        <v>492</v>
+        <v>415</v>
       </c>
     </row>
     <row r="31">
@@ -1438,16 +1126,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="0">
-        <v>371.35000000000002</v>
+        <v>146.548</v>
       </c>
       <c r="C31" s="0">
-        <v>933</v>
+        <v>344</v>
       </c>
       <c r="D31" s="0">
-        <v>0.085020695095543081</v>
+        <v>0.2012836573157763</v>
       </c>
       <c r="E31" s="0">
-        <v>1540</v>
+        <v>531</v>
       </c>
     </row>
     <row r="32">
@@ -1455,16 +1143,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="0">
-        <v>256.25900000000001</v>
+        <v>211.518</v>
       </c>
       <c r="C32" s="0">
-        <v>633</v>
+        <v>1090</v>
       </c>
       <c r="D32" s="0">
-        <v>0.12113100483720349</v>
+        <v>0.30615524156392604</v>
       </c>
       <c r="E32" s="0">
-        <v>1050</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="33">
@@ -1472,16 +1160,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="0">
-        <v>213.13</v>
+        <v>124.384</v>
       </c>
       <c r="C33" s="0">
-        <v>414</v>
+        <v>546</v>
       </c>
       <c r="D33" s="0">
-        <v>0.11453046797292089</v>
+        <v>0.44347941791184187</v>
       </c>
       <c r="E33" s="0">
-        <v>732</v>
+        <v>778</v>
       </c>
     </row>
     <row r="34">
@@ -1489,16 +1177,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="0">
-        <v>97.108999999999995</v>
+        <v>172.14399999999998</v>
       </c>
       <c r="C34" s="0">
-        <v>305</v>
+        <v>700</v>
       </c>
       <c r="D34" s="0">
-        <v>0.40643466267959383</v>
+        <v>0.29684116248405445</v>
       </c>
       <c r="E34" s="0">
-        <v>415</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="35">
@@ -1506,16 +1194,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="0">
-        <v>146.548</v>
+        <v>148.97</v>
       </c>
       <c r="C35" s="0">
-        <v>344</v>
+        <v>586</v>
       </c>
       <c r="D35" s="0">
-        <v>0.2012836573157763</v>
+        <v>0.33182556650313061</v>
       </c>
       <c r="E35" s="0">
-        <v>531</v>
+        <v>876</v>
       </c>
     </row>
     <row r="36">
@@ -1523,16 +1211,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="0">
-        <v>211.518</v>
+        <v>150.61799999999999</v>
       </c>
       <c r="C36" s="0">
-        <v>1090</v>
+        <v>688</v>
       </c>
       <c r="D36" s="0">
-        <v>0.30615524156392604</v>
+        <v>0.38110491459554202</v>
       </c>
       <c r="E36" s="0">
-        <v>1671</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="37">
@@ -1540,16 +1228,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="0">
-        <v>124.384</v>
+        <v>158.48199999999997</v>
       </c>
       <c r="C37" s="0">
-        <v>546</v>
+        <v>666</v>
       </c>
       <c r="D37" s="0">
-        <v>0.44347941791184187</v>
+        <v>0.33321474169382681</v>
       </c>
       <c r="E37" s="0">
-        <v>778</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="38">
@@ -1557,16 +1245,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="0">
-        <v>172.14399999999998</v>
+        <v>204.059</v>
       </c>
       <c r="C38" s="0">
-        <v>700</v>
+        <v>1068</v>
       </c>
       <c r="D38" s="0">
-        <v>0.29684116248405445</v>
+        <v>0.32230690413276092</v>
       </c>
       <c r="E38" s="0">
-        <v>1069</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="39">
@@ -1574,16 +1262,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="0">
-        <v>148.97</v>
+        <v>177.75900000000001</v>
       </c>
       <c r="C39" s="0">
-        <v>586</v>
+        <v>1025</v>
       </c>
       <c r="D39" s="0">
-        <v>0.33182556650313061</v>
+        <v>0.4076341238863006</v>
       </c>
       <c r="E39" s="0">
-        <v>876</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="40">
@@ -1591,16 +1279,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="0">
-        <v>150.61799999999999</v>
+        <v>216.24000000000001</v>
       </c>
       <c r="C40" s="0">
-        <v>688</v>
+        <v>1165</v>
       </c>
       <c r="D40" s="0">
-        <v>0.38110491459554202</v>
+        <v>0.3130860547371514</v>
       </c>
       <c r="E40" s="0">
-        <v>1043</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="41">
@@ -1608,16 +1296,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="0">
-        <v>158.48199999999997</v>
+        <v>155.60399999999998</v>
       </c>
       <c r="C41" s="0">
-        <v>666</v>
+        <v>794</v>
       </c>
       <c r="D41" s="0">
-        <v>0.33321474169382681</v>
+        <v>0.41208694164156157</v>
       </c>
       <c r="E41" s="0">
-        <v>1027</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="42">
@@ -1625,16 +1313,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="0">
-        <v>204.059</v>
+        <v>211.03100000000001</v>
       </c>
       <c r="C42" s="0">
-        <v>1068</v>
+        <v>1225</v>
       </c>
       <c r="D42" s="0">
-        <v>0.32230690413276092</v>
+        <v>0.34566343301760272</v>
       </c>
       <c r="E42" s="0">
-        <v>1655</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="43">
@@ -1642,16 +1330,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="0">
-        <v>177.75900000000001</v>
+        <v>193.68700000000001</v>
       </c>
       <c r="C43" s="0">
-        <v>1025</v>
+        <v>1094</v>
       </c>
       <c r="D43" s="0">
-        <v>0.4076341238863006</v>
+        <v>0.36645971634095792</v>
       </c>
       <c r="E43" s="0">
-        <v>1552</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="44">
@@ -1659,16 +1347,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="0">
-        <v>216.24000000000001</v>
+        <v>183.89499999999998</v>
       </c>
       <c r="C44" s="0">
-        <v>1165</v>
+        <v>887</v>
       </c>
       <c r="D44" s="0">
-        <v>0.3130860547371514</v>
+        <v>0.32960488639688956</v>
       </c>
       <c r="E44" s="0">
-        <v>1794</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="45">
@@ -1676,16 +1364,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="0">
-        <v>155.60399999999998</v>
+        <v>230.88600000000002</v>
       </c>
       <c r="C45" s="0">
-        <v>794</v>
+        <v>1245</v>
       </c>
       <c r="D45" s="0">
-        <v>0.41208694164156157</v>
+        <v>0.29348372034530618</v>
       </c>
       <c r="E45" s="0">
-        <v>1155</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="46">
@@ -1693,16 +1381,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="0">
-        <v>211.03100000000001</v>
+        <v>211.96799999999999</v>
       </c>
       <c r="C46" s="0">
-        <v>1225</v>
+        <v>1185</v>
       </c>
       <c r="D46" s="0">
-        <v>0.34566343301760272</v>
+        <v>0.33142678972315665</v>
       </c>
       <c r="E46" s="0">
-        <v>1838</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="47">
@@ -1710,16 +1398,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="0">
-        <v>193.68700000000001</v>
+        <v>262.54199999999997</v>
       </c>
       <c r="C47" s="0">
-        <v>1094</v>
+        <v>752</v>
       </c>
       <c r="D47" s="0">
-        <v>0.36645971634095792</v>
+        <v>0.13709768643877451</v>
       </c>
       <c r="E47" s="0">
-        <v>1562</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="48">
@@ -1727,16 +1415,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="0">
-        <v>183.89499999999998</v>
+        <v>232.34799999999998</v>
       </c>
       <c r="C48" s="0">
-        <v>887</v>
+        <v>804</v>
       </c>
       <c r="D48" s="0">
-        <v>0.32960488639688956</v>
+        <v>0.18714922617375448</v>
       </c>
       <c r="E48" s="0">
-        <v>1301</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="49">
@@ -1744,16 +1432,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="0">
-        <v>230.88600000000002</v>
+        <v>246.53999999999996</v>
       </c>
       <c r="C49" s="0">
-        <v>1245</v>
+        <v>766</v>
       </c>
       <c r="D49" s="0">
-        <v>0.29348372034530618</v>
+        <v>0.15836669389314656</v>
       </c>
       <c r="E49" s="0">
-        <v>1873</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="50">
@@ -1761,16 +1449,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="0">
-        <v>211.96799999999999</v>
+        <v>280.93599999999998</v>
       </c>
       <c r="C50" s="0">
-        <v>1185</v>
+        <v>731</v>
       </c>
       <c r="D50" s="0">
-        <v>0.33142678972315665</v>
+        <v>0.11638913801601813</v>
       </c>
       <c r="E50" s="0">
-        <v>1791</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="51">
@@ -1778,16 +1466,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="0">
-        <v>262.54199999999997</v>
+        <v>257.21699999999998</v>
       </c>
       <c r="C51" s="0">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="D51" s="0">
-        <v>0.13709768643877451</v>
+        <v>0.14207318763726395</v>
       </c>
       <c r="E51" s="0">
-        <v>2024</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="52">
@@ -1795,16 +1483,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="0">
-        <v>232.34799999999998</v>
+        <v>270.30799999999999</v>
       </c>
       <c r="C52" s="0">
-        <v>804</v>
+        <v>734</v>
       </c>
       <c r="D52" s="0">
-        <v>0.18714922617375448</v>
+        <v>0.12623742451450401</v>
       </c>
       <c r="E52" s="0">
-        <v>2082</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="53">
@@ -1812,16 +1500,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="0">
-        <v>246.53999999999996</v>
+        <v>234.81299999999999</v>
       </c>
       <c r="C53" s="0">
-        <v>766</v>
+        <v>776</v>
       </c>
       <c r="D53" s="0">
-        <v>0.15836669389314656</v>
+        <v>0.17685905939136584</v>
       </c>
       <c r="E53" s="0">
-        <v>2121</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="54">
@@ -1829,16 +1517,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="0">
-        <v>280.93599999999998</v>
+        <v>247.09399999999999</v>
       </c>
       <c r="C54" s="0">
-        <v>731</v>
+        <v>752</v>
       </c>
       <c r="D54" s="0">
-        <v>0.11638913801601813</v>
+        <v>0.15477588816822718</v>
       </c>
       <c r="E54" s="0">
-        <v>2087</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="55">
@@ -1846,16 +1534,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="0">
-        <v>257.21699999999998</v>
+        <v>240.12199999999999</v>
       </c>
       <c r="C55" s="0">
-        <v>748</v>
+        <v>770</v>
       </c>
       <c r="D55" s="0">
-        <v>0.14207318763726395</v>
+        <v>0.16781728290238476</v>
       </c>
       <c r="E55" s="0">
-        <v>2107</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="56">
@@ -1863,16 +1551,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="0">
-        <v>270.30799999999999</v>
+        <v>229.834</v>
       </c>
       <c r="C56" s="0">
-        <v>734</v>
+        <v>768</v>
       </c>
       <c r="D56" s="0">
-        <v>0.12623742451450401</v>
+        <v>0.1827016766981685</v>
       </c>
       <c r="E56" s="0">
-        <v>2072</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="57">
@@ -1880,16 +1568,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="0">
-        <v>234.81299999999999</v>
+        <v>233.142</v>
       </c>
       <c r="C57" s="0">
-        <v>776</v>
+        <v>761</v>
       </c>
       <c r="D57" s="0">
-        <v>0.17685905939136584</v>
+        <v>0.17593550232834992</v>
       </c>
       <c r="E57" s="0">
-        <v>2088</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="58">
@@ -1897,16 +1585,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="0">
-        <v>247.09399999999999</v>
+        <v>253.834</v>
       </c>
       <c r="C58" s="0">
-        <v>752</v>
+        <v>769</v>
       </c>
       <c r="D58" s="0">
-        <v>0.15477588816822718</v>
+        <v>0.14998112837367047</v>
       </c>
       <c r="E58" s="0">
-        <v>2066</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="59">
@@ -1914,16 +1602,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="0">
-        <v>240.12199999999999</v>
+        <v>233.27399999999997</v>
       </c>
       <c r="C59" s="0">
-        <v>770</v>
+        <v>757</v>
       </c>
       <c r="D59" s="0">
-        <v>0.16781728290238476</v>
+        <v>0.17481273630765345</v>
       </c>
       <c r="E59" s="0">
-        <v>2075</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="60">
@@ -1931,16 +1619,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="0">
-        <v>229.834</v>
+        <v>230.42100000000002</v>
       </c>
       <c r="C60" s="0">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="D60" s="0">
-        <v>0.1827016766981685</v>
+        <v>0.18035189968803497</v>
       </c>
       <c r="E60" s="0">
-        <v>2059</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="61">
@@ -1948,16 +1636,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="0">
-        <v>233.142</v>
+        <v>245.05099999999999</v>
       </c>
       <c r="C61" s="0">
-        <v>761</v>
+        <v>771</v>
       </c>
       <c r="D61" s="0">
-        <v>0.17593550232834992</v>
+        <v>0.16134342943298849</v>
       </c>
       <c r="E61" s="0">
-        <v>2079</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="62">
@@ -1965,16 +1653,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="0">
-        <v>253.834</v>
+        <v>228.52399999999997</v>
       </c>
       <c r="C62" s="0">
-        <v>769</v>
+        <v>2975</v>
       </c>
       <c r="D62" s="0">
-        <v>0.14998112837367047</v>
+        <v>0.71586841250147293</v>
       </c>
       <c r="E62" s="0">
-        <v>2109</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="63">
@@ -1982,16 +1670,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="0">
-        <v>233.27399999999997</v>
+        <v>201.41200000000001</v>
       </c>
       <c r="C63" s="0">
-        <v>757</v>
+        <v>2111</v>
       </c>
       <c r="D63" s="0">
-        <v>0.17481273630765345</v>
+        <v>0.6539242054552501</v>
       </c>
       <c r="E63" s="0">
-        <v>2063</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="64">
@@ -1999,16 +1687,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="0">
-        <v>230.42100000000002</v>
+        <v>192.952</v>
       </c>
       <c r="C64" s="0">
-        <v>762</v>
+        <v>2058</v>
       </c>
       <c r="D64" s="0">
-        <v>0.18035189968803497</v>
+        <v>0.69463500553826252</v>
       </c>
       <c r="E64" s="0">
-        <v>2080</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="65">
@@ -2016,16 +1704,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="0">
-        <v>245.05099999999999</v>
+        <v>193.81099999999998</v>
       </c>
       <c r="C65" s="0">
-        <v>771</v>
+        <v>1971</v>
       </c>
       <c r="D65" s="0">
-        <v>0.16134342943298849</v>
+        <v>0.65938588086924188</v>
       </c>
       <c r="E65" s="0">
-        <v>2115</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="66">
@@ -2033,16 +1721,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="0">
-        <v>228.52399999999997</v>
+        <v>189.17400000000001</v>
       </c>
       <c r="C66" s="0">
-        <v>2975</v>
+        <v>2020</v>
       </c>
       <c r="D66" s="0">
-        <v>0.71586841250147293</v>
+        <v>0.70931368623647761</v>
       </c>
       <c r="E66" s="0">
-        <v>3336</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="67">
@@ -2050,16 +1738,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="0">
-        <v>201.41200000000001</v>
+        <v>195.898</v>
       </c>
       <c r="C67" s="0">
-        <v>2111</v>
+        <v>2100</v>
       </c>
       <c r="D67" s="0">
-        <v>0.6539242054552501</v>
+        <v>0.68765270307932802</v>
       </c>
       <c r="E67" s="0">
-        <v>2403</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="68">
@@ -2067,16 +1755,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="0">
-        <v>192.952</v>
+        <v>203.43299999999999</v>
       </c>
       <c r="C68" s="0">
-        <v>2058</v>
+        <v>2309</v>
       </c>
       <c r="D68" s="0">
-        <v>0.69463500553826252</v>
+        <v>0.70111779442976063</v>
       </c>
       <c r="E68" s="0">
-        <v>2309</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="69">
@@ -2084,16 +1772,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="0">
-        <v>193.81099999999998</v>
+        <v>210.04499999999999</v>
       </c>
       <c r="C69" s="0">
-        <v>1971</v>
+        <v>2329</v>
       </c>
       <c r="D69" s="0">
-        <v>0.65938588086924188</v>
+        <v>0.6633682122066028</v>
       </c>
       <c r="E69" s="0">
-        <v>2248</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="70">
@@ -2101,16 +1789,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="0">
-        <v>189.17400000000001</v>
+        <v>218.49699999999999</v>
       </c>
       <c r="C70" s="0">
-        <v>2020</v>
+        <v>2530</v>
       </c>
       <c r="D70" s="0">
-        <v>0.70931368623647761</v>
+        <v>0.66594663436207635</v>
       </c>
       <c r="E70" s="0">
-        <v>2259</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="71">
@@ -2118,16 +1806,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="0">
-        <v>195.898</v>
+        <v>213.35599999999999</v>
       </c>
       <c r="C71" s="0">
-        <v>2100</v>
+        <v>2460</v>
       </c>
       <c r="D71" s="0">
-        <v>0.68765270307932802</v>
+        <v>0.67910237595444234</v>
       </c>
       <c r="E71" s="0">
-        <v>2363</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="72">
@@ -2135,16 +1823,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="0">
-        <v>203.43299999999999</v>
+        <v>194.977</v>
       </c>
       <c r="C72" s="0">
-        <v>2309</v>
+        <v>2008</v>
       </c>
       <c r="D72" s="0">
-        <v>0.70111779442976063</v>
+        <v>0.66375347037835442</v>
       </c>
       <c r="E72" s="0">
-        <v>2594</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="73">
@@ -2152,16 +1840,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="0">
-        <v>210.04499999999999</v>
+        <v>184.70599999999999</v>
       </c>
       <c r="C73" s="0">
-        <v>2329</v>
+        <v>2127</v>
       </c>
       <c r="D73" s="0">
-        <v>0.6633682122066028</v>
+        <v>0.78345732844448535</v>
       </c>
       <c r="E73" s="0">
-        <v>2624</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="74">
@@ -2169,16 +1857,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="0">
-        <v>218.49699999999999</v>
+        <v>181.06700000000001</v>
       </c>
       <c r="C74" s="0">
-        <v>2530</v>
+        <v>1967</v>
       </c>
       <c r="D74" s="0">
-        <v>0.66594663436207635</v>
+        <v>0.75393796290298609</v>
       </c>
       <c r="E74" s="0">
-        <v>2874</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="75">
@@ -2186,16 +1874,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="0">
-        <v>213.35599999999999</v>
+        <v>181.34999999999999</v>
       </c>
       <c r="C75" s="0">
-        <v>2460</v>
+        <v>1794</v>
       </c>
       <c r="D75" s="0">
-        <v>0.67910237595444234</v>
+        <v>0.68548377996628873</v>
       </c>
       <c r="E75" s="0">
-        <v>2762</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="76">
@@ -2203,16 +1891,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="0">
-        <v>194.977</v>
+        <v>181.96899999999999</v>
       </c>
       <c r="C76" s="0">
-        <v>2008</v>
+        <v>2027</v>
       </c>
       <c r="D76" s="0">
-        <v>0.66375347037835442</v>
+        <v>0.76925228652504973</v>
       </c>
       <c r="E76" s="0">
-        <v>2269</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="77">
@@ -2220,16 +1908,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="0">
-        <v>184.70599999999999</v>
+        <v>107.92599999999999</v>
       </c>
       <c r="C77" s="0">
-        <v>2127</v>
+        <v>814</v>
       </c>
       <c r="D77" s="0">
-        <v>0.78345732844448535</v>
+        <v>0.87817709652790554</v>
       </c>
       <c r="E77" s="0">
-        <v>2368</v>
+        <v>837</v>
       </c>
     </row>
     <row r="78">
@@ -2237,16 +1925,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="0">
-        <v>181.06700000000001</v>
+        <v>247.72299999999998</v>
       </c>
       <c r="C78" s="0">
-        <v>1967</v>
+        <v>825</v>
       </c>
       <c r="D78" s="0">
-        <v>0.75393796290298609</v>
+        <v>0.16893947917553179</v>
       </c>
       <c r="E78" s="0">
-        <v>2220</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="79">
@@ -2254,16 +1942,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="0">
-        <v>181.34999999999999</v>
+        <v>121.03399999999999</v>
       </c>
       <c r="C79" s="0">
-        <v>1794</v>
+        <v>1012</v>
       </c>
       <c r="D79" s="0">
-        <v>0.68548377996628873</v>
+        <v>0.86811168876574063</v>
       </c>
       <c r="E79" s="0">
-        <v>2037</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="80">
@@ -2271,16 +1959,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="0">
-        <v>181.96899999999999</v>
+        <v>226.33699999999999</v>
       </c>
       <c r="C80" s="0">
-        <v>2027</v>
+        <v>734</v>
       </c>
       <c r="D80" s="0">
-        <v>0.76925228652504973</v>
+        <v>0.18005069974105956</v>
       </c>
       <c r="E80" s="0">
-        <v>2266</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="81">
@@ -2288,16 +1976,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="0">
-        <v>222.25399999999999</v>
+        <v>187.279</v>
       </c>
       <c r="C81" s="0">
-        <v>2686</v>
+        <v>1051</v>
       </c>
       <c r="D81" s="0">
-        <v>0.68330830712210844</v>
+        <v>0.37656020055425904</v>
       </c>
       <c r="E81" s="0">
-        <v>3009</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="82">
@@ -2305,16 +1993,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="0">
-        <v>198.023</v>
+        <v>83.106999999999999</v>
       </c>
       <c r="C82" s="0">
-        <v>1249</v>
+        <v>494</v>
       </c>
       <c r="D82" s="0">
-        <v>0.40025893090641101</v>
+        <v>0.89879697507556555</v>
       </c>
       <c r="E82" s="0">
-        <v>1772</v>
+        <v>509</v>
       </c>
     </row>
     <row r="83">
@@ -2322,16 +2010,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="0">
-        <v>173.303</v>
+        <v>230.96000000000001</v>
       </c>
       <c r="C83" s="0">
-        <v>958</v>
+        <v>826</v>
       </c>
       <c r="D83" s="0">
-        <v>0.40083276231632509</v>
+        <v>0.194588141244914</v>
       </c>
       <c r="E83" s="0">
-        <v>1346</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="84">
@@ -2339,16 +2027,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="0">
-        <v>153.65200000000002</v>
+        <v>77.566000000000003</v>
       </c>
       <c r="C84" s="0">
-        <v>810</v>
+        <v>428</v>
       </c>
       <c r="D84" s="0">
-        <v>0.43114012938373097</v>
+        <v>0.89394508565156583</v>
       </c>
       <c r="E84" s="0">
-        <v>1140</v>
+        <v>439</v>
       </c>
     </row>
     <row r="85">
@@ -2356,16 +2044,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="0">
-        <v>203.446</v>
+        <v>118.685</v>
       </c>
       <c r="C85" s="0">
-        <v>2232</v>
+        <v>973</v>
       </c>
       <c r="D85" s="0">
-        <v>0.67765046905758197</v>
+        <v>0.86802260666975206</v>
       </c>
       <c r="E85" s="0">
-        <v>2506</v>
+        <v>993</v>
       </c>
     </row>
     <row r="86">
@@ -2373,16 +2061,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="0">
-        <v>231.05099999999999</v>
+        <v>117.47699999999999</v>
       </c>
       <c r="C86" s="0">
-        <v>2839</v>
+        <v>330</v>
       </c>
       <c r="D86" s="0">
-        <v>0.66828167356632173</v>
+        <v>0.30048175628258111</v>
       </c>
       <c r="E86" s="0">
-        <v>3158</v>
+        <v>463</v>
       </c>
     </row>
     <row r="87">
@@ -2390,16 +2078,16 @@
         <v>86</v>
       </c>
       <c r="B87" s="0">
-        <v>215.71100000000001</v>
+        <v>282.89599999999996</v>
       </c>
       <c r="C87" s="0">
-        <v>1243</v>
+        <v>969</v>
       </c>
       <c r="D87" s="0">
-        <v>0.33568845741478309</v>
+        <v>0.15215282752523449</v>
       </c>
       <c r="E87" s="0">
-        <v>1785</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="88">
@@ -2407,16 +2095,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="0">
-        <v>236.09100000000001</v>
+        <v>135.96200000000002</v>
       </c>
       <c r="C88" s="0">
-        <v>3302</v>
+        <v>1488</v>
       </c>
       <c r="D88" s="0">
-        <v>0.74443720441549543</v>
+        <v>1.0115275282251528</v>
       </c>
       <c r="E88" s="0">
-        <v>3678</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="89">
@@ -2424,16 +2112,16 @@
         <v>88</v>
       </c>
       <c r="B89" s="0">
-        <v>194.12899999999999</v>
+        <v>308.81399999999996</v>
       </c>
       <c r="C89" s="0">
-        <v>2191</v>
+        <v>1169</v>
       </c>
       <c r="D89" s="0">
-        <v>0.73058610274107816</v>
+        <v>0.1540389017997309</v>
       </c>
       <c r="E89" s="0">
-        <v>2437</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="90">
@@ -2441,16 +2129,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="0">
-        <v>197.55799999999999</v>
+        <v>374.71799999999996</v>
       </c>
       <c r="C90" s="0">
-        <v>2141</v>
+        <v>1209</v>
       </c>
       <c r="D90" s="0">
-        <v>0.68934604706795855</v>
+        <v>0.10819994849688626</v>
       </c>
       <c r="E90" s="0">
-        <v>2407</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="91">
@@ -2458,16 +2146,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="0">
-        <v>169.26599999999999</v>
+        <v>167.95099999999999</v>
       </c>
       <c r="C91" s="0">
-        <v>1027</v>
+        <v>2021</v>
       </c>
       <c r="D91" s="0">
-        <v>0.45044404000488841</v>
+        <v>0.90034921341167229</v>
       </c>
       <c r="E91" s="0">
-        <v>1438</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="92">
@@ -2475,16 +2163,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="0">
-        <v>202.255</v>
+        <v>143.80199999999999</v>
       </c>
       <c r="C92" s="0">
-        <v>1041</v>
+        <v>1490</v>
       </c>
       <c r="D92" s="0">
-        <v>0.31978792430585562</v>
+        <v>0.90545376705237657</v>
       </c>
       <c r="E92" s="0">
-        <v>1536</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="93">
@@ -2492,16 +2180,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="0">
-        <v>198.22099999999998</v>
+        <v>302.87299999999999</v>
       </c>
       <c r="C93" s="0">
-        <v>1124</v>
+        <v>903</v>
       </c>
       <c r="D93" s="0">
-        <v>0.35948175206809174</v>
+        <v>0.12370193573566753</v>
       </c>
       <c r="E93" s="0">
-        <v>1613</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="94">
@@ -2509,16 +2197,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="0">
-        <v>200.22999999999999</v>
+        <v>139.20400000000001</v>
       </c>
       <c r="C94" s="0">
-        <v>2427</v>
+        <v>1403</v>
       </c>
       <c r="D94" s="0">
-        <v>0.76071388903733872</v>
+        <v>0.9098380710852112</v>
       </c>
       <c r="E94" s="0">
-        <v>2715</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="95">
@@ -2526,16 +2214,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="0">
-        <v>236.24000000000001</v>
+        <v>353.88099999999997</v>
       </c>
       <c r="C95" s="0">
-        <v>1508</v>
+        <v>1139</v>
       </c>
       <c r="D95" s="0">
-        <v>0.33955047132567345</v>
+        <v>0.11429285895820861</v>
       </c>
       <c r="E95" s="0">
-        <v>2282</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="96">
@@ -2543,16 +2231,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="0">
-        <v>177.87700000000001</v>
+        <v>163.82399999999998</v>
       </c>
       <c r="C96" s="0">
-        <v>1069</v>
+        <v>1954</v>
       </c>
       <c r="D96" s="0">
-        <v>0.42456870274605146</v>
+        <v>0.91491210164874126</v>
       </c>
       <c r="E96" s="0">
-        <v>1486</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="97">
@@ -2560,16 +2248,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="0">
-        <v>195.011</v>
+        <v>161.23600000000002</v>
       </c>
       <c r="C97" s="0">
-        <v>1138</v>
+        <v>2084</v>
       </c>
       <c r="D97" s="0">
-        <v>0.37603988172379532</v>
+        <v>1.0073573225145076</v>
       </c>
       <c r="E97" s="0">
-        <v>1616</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="98">
@@ -2577,16 +2265,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="0">
-        <v>158.11699999999999</v>
+        <v>263.57400000000001</v>
       </c>
       <c r="C98" s="0">
-        <v>1574</v>
+        <v>3888</v>
       </c>
       <c r="D98" s="0">
-        <v>0.79114750086449437</v>
+        <v>0.70328440187864583</v>
       </c>
       <c r="E98" s="0">
-        <v>1743</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="99">
@@ -2594,16 +2282,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="0">
-        <v>139.86699999999999</v>
+        <v>131.73599999999999</v>
       </c>
       <c r="C99" s="0">
-        <v>655</v>
+        <v>1398</v>
       </c>
       <c r="D99" s="0">
-        <v>0.42074662827832837</v>
+        <v>1.0122973278444103</v>
       </c>
       <c r="E99" s="0">
-        <v>916</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="100">
@@ -2611,16 +2299,16 @@
         <v>99</v>
       </c>
       <c r="B100" s="0">
-        <v>147.86199999999997</v>
+        <v>295.67700000000002</v>
       </c>
       <c r="C100" s="0">
-        <v>602</v>
+        <v>4729</v>
       </c>
       <c r="D100" s="0">
-        <v>0.34601362696287857</v>
+        <v>0.67974197932823666</v>
       </c>
       <c r="E100" s="0">
-        <v>847</v>
+        <v>5303</v>
       </c>
     </row>
     <row r="101">
@@ -2628,16 +2316,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="0">
-        <v>166.97699999999998</v>
+        <v>268.79000000000002</v>
       </c>
       <c r="C101" s="0">
-        <v>1607</v>
+        <v>4272</v>
       </c>
       <c r="D101" s="0">
-        <v>0.72428990602688992</v>
+        <v>0.74304461902588714</v>
       </c>
       <c r="E101" s="0">
-        <v>1798</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="102">
@@ -2645,16 +2333,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="0">
-        <v>154.398</v>
+        <v>164.90799999999996</v>
       </c>
       <c r="C102" s="0">
-        <v>1390</v>
+        <v>2156</v>
       </c>
       <c r="D102" s="0">
-        <v>0.73272552964154469</v>
+        <v>0.99626568368493362</v>
       </c>
       <c r="E102" s="0">
-        <v>1551</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="103">
@@ -2662,16 +2350,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="0">
-        <v>139.57599999999999</v>
+        <v>200.06399999999999</v>
       </c>
       <c r="C103" s="0">
-        <v>689</v>
+        <v>2119</v>
       </c>
       <c r="D103" s="0">
-        <v>0.44443432129043497</v>
+        <v>0.66527763748325786</v>
       </c>
       <c r="E103" s="0">
-        <v>991</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="104">
@@ -2679,16 +2367,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="0">
-        <v>175.096</v>
+        <v>100.54899999999999</v>
       </c>
       <c r="C104" s="0">
-        <v>1676</v>
+        <v>824</v>
       </c>
       <c r="D104" s="0">
-        <v>0.6869599661642386</v>
+        <v>1.0241924364089727</v>
       </c>
       <c r="E104" s="0">
-        <v>1901</v>
+        <v>838</v>
       </c>
     </row>
     <row r="105">
@@ -2696,16 +2384,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="0">
-        <v>180.73899999999998</v>
+        <v>200.691</v>
       </c>
       <c r="C105" s="0">
-        <v>1868</v>
+        <v>2094</v>
       </c>
       <c r="D105" s="0">
-        <v>0.71859300572986673</v>
+        <v>0.65332721184459552</v>
       </c>
       <c r="E105" s="0">
-        <v>2098</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="106">
@@ -2713,16 +2401,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="0">
-        <v>165.13</v>
+        <v>118.264</v>
       </c>
       <c r="C106" s="0">
-        <v>1708</v>
+        <v>1125</v>
       </c>
       <c r="D106" s="0">
-        <v>0.78712873770439973</v>
+        <v>1.0107814397378212</v>
       </c>
       <c r="E106" s="0">
-        <v>1911</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="107">
@@ -2730,16 +2418,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="0">
-        <v>180.93600000000001</v>
+        <v>351.21999999999997</v>
       </c>
       <c r="C107" s="0">
-        <v>1962</v>
+        <v>3667</v>
       </c>
       <c r="D107" s="0">
-        <v>0.75311083704720294</v>
+        <v>0.37356166021110004</v>
       </c>
       <c r="E107" s="0">
-        <v>2177</v>
+        <v>5317</v>
       </c>
     </row>
     <row r="108">
@@ -2747,16 +2435,16 @@
         <v>107</v>
       </c>
       <c r="B108" s="0">
-        <v>165.99299999999997</v>
+        <v>230.25899999999999</v>
       </c>
       <c r="C108" s="0">
-        <v>823</v>
+        <v>4195</v>
       </c>
       <c r="D108" s="0">
-        <v>0.3753445818708806</v>
+        <v>0.99427976443895272</v>
       </c>
       <c r="E108" s="0">
-        <v>1203</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="109">
@@ -2764,16 +2452,16 @@
         <v>108</v>
       </c>
       <c r="B109" s="0">
-        <v>196.28700000000001</v>
+        <v>295.64299999999997</v>
       </c>
       <c r="C109" s="0">
-        <v>2210</v>
+        <v>2447</v>
       </c>
       <c r="D109" s="0">
-        <v>0.72080711167951872</v>
+        <v>0.35181036643468411</v>
       </c>
       <c r="E109" s="0">
-        <v>2466</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="110">
@@ -2781,16 +2469,16 @@
         <v>109</v>
       </c>
       <c r="B110" s="0">
-        <v>182.57199999999997</v>
+        <v>104.312</v>
       </c>
       <c r="C110" s="0">
-        <v>2049</v>
+        <v>885</v>
       </c>
       <c r="D110" s="0">
-        <v>0.77247329813609633</v>
+        <v>1.0220792938762659</v>
       </c>
       <c r="E110" s="0">
-        <v>2290</v>
+        <v>903</v>
       </c>
     </row>
     <row r="111">
@@ -2798,16 +2486,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="0">
-        <v>160.36799999999999</v>
+        <v>167.83500000000001</v>
       </c>
       <c r="C111" s="0">
-        <v>757</v>
+        <v>958</v>
       </c>
       <c r="D111" s="0">
-        <v>0.36988806425398946</v>
+        <v>0.42737617447394316</v>
       </c>
       <c r="E111" s="0">
-        <v>1091</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="112">
@@ -2815,16 +2503,16 @@
         <v>111</v>
       </c>
       <c r="B112" s="0">
-        <v>191.79499999999999</v>
+        <v>73.88600000000001</v>
       </c>
       <c r="C112" s="0">
-        <v>1113</v>
+        <v>449</v>
       </c>
       <c r="D112" s="0">
-        <v>0.38021606781847278</v>
+        <v>1.0335509579220377</v>
       </c>
       <c r="E112" s="0">
-        <v>1681</v>
+        <v>460</v>
       </c>
     </row>
     <row r="113">
@@ -2832,16 +2520,16 @@
         <v>112</v>
       </c>
       <c r="B113" s="0">
-        <v>192.09299999999999</v>
+        <v>92.799999999999997</v>
       </c>
       <c r="C113" s="0">
-        <v>2150</v>
+        <v>706</v>
       </c>
       <c r="D113" s="0">
-        <v>0.73219244876869871</v>
+        <v>1.0301930428035793</v>
       </c>
       <c r="E113" s="0">
-        <v>2409</v>
+        <v>719</v>
       </c>
     </row>
     <row r="114">
@@ -2849,16 +2537,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="0">
-        <v>182.23599999999999</v>
+        <v>110.48999999999999</v>
       </c>
       <c r="C114" s="0">
-        <v>1946</v>
+        <v>991</v>
       </c>
       <c r="D114" s="0">
-        <v>0.73635010217999008</v>
+        <v>1.0200878418502197</v>
       </c>
       <c r="E114" s="0">
-        <v>2159</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="115">
@@ -2866,16 +2554,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="0">
-        <v>147.34200000000001</v>
+        <v>187.047</v>
       </c>
       <c r="C115" s="0">
-        <v>732</v>
+        <v>1174</v>
       </c>
       <c r="D115" s="0">
-        <v>0.42370913162245671</v>
+        <v>0.42167365353023573</v>
       </c>
       <c r="E115" s="0">
-        <v>1089</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="116">
@@ -2883,16 +2571,16 @@
         <v>115</v>
       </c>
       <c r="B116" s="0">
-        <v>170.38200000000001</v>
+        <v>205.38199999999998</v>
       </c>
       <c r="C116" s="0">
-        <v>747</v>
+        <v>1113</v>
       </c>
       <c r="D116" s="0">
-        <v>0.32335757720304753</v>
+        <v>0.33157384920729427</v>
       </c>
       <c r="E116" s="0">
-        <v>1082</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="117">
@@ -2900,16 +2588,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="0">
-        <v>180.53899999999999</v>
+        <v>426.98099999999999</v>
       </c>
       <c r="C117" s="0">
-        <v>956</v>
+        <v>2815</v>
       </c>
       <c r="D117" s="0">
-        <v>0.36857484462174483</v>
+        <v>0.19403101841550541</v>
       </c>
       <c r="E117" s="0">
-        <v>1466</v>
+        <v>4146</v>
       </c>
     </row>
     <row r="118">
@@ -2917,16 +2605,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="0">
-        <v>171.78800000000001</v>
+        <v>177.92600000000002</v>
       </c>
       <c r="C118" s="0">
-        <v>776</v>
+        <v>1150</v>
       </c>
       <c r="D118" s="0">
-        <v>0.33043492102474709</v>
+        <v>0.45648748305268044</v>
       </c>
       <c r="E118" s="0">
-        <v>1153</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="119">
@@ -2934,16 +2622,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="0">
-        <v>186.46200000000002</v>
+        <v>364.29199999999997</v>
       </c>
       <c r="C119" s="0">
-        <v>1991</v>
+        <v>1802</v>
       </c>
       <c r="D119" s="0">
-        <v>0.71961539816193654</v>
+        <v>0.17063392570909799</v>
       </c>
       <c r="E119" s="0">
-        <v>2225</v>
+        <v>4828</v>
       </c>
     </row>
     <row r="120">
@@ -2951,16 +2639,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="0">
-        <v>167.21599999999998</v>
+        <v>456.92899999999997</v>
       </c>
       <c r="C120" s="0">
-        <v>1720</v>
+        <v>1837</v>
       </c>
       <c r="D120" s="0">
-        <v>0.77300561777256604</v>
+        <v>0.1105659942391143</v>
       </c>
       <c r="E120" s="0">
-        <v>1917</v>
+        <v>5049</v>
       </c>
     </row>
     <row r="121">
@@ -2968,16 +2656,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="0">
-        <v>183.07599999999999</v>
+        <v>349.87199999999996</v>
       </c>
       <c r="C121" s="0">
-        <v>1839</v>
+        <v>2587</v>
       </c>
       <c r="D121" s="0">
-        <v>0.68949125648763965</v>
+        <v>0.26557544480010764</v>
       </c>
       <c r="E121" s="0">
-        <v>2046</v>
+        <v>3703</v>
       </c>
     </row>
     <row r="122">
@@ -2985,16 +2673,16 @@
         <v>121</v>
       </c>
       <c r="B122" s="0">
-        <v>151.69999999999999</v>
+        <v>333.589</v>
       </c>
       <c r="C122" s="0">
-        <v>700</v>
+        <v>1373</v>
       </c>
       <c r="D122" s="0">
-        <v>0.38224053693610066</v>
+        <v>0.15504471188251001</v>
       </c>
       <c r="E122" s="0">
-        <v>980</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="123">
@@ -3002,16 +2690,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="0">
-        <v>138.18699999999998</v>
+        <v>449.03299999999996</v>
       </c>
       <c r="C123" s="0">
-        <v>662</v>
+        <v>1728</v>
       </c>
       <c r="D123" s="0">
-        <v>0.43564574482397966</v>
+        <v>0.10769538275782231</v>
       </c>
       <c r="E123" s="0">
-        <v>956</v>
+        <v>4673</v>
       </c>
     </row>
     <row r="124">
@@ -3019,16 +2707,16 @@
         <v>123</v>
       </c>
       <c r="B124" s="0">
-        <v>173.47699999999998</v>
+        <v>450.87399999999997</v>
       </c>
       <c r="C124" s="0">
-        <v>940</v>
+        <v>2880</v>
       </c>
       <c r="D124" s="0">
-        <v>0.39251287910858751</v>
+        <v>0.17802949814150812</v>
       </c>
       <c r="E124" s="0">
-        <v>1391</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="125">
@@ -3036,16 +2724,16 @@
         <v>124</v>
       </c>
       <c r="B125" s="0">
-        <v>182.07499999999999</v>
+        <v>158.499</v>
       </c>
       <c r="C125" s="0">
-        <v>1873</v>
+        <v>897</v>
       </c>
       <c r="D125" s="0">
-        <v>0.70998145373029287</v>
+        <v>0.44869295848498142</v>
       </c>
       <c r="E125" s="0">
-        <v>2074</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="126">
@@ -3053,16 +2741,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="0">
-        <v>178.29899999999998</v>
+        <v>317.01800000000003</v>
       </c>
       <c r="C126" s="0">
-        <v>1830</v>
+        <v>1350</v>
       </c>
       <c r="D126" s="0">
-        <v>0.7233744062801386</v>
+        <v>0.16880130078166505</v>
       </c>
       <c r="E126" s="0">
-        <v>2045</v>
+        <v>3872</v>
       </c>
     </row>
     <row r="127">
@@ -3070,16 +2758,16 @@
         <v>126</v>
       </c>
       <c r="B127" s="0">
-        <v>305.19299999999998</v>
+        <v>92.611000000000004</v>
       </c>
       <c r="C127" s="0">
-        <v>1099</v>
+        <v>327</v>
       </c>
       <c r="D127" s="0">
-        <v>0.1482717522044526</v>
+        <v>0.47910694832839335</v>
       </c>
       <c r="E127" s="0">
-        <v>1429</v>
+        <v>437</v>
       </c>
     </row>
     <row r="128">
@@ -3087,16 +2775,16 @@
         <v>127</v>
       </c>
       <c r="B128" s="0">
-        <v>108.10799999999999</v>
+        <v>150.511</v>
       </c>
       <c r="C128" s="0">
-        <v>818</v>
+        <v>790</v>
       </c>
       <c r="D128" s="0">
-        <v>0.87952360914166428</v>
+        <v>0.43822835325175219</v>
       </c>
       <c r="E128" s="0">
-        <v>839</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="129">
@@ -3104,16 +2792,16 @@
         <v>128</v>
       </c>
       <c r="B129" s="0">
-        <v>249.203</v>
+        <v>165.71799999999996</v>
       </c>
       <c r="C129" s="0">
-        <v>836</v>
+        <v>786</v>
       </c>
       <c r="D129" s="0">
-        <v>0.16916464785387583</v>
+        <v>0.35966074826245803</v>
       </c>
       <c r="E129" s="0">
-        <v>1262</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="130">
@@ -3121,16 +2809,16 @@
         <v>129</v>
       </c>
       <c r="B130" s="0">
-        <v>88.99499999999999</v>
+        <v>254.47499999999997</v>
       </c>
       <c r="C130" s="0">
-        <v>295</v>
+        <v>1036</v>
       </c>
       <c r="D130" s="0">
-        <v>0.46805906982787865</v>
+        <v>0.20103856394800457</v>
       </c>
       <c r="E130" s="0">
-        <v>372</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="131">
@@ -3138,16 +2826,16 @@
         <v>130</v>
       </c>
       <c r="B131" s="0">
-        <v>121.21599999999999</v>
+        <v>145.72900000000001</v>
       </c>
       <c r="C131" s="0">
-        <v>1016</v>
+        <v>802</v>
       </c>
       <c r="D131" s="0">
-        <v>0.86892776527209903</v>
+        <v>0.47456123852463256</v>
       </c>
       <c r="E131" s="0">
-        <v>1040</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="132">
@@ -3155,16 +2843,16 @@
         <v>131</v>
       </c>
       <c r="B132" s="0">
-        <v>222.66500000000002</v>
+        <v>121.44699999999999</v>
       </c>
       <c r="C132" s="0">
-        <v>713</v>
+        <v>433</v>
       </c>
       <c r="D132" s="0">
-        <v>0.18071553167820761</v>
+        <v>0.36891318550061458</v>
       </c>
       <c r="E132" s="0">
-        <v>970</v>
+        <v>616</v>
       </c>
     </row>
     <row r="133">
@@ -3172,16 +2860,16 @@
         <v>132</v>
       </c>
       <c r="B133" s="0">
-        <v>194.548</v>
+        <v>180.57899999999998</v>
       </c>
       <c r="C133" s="0">
-        <v>1021</v>
+        <v>745</v>
       </c>
       <c r="D133" s="0">
-        <v>0.33898623628531416</v>
+        <v>0.2870989799066887</v>
       </c>
       <c r="E133" s="0">
-        <v>1247</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="134">
@@ -3189,16 +2877,16 @@
         <v>133</v>
       </c>
       <c r="B134" s="0">
-        <v>75.24199999999999</v>
+        <v>193.48899999999998</v>
       </c>
       <c r="C134" s="0">
-        <v>401</v>
+        <v>874</v>
       </c>
       <c r="D134" s="0">
-        <v>0.89008928853248115</v>
+        <v>0.29336529555557955</v>
       </c>
       <c r="E134" s="0">
-        <v>415</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="135">
@@ -3206,16 +2894,16 @@
         <v>134</v>
       </c>
       <c r="B135" s="0">
-        <v>101.19399999999999</v>
+        <v>69.203999999999994</v>
       </c>
       <c r="C135" s="0">
-        <v>724</v>
+        <v>227</v>
       </c>
       <c r="D135" s="0">
-        <v>0.88846209528932718</v>
+        <v>0.59562555999605526</v>
       </c>
       <c r="E135" s="0">
-        <v>745</v>
+        <v>264</v>
       </c>
     </row>
     <row r="136">
@@ -3223,16 +2911,16 @@
         <v>135</v>
       </c>
       <c r="B136" s="0">
-        <v>70.817000000000007</v>
+        <v>163.16999999999999</v>
       </c>
       <c r="C136" s="0">
-        <v>240</v>
+        <v>707</v>
       </c>
       <c r="D136" s="0">
-        <v>0.60137594989107002</v>
+        <v>0.33369419429943342</v>
       </c>
       <c r="E136" s="0">
-        <v>299</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="137">
@@ -3240,16 +2928,16 @@
         <v>136</v>
       </c>
       <c r="B137" s="0">
-        <v>83.106999999999999</v>
+        <v>128.58499999999998</v>
       </c>
       <c r="C137" s="0">
-        <v>491</v>
+        <v>698</v>
       </c>
       <c r="D137" s="0">
-        <v>0.89333869385041031</v>
+        <v>0.53049912051228443</v>
       </c>
       <c r="E137" s="0">
-        <v>507</v>
+        <v>896</v>
       </c>
     </row>
     <row r="138">
@@ -3257,16 +2945,16 @@
         <v>137</v>
       </c>
       <c r="B138" s="0">
-        <v>116.08</v>
+        <v>388.22300000000001</v>
       </c>
       <c r="C138" s="0">
-        <v>938</v>
+        <v>1832</v>
       </c>
       <c r="D138" s="0">
-        <v>0.8747781031580284</v>
+        <v>0.15274704272039827</v>
       </c>
       <c r="E138" s="0">
-        <v>958</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="139">
@@ -3274,16 +2962,16 @@
         <v>138</v>
       </c>
       <c r="B139" s="0">
-        <v>230.96000000000001</v>
+        <v>243.52399999999997</v>
       </c>
       <c r="C139" s="0">
-        <v>826</v>
+        <v>3548</v>
       </c>
       <c r="D139" s="0">
-        <v>0.194588141244914</v>
+        <v>0.75181318493051785</v>
       </c>
       <c r="E139" s="0">
-        <v>1207</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="140">
@@ -3291,16 +2979,16 @@
         <v>139</v>
       </c>
       <c r="B140" s="0">
-        <v>193.34899999999999</v>
+        <v>317.75599999999997</v>
       </c>
       <c r="C140" s="0">
-        <v>1150</v>
+        <v>6140</v>
       </c>
       <c r="D140" s="0">
-        <v>0.38656616949206918</v>
+        <v>0.76417128706811399</v>
       </c>
       <c r="E140" s="0">
-        <v>1448</v>
+        <v>6826</v>
       </c>
     </row>
     <row r="141">
@@ -3308,16 +2996,16 @@
         <v>140</v>
       </c>
       <c r="B141" s="0">
-        <v>77.566000000000003</v>
+        <v>461.411</v>
       </c>
       <c r="C141" s="0">
-        <v>428</v>
+        <v>3651</v>
       </c>
       <c r="D141" s="0">
-        <v>0.89394508565156583</v>
+        <v>0.21549927294330898</v>
       </c>
       <c r="E141" s="0">
-        <v>439</v>
+        <v>5262</v>
       </c>
     </row>
     <row r="142">
@@ -3325,16 +3013,16 @@
         <v>141</v>
       </c>
       <c r="B142" s="0">
-        <v>104.75</v>
+        <v>309.48200000000003</v>
       </c>
       <c r="C142" s="0">
-        <v>767</v>
+        <v>5491</v>
       </c>
       <c r="D142" s="0">
-        <v>0.87840978451601304</v>
+        <v>0.72042789133124496</v>
       </c>
       <c r="E142" s="0">
-        <v>785</v>
+        <v>6119</v>
       </c>
     </row>
     <row r="143">
@@ -3342,16 +3030,16 @@
         <v>142</v>
       </c>
       <c r="B143" s="0">
-        <v>84.743999999999986</v>
+        <v>254.97799999999998</v>
       </c>
       <c r="C143" s="0">
-        <v>291</v>
+        <v>3835</v>
       </c>
       <c r="D143" s="0">
-        <v>0.50919594263483625</v>
+        <v>0.74125871388032216</v>
       </c>
       <c r="E143" s="0">
-        <v>363</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="144">
@@ -3359,16 +3047,16 @@
         <v>143</v>
       </c>
       <c r="B144" s="0">
-        <v>85.745000000000005</v>
+        <v>286.80799999999999</v>
       </c>
       <c r="C144" s="0">
-        <v>517</v>
+        <v>4431</v>
       </c>
       <c r="D144" s="0">
-        <v>0.88365511918292727</v>
+        <v>0.67690713521201307</v>
       </c>
       <c r="E144" s="0">
-        <v>532</v>
+        <v>4931</v>
       </c>
     </row>
     <row r="145">
@@ -3376,16 +3064,16 @@
         <v>144</v>
       </c>
       <c r="B145" s="0">
-        <v>118.685</v>
+        <v>328.99899999999997</v>
       </c>
       <c r="C145" s="0">
-        <v>973</v>
+        <v>2119</v>
       </c>
       <c r="D145" s="0">
-        <v>0.86802260666975206</v>
+        <v>0.24600937912392296</v>
       </c>
       <c r="E145" s="0">
-        <v>993</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="146">
@@ -3393,16 +3081,16 @@
         <v>145</v>
       </c>
       <c r="B146" s="0">
-        <v>117.47699999999999</v>
+        <v>254.77100000000002</v>
       </c>
       <c r="C146" s="0">
-        <v>330</v>
+        <v>3426</v>
       </c>
       <c r="D146" s="0">
-        <v>0.30048175628258111</v>
+        <v>0.66328051477156813</v>
       </c>
       <c r="E146" s="0">
-        <v>463</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="147">
@@ -3410,16 +3098,16 @@
         <v>146</v>
       </c>
       <c r="B147" s="0">
-        <v>57.18</v>
+        <v>131.11699999999996</v>
       </c>
       <c r="C147" s="0">
-        <v>242</v>
+        <v>692</v>
       </c>
       <c r="D147" s="0">
-        <v>0.93011559890427808</v>
+        <v>0.5058222752118805</v>
       </c>
       <c r="E147" s="0">
-        <v>247</v>
+        <v>897</v>
       </c>
     </row>
     <row r="148">
@@ -3427,16 +3115,16 @@
         <v>147</v>
       </c>
       <c r="B148" s="0">
-        <v>228.51199999999997</v>
+        <v>311.74299999999999</v>
       </c>
       <c r="C148" s="0">
-        <v>845</v>
+        <v>1153</v>
       </c>
       <c r="D148" s="0">
-        <v>0.20335204778994831</v>
+        <v>0.14908905103663334</v>
       </c>
       <c r="E148" s="0">
-        <v>1232</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="149">
@@ -3444,16 +3132,16 @@
         <v>148</v>
       </c>
       <c r="B149" s="0">
-        <v>200.875</v>
+        <v>408.02199999999999</v>
       </c>
       <c r="C149" s="0">
-        <v>1162</v>
+        <v>1389</v>
       </c>
       <c r="D149" s="0">
-        <v>0.36187969243484108</v>
+        <v>0.10484433010852873</v>
       </c>
       <c r="E149" s="0">
-        <v>1482</v>
+        <v>3787</v>
       </c>
     </row>
     <row r="150">
@@ -3461,16 +3149,16 @@
         <v>149</v>
       </c>
       <c r="B150" s="0">
-        <v>78.251999999999995</v>
+        <v>292.90499999999997</v>
       </c>
       <c r="C150" s="0">
-        <v>435</v>
+        <v>2279</v>
       </c>
       <c r="D150" s="0">
-        <v>0.8927055369502358</v>
+        <v>0.33381098061446574</v>
       </c>
       <c r="E150" s="0">
-        <v>448</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="151">
@@ -3478,16 +3166,16 @@
         <v>150</v>
       </c>
       <c r="B151" s="0">
-        <v>106.12299999999999</v>
+        <v>300.37399999999997</v>
       </c>
       <c r="C151" s="0">
-        <v>760</v>
+        <v>2951</v>
       </c>
       <c r="D151" s="0">
-        <v>0.84801672775675629</v>
+        <v>0.41101190135122223</v>
       </c>
       <c r="E151" s="0">
-        <v>783</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="152">
@@ -3495,16 +3183,16 @@
         <v>151</v>
       </c>
       <c r="B152" s="0">
-        <v>75.712999999999994</v>
+        <v>424.47900000000004</v>
       </c>
       <c r="C152" s="0">
-        <v>283</v>
+        <v>1454</v>
       </c>
       <c r="D152" s="0">
-        <v>0.62037657405334512</v>
+        <v>0.10140557956293846</v>
       </c>
       <c r="E152" s="0">
-        <v>350</v>
+        <v>4098</v>
       </c>
     </row>
     <row r="153">
@@ -3512,16 +3200,16 @@
         <v>152</v>
       </c>
       <c r="B153" s="0">
-        <v>85.438999999999993</v>
+        <v>306.77499999999998</v>
       </c>
       <c r="C153" s="0">
-        <v>518</v>
+        <v>2926</v>
       </c>
       <c r="D153" s="0">
-        <v>0.89171754260716274</v>
+        <v>0.39070076020340871</v>
       </c>
       <c r="E153" s="0">
-        <v>533</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="154">
@@ -3529,16 +3217,16 @@
         <v>153</v>
       </c>
       <c r="B154" s="0">
-        <v>119.711</v>
+        <v>260.54599999999999</v>
       </c>
       <c r="C154" s="0">
-        <v>988</v>
+        <v>2157</v>
       </c>
       <c r="D154" s="0">
-        <v>0.86636059573637647</v>
+        <v>0.39929253319018576</v>
       </c>
       <c r="E154" s="0">
-        <v>1010</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="155">
@@ -3546,16 +3234,16 @@
         <v>154</v>
       </c>
       <c r="B155" s="0">
-        <v>118.87499999999999</v>
+        <v>285.25599999999997</v>
       </c>
       <c r="C155" s="0">
-        <v>338</v>
+        <v>2162</v>
       </c>
       <c r="D155" s="0">
-        <v>0.30056991216265538</v>
+        <v>0.33388428429719219</v>
       </c>
       <c r="E155" s="0">
-        <v>473</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="156">
@@ -3563,16 +3251,16 @@
         <v>155</v>
       </c>
       <c r="B156" s="0">
-        <v>248.63599999999994</v>
+        <v>344.38</v>
       </c>
       <c r="C156" s="0">
-        <v>3644</v>
+        <v>1040</v>
       </c>
       <c r="D156" s="0">
-        <v>0.74073047320590069</v>
+        <v>0.11019638810563784</v>
       </c>
       <c r="E156" s="0">
-        <v>4081</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="157">
@@ -3580,16 +3268,16 @@
         <v>156</v>
       </c>
       <c r="B157" s="0">
-        <v>228.79399999999998</v>
+        <v>398.42900000000003</v>
       </c>
       <c r="C157" s="0">
-        <v>3201</v>
+        <v>1394</v>
       </c>
       <c r="D157" s="0">
-        <v>0.76843347550328056</v>
+        <v>0.11034959789827054</v>
       </c>
       <c r="E157" s="0">
-        <v>3595</v>
+        <v>3905</v>
       </c>
     </row>
     <row r="158">
@@ -3597,16 +3285,16 @@
         <v>157</v>
       </c>
       <c r="B158" s="0">
-        <v>298.80000000000001</v>
+        <v>248.63599999999994</v>
       </c>
       <c r="C158" s="0">
-        <v>955</v>
+        <v>3644</v>
       </c>
       <c r="D158" s="0">
-        <v>0.1344163348699686</v>
+        <v>0.74073047320590069</v>
       </c>
       <c r="E158" s="0">
-        <v>2584</v>
+        <v>4081</v>
       </c>
     </row>
     <row r="159">
@@ -3614,16 +3302,16 @@
         <v>158</v>
       </c>
       <c r="B159" s="0">
-        <v>279.22999999999996</v>
+        <v>228.79399999999998</v>
       </c>
       <c r="C159" s="0">
-        <v>4385</v>
+        <v>3201</v>
       </c>
       <c r="D159" s="0">
-        <v>0.70673289985261634</v>
+        <v>0.76843347550328056</v>
       </c>
       <c r="E159" s="0">
-        <v>4915</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="160">
@@ -3631,16 +3319,16 @@
         <v>159</v>
       </c>
       <c r="B160" s="0">
-        <v>310.97500000000002</v>
+        <v>298.80000000000001</v>
       </c>
       <c r="C160" s="0">
-        <v>1197</v>
+        <v>955</v>
       </c>
       <c r="D160" s="0">
-        <v>0.15554392775353376</v>
+        <v>0.1344163348699686</v>
       </c>
       <c r="E160" s="0">
-        <v>3422</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="161">
@@ -3648,16 +3336,16 @@
         <v>160</v>
       </c>
       <c r="B161" s="0">
-        <v>325.29099999999994</v>
+        <v>279.22999999999996</v>
       </c>
       <c r="C161" s="0">
-        <v>1140</v>
+        <v>4385</v>
       </c>
       <c r="D161" s="0">
-        <v>0.13538502209610348</v>
+        <v>0.70673289985261634</v>
       </c>
       <c r="E161" s="0">
-        <v>3272</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="162">
@@ -3665,16 +3353,16 @@
         <v>161</v>
       </c>
       <c r="B162" s="0">
-        <v>205.13299999999998</v>
+        <v>310.97500000000002</v>
       </c>
       <c r="C162" s="0">
-        <v>2580</v>
+        <v>1197</v>
       </c>
       <c r="D162" s="0">
-        <v>0.77047492108670879</v>
+        <v>0.15554392775353376</v>
       </c>
       <c r="E162" s="0">
-        <v>2892</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="163">
@@ -3682,16 +3370,16 @@
         <v>162</v>
       </c>
       <c r="B163" s="0">
-        <v>277.637</v>
+        <v>325.29099999999994</v>
       </c>
       <c r="C163" s="0">
-        <v>765</v>
+        <v>1140</v>
       </c>
       <c r="D163" s="0">
-        <v>0.12471440330576773</v>
+        <v>0.13538502209610348</v>
       </c>
       <c r="E163" s="0">
-        <v>2207</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="164">
@@ -3699,16 +3387,16 @@
         <v>163</v>
       </c>
       <c r="B164" s="0">
-        <v>209.08900000000003</v>
+        <v>228.995</v>
       </c>
       <c r="C164" s="0">
-        <v>2409</v>
+        <v>3080</v>
       </c>
       <c r="D164" s="0">
-        <v>0.69244342036634787</v>
+        <v>0.73808874157609972</v>
       </c>
       <c r="E164" s="0">
-        <v>2718</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="165">
@@ -3716,16 +3404,16 @@
         <v>164</v>
       </c>
       <c r="B165" s="0">
-        <v>260.56999999999999</v>
+        <v>230.691</v>
       </c>
       <c r="C165" s="0">
-        <v>708</v>
+        <v>2975</v>
       </c>
       <c r="D165" s="0">
-        <v>0.13103710684234041</v>
+        <v>0.70248253416532802</v>
       </c>
       <c r="E165" s="0">
-        <v>2032</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="166">
@@ -3733,16 +3421,16 @@
         <v>165</v>
       </c>
       <c r="B166" s="0">
-        <v>264.75700000000001</v>
+        <v>272.05799999999999</v>
       </c>
       <c r="C166" s="0">
-        <v>823</v>
+        <v>757</v>
       </c>
       <c r="D166" s="0">
-        <v>0.1475417045148017</v>
+        <v>0.12852355843697069</v>
       </c>
       <c r="E166" s="0">
-        <v>2076</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="167">
@@ -3750,16 +3438,16 @@
         <v>166</v>
       </c>
       <c r="B167" s="0">
-        <v>228.995</v>
+        <v>219.99799999999999</v>
       </c>
       <c r="C167" s="0">
-        <v>3080</v>
+        <v>2762</v>
       </c>
       <c r="D167" s="0">
-        <v>0.73808874157609972</v>
+        <v>0.7171269980526821</v>
       </c>
       <c r="E167" s="0">
-        <v>3407</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="168">
@@ -3767,16 +3455,16 @@
         <v>167</v>
       </c>
       <c r="B168" s="0">
-        <v>230.691</v>
+        <v>173.303</v>
       </c>
       <c r="C168" s="0">
-        <v>2975</v>
+        <v>958</v>
       </c>
       <c r="D168" s="0">
-        <v>0.70248253416532802</v>
+        <v>0.40083276231632509</v>
       </c>
       <c r="E168" s="0">
-        <v>3356</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="169">
@@ -3784,16 +3472,16 @@
         <v>168</v>
       </c>
       <c r="B169" s="0">
-        <v>272.05799999999999</v>
+        <v>153.65200000000002</v>
       </c>
       <c r="C169" s="0">
-        <v>757</v>
+        <v>810</v>
       </c>
       <c r="D169" s="0">
-        <v>0.12852355843697069</v>
+        <v>0.43114012938373097</v>
       </c>
       <c r="E169" s="0">
-        <v>2207</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="170">
@@ -3801,16 +3489,16 @@
         <v>169</v>
       </c>
       <c r="B170" s="0">
-        <v>219.99799999999999</v>
+        <v>203.446</v>
       </c>
       <c r="C170" s="0">
-        <v>2762</v>
+        <v>2232</v>
       </c>
       <c r="D170" s="0">
-        <v>0.7171269980526821</v>
+        <v>0.67765046905758197</v>
       </c>
       <c r="E170" s="0">
-        <v>3074</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="171">
@@ -3818,16 +3506,16 @@
         <v>170</v>
       </c>
       <c r="B171" s="0">
-        <v>305.62900000000002</v>
+        <v>231.05099999999999</v>
       </c>
       <c r="C171" s="0">
-        <v>853</v>
+        <v>2839</v>
       </c>
       <c r="D171" s="0">
-        <v>0.11475451301648795</v>
+        <v>0.66828167356632173</v>
       </c>
       <c r="E171" s="0">
-        <v>2614</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="172">
@@ -3835,16 +3523,16 @@
         <v>171</v>
       </c>
       <c r="B172" s="0">
-        <v>207.79599999999996</v>
+        <v>215.71100000000001</v>
       </c>
       <c r="C172" s="0">
-        <v>2649</v>
+        <v>1243</v>
       </c>
       <c r="D172" s="0">
-        <v>0.77093445487721624</v>
+        <v>0.33568845741478309</v>
       </c>
       <c r="E172" s="0">
-        <v>2984</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="173">
@@ -3852,16 +3540,16 @@
         <v>172</v>
       </c>
       <c r="B173" s="0">
-        <v>230.97199999999998</v>
+        <v>236.09100000000001</v>
       </c>
       <c r="C173" s="0">
-        <v>3116</v>
+        <v>3302</v>
       </c>
       <c r="D173" s="0">
-        <v>0.73398746501648149</v>
+        <v>0.74443720441549543</v>
       </c>
       <c r="E173" s="0">
-        <v>3480</v>
+        <v>3678</v>
       </c>
     </row>
     <row r="174">
@@ -3869,16 +3557,16 @@
         <v>173</v>
       </c>
       <c r="B174" s="0">
-        <v>216.09399999999999</v>
+        <v>194.12899999999999</v>
       </c>
       <c r="C174" s="0">
-        <v>2669</v>
+        <v>2191</v>
       </c>
       <c r="D174" s="0">
-        <v>0.718245676930235</v>
+        <v>0.73058610274107816</v>
       </c>
       <c r="E174" s="0">
-        <v>2993</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="175">
@@ -3886,16 +3574,16 @@
         <v>174</v>
       </c>
       <c r="B175" s="0">
-        <v>222.69200000000001</v>
+        <v>197.55799999999999</v>
       </c>
       <c r="C175" s="0">
-        <v>2960</v>
+        <v>2141</v>
       </c>
       <c r="D175" s="0">
-        <v>0.75005367569696546</v>
+        <v>0.68934604706795855</v>
       </c>
       <c r="E175" s="0">
-        <v>3320</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="176">
@@ -3903,16 +3591,16 @@
         <v>175</v>
       </c>
       <c r="B176" s="0">
-        <v>161.23600000000002</v>
+        <v>169.26599999999999</v>
       </c>
       <c r="C176" s="0">
-        <v>2084</v>
+        <v>1027</v>
       </c>
       <c r="D176" s="0">
-        <v>1.0073573225145076</v>
+        <v>0.45044404000488841</v>
       </c>
       <c r="E176" s="0">
-        <v>2110</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="177">
@@ -3920,1784 +3608,16 @@
         <v>176</v>
       </c>
       <c r="B177" s="0">
-        <v>263.57400000000001</v>
+        <v>202.255</v>
       </c>
       <c r="C177" s="0">
-        <v>3888</v>
+        <v>1041</v>
       </c>
       <c r="D177" s="0">
-        <v>0.70328440187864583</v>
+        <v>0.31978792430585562</v>
       </c>
       <c r="E177" s="0">
-        <v>4344</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="B178" s="0">
-        <v>131.73599999999999</v>
-      </c>
-      <c r="C178" s="0">
-        <v>1398</v>
-      </c>
-      <c r="D178" s="0">
-        <v>1.0122973278444103</v>
-      </c>
-      <c r="E178" s="0">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="B179" s="0">
-        <v>295.67700000000002</v>
-      </c>
-      <c r="C179" s="0">
-        <v>4729</v>
-      </c>
-      <c r="D179" s="0">
-        <v>0.67974197932823666</v>
-      </c>
-      <c r="E179" s="0">
-        <v>5303</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="B180" s="0">
-        <v>268.79000000000002</v>
-      </c>
-      <c r="C180" s="0">
-        <v>4272</v>
-      </c>
-      <c r="D180" s="0">
-        <v>0.74304461902588714</v>
-      </c>
-      <c r="E180" s="0">
-        <v>4784</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="B181" s="0">
-        <v>164.90799999999996</v>
-      </c>
-      <c r="C181" s="0">
-        <v>2156</v>
-      </c>
-      <c r="D181" s="0">
-        <v>0.99626568368493362</v>
-      </c>
-      <c r="E181" s="0">
-        <v>2193</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="B182" s="0">
-        <v>202.10599999999999</v>
-      </c>
-      <c r="C182" s="0">
-        <v>2277</v>
-      </c>
-      <c r="D182" s="0">
-        <v>0.70051022860340151</v>
-      </c>
-      <c r="E182" s="0">
-        <v>2544</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="B183" s="0">
-        <v>199.39399999999998</v>
-      </c>
-      <c r="C183" s="0">
-        <v>2113</v>
-      </c>
-      <c r="D183" s="0">
-        <v>0.66785962548150579</v>
-      </c>
-      <c r="E183" s="0">
-        <v>2397</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="B184" s="0">
-        <v>100.54899999999999</v>
-      </c>
-      <c r="C184" s="0">
-        <v>823</v>
-      </c>
-      <c r="D184" s="0">
-        <v>1.0229494844230396</v>
-      </c>
-      <c r="E184" s="0">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="B185" s="0">
-        <v>200.50899999999999</v>
-      </c>
-      <c r="C185" s="0">
-        <v>2092</v>
-      </c>
-      <c r="D185" s="0">
-        <v>0.65388865462577639</v>
-      </c>
-      <c r="E185" s="0">
-        <v>2338</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="B186" s="0">
-        <v>118.08199999999999</v>
-      </c>
-      <c r="C186" s="0">
-        <v>1121</v>
-      </c>
-      <c r="D186" s="0">
-        <v>1.0102947028429787</v>
-      </c>
-      <c r="E186" s="0">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="B187" s="0">
-        <v>289.24799999999999</v>
-      </c>
-      <c r="C187" s="0">
-        <v>4373</v>
-      </c>
-      <c r="D187" s="0">
-        <v>0.65682339300152404</v>
-      </c>
-      <c r="E187" s="0">
-        <v>4877</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="B188" s="0">
-        <v>133.51400000000001</v>
-      </c>
-      <c r="C188" s="0">
-        <v>1421</v>
-      </c>
-      <c r="D188" s="0">
-        <v>1.0017291858754456</v>
-      </c>
-      <c r="E188" s="0">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="B189" s="0">
-        <v>125.36799999999999</v>
-      </c>
-      <c r="C189" s="0">
-        <v>1273</v>
-      </c>
-      <c r="D189" s="0">
-        <v>1.0178056853573898</v>
-      </c>
-      <c r="E189" s="0">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="B190" s="0">
-        <v>157.56399999999999</v>
-      </c>
-      <c r="C190" s="0">
-        <v>1978</v>
-      </c>
-      <c r="D190" s="0">
-        <v>1.0012030323463934</v>
-      </c>
-      <c r="E190" s="0">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="B191" s="0">
-        <v>264.06599999999997</v>
-      </c>
-      <c r="C191" s="0">
-        <v>4303</v>
-      </c>
-      <c r="D191" s="0">
-        <v>0.77545434949691672</v>
-      </c>
-      <c r="E191" s="0">
-        <v>4759</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="B192" s="0">
-        <v>139.50999999999999</v>
-      </c>
-      <c r="C192" s="0">
-        <v>1555</v>
-      </c>
-      <c r="D192" s="0">
-        <v>1.0039904457335271</v>
-      </c>
-      <c r="E192" s="0">
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="B193" s="0">
-        <v>235.131</v>
-      </c>
-      <c r="C193" s="0">
-        <v>3247</v>
-      </c>
-      <c r="D193" s="0">
-        <v>0.73802720479022965</v>
-      </c>
-      <c r="E193" s="0">
-        <v>3628</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="B194" s="0">
-        <v>272.51999999999998</v>
-      </c>
-      <c r="C194" s="0">
-        <v>2997</v>
-      </c>
-      <c r="D194" s="0">
-        <v>0.50710728132682537</v>
-      </c>
-      <c r="E194" s="0">
-        <v>3445</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="B195" s="0">
-        <v>232.20399999999998</v>
-      </c>
-      <c r="C195" s="0">
-        <v>3103</v>
-      </c>
-      <c r="D195" s="0">
-        <v>0.72318972342509769</v>
-      </c>
-      <c r="E195" s="0">
-        <v>3479</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="B196" s="0">
-        <v>231.63199999999998</v>
-      </c>
-      <c r="C196" s="0">
-        <v>3202</v>
-      </c>
-      <c r="D196" s="0">
-        <v>0.74995305308517035</v>
-      </c>
-      <c r="E196" s="0">
-        <v>3581</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="B197" s="0">
-        <v>115.45199999999998</v>
-      </c>
-      <c r="C197" s="0">
-        <v>1076</v>
-      </c>
-      <c r="D197" s="0">
-        <v>1.014423295614473</v>
-      </c>
-      <c r="E197" s="0">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="B198" s="0">
-        <v>128.58499999999998</v>
-      </c>
-      <c r="C198" s="0">
-        <v>698</v>
-      </c>
-      <c r="D198" s="0">
-        <v>0.53049912051228443</v>
-      </c>
-      <c r="E198" s="0">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="B199" s="0">
-        <v>388.22300000000001</v>
-      </c>
-      <c r="C199" s="0">
-        <v>1832</v>
-      </c>
-      <c r="D199" s="0">
-        <v>0.15274704272039827</v>
-      </c>
-      <c r="E199" s="0">
-        <v>2783</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="B200" s="0">
-        <v>243.52399999999997</v>
-      </c>
-      <c r="C200" s="0">
-        <v>3548</v>
-      </c>
-      <c r="D200" s="0">
-        <v>0.75181318493051785</v>
-      </c>
-      <c r="E200" s="0">
-        <v>3970</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="B201" s="0">
-        <v>317.75599999999997</v>
-      </c>
-      <c r="C201" s="0">
-        <v>6140</v>
-      </c>
-      <c r="D201" s="0">
-        <v>0.76417128706811399</v>
-      </c>
-      <c r="E201" s="0">
-        <v>6826</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="B202" s="0">
-        <v>461.411</v>
-      </c>
-      <c r="C202" s="0">
-        <v>3651</v>
-      </c>
-      <c r="D202" s="0">
-        <v>0.21549927294330898</v>
-      </c>
-      <c r="E202" s="0">
-        <v>5262</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="B203" s="0">
-        <v>309.48200000000003</v>
-      </c>
-      <c r="C203" s="0">
-        <v>5491</v>
-      </c>
-      <c r="D203" s="0">
-        <v>0.72042789133124496</v>
-      </c>
-      <c r="E203" s="0">
-        <v>6119</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="B204" s="0">
-        <v>254.97799999999998</v>
-      </c>
-      <c r="C204" s="0">
-        <v>3835</v>
-      </c>
-      <c r="D204" s="0">
-        <v>0.74125871388032216</v>
-      </c>
-      <c r="E204" s="0">
-        <v>4310</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="B205" s="0">
-        <v>286.80799999999999</v>
-      </c>
-      <c r="C205" s="0">
-        <v>4431</v>
-      </c>
-      <c r="D205" s="0">
-        <v>0.67690713521201307</v>
-      </c>
-      <c r="E205" s="0">
-        <v>4931</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="B206" s="0">
-        <v>328.99899999999997</v>
-      </c>
-      <c r="C206" s="0">
-        <v>2119</v>
-      </c>
-      <c r="D206" s="0">
-        <v>0.24600937912392296</v>
-      </c>
-      <c r="E206" s="0">
-        <v>3021</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="B207" s="0">
-        <v>254.77100000000002</v>
-      </c>
-      <c r="C207" s="0">
-        <v>3426</v>
-      </c>
-      <c r="D207" s="0">
-        <v>0.66328051477156813</v>
-      </c>
-      <c r="E207" s="0">
-        <v>3855</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="B208" s="0">
-        <v>131.11699999999996</v>
-      </c>
-      <c r="C208" s="0">
-        <v>692</v>
-      </c>
-      <c r="D208" s="0">
-        <v>0.5058222752118805</v>
-      </c>
-      <c r="E208" s="0">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="B209" s="0">
-        <v>255.00099999999998</v>
-      </c>
-      <c r="C209" s="0">
-        <v>3367</v>
-      </c>
-      <c r="D209" s="0">
-        <v>0.65068262990781089</v>
-      </c>
-      <c r="E209" s="0">
-        <v>3758</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="B210" s="0">
-        <v>340.58600000000001</v>
-      </c>
-      <c r="C210" s="0">
-        <v>2016</v>
-      </c>
-      <c r="D210" s="0">
-        <v>0.21839707004667497</v>
-      </c>
-      <c r="E210" s="0">
-        <v>2914</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="B211" s="0">
-        <v>272.02200000000005</v>
-      </c>
-      <c r="C211" s="0">
-        <v>4063</v>
-      </c>
-      <c r="D211" s="0">
-        <v>0.68999926417857871</v>
-      </c>
-      <c r="E211" s="0">
-        <v>4544</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="B212" s="0">
-        <v>229.92799999999997</v>
-      </c>
-      <c r="C212" s="0">
-        <v>3159</v>
-      </c>
-      <c r="D212" s="0">
-        <v>0.75088904202691442</v>
-      </c>
-      <c r="E212" s="0">
-        <v>3551</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="B213" s="0">
-        <v>257.24699999999996</v>
-      </c>
-      <c r="C213" s="0">
-        <v>3650</v>
-      </c>
-      <c r="D213" s="0">
-        <v>0.69310988223956183</v>
-      </c>
-      <c r="E213" s="0">
-        <v>4090</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="B214" s="0">
-        <v>438.36399999999998</v>
-      </c>
-      <c r="C214" s="0">
-        <v>2736</v>
-      </c>
-      <c r="D214" s="0">
-        <v>0.17891888983736978</v>
-      </c>
-      <c r="E214" s="0">
-        <v>4029</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="B215" s="0">
-        <v>304.34599999999995</v>
-      </c>
-      <c r="C215" s="0">
-        <v>5030</v>
-      </c>
-      <c r="D215" s="0">
-        <v>0.68240571081600199</v>
-      </c>
-      <c r="E215" s="0">
-        <v>5649</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="B216" s="0">
-        <v>171.17699999999996</v>
-      </c>
-      <c r="C216" s="0">
-        <v>1167</v>
-      </c>
-      <c r="D216" s="0">
-        <v>0.50048365479106793</v>
-      </c>
-      <c r="E216" s="0">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="B217" s="0">
-        <v>295.42899999999992</v>
-      </c>
-      <c r="C217" s="0">
-        <v>5110</v>
-      </c>
-      <c r="D217" s="0">
-        <v>0.73574024956548822</v>
-      </c>
-      <c r="E217" s="0">
-        <v>5732</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="B218" s="0">
-        <v>189.25599999999997</v>
-      </c>
-      <c r="C218" s="0">
-        <v>1069</v>
-      </c>
-      <c r="D218" s="0">
-        <v>0.37504921042329897</v>
-      </c>
-      <c r="E218" s="0">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="B219" s="0">
-        <v>351.21999999999997</v>
-      </c>
-      <c r="C219" s="0">
-        <v>3667</v>
-      </c>
-      <c r="D219" s="0">
-        <v>0.37356166021110004</v>
-      </c>
-      <c r="E219" s="0">
-        <v>5317</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="B220" s="0">
-        <v>230.25899999999999</v>
-      </c>
-      <c r="C220" s="0">
-        <v>4195</v>
-      </c>
-      <c r="D220" s="0">
-        <v>0.99427976443895272</v>
-      </c>
-      <c r="E220" s="0">
-        <v>4245</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="B221" s="0">
-        <v>295.64299999999997</v>
-      </c>
-      <c r="C221" s="0">
-        <v>2447</v>
-      </c>
-      <c r="D221" s="0">
-        <v>0.35181036643468411</v>
-      </c>
-      <c r="E221" s="0">
-        <v>3395</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="B222" s="0">
-        <v>154.67899999999997</v>
-      </c>
-      <c r="C222" s="0">
-        <v>732</v>
-      </c>
-      <c r="D222" s="0">
-        <v>0.38446626062508882</v>
-      </c>
-      <c r="E222" s="0">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="B223" s="0">
-        <v>154.62699999999998</v>
-      </c>
-      <c r="C223" s="0">
-        <v>710</v>
-      </c>
-      <c r="D223" s="0">
-        <v>0.37316212089746809</v>
-      </c>
-      <c r="E223" s="0">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="B224" s="0">
-        <v>84.355999999999995</v>
-      </c>
-      <c r="C224" s="0">
-        <v>586</v>
-      </c>
-      <c r="D224" s="0">
-        <v>1.0348455196982116</v>
-      </c>
-      <c r="E224" s="0">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B225" s="0">
-        <v>166.75200000000001</v>
-      </c>
-      <c r="C225" s="0">
-        <v>957</v>
-      </c>
-      <c r="D225" s="0">
-        <v>0.43249361357000066</v>
-      </c>
-      <c r="E225" s="0">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="B226" s="0">
-        <v>71.528999999999996</v>
-      </c>
-      <c r="C226" s="0">
-        <v>425</v>
-      </c>
-      <c r="D226" s="0">
-        <v>1.0438413268618705</v>
-      </c>
-      <c r="E226" s="0">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="B227" s="0">
-        <v>185.55699999999999</v>
-      </c>
-      <c r="C227" s="0">
-        <v>867</v>
-      </c>
-      <c r="D227" s="0">
-        <v>0.31642754125184991</v>
-      </c>
-      <c r="E227" s="0">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B228" s="0">
-        <v>104.312</v>
-      </c>
-      <c r="C228" s="0">
-        <v>885</v>
-      </c>
-      <c r="D228" s="0">
-        <v>1.0220792938762659</v>
-      </c>
-      <c r="E228" s="0">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="B229" s="0">
-        <v>162.41200000000001</v>
-      </c>
-      <c r="C229" s="0">
-        <v>748</v>
-      </c>
-      <c r="D229" s="0">
-        <v>0.35634874448542547</v>
-      </c>
-      <c r="E229" s="0">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="B230" s="0">
-        <v>90.632999999999996</v>
-      </c>
-      <c r="C230" s="0">
-        <v>623</v>
-      </c>
-      <c r="D230" s="0">
-        <v>0.95307087801088475</v>
-      </c>
-      <c r="E230" s="0">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B231" s="0">
-        <v>180.21800000000002</v>
-      </c>
-      <c r="C231" s="0">
-        <v>896</v>
-      </c>
-      <c r="D231" s="0">
-        <v>0.3466742161308155</v>
-      </c>
-      <c r="E231" s="0">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="B232" s="0">
-        <v>167.83500000000001</v>
-      </c>
-      <c r="C232" s="0">
-        <v>958</v>
-      </c>
-      <c r="D232" s="0">
-        <v>0.42737617447394316</v>
-      </c>
-      <c r="E232" s="0">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="B233" s="0">
-        <v>73.88600000000001</v>
-      </c>
-      <c r="C233" s="0">
-        <v>449</v>
-      </c>
-      <c r="D233" s="0">
-        <v>1.0335509579220377</v>
-      </c>
-      <c r="E233" s="0">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="B234" s="0">
-        <v>190.04900000000001</v>
-      </c>
-      <c r="C234" s="0">
-        <v>919</v>
-      </c>
-      <c r="D234" s="0">
-        <v>0.3197379586181654</v>
-      </c>
-      <c r="E234" s="0">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="B235" s="0">
-        <v>170.91200000000001</v>
-      </c>
-      <c r="C235" s="0">
-        <v>917</v>
-      </c>
-      <c r="D235" s="0">
-        <v>0.39448826364463924</v>
-      </c>
-      <c r="E235" s="0">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="B236" s="0">
-        <v>159.34100000000001</v>
-      </c>
-      <c r="C236" s="0">
-        <v>725</v>
-      </c>
-      <c r="D236" s="0">
-        <v>0.35883334518511939</v>
-      </c>
-      <c r="E236" s="0">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="B237" s="0">
-        <v>83.892999999999986</v>
-      </c>
-      <c r="C237" s="0">
-        <v>564</v>
-      </c>
-      <c r="D237" s="0">
-        <v>1.0070186599451689</v>
-      </c>
-      <c r="E237" s="0">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="B238" s="0">
-        <v>164.56799999999998</v>
-      </c>
-      <c r="C238" s="0">
-        <v>734</v>
-      </c>
-      <c r="D238" s="0">
-        <v>0.34057686349985677</v>
-      </c>
-      <c r="E238" s="0">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="B239" s="0">
-        <v>160.39400000000001</v>
-      </c>
-      <c r="C239" s="0">
-        <v>704</v>
-      </c>
-      <c r="D239" s="0">
-        <v>0.34387950010381596</v>
-      </c>
-      <c r="E239" s="0">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="B240" s="0">
-        <v>92.799999999999997</v>
-      </c>
-      <c r="C240" s="0">
-        <v>706</v>
-      </c>
-      <c r="D240" s="0">
-        <v>1.0301930428035793</v>
-      </c>
-      <c r="E240" s="0">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="B241" s="0">
-        <v>110.48999999999999</v>
-      </c>
-      <c r="C241" s="0">
-        <v>991</v>
-      </c>
-      <c r="D241" s="0">
-        <v>1.0200878418502197</v>
-      </c>
-      <c r="E241" s="0">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="B242" s="0">
-        <v>187.047</v>
-      </c>
-      <c r="C242" s="0">
-        <v>1175</v>
-      </c>
-      <c r="D242" s="0">
-        <v>0.42203283040717798</v>
-      </c>
-      <c r="E242" s="0">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="B243" s="0">
-        <v>205.38199999999998</v>
-      </c>
-      <c r="C243" s="0">
-        <v>1114</v>
-      </c>
-      <c r="D243" s="0">
-        <v>0.33187175922455153</v>
-      </c>
-      <c r="E243" s="0">
-        <v>1645</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="B244" s="0">
-        <v>60.851999999999997</v>
-      </c>
-      <c r="C244" s="0">
-        <v>314</v>
-      </c>
-      <c r="D244" s="0">
-        <v>1.0655891723567921</v>
-      </c>
-      <c r="E244" s="0">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="B245" s="0">
-        <v>80.625999999999991</v>
-      </c>
-      <c r="C245" s="0">
-        <v>541</v>
-      </c>
-      <c r="D245" s="0">
-        <v>1.0458198983793963</v>
-      </c>
-      <c r="E245" s="0">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="B246" s="0">
-        <v>71.810000000000002</v>
-      </c>
-      <c r="C246" s="0">
-        <v>430</v>
-      </c>
-      <c r="D246" s="0">
-        <v>1.047872555767938</v>
-      </c>
-      <c r="E246" s="0">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="B247" s="0">
-        <v>83.776999999999987</v>
-      </c>
-      <c r="C247" s="0">
-        <v>576</v>
-      </c>
-      <c r="D247" s="0">
-        <v>1.0312945874499106</v>
-      </c>
-      <c r="E247" s="0">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="B248" s="0">
-        <v>120.753</v>
-      </c>
-      <c r="C248" s="0">
-        <v>1168</v>
-      </c>
-      <c r="D248" s="0">
-        <v>1.006599819927563</v>
-      </c>
-      <c r="E248" s="0">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="B249" s="0">
-        <v>172.45999999999998</v>
-      </c>
-      <c r="C249" s="0">
-        <v>964</v>
-      </c>
-      <c r="D249" s="0">
-        <v>0.4072959900939116</v>
-      </c>
-      <c r="E249" s="0">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="B250" s="0">
-        <v>103.20399999999999</v>
-      </c>
-      <c r="C250" s="0">
-        <v>861</v>
-      </c>
-      <c r="D250" s="0">
-        <v>1.0158274757701247</v>
-      </c>
-      <c r="E250" s="0">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="B251" s="0">
-        <v>55.988999999999997</v>
-      </c>
-      <c r="C251" s="0">
-        <v>267</v>
-      </c>
-      <c r="D251" s="0">
-        <v>1.0703250845116972</v>
-      </c>
-      <c r="E251" s="0">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="B252" s="0">
-        <v>92.611000000000004</v>
-      </c>
-      <c r="C252" s="0">
-        <v>327</v>
-      </c>
-      <c r="D252" s="0">
-        <v>0.47910694832839335</v>
-      </c>
-      <c r="E252" s="0">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="B253" s="0">
-        <v>150.511</v>
-      </c>
-      <c r="C253" s="0">
-        <v>790</v>
-      </c>
-      <c r="D253" s="0">
-        <v>0.43822835325175219</v>
-      </c>
-      <c r="E253" s="0">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="B254" s="0">
-        <v>194.03399999999999</v>
-      </c>
-      <c r="C254" s="0">
-        <v>935</v>
-      </c>
-      <c r="D254" s="0">
-        <v>0.31207990236978955</v>
-      </c>
-      <c r="E254" s="0">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="B255" s="0">
-        <v>72.820000000000007</v>
-      </c>
-      <c r="C255" s="0">
-        <v>280</v>
-      </c>
-      <c r="D255" s="0">
-        <v>0.66353914092247024</v>
-      </c>
-      <c r="E255" s="0">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="B256" s="0">
-        <v>165.71799999999996</v>
-      </c>
-      <c r="C256" s="0">
-        <v>786</v>
-      </c>
-      <c r="D256" s="0">
-        <v>0.35966074826245803</v>
-      </c>
-      <c r="E256" s="0">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="B257" s="0">
-        <v>112.72999999999999</v>
-      </c>
-      <c r="C257" s="0">
-        <v>398</v>
-      </c>
-      <c r="D257" s="0">
-        <v>0.39356269161540491</v>
-      </c>
-      <c r="E257" s="0">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="B258" s="0">
-        <v>254.47499999999997</v>
-      </c>
-      <c r="C258" s="0">
-        <v>1036</v>
-      </c>
-      <c r="D258" s="0">
-        <v>0.20103856394800457</v>
-      </c>
-      <c r="E258" s="0">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="B259" s="0">
-        <v>145.72900000000001</v>
-      </c>
-      <c r="C259" s="0">
-        <v>802</v>
-      </c>
-      <c r="D259" s="0">
-        <v>0.47456123852463256</v>
-      </c>
-      <c r="E259" s="0">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="B260" s="0">
-        <v>87.441999999999993</v>
-      </c>
-      <c r="C260" s="0">
-        <v>356</v>
-      </c>
-      <c r="D260" s="0">
-        <v>0.58508598769079712</v>
-      </c>
-      <c r="E260" s="0">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="B261" s="0">
-        <v>177.536</v>
-      </c>
-      <c r="C261" s="0">
-        <v>1044</v>
-      </c>
-      <c r="D261" s="0">
-        <v>0.41623395078946829</v>
-      </c>
-      <c r="E261" s="0">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="B262" s="0">
-        <v>154.04899999999998</v>
-      </c>
-      <c r="C262" s="0">
-        <v>872</v>
-      </c>
-      <c r="D262" s="0">
-        <v>0.46175178399102607</v>
-      </c>
-      <c r="E262" s="0">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="B263" s="0">
-        <v>121.44699999999999</v>
-      </c>
-      <c r="C263" s="0">
-        <v>433</v>
-      </c>
-      <c r="D263" s="0">
-        <v>0.36891318550061458</v>
-      </c>
-      <c r="E263" s="0">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="B264" s="0">
-        <v>218.66200000000001</v>
-      </c>
-      <c r="C264" s="0">
-        <v>926</v>
-      </c>
-      <c r="D264" s="0">
-        <v>0.24337402157011317</v>
-      </c>
-      <c r="E264" s="0">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="B265" s="0">
-        <v>231.51599999999999</v>
-      </c>
-      <c r="C265" s="0">
-        <v>1201</v>
-      </c>
-      <c r="D265" s="0">
-        <v>0.28157289801667584</v>
-      </c>
-      <c r="E265" s="0">
-        <v>1572</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="B266" s="0">
-        <v>112.672</v>
-      </c>
-      <c r="C266" s="0">
-        <v>429</v>
-      </c>
-      <c r="D266" s="0">
-        <v>0.4246539317286141</v>
-      </c>
-      <c r="E266" s="0">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="B267" s="0">
-        <v>82.825999999999993</v>
-      </c>
-      <c r="C267" s="0">
-        <v>317</v>
-      </c>
-      <c r="D267" s="0">
-        <v>0.58067850516367892</v>
-      </c>
-      <c r="E267" s="0">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="B268" s="0">
-        <v>148.06199999999998</v>
-      </c>
-      <c r="C268" s="0">
-        <v>722</v>
-      </c>
-      <c r="D268" s="0">
-        <v>0.41386608483734288</v>
-      </c>
-      <c r="E268" s="0">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="B269" s="0">
-        <v>145.339</v>
-      </c>
-      <c r="C269" s="0">
-        <v>499</v>
-      </c>
-      <c r="D269" s="0">
-        <v>0.29685616608181981</v>
-      </c>
-      <c r="E269" s="0">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="B270" s="0">
-        <v>143.595</v>
-      </c>
-      <c r="C270" s="0">
-        <v>688</v>
-      </c>
-      <c r="D270" s="0">
-        <v>0.41929498334669296</v>
-      </c>
-      <c r="E270" s="0">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="B271" s="0">
-        <v>179.72699999999998</v>
-      </c>
-      <c r="C271" s="0">
-        <v>744</v>
-      </c>
-      <c r="D271" s="0">
-        <v>0.28943840035542029</v>
-      </c>
-      <c r="E271" s="0">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="B272" s="0">
-        <v>193.48899999999998</v>
-      </c>
-      <c r="C272" s="0">
-        <v>874</v>
-      </c>
-      <c r="D272" s="0">
-        <v>0.29336529555557955</v>
-      </c>
-      <c r="E272" s="0">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="B273" s="0">
-        <v>69.203999999999994</v>
-      </c>
-      <c r="C273" s="0">
-        <v>225</v>
-      </c>
-      <c r="D273" s="0">
-        <v>0.59037775770534118</v>
-      </c>
-      <c r="E273" s="0">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="B274" s="0">
-        <v>154.45499999999998</v>
-      </c>
-      <c r="C274" s="0">
-        <v>681</v>
-      </c>
-      <c r="D274" s="0">
-        <v>0.35871788666599502</v>
-      </c>
-      <c r="E274" s="0">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="B275" s="0">
-        <v>163.16999999999999</v>
-      </c>
-      <c r="C275" s="0">
-        <v>706</v>
-      </c>
-      <c r="D275" s="0">
-        <v>0.33322220816888259</v>
-      </c>
-      <c r="E275" s="0">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="B276" s="0">
-        <v>136.40099999999998</v>
-      </c>
-      <c r="C276" s="0">
-        <v>609</v>
-      </c>
-      <c r="D276" s="0">
-        <v>0.41133157461665337</v>
-      </c>
-      <c r="E276" s="0">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="B277" s="0">
-        <v>159.37700000000001</v>
-      </c>
-      <c r="C277" s="0">
-        <v>764</v>
-      </c>
-      <c r="D277" s="0">
-        <v>0.37796529733414269</v>
-      </c>
-      <c r="E277" s="0">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="B278" s="0">
-        <v>185.47599999999997</v>
-      </c>
-      <c r="C278" s="0">
-        <v>800</v>
-      </c>
-      <c r="D278" s="0">
-        <v>0.29222973784697298</v>
-      </c>
-      <c r="E278" s="0">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="B279" s="0">
-        <v>170.685</v>
-      </c>
-      <c r="C279" s="0">
-        <v>637</v>
-      </c>
-      <c r="D279" s="0">
-        <v>0.27476321120036168</v>
-      </c>
-      <c r="E279" s="0">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="B280" s="0">
-        <v>137.78999999999999</v>
-      </c>
-      <c r="C280" s="0">
-        <v>643</v>
-      </c>
-      <c r="D280" s="0">
-        <v>0.42558414165209296</v>
-      </c>
-      <c r="E280" s="0">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="B281" s="0">
-        <v>158.81999999999999</v>
-      </c>
-      <c r="C281" s="0">
-        <v>643</v>
-      </c>
-      <c r="D281" s="0">
-        <v>0.32033947064331803</v>
-      </c>
-      <c r="E281" s="0">
-        <v>933</v>
+        <v>1536</v>
       </c>
     </row>
   </sheetData>

--- a/Proyecto/tablaNoIndexada.xlsx
+++ b/Proyecto/tablaNoIndexada.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
   <si>
     <t>nombreObjeto</t>
   </si>
@@ -66,6 +66,30 @@
     <t>obj1IMG006.bmp</t>
   </si>
   <si>
+    <t>obj2IMG006.bmp</t>
+  </si>
+  <si>
+    <t>obj3IMG006.bmp</t>
+  </si>
+  <si>
+    <t>obj4IMG006.bmp</t>
+  </si>
+  <si>
+    <t>obj5IMG006.bmp</t>
+  </si>
+  <si>
+    <t>obj6IMG006.bmp</t>
+  </si>
+  <si>
+    <t>obj7IMG006.bmp</t>
+  </si>
+  <si>
+    <t>obj8IMG006.bmp</t>
+  </si>
+  <si>
+    <t>obj9IMG006.bmp</t>
+  </si>
+  <si>
     <t>obj1IMG007.bmp</t>
   </si>
   <si>
@@ -93,6 +117,9 @@
     <t>obj4IMG009.bmp</t>
   </si>
   <si>
+    <t>obj5IMG009.bmp</t>
+  </si>
+  <si>
     <t>obj1IMG010.bmp</t>
   </si>
   <si>
@@ -108,6 +135,21 @@
     <t>obj5IMG010.bmp</t>
   </si>
   <si>
+    <t>obj6IMG010.bmp</t>
+  </si>
+  <si>
+    <t>obj7IMG010.bmp</t>
+  </si>
+  <si>
+    <t>obj8IMG010.bmp</t>
+  </si>
+  <si>
+    <t>obj9IMG010.bmp</t>
+  </si>
+  <si>
+    <t>obj10IMG010.bmp</t>
+  </si>
+  <si>
     <t>obj1IMG011.bmp</t>
   </si>
   <si>
@@ -171,6 +213,9 @@
     <t>obj3IMG018.bmp</t>
   </si>
   <si>
+    <t>obj4IMG018.bmp</t>
+  </si>
+  <si>
     <t>obj1IMG019.bmp</t>
   </si>
   <si>
@@ -282,6 +327,9 @@
     <t>obj3IMG029.bmp</t>
   </si>
   <si>
+    <t>obj4IMG029.bmp</t>
+  </si>
+  <si>
     <t>obj1IMG030.bmp</t>
   </si>
   <si>
@@ -291,6 +339,42 @@
     <t>obj3IMG030.bmp</t>
   </si>
   <si>
+    <t>obj4IMG030.bmp</t>
+  </si>
+  <si>
+    <t>obj5IMG030.bmp</t>
+  </si>
+  <si>
+    <t>obj6IMG030.bmp</t>
+  </si>
+  <si>
+    <t>obj7IMG030.bmp</t>
+  </si>
+  <si>
+    <t>obj8IMG030.bmp</t>
+  </si>
+  <si>
+    <t>obj9IMG030.bmp</t>
+  </si>
+  <si>
+    <t>obj10IMG030.bmp</t>
+  </si>
+  <si>
+    <t>obj11IMG030.bmp</t>
+  </si>
+  <si>
+    <t>obj12IMG030.bmp</t>
+  </si>
+  <si>
+    <t>obj13IMG030.bmp</t>
+  </si>
+  <si>
+    <t>obj14IMG030.bmp</t>
+  </si>
+  <si>
+    <t>obj15IMG030.bmp</t>
+  </si>
+  <si>
     <t>obj1IMG031.bmp</t>
   </si>
   <si>
@@ -303,6 +387,18 @@
     <t>obj4IMG031.bmp</t>
   </si>
   <si>
+    <t>obj5IMG031.bmp</t>
+  </si>
+  <si>
+    <t>obj6IMG031.bmp</t>
+  </si>
+  <si>
+    <t>obj7IMG031.bmp</t>
+  </si>
+  <si>
+    <t>obj8IMG031.bmp</t>
+  </si>
+  <si>
     <t>obj1IMG032.bmp</t>
   </si>
   <si>
@@ -312,6 +408,9 @@
     <t>obj3IMG032.bmp</t>
   </si>
   <si>
+    <t>obj4IMG032.bmp</t>
+  </si>
+  <si>
     <t>obj1IMG033.bmp</t>
   </si>
   <si>
@@ -342,6 +441,15 @@
     <t>obj3IMG035.bmp</t>
   </si>
   <si>
+    <t>obj4IMG035.bmp</t>
+  </si>
+  <si>
+    <t>obj5IMG035.bmp</t>
+  </si>
+  <si>
+    <t>obj6IMG035.bmp</t>
+  </si>
+  <si>
     <t>obj1IMG036.bmp</t>
   </si>
   <si>
@@ -372,6 +480,33 @@
     <t>obj3IMG038.bmp</t>
   </si>
   <si>
+    <t>obj4IMG038.bmp</t>
+  </si>
+  <si>
+    <t>obj5IMG038.bmp</t>
+  </si>
+  <si>
+    <t>obj6IMG038.bmp</t>
+  </si>
+  <si>
+    <t>obj7IMG038.bmp</t>
+  </si>
+  <si>
+    <t>obj8IMG038.bmp</t>
+  </si>
+  <si>
+    <t>obj9IMG038.bmp</t>
+  </si>
+  <si>
+    <t>obj10IMG038.bmp</t>
+  </si>
+  <si>
+    <t>obj11IMG038.bmp</t>
+  </si>
+  <si>
+    <t>obj12IMG038.bmp</t>
+  </si>
+  <si>
     <t>obj1IMG039.bmp</t>
   </si>
   <si>
@@ -381,6 +516,33 @@
     <t>obj3IMG039.bmp</t>
   </si>
   <si>
+    <t>obj4IMG039.bmp</t>
+  </si>
+  <si>
+    <t>obj5IMG039.bmp</t>
+  </si>
+  <si>
+    <t>obj6IMG039.bmp</t>
+  </si>
+  <si>
+    <t>obj7IMG039.bmp</t>
+  </si>
+  <si>
+    <t>obj8IMG039.bmp</t>
+  </si>
+  <si>
+    <t>obj9IMG039.bmp</t>
+  </si>
+  <si>
+    <t>obj10IMG039.bmp</t>
+  </si>
+  <si>
+    <t>obj11IMG039.bmp</t>
+  </si>
+  <si>
+    <t>obj12IMG039.bmp</t>
+  </si>
+  <si>
     <t>obj1IMG040.bmp</t>
   </si>
   <si>
@@ -393,6 +555,18 @@
     <t>obj4IMG040.bmp</t>
   </si>
   <si>
+    <t>obj5IMG040.bmp</t>
+  </si>
+  <si>
+    <t>obj6IMG040.bmp</t>
+  </si>
+  <si>
+    <t>obj7IMG040.bmp</t>
+  </si>
+  <si>
+    <t>obj8IMG040.bmp</t>
+  </si>
+  <si>
     <t>obj1IMG041.bmp</t>
   </si>
   <si>
@@ -432,6 +606,9 @@
     <t>obj3IMG044.bmp</t>
   </si>
   <si>
+    <t>obj4IMG044.bmp</t>
+  </si>
+  <si>
     <t>obj1IMG045.bmp</t>
   </si>
   <si>
@@ -441,6 +618,12 @@
     <t>obj3IMG045.bmp</t>
   </si>
   <si>
+    <t>obj4IMG045.bmp</t>
+  </si>
+  <si>
+    <t>obj5IMG045.bmp</t>
+  </si>
+  <si>
     <t>obj1IMG046.bmp</t>
   </si>
   <si>
@@ -472,6 +655,12 @@
   </si>
   <si>
     <t>obj3IMG048.bmp</t>
+  </si>
+  <si>
+    <t>obj4IMG048.bmp</t>
+  </si>
+  <si>
+    <t>obj5IMG048.bmp</t>
   </si>
   <si>
     <t>obj1IMG049.bmp</t>
@@ -601,13 +790,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E177"/>
+  <dimension ref="A1:E240"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="true"/>
+    <col min="1" max="1" width="17.140625" customWidth="true"/>
     <col min="2" max="2" width="10.140625" customWidth="true"/>
-    <col min="3" max="3" width="5.140625" customWidth="true"/>
-    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="8.140625" customWidth="true"/>
+    <col min="4" max="4" width="13.7109375" customWidth="true"/>
     <col min="5" max="5" width="11.5703125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -616,16 +805,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>177</v>
+        <v>240</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>178</v>
+        <v>241</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>179</v>
+        <v>242</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>180</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2">
@@ -633,16 +822,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>100.896</v>
+        <v>628.80100000000004</v>
       </c>
       <c r="C2" s="0">
-        <v>721</v>
+        <v>20201</v>
       </c>
       <c r="D2" s="0">
-        <v>0.89001480419167722</v>
+        <v>0.64203142441363181</v>
       </c>
       <c r="E2" s="0">
-        <v>735</v>
+        <v>20648</v>
       </c>
     </row>
     <row r="3">
@@ -650,16 +839,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>114.48399999999999</v>
+        <v>711.37099999999998</v>
       </c>
       <c r="C3" s="0">
-        <v>917</v>
+        <v>25795</v>
       </c>
       <c r="D3" s="0">
-        <v>0.87920390773700807</v>
+        <v>0.64055007003743381</v>
       </c>
       <c r="E3" s="0">
-        <v>936</v>
+        <v>26349</v>
       </c>
     </row>
     <row r="4">
@@ -667,16 +856,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>103.90599999999999</v>
+        <v>610.88800000000003</v>
       </c>
       <c r="C4" s="0">
-        <v>741</v>
+        <v>20905</v>
       </c>
       <c r="D4" s="0">
-        <v>0.86247560349530861</v>
+        <v>0.70394195122734438</v>
       </c>
       <c r="E4" s="0">
-        <v>767</v>
+        <v>21273</v>
       </c>
     </row>
     <row r="5">
@@ -684,16 +873,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>100.896</v>
+        <v>565.66500000000008</v>
       </c>
       <c r="C5" s="0">
-        <v>721</v>
+        <v>20286</v>
       </c>
       <c r="D5" s="0">
-        <v>0.89001480419167722</v>
+        <v>0.79668688732571213</v>
       </c>
       <c r="E5" s="0">
-        <v>737</v>
+        <v>20538</v>
       </c>
     </row>
     <row r="6">
@@ -701,16 +890,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>76.838000000000008</v>
+        <v>453.31499999999994</v>
       </c>
       <c r="C6" s="0">
-        <v>422</v>
+        <v>11977</v>
       </c>
       <c r="D6" s="0">
-        <v>0.89819412617858418</v>
+        <v>0.73241584928044612</v>
       </c>
       <c r="E6" s="0">
-        <v>434</v>
+        <v>12216</v>
       </c>
     </row>
     <row r="7">
@@ -718,16 +907,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>118.983</v>
+        <v>723.85900000000004</v>
       </c>
       <c r="C7" s="0">
-        <v>958</v>
+        <v>27027</v>
       </c>
       <c r="D7" s="0">
-        <v>0.85036532595927816</v>
+        <v>0.64818615231915067</v>
       </c>
       <c r="E7" s="0">
-        <v>988</v>
+        <v>27616</v>
       </c>
     </row>
     <row r="8">
@@ -735,16 +924,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>165.114</v>
+        <v>980.18299999999999</v>
       </c>
       <c r="C8" s="0">
-        <v>1900</v>
+        <v>53840</v>
       </c>
       <c r="D8" s="0">
-        <v>0.87578130002283905</v>
+        <v>0.70420739815111155</v>
       </c>
       <c r="E8" s="0">
-        <v>1932</v>
+        <v>54441</v>
       </c>
     </row>
     <row r="9">
@@ -752,16 +941,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>102.49199999999999</v>
+        <v>580.81499999999994</v>
       </c>
       <c r="C9" s="0">
-        <v>736</v>
+        <v>20701</v>
       </c>
       <c r="D9" s="0">
-        <v>0.88045617265364029</v>
+        <v>0.77112634672490465</v>
       </c>
       <c r="E9" s="0">
-        <v>751</v>
+        <v>21002</v>
       </c>
     </row>
     <row r="10">
@@ -769,16 +958,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>117.36199999999999</v>
+        <v>702.59499999999991</v>
       </c>
       <c r="C10" s="0">
-        <v>952</v>
+        <v>26824</v>
       </c>
       <c r="D10" s="0">
-        <v>0.8685439685082712</v>
+        <v>0.68284682558089893</v>
       </c>
       <c r="E10" s="0">
-        <v>971</v>
+        <v>27292</v>
       </c>
     </row>
     <row r="11">
@@ -786,16 +975,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>77.970999999999989</v>
+        <v>461.39400000000001</v>
       </c>
       <c r="C11" s="0">
-        <v>423</v>
+        <v>12131</v>
       </c>
       <c r="D11" s="0">
-        <v>0.87434740009628575</v>
+        <v>0.71608171046782421</v>
       </c>
       <c r="E11" s="0">
-        <v>442</v>
+        <v>12405</v>
       </c>
     </row>
     <row r="12">
@@ -803,16 +992,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>165.75899999999999</v>
+        <v>911.23400000000004</v>
       </c>
       <c r="C12" s="0">
-        <v>1906</v>
+        <v>53608</v>
       </c>
       <c r="D12" s="0">
-        <v>0.87172303905587512</v>
+        <v>0.81129656533955929</v>
       </c>
       <c r="E12" s="0">
-        <v>1943</v>
+        <v>54002</v>
       </c>
     </row>
     <row r="13">
@@ -820,16 +1009,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>74.051000000000002</v>
+        <v>408.86099999999999</v>
       </c>
       <c r="C13" s="0">
-        <v>394</v>
+        <v>10911</v>
       </c>
       <c r="D13" s="0">
-        <v>0.90290951653744278</v>
+        <v>0.82020619802127204</v>
       </c>
       <c r="E13" s="0">
-        <v>406</v>
+        <v>11057</v>
       </c>
     </row>
     <row r="14">
@@ -837,16 +1026,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="0">
-        <v>99.978000000000009</v>
+        <v>545.80700000000002</v>
       </c>
       <c r="C14" s="0">
-        <v>696</v>
+        <v>19390</v>
       </c>
       <c r="D14" s="0">
-        <v>0.87500435432509038</v>
+        <v>0.81791744406425249</v>
       </c>
       <c r="E14" s="0">
-        <v>715</v>
+        <v>19583</v>
       </c>
     </row>
     <row r="15">
@@ -854,16 +1043,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="0">
-        <v>114.732</v>
+        <v>650.6819999999999</v>
       </c>
       <c r="C15" s="0">
-        <v>912</v>
+        <v>25811</v>
       </c>
       <c r="D15" s="0">
-        <v>0.87063390106221017</v>
+        <v>0.76608526486804718</v>
       </c>
       <c r="E15" s="0">
-        <v>930</v>
+        <v>26152</v>
       </c>
     </row>
     <row r="16">
@@ -871,16 +1060,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="0">
-        <v>139.65000000000001</v>
+        <v>767.37399999999991</v>
       </c>
       <c r="C16" s="0">
-        <v>1342</v>
+        <v>37922</v>
       </c>
       <c r="D16" s="0">
-        <v>0.86472994744392595</v>
+        <v>0.80925788013716493</v>
       </c>
       <c r="E16" s="0">
-        <v>1370</v>
+        <v>38268</v>
       </c>
     </row>
     <row r="17">
@@ -888,16 +1077,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="0">
-        <v>128.59300000000002</v>
+        <v>4555.8999999999996</v>
       </c>
       <c r="C17" s="0">
-        <v>399</v>
+        <v>1064209</v>
       </c>
       <c r="D17" s="0">
-        <v>0.30321319953103631</v>
+        <v>0.64430043649814195</v>
       </c>
       <c r="E17" s="0">
-        <v>512</v>
+        <v>1065054</v>
       </c>
     </row>
     <row r="18">
@@ -905,16 +1094,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="0">
-        <v>314.92000000000002</v>
+        <v>29.02</v>
       </c>
       <c r="C18" s="0">
-        <v>1084</v>
+        <v>67</v>
       </c>
       <c r="D18" s="0">
-        <v>0.1373531616654376</v>
+        <v>0.99974640360917533</v>
       </c>
       <c r="E18" s="0">
-        <v>1517</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19">
@@ -922,16 +1111,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="0">
-        <v>182.89399999999998</v>
+        <v>21.427999999999997</v>
       </c>
       <c r="C19" s="0">
-        <v>524</v>
+        <v>45</v>
       </c>
       <c r="D19" s="0">
-        <v>0.19685308914955793</v>
+        <v>1.231570003064913</v>
       </c>
       <c r="E19" s="0">
-        <v>808</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20">
@@ -939,16 +1128,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="0">
-        <v>214.48699999999999</v>
+        <v>1465.0549999999998</v>
       </c>
       <c r="C20" s="0">
-        <v>1000</v>
+        <v>6125</v>
       </c>
       <c r="D20" s="0">
-        <v>0.27315421996796085</v>
+        <v>0.035859819494490304</v>
       </c>
       <c r="E20" s="0">
-        <v>1425</v>
+        <v>15911</v>
       </c>
     </row>
     <row r="21">
@@ -956,16 +1145,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="0">
-        <v>115.05599999999998</v>
+        <v>27.986000000000001</v>
       </c>
       <c r="C21" s="0">
-        <v>359</v>
+        <v>65</v>
       </c>
       <c r="D21" s="0">
-        <v>0.34078915822172007</v>
+        <v>1.0428973431664659</v>
       </c>
       <c r="E21" s="0">
-        <v>542</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
@@ -973,16 +1162,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="0">
-        <v>100.441</v>
+        <v>95.338999999999999</v>
       </c>
       <c r="C22" s="0">
-        <v>365</v>
+        <v>276</v>
       </c>
       <c r="D22" s="0">
-        <v>0.45465364016836546</v>
+        <v>0.38157310967376262</v>
       </c>
       <c r="E22" s="0">
-        <v>523</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23">
@@ -990,16 +1179,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="0">
-        <v>290.48899999999998</v>
+        <v>124.47499999999999</v>
       </c>
       <c r="C23" s="0">
-        <v>1363</v>
+        <v>653</v>
       </c>
       <c r="D23" s="0">
-        <v>0.20297676979683243</v>
+        <v>0.5296131689582475</v>
       </c>
       <c r="E23" s="0">
-        <v>1862</v>
+        <v>814</v>
       </c>
     </row>
     <row r="24">
@@ -1007,16 +1196,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="0">
-        <v>184.101</v>
+        <v>27.704999999999998</v>
       </c>
       <c r="C24" s="0">
-        <v>1027</v>
+        <v>69</v>
       </c>
       <c r="D24" s="0">
-        <v>0.38077463684317736</v>
+        <v>1.1296467202858056</v>
       </c>
       <c r="E24" s="0">
-        <v>1428</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25">
@@ -1024,16 +1213,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="0">
-        <v>170.94299999999998</v>
+        <v>216.86099999999999</v>
       </c>
       <c r="C25" s="0">
-        <v>559</v>
+        <v>789</v>
       </c>
       <c r="D25" s="0">
-        <v>0.24039145663453951</v>
+        <v>0.21082589616203612</v>
       </c>
       <c r="E25" s="0">
-        <v>802</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="26">
@@ -1041,16 +1230,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="0">
-        <v>105.477</v>
+        <v>1786.3979999999999</v>
       </c>
       <c r="C26" s="0">
-        <v>424</v>
+        <v>30649</v>
       </c>
       <c r="D26" s="0">
-        <v>0.47891692198860292</v>
+        <v>0.12068956597731492</v>
       </c>
       <c r="E26" s="0">
-        <v>577</v>
+        <v>42391</v>
       </c>
     </row>
     <row r="27">
@@ -1058,16 +1247,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="0">
-        <v>371.35000000000002</v>
+        <v>977.75300000000004</v>
       </c>
       <c r="C27" s="0">
-        <v>933</v>
+        <v>14675</v>
       </c>
       <c r="D27" s="0">
-        <v>0.085020695095543081</v>
+        <v>0.19289885937337281</v>
       </c>
       <c r="E27" s="0">
-        <v>1540</v>
+        <v>21919</v>
       </c>
     </row>
     <row r="28">
@@ -1075,16 +1264,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="0">
-        <v>256.25900000000001</v>
+        <v>1445.2369999999999</v>
       </c>
       <c r="C28" s="0">
-        <v>633</v>
+        <v>28205</v>
       </c>
       <c r="D28" s="0">
-        <v>0.12113100483720349</v>
+        <v>0.16969061551148384</v>
       </c>
       <c r="E28" s="0">
-        <v>1050</v>
+        <v>40951</v>
       </c>
     </row>
     <row r="29">
@@ -1092,16 +1281,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="0">
-        <v>213.13</v>
+        <v>783.84199999999998</v>
       </c>
       <c r="C29" s="0">
-        <v>414</v>
+        <v>9797</v>
       </c>
       <c r="D29" s="0">
-        <v>0.11453046797292089</v>
+        <v>0.20037609635683015</v>
       </c>
       <c r="E29" s="0">
-        <v>732</v>
+        <v>15579</v>
       </c>
     </row>
     <row r="30">
@@ -1109,16 +1298,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="0">
-        <v>97.108999999999995</v>
+        <v>604.70099999999991</v>
       </c>
       <c r="C30" s="0">
-        <v>305</v>
+        <v>10288</v>
       </c>
       <c r="D30" s="0">
-        <v>0.40643466267959383</v>
+        <v>0.35355700474263579</v>
       </c>
       <c r="E30" s="0">
-        <v>415</v>
+        <v>14577</v>
       </c>
     </row>
     <row r="31">
@@ -1126,16 +1315,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="0">
-        <v>146.548</v>
+        <v>1602.5539999999999</v>
       </c>
       <c r="C31" s="0">
-        <v>344</v>
+        <v>38759</v>
       </c>
       <c r="D31" s="0">
-        <v>0.2012836573157763</v>
+        <v>0.18965184957914949</v>
       </c>
       <c r="E31" s="0">
-        <v>531</v>
+        <v>52322</v>
       </c>
     </row>
     <row r="32">
@@ -1143,16 +1332,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="0">
-        <v>211.518</v>
+        <v>1022.544</v>
       </c>
       <c r="C32" s="0">
-        <v>1090</v>
+        <v>29533</v>
       </c>
       <c r="D32" s="0">
-        <v>0.30615524156392604</v>
+        <v>0.35493875362070504</v>
       </c>
       <c r="E32" s="0">
-        <v>1671</v>
+        <v>41115</v>
       </c>
     </row>
     <row r="33">
@@ -1160,16 +1349,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="0">
-        <v>124.384</v>
+        <v>930.69400000000007</v>
       </c>
       <c r="C33" s="0">
-        <v>546</v>
+        <v>15814</v>
       </c>
       <c r="D33" s="0">
-        <v>0.44347941791184187</v>
+        <v>0.22942343098074358</v>
       </c>
       <c r="E33" s="0">
-        <v>778</v>
+        <v>22762</v>
       </c>
     </row>
     <row r="34">
@@ -1177,16 +1366,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="0">
-        <v>172.14399999999998</v>
+        <v>592.85400000000004</v>
       </c>
       <c r="C34" s="0">
-        <v>700</v>
+        <v>12166</v>
       </c>
       <c r="D34" s="0">
-        <v>0.29684116248405445</v>
+        <v>0.43497286721761746</v>
       </c>
       <c r="E34" s="0">
-        <v>1069</v>
+        <v>16464</v>
       </c>
     </row>
     <row r="35">
@@ -1194,16 +1383,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="0">
-        <v>148.97</v>
+        <v>33.650999999999996</v>
       </c>
       <c r="C35" s="0">
-        <v>586</v>
+        <v>86</v>
       </c>
       <c r="D35" s="0">
-        <v>0.33182556650313061</v>
+        <v>0.95436030232745706</v>
       </c>
       <c r="E35" s="0">
-        <v>876</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36">
@@ -1211,16 +1400,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="0">
-        <v>150.61799999999999</v>
+        <v>2191.9959999999996</v>
       </c>
       <c r="C36" s="0">
-        <v>688</v>
+        <v>26499</v>
       </c>
       <c r="D36" s="0">
-        <v>0.38110491459554202</v>
+        <v>0.069304244662914349</v>
       </c>
       <c r="E36" s="0">
-        <v>1043</v>
+        <v>43352</v>
       </c>
     </row>
     <row r="37">
@@ -1228,16 +1417,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="0">
-        <v>158.48199999999997</v>
+        <v>1476.1480000000001</v>
       </c>
       <c r="C37" s="0">
-        <v>666</v>
+        <v>17608</v>
       </c>
       <c r="D37" s="0">
-        <v>0.33321474169382681</v>
+        <v>0.1015453611860527</v>
       </c>
       <c r="E37" s="0">
-        <v>1027</v>
+        <v>28780</v>
       </c>
     </row>
     <row r="38">
@@ -1245,16 +1434,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="0">
-        <v>204.059</v>
+        <v>83.891999999999996</v>
       </c>
       <c r="C38" s="0">
-        <v>1068</v>
+        <v>167</v>
       </c>
       <c r="D38" s="0">
-        <v>0.32230690413276092</v>
+        <v>0.29818461965868276</v>
       </c>
       <c r="E38" s="0">
-        <v>1655</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39">
@@ -1262,16 +1451,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="0">
-        <v>177.75900000000001</v>
+        <v>51.183999999999997</v>
       </c>
       <c r="C39" s="0">
-        <v>1025</v>
+        <v>128</v>
       </c>
       <c r="D39" s="0">
-        <v>0.4076341238863006</v>
+        <v>0.61397599018953219</v>
       </c>
       <c r="E39" s="0">
-        <v>1552</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40">
@@ -1279,16 +1468,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="0">
-        <v>216.24000000000001</v>
+        <v>1163.6090000000002</v>
       </c>
       <c r="C40" s="0">
-        <v>1165</v>
+        <v>11928</v>
       </c>
       <c r="D40" s="0">
-        <v>0.3130860547371514</v>
+        <v>0.11070400965603105</v>
       </c>
       <c r="E40" s="0">
-        <v>1794</v>
+        <v>20197</v>
       </c>
     </row>
     <row r="41">
@@ -1296,16 +1485,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="0">
-        <v>155.60399999999998</v>
+        <v>546.37799999999993</v>
       </c>
       <c r="C41" s="0">
-        <v>794</v>
+        <v>8694</v>
       </c>
       <c r="D41" s="0">
-        <v>0.41208694164156157</v>
+        <v>0.36596798236384914</v>
       </c>
       <c r="E41" s="0">
-        <v>1155</v>
+        <v>11574</v>
       </c>
     </row>
     <row r="42">
@@ -1313,16 +1502,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="0">
-        <v>211.03100000000001</v>
+        <v>23.578000000000003</v>
       </c>
       <c r="C42" s="0">
-        <v>1225</v>
+        <v>54</v>
       </c>
       <c r="D42" s="0">
-        <v>0.34566343301760272</v>
+        <v>1.2206459011176738</v>
       </c>
       <c r="E42" s="0">
-        <v>1838</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43">
@@ -1330,16 +1519,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="0">
-        <v>193.68700000000001</v>
+        <v>794.43299999999999</v>
       </c>
       <c r="C43" s="0">
-        <v>1094</v>
+        <v>9947</v>
       </c>
       <c r="D43" s="0">
-        <v>0.36645971634095792</v>
+        <v>0.19805573833007578</v>
       </c>
       <c r="E43" s="0">
-        <v>1562</v>
+        <v>14893</v>
       </c>
     </row>
     <row r="44">
@@ -1347,16 +1536,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="0">
-        <v>183.89499999999998</v>
+        <v>120.289</v>
       </c>
       <c r="C44" s="0">
-        <v>887</v>
+        <v>598</v>
       </c>
       <c r="D44" s="0">
-        <v>0.32960488639688956</v>
+        <v>0.51934890353457319</v>
       </c>
       <c r="E44" s="0">
-        <v>1301</v>
+        <v>800</v>
       </c>
     </row>
     <row r="45">
@@ -1364,16 +1553,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="0">
-        <v>230.88600000000002</v>
+        <v>112.416</v>
       </c>
       <c r="C45" s="0">
-        <v>1245</v>
+        <v>362</v>
       </c>
       <c r="D45" s="0">
-        <v>0.29348372034530618</v>
+        <v>0.35996657704929064</v>
       </c>
       <c r="E45" s="0">
-        <v>1873</v>
+        <v>436</v>
       </c>
     </row>
     <row r="46">
@@ -1381,16 +1570,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="0">
-        <v>211.96799999999999</v>
+        <v>1253.059</v>
       </c>
       <c r="C46" s="0">
-        <v>1185</v>
+        <v>30799</v>
       </c>
       <c r="D46" s="0">
-        <v>0.33142678972315665</v>
+        <v>0.24649234674079784</v>
       </c>
       <c r="E46" s="0">
-        <v>1791</v>
+        <v>46804</v>
       </c>
     </row>
     <row r="47">
@@ -1398,16 +1587,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="0">
-        <v>262.54199999999997</v>
+        <v>692.48099999999999</v>
       </c>
       <c r="C47" s="0">
-        <v>752</v>
+        <v>15225</v>
       </c>
       <c r="D47" s="0">
-        <v>0.13709768643877451</v>
+        <v>0.39898028985320072</v>
       </c>
       <c r="E47" s="0">
-        <v>2024</v>
+        <v>21850</v>
       </c>
     </row>
     <row r="48">
@@ -1415,16 +1604,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="0">
-        <v>232.34799999999998</v>
+        <v>925.05999999999995</v>
       </c>
       <c r="C48" s="0">
-        <v>804</v>
+        <v>19415</v>
       </c>
       <c r="D48" s="0">
-        <v>0.18714922617375448</v>
+        <v>0.28510672035697826</v>
       </c>
       <c r="E48" s="0">
-        <v>2082</v>
+        <v>29433</v>
       </c>
     </row>
     <row r="49">
@@ -1432,16 +1621,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="0">
-        <v>246.53999999999996</v>
+        <v>839.54700000000003</v>
       </c>
       <c r="C49" s="0">
-        <v>766</v>
+        <v>16757</v>
       </c>
       <c r="D49" s="0">
-        <v>0.15836669389314656</v>
+        <v>0.29875563501409108</v>
       </c>
       <c r="E49" s="0">
-        <v>2121</v>
+        <v>24314</v>
       </c>
     </row>
     <row r="50">
@@ -1449,16 +1638,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="0">
-        <v>280.93599999999998</v>
+        <v>848.62400000000002</v>
       </c>
       <c r="C50" s="0">
-        <v>731</v>
+        <v>19103</v>
       </c>
       <c r="D50" s="0">
-        <v>0.11638913801601813</v>
+        <v>0.33333492564126666</v>
       </c>
       <c r="E50" s="0">
-        <v>2087</v>
+        <v>28834</v>
       </c>
     </row>
     <row r="51">
@@ -1466,16 +1655,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="0">
-        <v>257.21699999999998</v>
+        <v>881.75999999999999</v>
       </c>
       <c r="C51" s="0">
-        <v>748</v>
+        <v>18875</v>
       </c>
       <c r="D51" s="0">
-        <v>0.14207318763726395</v>
+        <v>0.30506756595613554</v>
       </c>
       <c r="E51" s="0">
-        <v>2107</v>
+        <v>28644</v>
       </c>
     </row>
     <row r="52">
@@ -1483,16 +1672,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="0">
-        <v>270.30799999999999</v>
+        <v>1241.8519999999999</v>
       </c>
       <c r="C52" s="0">
-        <v>734</v>
+        <v>29906</v>
       </c>
       <c r="D52" s="0">
-        <v>0.12623742451450401</v>
+        <v>0.24368483939741245</v>
       </c>
       <c r="E52" s="0">
-        <v>2072</v>
+        <v>46166</v>
       </c>
     </row>
     <row r="53">
@@ -1500,16 +1689,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="0">
-        <v>234.81299999999999</v>
+        <v>1047.2229999999997</v>
       </c>
       <c r="C53" s="0">
-        <v>776</v>
+        <v>28522</v>
       </c>
       <c r="D53" s="0">
-        <v>0.17685905939136584</v>
+        <v>0.3268221597166851</v>
       </c>
       <c r="E53" s="0">
-        <v>2088</v>
+        <v>43319</v>
       </c>
     </row>
     <row r="54">
@@ -1517,16 +1706,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="0">
-        <v>247.09399999999999</v>
+        <v>1219.3229999999999</v>
       </c>
       <c r="C54" s="0">
-        <v>752</v>
+        <v>32453</v>
       </c>
       <c r="D54" s="0">
-        <v>0.15477588816822718</v>
+        <v>0.27430086800967723</v>
       </c>
       <c r="E54" s="0">
-        <v>2066</v>
+        <v>49711</v>
       </c>
     </row>
     <row r="55">
@@ -1534,16 +1723,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="0">
-        <v>240.12199999999999</v>
+        <v>935.35299999999984</v>
       </c>
       <c r="C55" s="0">
-        <v>770</v>
+        <v>22364</v>
       </c>
       <c r="D55" s="0">
-        <v>0.16781728290238476</v>
+        <v>0.32122420324664336</v>
       </c>
       <c r="E55" s="0">
-        <v>2075</v>
+        <v>32525</v>
       </c>
     </row>
     <row r="56">
@@ -1551,16 +1740,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="0">
-        <v>229.834</v>
+        <v>1283.7909999999999</v>
       </c>
       <c r="C56" s="0">
-        <v>768</v>
+        <v>34386</v>
       </c>
       <c r="D56" s="0">
-        <v>0.1827016766981685</v>
+        <v>0.26218199837788847</v>
       </c>
       <c r="E56" s="0">
-        <v>2059</v>
+        <v>51315</v>
       </c>
     </row>
     <row r="57">
@@ -1568,16 +1757,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="0">
-        <v>233.142</v>
+        <v>1099.396</v>
       </c>
       <c r="C57" s="0">
-        <v>761</v>
+        <v>30654</v>
       </c>
       <c r="D57" s="0">
-        <v>0.17593550232834992</v>
+        <v>0.31870487899763555</v>
       </c>
       <c r="E57" s="0">
-        <v>2079</v>
+        <v>43426</v>
       </c>
     </row>
     <row r="58">
@@ -1585,16 +1774,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="0">
-        <v>253.834</v>
+        <v>1012.665</v>
       </c>
       <c r="C58" s="0">
-        <v>769</v>
+        <v>25036</v>
       </c>
       <c r="D58" s="0">
-        <v>0.14998112837367047</v>
+        <v>0.30679141805567889</v>
       </c>
       <c r="E58" s="0">
-        <v>2109</v>
+        <v>36017</v>
       </c>
     </row>
     <row r="59">
@@ -1602,16 +1791,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="0">
-        <v>233.27399999999997</v>
+        <v>1263.855</v>
       </c>
       <c r="C59" s="0">
-        <v>757</v>
+        <v>34790</v>
       </c>
       <c r="D59" s="0">
-        <v>0.17481273630765345</v>
+        <v>0.27369684485316903</v>
       </c>
       <c r="E59" s="0">
-        <v>2063</v>
+        <v>51693</v>
       </c>
     </row>
     <row r="60">
@@ -1619,16 +1808,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="0">
-        <v>230.42100000000002</v>
+        <v>1654.52</v>
       </c>
       <c r="C60" s="0">
-        <v>762</v>
+        <v>19850</v>
       </c>
       <c r="D60" s="0">
-        <v>0.18035189968803497</v>
+        <v>0.091122648155369412</v>
       </c>
       <c r="E60" s="0">
-        <v>2080</v>
+        <v>49827</v>
       </c>
     </row>
     <row r="61">
@@ -1636,16 +1825,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="0">
-        <v>245.05099999999999</v>
+        <v>1543.6059999999998</v>
       </c>
       <c r="C61" s="0">
-        <v>771</v>
+        <v>21008</v>
       </c>
       <c r="D61" s="0">
-        <v>0.16134342943298849</v>
+        <v>0.1107953813799028</v>
       </c>
       <c r="E61" s="0">
-        <v>2115</v>
+        <v>57859</v>
       </c>
     </row>
     <row r="62">
@@ -1653,16 +1842,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="0">
-        <v>228.52399999999997</v>
+        <v>1267.4090000000001</v>
       </c>
       <c r="C62" s="0">
-        <v>2975</v>
+        <v>22312</v>
       </c>
       <c r="D62" s="0">
-        <v>0.71586841250147293</v>
+        <v>0.17454796574948994</v>
       </c>
       <c r="E62" s="0">
-        <v>3336</v>
+        <v>58489</v>
       </c>
     </row>
     <row r="63">
@@ -1670,16 +1859,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="0">
-        <v>201.41200000000001</v>
+        <v>1332.0479999999998</v>
       </c>
       <c r="C63" s="0">
-        <v>2111</v>
+        <v>21818</v>
       </c>
       <c r="D63" s="0">
-        <v>0.6539242054552501</v>
+        <v>0.15452012536782453</v>
       </c>
       <c r="E63" s="0">
-        <v>2403</v>
+        <v>58759</v>
       </c>
     </row>
     <row r="64">
@@ -1687,16 +1876,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="0">
-        <v>192.952</v>
+        <v>1582.1950000000002</v>
       </c>
       <c r="C64" s="0">
-        <v>2058</v>
+        <v>21103</v>
       </c>
       <c r="D64" s="0">
-        <v>0.69463500553826252</v>
+        <v>0.10593367710007026</v>
       </c>
       <c r="E64" s="0">
-        <v>2309</v>
+        <v>58735</v>
       </c>
     </row>
     <row r="65">
@@ -1704,16 +1893,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="0">
-        <v>193.81099999999998</v>
+        <v>1608.576</v>
       </c>
       <c r="C65" s="0">
-        <v>1971</v>
+        <v>20984</v>
       </c>
       <c r="D65" s="0">
-        <v>0.65938588086924188</v>
+        <v>0.10190957071035762</v>
       </c>
       <c r="E65" s="0">
-        <v>2248</v>
+        <v>58540</v>
       </c>
     </row>
     <row r="66">
@@ -1721,16 +1910,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="0">
-        <v>189.17400000000001</v>
+        <v>22.841999999999999</v>
       </c>
       <c r="C66" s="0">
-        <v>2020</v>
+        <v>37</v>
       </c>
       <c r="D66" s="0">
-        <v>0.70931368623647761</v>
+        <v>0.8911346561946214</v>
       </c>
       <c r="E66" s="0">
-        <v>2259</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67">
@@ -1738,16 +1927,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="0">
-        <v>195.898</v>
+        <v>1476.924</v>
       </c>
       <c r="C67" s="0">
-        <v>2100</v>
+        <v>21343</v>
       </c>
       <c r="D67" s="0">
-        <v>0.68765270307932802</v>
+        <v>0.12295580365047534</v>
       </c>
       <c r="E67" s="0">
-        <v>2363</v>
+        <v>58804</v>
       </c>
     </row>
     <row r="68">
@@ -1755,16 +1944,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="0">
-        <v>203.43299999999999</v>
+        <v>1356.886</v>
       </c>
       <c r="C68" s="0">
-        <v>2309</v>
+        <v>21507</v>
       </c>
       <c r="D68" s="0">
-        <v>0.70111779442976063</v>
+        <v>0.14679219886864775</v>
       </c>
       <c r="E68" s="0">
-        <v>2594</v>
+        <v>58354</v>
       </c>
     </row>
     <row r="69">
@@ -1772,16 +1961,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="0">
-        <v>210.04499999999999</v>
+        <v>1342.252</v>
       </c>
       <c r="C69" s="0">
-        <v>2329</v>
+        <v>21569</v>
       </c>
       <c r="D69" s="0">
-        <v>0.6633682122066028</v>
+        <v>0.15044292026397679</v>
       </c>
       <c r="E69" s="0">
-        <v>2624</v>
+        <v>58391</v>
       </c>
     </row>
     <row r="70">
@@ -1789,16 +1978,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="0">
-        <v>218.49699999999999</v>
+        <v>1396.3579999999999</v>
       </c>
       <c r="C70" s="0">
-        <v>2530</v>
+        <v>21192</v>
       </c>
       <c r="D70" s="0">
-        <v>0.66594663436207635</v>
+        <v>0.13658036036636353</v>
       </c>
       <c r="E70" s="0">
-        <v>2874</v>
+        <v>58342</v>
       </c>
     </row>
     <row r="71">
@@ -1806,16 +1995,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="0">
-        <v>213.35599999999999</v>
+        <v>1341.6590000000001</v>
       </c>
       <c r="C71" s="0">
-        <v>2460</v>
+        <v>21349</v>
       </c>
       <c r="D71" s="0">
-        <v>0.67910237595444234</v>
+        <v>0.14904009017599254</v>
       </c>
       <c r="E71" s="0">
-        <v>2762</v>
+        <v>57978</v>
       </c>
     </row>
     <row r="72">
@@ -1823,16 +2012,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="0">
-        <v>194.977</v>
+        <v>1350.3519999999999</v>
       </c>
       <c r="C72" s="0">
-        <v>2008</v>
+        <v>21640</v>
       </c>
       <c r="D72" s="0">
-        <v>0.66375347037835442</v>
+        <v>0.14913278782717843</v>
       </c>
       <c r="E72" s="0">
-        <v>2269</v>
+        <v>59512</v>
       </c>
     </row>
     <row r="73">
@@ -1840,16 +2029,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="0">
-        <v>184.70599999999999</v>
+        <v>1415.2719999999999</v>
       </c>
       <c r="C73" s="0">
-        <v>2127</v>
+        <v>21792</v>
       </c>
       <c r="D73" s="0">
-        <v>0.78345732844448535</v>
+        <v>0.13671844968438027</v>
       </c>
       <c r="E73" s="0">
-        <v>2368</v>
+        <v>59286</v>
       </c>
     </row>
     <row r="74">
@@ -1857,16 +2046,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="0">
-        <v>181.06700000000001</v>
+        <v>1272.9830000000002</v>
       </c>
       <c r="C74" s="0">
-        <v>1967</v>
+        <v>21896</v>
       </c>
       <c r="D74" s="0">
-        <v>0.75393796290298609</v>
+        <v>0.16979677627923229</v>
       </c>
       <c r="E74" s="0">
-        <v>2220</v>
+        <v>59206</v>
       </c>
     </row>
     <row r="75">
@@ -1874,16 +2063,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="0">
-        <v>181.34999999999999</v>
+        <v>1271.8520000000001</v>
       </c>
       <c r="C75" s="0">
-        <v>1794</v>
+        <v>21678</v>
       </c>
       <c r="D75" s="0">
-        <v>0.68548377996628873</v>
+        <v>0.16840536441021162</v>
       </c>
       <c r="E75" s="0">
-        <v>2037</v>
+        <v>59057</v>
       </c>
     </row>
     <row r="76">
@@ -1891,16 +2080,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="0">
-        <v>181.96899999999999</v>
+        <v>1448.1590000000001</v>
       </c>
       <c r="C76" s="0">
-        <v>2027</v>
+        <v>21853</v>
       </c>
       <c r="D76" s="0">
-        <v>0.76925228652504973</v>
+        <v>0.13094485360551777</v>
       </c>
       <c r="E76" s="0">
-        <v>2266</v>
+        <v>59290</v>
       </c>
     </row>
     <row r="77">
@@ -1908,16 +2097,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="0">
-        <v>107.92599999999999</v>
+        <v>1228.886</v>
       </c>
       <c r="C77" s="0">
-        <v>814</v>
+        <v>83497</v>
       </c>
       <c r="D77" s="0">
-        <v>0.87817709652790554</v>
+        <v>0.69479637300553077</v>
       </c>
       <c r="E77" s="0">
-        <v>837</v>
+        <v>92914</v>
       </c>
     </row>
     <row r="78">
@@ -1925,16 +2114,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="0">
-        <v>247.72299999999998</v>
+        <v>1581.6229999999998</v>
       </c>
       <c r="C78" s="0">
-        <v>825</v>
+        <v>57153</v>
       </c>
       <c r="D78" s="0">
-        <v>0.16893947917553179</v>
+        <v>0.28710645182250683</v>
       </c>
       <c r="E78" s="0">
-        <v>1205</v>
+        <v>67613</v>
       </c>
     </row>
     <row r="79">
@@ -1942,16 +2131,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="0">
-        <v>121.03399999999999</v>
+        <v>1057.2049999999999</v>
       </c>
       <c r="C79" s="0">
-        <v>1012</v>
+        <v>58367</v>
       </c>
       <c r="D79" s="0">
-        <v>0.86811168876574063</v>
+        <v>0.65623413749477177</v>
       </c>
       <c r="E79" s="0">
-        <v>1037</v>
+        <v>64709</v>
       </c>
     </row>
     <row r="80">
@@ -1959,16 +2148,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="0">
-        <v>226.33699999999999</v>
+        <v>1076.096</v>
       </c>
       <c r="C80" s="0">
-        <v>734</v>
+        <v>55810</v>
       </c>
       <c r="D80" s="0">
-        <v>0.18005069974105956</v>
+        <v>0.60564739336404383</v>
       </c>
       <c r="E80" s="0">
-        <v>1062</v>
+        <v>63040</v>
       </c>
     </row>
     <row r="81">
@@ -1976,16 +2165,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="0">
-        <v>187.279</v>
+        <v>1038.874</v>
       </c>
       <c r="C81" s="0">
-        <v>1051</v>
+        <v>56875</v>
       </c>
       <c r="D81" s="0">
-        <v>0.37656020055425904</v>
+        <v>0.66222491938960792</v>
       </c>
       <c r="E81" s="0">
-        <v>1262</v>
+        <v>63394</v>
       </c>
     </row>
     <row r="82">
@@ -1993,16 +2182,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="0">
-        <v>83.106999999999999</v>
+        <v>1086.144</v>
       </c>
       <c r="C82" s="0">
-        <v>494</v>
+        <v>59497</v>
       </c>
       <c r="D82" s="0">
-        <v>0.89879697507556555</v>
+        <v>0.63376772266281922</v>
       </c>
       <c r="E82" s="0">
-        <v>509</v>
+        <v>66492</v>
       </c>
     </row>
     <row r="83">
@@ -2010,16 +2199,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="0">
-        <v>230.96000000000001</v>
+        <v>1103.0830000000001</v>
       </c>
       <c r="C83" s="0">
-        <v>826</v>
+        <v>65057</v>
       </c>
       <c r="D83" s="0">
-        <v>0.194588141244914</v>
+        <v>0.67187350227994991</v>
       </c>
       <c r="E83" s="0">
-        <v>1207</v>
+        <v>72672</v>
       </c>
     </row>
     <row r="84">
@@ -2027,16 +2216,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="0">
-        <v>77.566000000000003</v>
+        <v>1130.6779999999999</v>
       </c>
       <c r="C84" s="0">
-        <v>428</v>
+        <v>65679</v>
       </c>
       <c r="D84" s="0">
-        <v>0.89394508565156583</v>
+        <v>0.64559255247523117</v>
       </c>
       <c r="E84" s="0">
-        <v>439</v>
+        <v>73000</v>
       </c>
     </row>
     <row r="85">
@@ -2044,16 +2233,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="0">
-        <v>118.685</v>
+        <v>1178.5959999999998</v>
       </c>
       <c r="C85" s="0">
-        <v>973</v>
+        <v>71632</v>
       </c>
       <c r="D85" s="0">
-        <v>0.86802260666975206</v>
+        <v>0.64801791939048459</v>
       </c>
       <c r="E85" s="0">
-        <v>993</v>
+        <v>80477</v>
       </c>
     </row>
     <row r="86">
@@ -2061,16 +2250,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="0">
-        <v>117.47699999999999</v>
+        <v>1223.7719999999999</v>
       </c>
       <c r="C86" s="0">
-        <v>330</v>
+        <v>69339</v>
       </c>
       <c r="D86" s="0">
-        <v>0.30048175628258111</v>
+        <v>0.58181700912083367</v>
       </c>
       <c r="E86" s="0">
-        <v>463</v>
+        <v>77647</v>
       </c>
     </row>
     <row r="87">
@@ -2078,16 +2267,16 @@
         <v>86</v>
       </c>
       <c r="B87" s="0">
-        <v>282.89599999999996</v>
+        <v>1085.319</v>
       </c>
       <c r="C87" s="0">
-        <v>969</v>
+        <v>57046</v>
       </c>
       <c r="D87" s="0">
-        <v>0.15215282752523449</v>
+        <v>0.6085836066229009</v>
       </c>
       <c r="E87" s="0">
-        <v>2797</v>
+        <v>63650</v>
       </c>
     </row>
     <row r="88">
@@ -2095,16 +2284,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="0">
-        <v>135.96200000000002</v>
+        <v>1013.22</v>
       </c>
       <c r="C88" s="0">
-        <v>1488</v>
+        <v>60393</v>
       </c>
       <c r="D88" s="0">
-        <v>1.0115275282251528</v>
+        <v>0.73924596048407432</v>
       </c>
       <c r="E88" s="0">
-        <v>1509</v>
+        <v>66869</v>
       </c>
     </row>
     <row r="89">
@@ -2112,16 +2301,16 @@
         <v>88</v>
       </c>
       <c r="B89" s="0">
-        <v>308.81399999999996</v>
+        <v>981.39700000000005</v>
       </c>
       <c r="C89" s="0">
-        <v>1169</v>
+        <v>55506</v>
       </c>
       <c r="D89" s="0">
-        <v>0.1540389017997309</v>
+        <v>0.72420303949702503</v>
       </c>
       <c r="E89" s="0">
-        <v>3148</v>
+        <v>61891</v>
       </c>
     </row>
     <row r="90">
@@ -2129,16 +2318,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="0">
-        <v>374.71799999999996</v>
+        <v>983.11800000000005</v>
       </c>
       <c r="C90" s="0">
-        <v>1209</v>
+        <v>50720</v>
       </c>
       <c r="D90" s="0">
-        <v>0.10819994849688626</v>
+        <v>0.65944383649349281</v>
       </c>
       <c r="E90" s="0">
-        <v>3298</v>
+        <v>56785</v>
       </c>
     </row>
     <row r="91">
@@ -2146,16 +2335,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="0">
-        <v>167.95099999999999</v>
+        <v>985.95699999999988</v>
       </c>
       <c r="C91" s="0">
-        <v>2021</v>
+        <v>57150</v>
       </c>
       <c r="D91" s="0">
-        <v>0.90034921341167229</v>
+        <v>0.73877152767044785</v>
       </c>
       <c r="E91" s="0">
-        <v>2065</v>
+        <v>63440</v>
       </c>
     </row>
     <row r="92">
@@ -2163,16 +2352,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="0">
-        <v>143.80199999999999</v>
+        <v>604.12699999999995</v>
       </c>
       <c r="C92" s="0">
-        <v>1490</v>
+        <v>22693</v>
       </c>
       <c r="D92" s="0">
-        <v>0.90545376705237657</v>
+        <v>0.78134940421766252</v>
       </c>
       <c r="E92" s="0">
-        <v>1528</v>
+        <v>23042</v>
       </c>
     </row>
     <row r="93">
@@ -2180,16 +2369,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="0">
-        <v>302.87299999999999</v>
+        <v>1445.6889999999999</v>
       </c>
       <c r="C93" s="0">
-        <v>903</v>
+        <v>23565</v>
       </c>
       <c r="D93" s="0">
-        <v>0.12370193573566753</v>
+        <v>0.14168620073332305</v>
       </c>
       <c r="E93" s="0">
-        <v>2587</v>
+        <v>35171</v>
       </c>
     </row>
     <row r="94">
@@ -2197,16 +2386,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="0">
-        <v>139.20400000000001</v>
+        <v>679.39499999999998</v>
       </c>
       <c r="C94" s="0">
-        <v>1403</v>
+        <v>28621</v>
       </c>
       <c r="D94" s="0">
-        <v>0.9098380710852112</v>
+        <v>0.77920184997486175</v>
       </c>
       <c r="E94" s="0">
-        <v>1433</v>
+        <v>28971</v>
       </c>
     </row>
     <row r="95">
@@ -2214,16 +2403,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="0">
-        <v>353.88099999999997</v>
+        <v>1319.4970000000001</v>
       </c>
       <c r="C95" s="0">
-        <v>1139</v>
+        <v>21356</v>
       </c>
       <c r="D95" s="0">
-        <v>0.11429285895820861</v>
+        <v>0.15413915077063442</v>
       </c>
       <c r="E95" s="0">
-        <v>3102</v>
+        <v>30076</v>
       </c>
     </row>
     <row r="96">
@@ -2231,16 +2420,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="0">
-        <v>163.82399999999998</v>
+        <v>1444.4480000000001</v>
       </c>
       <c r="C96" s="0">
-        <v>1954</v>
+        <v>30048</v>
       </c>
       <c r="D96" s="0">
-        <v>0.91491210164874126</v>
+        <v>0.18097626076572271</v>
       </c>
       <c r="E96" s="0">
-        <v>1984</v>
+        <v>36121</v>
       </c>
     </row>
     <row r="97">
@@ -2248,16 +2437,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="0">
-        <v>161.23600000000002</v>
+        <v>467.47899999999998</v>
       </c>
       <c r="C97" s="0">
-        <v>2084</v>
+        <v>13875</v>
       </c>
       <c r="D97" s="0">
-        <v>1.0073573225145076</v>
+        <v>0.79784521199060299</v>
       </c>
       <c r="E97" s="0">
-        <v>2110</v>
+        <v>14077</v>
       </c>
     </row>
     <row r="98">
@@ -2265,16 +2454,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="0">
-        <v>263.57400000000001</v>
+        <v>1370.7449999999997</v>
       </c>
       <c r="C98" s="0">
-        <v>3888</v>
+        <v>23386</v>
       </c>
       <c r="D98" s="0">
-        <v>0.70328440187864583</v>
+        <v>0.15640566119779881</v>
       </c>
       <c r="E98" s="0">
-        <v>4344</v>
+        <v>33393</v>
       </c>
     </row>
     <row r="99">
@@ -2282,16 +2471,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="0">
-        <v>131.73599999999999</v>
+        <v>446.49899999999991</v>
       </c>
       <c r="C99" s="0">
-        <v>1398</v>
+        <v>12075</v>
       </c>
       <c r="D99" s="0">
-        <v>1.0122973278444103</v>
+        <v>0.76112506180235295</v>
       </c>
       <c r="E99" s="0">
-        <v>1418</v>
+        <v>12310</v>
       </c>
     </row>
     <row r="100">
@@ -2299,16 +2488,16 @@
         <v>99</v>
       </c>
       <c r="B100" s="0">
-        <v>295.67700000000002</v>
+        <v>666.92299999999989</v>
       </c>
       <c r="C100" s="0">
-        <v>4729</v>
+        <v>27366</v>
       </c>
       <c r="D100" s="0">
-        <v>0.67974197932823666</v>
+        <v>0.77316074610521179</v>
       </c>
       <c r="E100" s="0">
-        <v>5303</v>
+        <v>27759</v>
       </c>
     </row>
     <row r="101">
@@ -2316,16 +2505,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="0">
-        <v>268.79000000000002</v>
+        <v>683.65200000000004</v>
       </c>
       <c r="C101" s="0">
-        <v>4272</v>
+        <v>9289</v>
       </c>
       <c r="D101" s="0">
-        <v>0.74304461902588714</v>
+        <v>0.24975181303212549</v>
       </c>
       <c r="E101" s="0">
-        <v>4784</v>
+        <v>12991</v>
       </c>
     </row>
     <row r="102">
@@ -2333,16 +2522,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="0">
-        <v>164.90799999999996</v>
+        <v>1582.8630000000001</v>
       </c>
       <c r="C102" s="0">
-        <v>2156</v>
+        <v>28518</v>
       </c>
       <c r="D102" s="0">
-        <v>0.99626568368493362</v>
+        <v>0.14303498470044171</v>
       </c>
       <c r="E102" s="0">
-        <v>2193</v>
+        <v>79360</v>
       </c>
     </row>
     <row r="103">
@@ -2350,16 +2539,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="0">
-        <v>200.06399999999999</v>
+        <v>753.4899999999999</v>
       </c>
       <c r="C103" s="0">
-        <v>2119</v>
+        <v>42520</v>
       </c>
       <c r="D103" s="0">
-        <v>0.66527763748325786</v>
+        <v>0.94112678539141215</v>
       </c>
       <c r="E103" s="0">
-        <v>2401</v>
+        <v>42811</v>
       </c>
     </row>
     <row r="104">
@@ -2367,16 +2556,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="0">
-        <v>100.54899999999999</v>
+        <v>1827.011</v>
       </c>
       <c r="C104" s="0">
-        <v>824</v>
+        <v>34124</v>
       </c>
       <c r="D104" s="0">
-        <v>1.0241924364089727</v>
+        <v>0.12846578440557294</v>
       </c>
       <c r="E104" s="0">
-        <v>838</v>
+        <v>89708</v>
       </c>
     </row>
     <row r="105">
@@ -2384,16 +2573,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="0">
-        <v>200.691</v>
+        <v>36.265000000000001</v>
       </c>
       <c r="C105" s="0">
-        <v>2094</v>
+        <v>30</v>
       </c>
       <c r="D105" s="0">
-        <v>0.65332721184459552</v>
+        <v>0.28665251411166742</v>
       </c>
       <c r="E105" s="0">
-        <v>2341</v>
+        <v>53</v>
       </c>
     </row>
     <row r="106">
@@ -2401,16 +2590,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="0">
-        <v>118.264</v>
+        <v>35.850999999999999</v>
       </c>
       <c r="C106" s="0">
-        <v>1125</v>
+        <v>42</v>
       </c>
       <c r="D106" s="0">
-        <v>1.0107814397378212</v>
+        <v>0.41063560809069993</v>
       </c>
       <c r="E106" s="0">
-        <v>1147</v>
+        <v>56</v>
       </c>
     </row>
     <row r="107">
@@ -2418,16 +2607,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="0">
-        <v>351.21999999999997</v>
+        <v>2083.0250000000001</v>
       </c>
       <c r="C107" s="0">
-        <v>3667</v>
+        <v>34922</v>
       </c>
       <c r="D107" s="0">
-        <v>0.37356166021110004</v>
+        <v>0.10113931489646139</v>
       </c>
       <c r="E107" s="0">
-        <v>5317</v>
+        <v>92211</v>
       </c>
     </row>
     <row r="108">
@@ -2435,16 +2624,16 @@
         <v>107</v>
       </c>
       <c r="B108" s="0">
-        <v>230.25899999999999</v>
+        <v>906.55200000000002</v>
       </c>
       <c r="C108" s="0">
-        <v>4195</v>
+        <v>57565</v>
       </c>
       <c r="D108" s="0">
-        <v>0.99427976443895272</v>
+        <v>0.88020317806550785</v>
       </c>
       <c r="E108" s="0">
-        <v>4245</v>
+        <v>57898</v>
       </c>
     </row>
     <row r="109">
@@ -2452,16 +2641,16 @@
         <v>108</v>
       </c>
       <c r="B109" s="0">
-        <v>295.64299999999997</v>
+        <v>40.640000000000001</v>
       </c>
       <c r="C109" s="0">
-        <v>2447</v>
+        <v>46</v>
       </c>
       <c r="D109" s="0">
-        <v>0.35181036643468411</v>
+        <v>0.349993756551501</v>
       </c>
       <c r="E109" s="0">
-        <v>3395</v>
+        <v>73</v>
       </c>
     </row>
     <row r="110">
@@ -2469,16 +2658,16 @@
         <v>109</v>
       </c>
       <c r="B110" s="0">
-        <v>104.312</v>
+        <v>20.113</v>
       </c>
       <c r="C110" s="0">
-        <v>885</v>
+        <v>38</v>
       </c>
       <c r="D110" s="0">
-        <v>1.0220792938762659</v>
+        <v>1.1804286820226635</v>
       </c>
       <c r="E110" s="0">
-        <v>903</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111">
@@ -2486,16 +2675,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="0">
-        <v>167.83500000000001</v>
+        <v>29.690000000000001</v>
       </c>
       <c r="C111" s="0">
-        <v>958</v>
+        <v>35</v>
       </c>
       <c r="D111" s="0">
-        <v>0.42737617447394316</v>
+        <v>0.49895055860436704</v>
       </c>
       <c r="E111" s="0">
-        <v>1395</v>
+        <v>50</v>
       </c>
     </row>
     <row r="112">
@@ -2503,16 +2692,16 @@
         <v>111</v>
       </c>
       <c r="B112" s="0">
-        <v>73.88600000000001</v>
+        <v>27.340999999999998</v>
       </c>
       <c r="C112" s="0">
-        <v>449</v>
+        <v>40</v>
       </c>
       <c r="D112" s="0">
-        <v>1.0335509579220377</v>
+        <v>0.67242068629239515</v>
       </c>
       <c r="E112" s="0">
-        <v>460</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113">
@@ -2520,16 +2709,16 @@
         <v>112</v>
       </c>
       <c r="B113" s="0">
-        <v>92.799999999999997</v>
+        <v>36.338999999999999</v>
       </c>
       <c r="C113" s="0">
-        <v>706</v>
+        <v>37</v>
       </c>
       <c r="D113" s="0">
-        <v>1.0301930428035793</v>
+        <v>0.35209969121868001</v>
       </c>
       <c r="E113" s="0">
-        <v>719</v>
+        <v>51</v>
       </c>
     </row>
     <row r="114">
@@ -2537,16 +2726,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="0">
-        <v>110.48999999999999</v>
+        <v>29.805999999999997</v>
       </c>
       <c r="C114" s="0">
-        <v>991</v>
+        <v>44</v>
       </c>
       <c r="D114" s="0">
-        <v>1.0200878418502197</v>
+        <v>0.62237930924863882</v>
       </c>
       <c r="E114" s="0">
-        <v>1011</v>
+        <v>53</v>
       </c>
     </row>
     <row r="115">
@@ -2554,16 +2743,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="0">
-        <v>187.047</v>
+        <v>780.16700000000003</v>
       </c>
       <c r="C115" s="0">
-        <v>1174</v>
+        <v>42117</v>
       </c>
       <c r="D115" s="0">
-        <v>0.42167365353023573</v>
+        <v>0.86954515616393258</v>
       </c>
       <c r="E115" s="0">
-        <v>1737</v>
+        <v>42435</v>
       </c>
     </row>
     <row r="116">
@@ -2571,16 +2760,16 @@
         <v>115</v>
       </c>
       <c r="B116" s="0">
-        <v>205.38199999999998</v>
+        <v>35.271999999999998</v>
       </c>
       <c r="C116" s="0">
-        <v>1113</v>
+        <v>38</v>
       </c>
       <c r="D116" s="0">
-        <v>0.33157384920729427</v>
+        <v>0.38382502687603309</v>
       </c>
       <c r="E116" s="0">
-        <v>1638</v>
+        <v>52</v>
       </c>
     </row>
     <row r="117">
@@ -2588,16 +2777,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="0">
-        <v>426.98099999999999</v>
+        <v>25.835999999999999</v>
       </c>
       <c r="C117" s="0">
-        <v>2815</v>
+        <v>39</v>
       </c>
       <c r="D117" s="0">
-        <v>0.19403101841550541</v>
+        <v>0.7342161266436128</v>
       </c>
       <c r="E117" s="0">
-        <v>4146</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118">
@@ -2605,16 +2794,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="0">
-        <v>177.92600000000002</v>
+        <v>42.972000000000001</v>
       </c>
       <c r="C118" s="0">
-        <v>1150</v>
+        <v>55</v>
       </c>
       <c r="D118" s="0">
-        <v>0.45648748305268044</v>
+        <v>0.37428413550529421</v>
       </c>
       <c r="E118" s="0">
-        <v>1489</v>
+        <v>75</v>
       </c>
     </row>
     <row r="119">
@@ -2622,16 +2811,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="0">
-        <v>364.29199999999997</v>
+        <v>27.588999999999995</v>
       </c>
       <c r="C119" s="0">
-        <v>1802</v>
+        <v>39</v>
       </c>
       <c r="D119" s="0">
-        <v>0.17063392570909799</v>
+        <v>0.64387646744642513</v>
       </c>
       <c r="E119" s="0">
-        <v>4828</v>
+        <v>44</v>
       </c>
     </row>
     <row r="120">
@@ -2639,16 +2828,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="0">
-        <v>456.92899999999997</v>
+        <v>24.826999999999998</v>
       </c>
       <c r="C120" s="0">
-        <v>1837</v>
+        <v>31</v>
       </c>
       <c r="D120" s="0">
-        <v>0.1105659942391143</v>
+        <v>0.63200871851415263</v>
       </c>
       <c r="E120" s="0">
-        <v>5049</v>
+        <v>38</v>
       </c>
     </row>
     <row r="121">
@@ -2656,16 +2845,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="0">
-        <v>349.87199999999996</v>
+        <v>19.658000000000001</v>
       </c>
       <c r="C121" s="0">
-        <v>2587</v>
+        <v>30</v>
       </c>
       <c r="D121" s="0">
-        <v>0.26557544480010764</v>
+        <v>0.97555656821373615</v>
       </c>
       <c r="E121" s="0">
-        <v>3703</v>
+        <v>35</v>
       </c>
     </row>
     <row r="122">
@@ -2673,16 +2862,16 @@
         <v>121</v>
       </c>
       <c r="B122" s="0">
-        <v>333.589</v>
+        <v>1646.2769999999998</v>
       </c>
       <c r="C122" s="0">
-        <v>1373</v>
+        <v>26028</v>
       </c>
       <c r="D122" s="0">
-        <v>0.15504471188251001</v>
+        <v>0.12068265071789866</v>
       </c>
       <c r="E122" s="0">
-        <v>3909</v>
+        <v>72148</v>
       </c>
     </row>
     <row r="123">
@@ -2690,16 +2879,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="0">
-        <v>449.03299999999996</v>
+        <v>752.34699999999998</v>
       </c>
       <c r="C123" s="0">
-        <v>1728</v>
+        <v>39641</v>
       </c>
       <c r="D123" s="0">
-        <v>0.10769538275782231</v>
+        <v>0.88007174603867777</v>
       </c>
       <c r="E123" s="0">
-        <v>4673</v>
+        <v>39906</v>
       </c>
     </row>
     <row r="124">
@@ -2707,16 +2896,16 @@
         <v>123</v>
       </c>
       <c r="B124" s="0">
-        <v>450.87399999999997</v>
+        <v>24.314</v>
       </c>
       <c r="C124" s="0">
-        <v>2880</v>
+        <v>30</v>
       </c>
       <c r="D124" s="0">
-        <v>0.17802949814150812</v>
+        <v>0.63770275616139593</v>
       </c>
       <c r="E124" s="0">
-        <v>4224</v>
+        <v>33</v>
       </c>
     </row>
     <row r="125">
@@ -2724,16 +2913,16 @@
         <v>124</v>
       </c>
       <c r="B125" s="0">
-        <v>158.499</v>
+        <v>31.277999999999999</v>
       </c>
       <c r="C125" s="0">
-        <v>897</v>
+        <v>34</v>
       </c>
       <c r="D125" s="0">
-        <v>0.44869295848498142</v>
+        <v>0.4367277924933215</v>
       </c>
       <c r="E125" s="0">
-        <v>1141</v>
+        <v>59</v>
       </c>
     </row>
     <row r="126">
@@ -2741,16 +2930,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="0">
-        <v>317.01800000000003</v>
+        <v>20.418999999999997</v>
       </c>
       <c r="C126" s="0">
-        <v>1350</v>
+        <v>32</v>
       </c>
       <c r="D126" s="0">
-        <v>0.16880130078166505</v>
+        <v>0.96447484281508344</v>
       </c>
       <c r="E126" s="0">
-        <v>3872</v>
+        <v>38</v>
       </c>
     </row>
     <row r="127">
@@ -2758,16 +2947,16 @@
         <v>126</v>
       </c>
       <c r="B127" s="0">
-        <v>92.611000000000004</v>
+        <v>1966.4409999999998</v>
       </c>
       <c r="C127" s="0">
-        <v>327</v>
+        <v>32784</v>
       </c>
       <c r="D127" s="0">
-        <v>0.47910694832839335</v>
+        <v>0.10653933063076625</v>
       </c>
       <c r="E127" s="0">
-        <v>437</v>
+        <v>86798</v>
       </c>
     </row>
     <row r="128">
@@ -2775,16 +2964,16 @@
         <v>127</v>
       </c>
       <c r="B128" s="0">
-        <v>150.511</v>
+        <v>888.94499999999994</v>
       </c>
       <c r="C128" s="0">
-        <v>790</v>
+        <v>55210</v>
       </c>
       <c r="D128" s="0">
-        <v>0.43822835325175219</v>
+        <v>0.87796626343450745</v>
       </c>
       <c r="E128" s="0">
-        <v>1079</v>
+        <v>55512</v>
       </c>
     </row>
     <row r="129">
@@ -2792,16 +2981,16 @@
         <v>128</v>
       </c>
       <c r="B129" s="0">
-        <v>165.71799999999996</v>
+        <v>878.42799999999988</v>
       </c>
       <c r="C129" s="0">
-        <v>786</v>
+        <v>58784</v>
       </c>
       <c r="D129" s="0">
-        <v>0.35966074826245803</v>
+        <v>0.95731895400261613</v>
       </c>
       <c r="E129" s="0">
-        <v>1095</v>
+        <v>59188</v>
       </c>
     </row>
     <row r="130">
@@ -2809,16 +2998,16 @@
         <v>129</v>
       </c>
       <c r="B130" s="0">
-        <v>254.47499999999997</v>
+        <v>1414.0539999999999</v>
       </c>
       <c r="C130" s="0">
-        <v>1036</v>
+        <v>109410</v>
       </c>
       <c r="D130" s="0">
-        <v>0.20103856394800457</v>
+        <v>0.68759845592198809</v>
       </c>
       <c r="E130" s="0">
-        <v>1479</v>
+        <v>121255</v>
       </c>
     </row>
     <row r="131">
@@ -2826,16 +3015,16 @@
         <v>130</v>
       </c>
       <c r="B131" s="0">
-        <v>145.72900000000001</v>
+        <v>716.07600000000002</v>
       </c>
       <c r="C131" s="0">
-        <v>802</v>
+        <v>39461</v>
       </c>
       <c r="D131" s="0">
-        <v>0.47456123852463256</v>
+        <v>0.96707401576909968</v>
       </c>
       <c r="E131" s="0">
-        <v>1103</v>
+        <v>39716</v>
       </c>
     </row>
     <row r="132">
@@ -2843,16 +3032,16 @@
         <v>131</v>
       </c>
       <c r="B132" s="0">
-        <v>121.44699999999999</v>
+        <v>51.440000000000005</v>
       </c>
       <c r="C132" s="0">
-        <v>433</v>
+        <v>38</v>
       </c>
       <c r="D132" s="0">
-        <v>0.36891318550061458</v>
+        <v>0.18046439953357624</v>
       </c>
       <c r="E132" s="0">
-        <v>616</v>
+        <v>61</v>
       </c>
     </row>
     <row r="133">
@@ -2860,16 +3049,16 @@
         <v>132</v>
       </c>
       <c r="B133" s="0">
-        <v>180.57899999999998</v>
+        <v>1636.7339999999999</v>
       </c>
       <c r="C133" s="0">
-        <v>745</v>
+        <v>133127</v>
       </c>
       <c r="D133" s="0">
-        <v>0.2870989799066887</v>
+        <v>0.6244818220596926</v>
       </c>
       <c r="E133" s="0">
-        <v>1059</v>
+        <v>148339</v>
       </c>
     </row>
     <row r="134">
@@ -2877,16 +3066,16 @@
         <v>133</v>
       </c>
       <c r="B134" s="0">
-        <v>193.48899999999998</v>
+        <v>1451</v>
       </c>
       <c r="C134" s="0">
-        <v>874</v>
+        <v>120546</v>
       </c>
       <c r="D134" s="0">
-        <v>0.29336529555557955</v>
+        <v>0.71949510429535313</v>
       </c>
       <c r="E134" s="0">
-        <v>1368</v>
+        <v>134064</v>
       </c>
     </row>
     <row r="135">
@@ -2894,16 +3083,16 @@
         <v>134</v>
       </c>
       <c r="B135" s="0">
-        <v>69.203999999999994</v>
+        <v>893.42099999999994</v>
       </c>
       <c r="C135" s="0">
-        <v>227</v>
+        <v>60968</v>
       </c>
       <c r="D135" s="0">
-        <v>0.59562555999605526</v>
+        <v>0.95984144810403416</v>
       </c>
       <c r="E135" s="0">
-        <v>264</v>
+        <v>61306</v>
       </c>
     </row>
     <row r="136">
@@ -2911,16 +3100,16 @@
         <v>135</v>
       </c>
       <c r="B136" s="0">
-        <v>163.16999999999999</v>
+        <v>1070.6589999999999</v>
       </c>
       <c r="C136" s="0">
-        <v>707</v>
+        <v>59599</v>
       </c>
       <c r="D136" s="0">
-        <v>0.33369419429943342</v>
+        <v>0.65335089865400908</v>
       </c>
       <c r="E136" s="0">
-        <v>1031</v>
+        <v>66272</v>
       </c>
     </row>
     <row r="137">
@@ -2928,16 +3117,16 @@
         <v>136</v>
       </c>
       <c r="B137" s="0">
-        <v>128.58499999999998</v>
+        <v>545.6099999999999</v>
       </c>
       <c r="C137" s="0">
-        <v>698</v>
+        <v>23108</v>
       </c>
       <c r="D137" s="0">
-        <v>0.53049912051228443</v>
+        <v>0.97545576517551202</v>
       </c>
       <c r="E137" s="0">
-        <v>896</v>
+        <v>23268</v>
       </c>
     </row>
     <row r="138">
@@ -2945,16 +3134,16 @@
         <v>137</v>
       </c>
       <c r="B138" s="0">
-        <v>388.22300000000001</v>
+        <v>1083.3199999999997</v>
       </c>
       <c r="C138" s="0">
-        <v>1832</v>
+        <v>59343</v>
       </c>
       <c r="D138" s="0">
-        <v>0.15274704272039827</v>
+        <v>0.63542725608342232</v>
       </c>
       <c r="E138" s="0">
-        <v>2783</v>
+        <v>66052</v>
       </c>
     </row>
     <row r="139">
@@ -2962,16 +3151,16 @@
         <v>138</v>
       </c>
       <c r="B139" s="0">
-        <v>243.52399999999997</v>
+        <v>643.42999999999995</v>
       </c>
       <c r="C139" s="0">
-        <v>3548</v>
+        <v>31698</v>
       </c>
       <c r="D139" s="0">
-        <v>0.75181318493051785</v>
+        <v>0.96214186664983092</v>
       </c>
       <c r="E139" s="0">
-        <v>3970</v>
+        <v>31936</v>
       </c>
     </row>
     <row r="140">
@@ -2979,16 +3168,16 @@
         <v>139</v>
       </c>
       <c r="B140" s="0">
-        <v>317.75599999999997</v>
+        <v>2045.7830000000001</v>
       </c>
       <c r="C140" s="0">
-        <v>6140</v>
+        <v>103113</v>
       </c>
       <c r="D140" s="0">
-        <v>0.76417128706811399</v>
+        <v>0.30960228389800343</v>
       </c>
       <c r="E140" s="0">
-        <v>6826</v>
+        <v>149136</v>
       </c>
     </row>
     <row r="141">
@@ -2996,16 +3185,16 @@
         <v>140</v>
       </c>
       <c r="B141" s="0">
-        <v>461.411</v>
+        <v>17.879999999999999</v>
       </c>
       <c r="C141" s="0">
-        <v>3651</v>
+        <v>31</v>
       </c>
       <c r="D141" s="0">
-        <v>0.21549927294330898</v>
+        <v>1.2185308502280126</v>
       </c>
       <c r="E141" s="0">
-        <v>5262</v>
+        <v>32</v>
       </c>
     </row>
     <row r="142">
@@ -3013,16 +3202,16 @@
         <v>141</v>
       </c>
       <c r="B142" s="0">
-        <v>309.48200000000003</v>
+        <v>1244.318</v>
       </c>
       <c r="C142" s="0">
-        <v>5491</v>
+        <v>117695</v>
       </c>
       <c r="D142" s="0">
-        <v>0.72042789133124496</v>
+        <v>0.95522374608192429</v>
       </c>
       <c r="E142" s="0">
-        <v>6119</v>
+        <v>118289</v>
       </c>
     </row>
     <row r="143">
@@ -3030,16 +3219,16 @@
         <v>142</v>
       </c>
       <c r="B143" s="0">
-        <v>254.97799999999998</v>
+        <v>1683.0409999999999</v>
       </c>
       <c r="C143" s="0">
-        <v>3835</v>
+        <v>68864</v>
       </c>
       <c r="D143" s="0">
-        <v>0.74125871388032216</v>
+        <v>0.30550105737207073</v>
       </c>
       <c r="E143" s="0">
-        <v>4310</v>
+        <v>95535</v>
       </c>
     </row>
     <row r="144">
@@ -3047,16 +3236,16 @@
         <v>143</v>
       </c>
       <c r="B144" s="0">
-        <v>286.80799999999999</v>
+        <v>50.646000000000001</v>
       </c>
       <c r="C144" s="0">
-        <v>4431</v>
+        <v>41</v>
       </c>
       <c r="D144" s="0">
-        <v>0.67690713521201307</v>
+        <v>0.20086460702424594</v>
       </c>
       <c r="E144" s="0">
-        <v>4931</v>
+        <v>62</v>
       </c>
     </row>
     <row r="145">
@@ -3064,16 +3253,16 @@
         <v>144</v>
       </c>
       <c r="B145" s="0">
-        <v>328.99899999999997</v>
+        <v>19.376999999999999</v>
       </c>
       <c r="C145" s="0">
-        <v>2119</v>
+        <v>35</v>
       </c>
       <c r="D145" s="0">
-        <v>0.24600937912392296</v>
+        <v>1.1713989484912342</v>
       </c>
       <c r="E145" s="0">
-        <v>3021</v>
+        <v>36</v>
       </c>
     </row>
     <row r="146">
@@ -3081,16 +3270,16 @@
         <v>145</v>
       </c>
       <c r="B146" s="0">
-        <v>254.77100000000002</v>
+        <v>626.625</v>
       </c>
       <c r="C146" s="0">
-        <v>3426</v>
+        <v>25075</v>
       </c>
       <c r="D146" s="0">
-        <v>0.66328051477156813</v>
+        <v>0.80248213061852469</v>
       </c>
       <c r="E146" s="0">
-        <v>3855</v>
+        <v>25514</v>
       </c>
     </row>
     <row r="147">
@@ -3098,16 +3287,16 @@
         <v>146</v>
       </c>
       <c r="B147" s="0">
-        <v>131.11699999999996</v>
+        <v>1052.432</v>
       </c>
       <c r="C147" s="0">
-        <v>692</v>
+        <v>26486</v>
       </c>
       <c r="D147" s="0">
-        <v>0.5058222752118805</v>
+        <v>0.30049562225064791</v>
       </c>
       <c r="E147" s="0">
-        <v>897</v>
+        <v>39237</v>
       </c>
     </row>
     <row r="148">
@@ -3115,16 +3304,16 @@
         <v>147</v>
       </c>
       <c r="B148" s="0">
-        <v>311.74299999999999</v>
+        <v>411.88099999999997</v>
       </c>
       <c r="C148" s="0">
-        <v>1153</v>
+        <v>12403</v>
       </c>
       <c r="D148" s="0">
-        <v>0.14908905103663334</v>
+        <v>0.91874098516381708</v>
       </c>
       <c r="E148" s="0">
-        <v>3267</v>
+        <v>12579</v>
       </c>
     </row>
     <row r="149">
@@ -3132,16 +3321,16 @@
         <v>148</v>
       </c>
       <c r="B149" s="0">
-        <v>408.02199999999999</v>
+        <v>517.36699999999985</v>
       </c>
       <c r="C149" s="0">
-        <v>1389</v>
+        <v>19887</v>
       </c>
       <c r="D149" s="0">
-        <v>0.10484433010852873</v>
+        <v>0.93364481512116826</v>
       </c>
       <c r="E149" s="0">
-        <v>3787</v>
+        <v>20106</v>
       </c>
     </row>
     <row r="150">
@@ -3149,16 +3338,16 @@
         <v>149</v>
       </c>
       <c r="B150" s="0">
-        <v>292.90499999999997</v>
+        <v>611.755</v>
       </c>
       <c r="C150" s="0">
-        <v>2279</v>
+        <v>27948</v>
       </c>
       <c r="D150" s="0">
-        <v>0.33381098061446574</v>
+        <v>0.93843790945967198</v>
       </c>
       <c r="E150" s="0">
-        <v>3306</v>
+        <v>28228</v>
       </c>
     </row>
     <row r="151">
@@ -3166,16 +3355,16 @@
         <v>150</v>
       </c>
       <c r="B151" s="0">
-        <v>300.37399999999997</v>
+        <v>1146.126</v>
       </c>
       <c r="C151" s="0">
-        <v>2951</v>
+        <v>32825</v>
       </c>
       <c r="D151" s="0">
-        <v>0.41101190135122223</v>
+        <v>0.31401462064021135</v>
       </c>
       <c r="E151" s="0">
-        <v>4271</v>
+        <v>48535</v>
       </c>
     </row>
     <row r="152">
@@ -3183,16 +3372,16 @@
         <v>151</v>
       </c>
       <c r="B152" s="0">
-        <v>424.47900000000004</v>
+        <v>1202.4879999999998</v>
       </c>
       <c r="C152" s="0">
-        <v>1454</v>
+        <v>31375</v>
       </c>
       <c r="D152" s="0">
-        <v>0.10140557956293846</v>
+        <v>0.27266669639022167</v>
       </c>
       <c r="E152" s="0">
-        <v>4098</v>
+        <v>46119</v>
       </c>
     </row>
     <row r="153">
@@ -3200,16 +3389,16 @@
         <v>152</v>
       </c>
       <c r="B153" s="0">
-        <v>306.77499999999998</v>
+        <v>46.105999999999995</v>
       </c>
       <c r="C153" s="0">
-        <v>2926</v>
+        <v>40</v>
       </c>
       <c r="D153" s="0">
-        <v>0.39070076020340871</v>
+        <v>0.23645851808040538</v>
       </c>
       <c r="E153" s="0">
-        <v>4298</v>
+        <v>71</v>
       </c>
     </row>
     <row r="154">
@@ -3217,16 +3406,16 @@
         <v>153</v>
       </c>
       <c r="B154" s="0">
-        <v>260.54599999999999</v>
+        <v>2831.5900000000001</v>
       </c>
       <c r="C154" s="0">
-        <v>2157</v>
+        <v>81242</v>
       </c>
       <c r="D154" s="0">
-        <v>0.39929253319018576</v>
+        <v>0.12732970428009391</v>
       </c>
       <c r="E154" s="0">
-        <v>3145</v>
+        <v>118146</v>
       </c>
     </row>
     <row r="155">
@@ -3234,16 +3423,16 @@
         <v>154</v>
       </c>
       <c r="B155" s="0">
-        <v>285.25599999999997</v>
+        <v>39.927999999999997</v>
       </c>
       <c r="C155" s="0">
-        <v>2162</v>
+        <v>39</v>
       </c>
       <c r="D155" s="0">
-        <v>0.33388428429719219</v>
+        <v>0.30741096719537447</v>
       </c>
       <c r="E155" s="0">
-        <v>3191</v>
+        <v>56</v>
       </c>
     </row>
     <row r="156">
@@ -3251,16 +3440,16 @@
         <v>155</v>
       </c>
       <c r="B156" s="0">
-        <v>344.38</v>
+        <v>26.232999999999997</v>
       </c>
       <c r="C156" s="0">
-        <v>1040</v>
+        <v>43</v>
       </c>
       <c r="D156" s="0">
-        <v>0.11019638810563784</v>
+        <v>0.78520381518162952</v>
       </c>
       <c r="E156" s="0">
-        <v>3019</v>
+        <v>50</v>
       </c>
     </row>
     <row r="157">
@@ -3268,16 +3457,16 @@
         <v>156</v>
       </c>
       <c r="B157" s="0">
-        <v>398.42900000000003</v>
+        <v>26.878</v>
       </c>
       <c r="C157" s="0">
-        <v>1394</v>
+        <v>37</v>
       </c>
       <c r="D157" s="0">
-        <v>0.11034959789827054</v>
+        <v>0.64360245033639896</v>
       </c>
       <c r="E157" s="0">
-        <v>3905</v>
+        <v>43</v>
       </c>
     </row>
     <row r="158">
@@ -3285,16 +3474,16 @@
         <v>157</v>
       </c>
       <c r="B158" s="0">
-        <v>248.63599999999994</v>
+        <v>35.892000000000003</v>
       </c>
       <c r="C158" s="0">
-        <v>3644</v>
+        <v>30</v>
       </c>
       <c r="D158" s="0">
-        <v>0.74073047320590069</v>
+        <v>0.29264142343351168</v>
       </c>
       <c r="E158" s="0">
-        <v>4081</v>
+        <v>44</v>
       </c>
     </row>
     <row r="159">
@@ -3302,16 +3491,16 @@
         <v>158</v>
       </c>
       <c r="B159" s="0">
-        <v>228.79399999999998</v>
+        <v>1160.4069999999999</v>
       </c>
       <c r="C159" s="0">
-        <v>3201</v>
+        <v>32641</v>
       </c>
       <c r="D159" s="0">
-        <v>0.76843347550328056</v>
+        <v>0.30461594991039453</v>
       </c>
       <c r="E159" s="0">
-        <v>3595</v>
+        <v>42241</v>
       </c>
     </row>
     <row r="160">
@@ -3319,16 +3508,16 @@
         <v>159</v>
       </c>
       <c r="B160" s="0">
-        <v>298.80000000000001</v>
+        <v>53.093999999999994</v>
       </c>
       <c r="C160" s="0">
-        <v>955</v>
+        <v>34</v>
       </c>
       <c r="D160" s="0">
-        <v>0.1344163348699686</v>
+        <v>0.15156463923024904</v>
       </c>
       <c r="E160" s="0">
-        <v>2584</v>
+        <v>49</v>
       </c>
     </row>
     <row r="161">
@@ -3336,16 +3525,16 @@
         <v>160</v>
       </c>
       <c r="B161" s="0">
-        <v>279.22999999999996</v>
+        <v>25.562999999999999</v>
       </c>
       <c r="C161" s="0">
-        <v>4385</v>
+        <v>38</v>
       </c>
       <c r="D161" s="0">
-        <v>0.70673289985261634</v>
+        <v>0.73075167682369657</v>
       </c>
       <c r="E161" s="0">
-        <v>4915</v>
+        <v>44</v>
       </c>
     </row>
     <row r="162">
@@ -3353,16 +3542,16 @@
         <v>161</v>
       </c>
       <c r="B162" s="0">
-        <v>310.97500000000002</v>
+        <v>2108.873</v>
       </c>
       <c r="C162" s="0">
-        <v>1197</v>
+        <v>52044</v>
       </c>
       <c r="D162" s="0">
-        <v>0.15554392775353376</v>
+        <v>0.1470549605903301</v>
       </c>
       <c r="E162" s="0">
-        <v>3422</v>
+        <v>136424</v>
       </c>
     </row>
     <row r="163">
@@ -3370,16 +3559,16 @@
         <v>162</v>
       </c>
       <c r="B163" s="0">
-        <v>325.29099999999994</v>
+        <v>23.760000000000002</v>
       </c>
       <c r="C163" s="0">
-        <v>1140</v>
+        <v>32</v>
       </c>
       <c r="D163" s="0">
-        <v>0.13538502209610348</v>
+        <v>0.71230660218113628</v>
       </c>
       <c r="E163" s="0">
-        <v>3272</v>
+        <v>37</v>
       </c>
     </row>
     <row r="164">
@@ -3387,16 +3576,16 @@
         <v>163</v>
       </c>
       <c r="B164" s="0">
-        <v>228.995</v>
+        <v>26.637999999999998</v>
       </c>
       <c r="C164" s="0">
-        <v>3080</v>
+        <v>32</v>
       </c>
       <c r="D164" s="0">
-        <v>0.73808874157609972</v>
+        <v>0.56670443728851783</v>
       </c>
       <c r="E164" s="0">
-        <v>3407</v>
+        <v>34</v>
       </c>
     </row>
     <row r="165">
@@ -3404,16 +3593,16 @@
         <v>164</v>
       </c>
       <c r="B165" s="0">
-        <v>230.691</v>
+        <v>23.049000000000003</v>
       </c>
       <c r="C165" s="0">
-        <v>2975</v>
+        <v>38</v>
       </c>
       <c r="D165" s="0">
-        <v>0.70248253416532802</v>
+        <v>0.89885426782019784</v>
       </c>
       <c r="E165" s="0">
-        <v>3356</v>
+        <v>42</v>
       </c>
     </row>
     <row r="166">
@@ -3421,16 +3610,16 @@
         <v>165</v>
       </c>
       <c r="B166" s="0">
-        <v>272.05799999999999</v>
+        <v>2526.3679999999999</v>
       </c>
       <c r="C166" s="0">
-        <v>757</v>
+        <v>52531</v>
       </c>
       <c r="D166" s="0">
-        <v>0.12852355843697069</v>
+        <v>0.10342661445184965</v>
       </c>
       <c r="E166" s="0">
-        <v>2207</v>
+        <v>140825</v>
       </c>
     </row>
     <row r="167">
@@ -3438,16 +3627,16 @@
         <v>166</v>
       </c>
       <c r="B167" s="0">
-        <v>219.99799999999999</v>
+        <v>23.206</v>
       </c>
       <c r="C167" s="0">
-        <v>2762</v>
+        <v>38</v>
       </c>
       <c r="D167" s="0">
-        <v>0.7171269980526821</v>
+        <v>0.88673302792116215</v>
       </c>
       <c r="E167" s="0">
-        <v>3074</v>
+        <v>41</v>
       </c>
     </row>
     <row r="168">
@@ -3455,16 +3644,16 @@
         <v>167</v>
       </c>
       <c r="B168" s="0">
-        <v>173.303</v>
+        <v>32.335999999999999</v>
       </c>
       <c r="C168" s="0">
-        <v>958</v>
+        <v>31</v>
       </c>
       <c r="D168" s="0">
-        <v>0.40083276231632509</v>
+        <v>0.37256235102491531</v>
       </c>
       <c r="E168" s="0">
-        <v>1346</v>
+        <v>37</v>
       </c>
     </row>
     <row r="169">
@@ -3472,16 +3661,16 @@
         <v>168</v>
       </c>
       <c r="B169" s="0">
-        <v>153.65200000000002</v>
+        <v>2882.6349999999998</v>
       </c>
       <c r="C169" s="0">
-        <v>810</v>
+        <v>73338</v>
       </c>
       <c r="D169" s="0">
-        <v>0.43114012938373097</v>
+        <v>0.11090716790014118</v>
       </c>
       <c r="E169" s="0">
-        <v>1140</v>
+        <v>104932</v>
       </c>
     </row>
     <row r="170">
@@ -3489,16 +3678,16 @@
         <v>169</v>
       </c>
       <c r="B170" s="0">
-        <v>203.446</v>
+        <v>46.055999999999997</v>
       </c>
       <c r="C170" s="0">
-        <v>2232</v>
+        <v>38</v>
       </c>
       <c r="D170" s="0">
-        <v>0.67765046905758197</v>
+        <v>0.225123601400576</v>
       </c>
       <c r="E170" s="0">
-        <v>2506</v>
+        <v>43</v>
       </c>
     </row>
     <row r="171">
@@ -3506,16 +3695,16 @@
         <v>170</v>
       </c>
       <c r="B171" s="0">
-        <v>231.05099999999999</v>
+        <v>27.977999999999998</v>
       </c>
       <c r="C171" s="0">
-        <v>2839</v>
+        <v>50</v>
       </c>
       <c r="D171" s="0">
-        <v>0.66828167356632173</v>
+        <v>0.80268756798588581</v>
       </c>
       <c r="E171" s="0">
-        <v>3158</v>
+        <v>53</v>
       </c>
     </row>
     <row r="172">
@@ -3523,16 +3712,16 @@
         <v>171</v>
       </c>
       <c r="B172" s="0">
-        <v>215.71100000000001</v>
+        <v>29.548999999999996</v>
       </c>
       <c r="C172" s="0">
-        <v>1243</v>
+        <v>32</v>
       </c>
       <c r="D172" s="0">
-        <v>0.33568845741478309</v>
+        <v>0.46054732727630565</v>
       </c>
       <c r="E172" s="0">
-        <v>1785</v>
+        <v>42</v>
       </c>
     </row>
     <row r="173">
@@ -3540,16 +3729,16 @@
         <v>172</v>
       </c>
       <c r="B173" s="0">
-        <v>236.09100000000001</v>
+        <v>38.480999999999995</v>
       </c>
       <c r="C173" s="0">
-        <v>3302</v>
+        <v>37</v>
       </c>
       <c r="D173" s="0">
-        <v>0.74443720441549543</v>
+        <v>0.31399222128509879</v>
       </c>
       <c r="E173" s="0">
-        <v>3678</v>
+        <v>56</v>
       </c>
     </row>
     <row r="174">
@@ -3557,16 +3746,16 @@
         <v>173</v>
       </c>
       <c r="B174" s="0">
-        <v>194.12899999999999</v>
+        <v>1808.7860000000001</v>
       </c>
       <c r="C174" s="0">
-        <v>2191</v>
+        <v>39241</v>
       </c>
       <c r="D174" s="0">
-        <v>0.73058610274107816</v>
+        <v>0.15072162035214928</v>
       </c>
       <c r="E174" s="0">
-        <v>2437</v>
+        <v>110031</v>
       </c>
     </row>
     <row r="175">
@@ -3574,16 +3763,16 @@
         <v>174</v>
       </c>
       <c r="B175" s="0">
-        <v>197.55799999999999</v>
+        <v>23.181000000000001</v>
       </c>
       <c r="C175" s="0">
-        <v>2141</v>
+        <v>30</v>
       </c>
       <c r="D175" s="0">
-        <v>0.68934604706795855</v>
+        <v>0.70156317490611286</v>
       </c>
       <c r="E175" s="0">
-        <v>2407</v>
+        <v>31</v>
       </c>
     </row>
     <row r="176">
@@ -3591,16 +3780,16 @@
         <v>175</v>
       </c>
       <c r="B176" s="0">
-        <v>169.26599999999999</v>
+        <v>45.071999999999996</v>
       </c>
       <c r="C176" s="0">
-        <v>1027</v>
+        <v>50</v>
       </c>
       <c r="D176" s="0">
-        <v>0.45044404000488841</v>
+        <v>0.30929023537390404</v>
       </c>
       <c r="E176" s="0">
-        <v>1438</v>
+        <v>64</v>
       </c>
     </row>
     <row r="177">
@@ -3608,16 +3797,1087 @@
         <v>176</v>
       </c>
       <c r="B177" s="0">
-        <v>202.255</v>
+        <v>2480.9520000000002</v>
       </c>
       <c r="C177" s="0">
-        <v>1041</v>
+        <v>49406</v>
       </c>
       <c r="D177" s="0">
-        <v>0.31978792430585562</v>
+        <v>0.1008678663437553</v>
       </c>
       <c r="E177" s="0">
-        <v>1536</v>
+        <v>131876</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178" s="0">
+        <v>2721.732</v>
+      </c>
+      <c r="C178" s="0">
+        <v>81869</v>
+      </c>
+      <c r="D178" s="0">
+        <v>0.1388796555994562</v>
+      </c>
+      <c r="E178" s="0">
+        <v>119107</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179" s="0">
+        <v>1150.0550000000001</v>
+      </c>
+      <c r="C179" s="0">
+        <v>25491</v>
+      </c>
+      <c r="D179" s="0">
+        <v>0.24219184523975534</v>
+      </c>
+      <c r="E179" s="0">
+        <v>32390</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180" s="0">
+        <v>26.134</v>
+      </c>
+      <c r="C180" s="0">
+        <v>40</v>
+      </c>
+      <c r="D180" s="0">
+        <v>0.73596656001279026</v>
+      </c>
+      <c r="E180" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181" s="0">
+        <v>1726.4879999999998</v>
+      </c>
+      <c r="C181" s="0">
+        <v>38762</v>
+      </c>
+      <c r="D181" s="0">
+        <v>0.16341386918482845</v>
+      </c>
+      <c r="E181" s="0">
+        <v>109377</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182" s="0">
+        <v>29.135999999999999</v>
+      </c>
+      <c r="C182" s="0">
+        <v>36</v>
+      </c>
+      <c r="D182" s="0">
+        <v>0.5329083288307529</v>
+      </c>
+      <c r="E182" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183" s="0">
+        <v>23.049000000000003</v>
+      </c>
+      <c r="C183" s="0">
+        <v>33</v>
+      </c>
+      <c r="D183" s="0">
+        <v>0.7805839694228035</v>
+      </c>
+      <c r="E183" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184" s="0">
+        <v>37.183000000000007</v>
+      </c>
+      <c r="C184" s="0">
+        <v>40</v>
+      </c>
+      <c r="D184" s="0">
+        <v>0.36356410812543105</v>
+      </c>
+      <c r="E184" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185" s="0">
+        <v>600.47799999999995</v>
+      </c>
+      <c r="C185" s="0">
+        <v>9160</v>
+      </c>
+      <c r="D185" s="0">
+        <v>0.31923546784160961</v>
+      </c>
+      <c r="E185" s="0">
+        <v>12786</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186" s="0">
+        <v>869.34099999999989</v>
+      </c>
+      <c r="C186" s="0">
+        <v>22027</v>
+      </c>
+      <c r="D186" s="0">
+        <v>0.36625612063377089</v>
+      </c>
+      <c r="E186" s="0">
+        <v>30208</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187" s="0">
+        <v>936.33500000000004</v>
+      </c>
+      <c r="C187" s="0">
+        <v>21884</v>
+      </c>
+      <c r="D187" s="0">
+        <v>0.313670773645086</v>
+      </c>
+      <c r="E187" s="0">
+        <v>30252</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188" s="0">
+        <v>1433.489</v>
+      </c>
+      <c r="C188" s="0">
+        <v>28690</v>
+      </c>
+      <c r="D188" s="0">
+        <v>0.17544931738894637</v>
+      </c>
+      <c r="E188" s="0">
+        <v>41747</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189" s="0">
+        <v>828.26200000000006</v>
+      </c>
+      <c r="C189" s="0">
+        <v>22784</v>
+      </c>
+      <c r="D189" s="0">
+        <v>0.41735379078976204</v>
+      </c>
+      <c r="E189" s="0">
+        <v>31201</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190" s="0">
+        <v>749.2299999999999</v>
+      </c>
+      <c r="C190" s="0">
+        <v>12037</v>
+      </c>
+      <c r="D190" s="0">
+        <v>0.26946217267619599</v>
+      </c>
+      <c r="E190" s="0">
+        <v>17657</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191" s="0">
+        <v>1231.8419999999999</v>
+      </c>
+      <c r="C191" s="0">
+        <v>20795</v>
+      </c>
+      <c r="D191" s="0">
+        <v>0.17221016146069845</v>
+      </c>
+      <c r="E191" s="0">
+        <v>29991</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192" s="0">
+        <v>1118.271</v>
+      </c>
+      <c r="C192" s="0">
+        <v>24656</v>
+      </c>
+      <c r="D192" s="0">
+        <v>0.24776408928471705</v>
+      </c>
+      <c r="E192" s="0">
+        <v>38059</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193" s="0">
+        <v>448.16999999999996</v>
+      </c>
+      <c r="C193" s="0">
+        <v>6244</v>
+      </c>
+      <c r="D193" s="0">
+        <v>0.39064942953395831</v>
+      </c>
+      <c r="E193" s="0">
+        <v>7546</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194" s="0">
+        <v>1293.319</v>
+      </c>
+      <c r="C194" s="0">
+        <v>12510</v>
+      </c>
+      <c r="D194" s="0">
+        <v>0.093984418377195109</v>
+      </c>
+      <c r="E194" s="0">
+        <v>28470</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195" s="0">
+        <v>877.19399999999996</v>
+      </c>
+      <c r="C195" s="0">
+        <v>19142</v>
+      </c>
+      <c r="D195" s="0">
+        <v>0.31261216274292403</v>
+      </c>
+      <c r="E195" s="0">
+        <v>25028</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B196" s="0">
+        <v>2528.8789999999999</v>
+      </c>
+      <c r="C196" s="0">
+        <v>51583</v>
+      </c>
+      <c r="D196" s="0">
+        <v>0.10135854333612644</v>
+      </c>
+      <c r="E196" s="0">
+        <v>78871</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B197" s="0">
+        <v>43.600000000000001</v>
+      </c>
+      <c r="C197" s="0">
+        <v>112</v>
+      </c>
+      <c r="D197" s="0">
+        <v>0.74038039138552481</v>
+      </c>
+      <c r="E197" s="0">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B198" s="0">
+        <v>1313.9369999999999</v>
+      </c>
+      <c r="C198" s="0">
+        <v>99637</v>
+      </c>
+      <c r="D198" s="0">
+        <v>0.72523945356604547</v>
+      </c>
+      <c r="E198" s="0">
+        <v>110843</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B199" s="0">
+        <v>1724.5699999999999</v>
+      </c>
+      <c r="C199" s="0">
+        <v>171885</v>
+      </c>
+      <c r="D199" s="0">
+        <v>0.72625007208483128</v>
+      </c>
+      <c r="E199" s="0">
+        <v>191168</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="B200" s="0">
+        <v>20.691999999999997</v>
+      </c>
+      <c r="C200" s="0">
+        <v>32</v>
+      </c>
+      <c r="D200" s="0">
+        <v>0.93919312075597627</v>
+      </c>
+      <c r="E200" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201" s="0">
+        <v>2931.8719999999998</v>
+      </c>
+      <c r="C201" s="0">
+        <v>103460</v>
+      </c>
+      <c r="D201" s="0">
+        <v>0.15124893534071196</v>
+      </c>
+      <c r="E201" s="0">
+        <v>148635</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B202" s="0">
+        <v>24.735999999999997</v>
+      </c>
+      <c r="C202" s="0">
+        <v>35</v>
+      </c>
+      <c r="D202" s="0">
+        <v>0.71881803328035898</v>
+      </c>
+      <c r="E202" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B203" s="0">
+        <v>1659.1639999999998</v>
+      </c>
+      <c r="C203" s="0">
+        <v>154834</v>
+      </c>
+      <c r="D203" s="0">
+        <v>0.70680166783565879</v>
+      </c>
+      <c r="E203" s="0">
+        <v>171774</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B204" s="0">
+        <v>1362.6769999999999</v>
+      </c>
+      <c r="C204" s="0">
+        <v>108185</v>
+      </c>
+      <c r="D204" s="0">
+        <v>0.73213481965518334</v>
+      </c>
+      <c r="E204" s="0">
+        <v>120221</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B205" s="0">
+        <v>1539.0640000000001</v>
+      </c>
+      <c r="C205" s="0">
+        <v>124176</v>
+      </c>
+      <c r="D205" s="0">
+        <v>0.65877054169407456</v>
+      </c>
+      <c r="E205" s="0">
+        <v>137920</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B206" s="0">
+        <v>2291.2809999999999</v>
+      </c>
+      <c r="C206" s="0">
+        <v>59510</v>
+      </c>
+      <c r="D206" s="0">
+        <v>0.14244365428676145</v>
+      </c>
+      <c r="E206" s="0">
+        <v>85187</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B207" s="0">
+        <v>1368.2360000000001</v>
+      </c>
+      <c r="C207" s="0">
+        <v>96436</v>
+      </c>
+      <c r="D207" s="0">
+        <v>0.64733192524929473</v>
+      </c>
+      <c r="E207" s="0">
+        <v>107502</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B208" s="0">
+        <v>936.37300000000005</v>
+      </c>
+      <c r="C208" s="0">
+        <v>19664</v>
+      </c>
+      <c r="D208" s="0">
+        <v>0.28182788705486983</v>
+      </c>
+      <c r="E208" s="0">
+        <v>25598</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B209" s="0">
+        <v>1700.1689999999999</v>
+      </c>
+      <c r="C209" s="0">
+        <v>33007</v>
+      </c>
+      <c r="D209" s="0">
+        <v>0.1434933354668792</v>
+      </c>
+      <c r="E209" s="0">
+        <v>92068</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="B210" s="0">
+        <v>2229.4879999999998</v>
+      </c>
+      <c r="C210" s="0">
+        <v>41219</v>
+      </c>
+      <c r="D210" s="0">
+        <v>0.10420703450370043</v>
+      </c>
+      <c r="E210" s="0">
+        <v>107899</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B211" s="0">
+        <v>1740.4770000000001</v>
+      </c>
+      <c r="C211" s="0">
+        <v>64815</v>
+      </c>
+      <c r="D211" s="0">
+        <v>0.26887400254452137</v>
+      </c>
+      <c r="E211" s="0">
+        <v>95074</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="B212" s="0">
+        <v>26.878</v>
+      </c>
+      <c r="C212" s="0">
+        <v>35</v>
+      </c>
+      <c r="D212" s="0">
+        <v>0.60881312869659354</v>
+      </c>
+      <c r="E212" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B213" s="0">
+        <v>33.676000000000002</v>
+      </c>
+      <c r="C213" s="0">
+        <v>43</v>
+      </c>
+      <c r="D213" s="0">
+        <v>0.47647192716233489</v>
+      </c>
+      <c r="E213" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="B214" s="0">
+        <v>1787.4559999999999</v>
+      </c>
+      <c r="C214" s="0">
+        <v>83649</v>
+      </c>
+      <c r="D214" s="0">
+        <v>0.32900302983936214</v>
+      </c>
+      <c r="E214" s="0">
+        <v>122385</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B215" s="0">
+        <v>2298.8899999999999</v>
+      </c>
+      <c r="C215" s="0">
+        <v>42445</v>
+      </c>
+      <c r="D215" s="0">
+        <v>0.10092529318022678</v>
+      </c>
+      <c r="E215" s="0">
+        <v>116214</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B216" s="0">
+        <v>1871.7599999999998</v>
+      </c>
+      <c r="C216" s="0">
+        <v>83099</v>
+      </c>
+      <c r="D216" s="0">
+        <v>0.29806112581256006</v>
+      </c>
+      <c r="E216" s="0">
+        <v>121612</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="B217" s="0">
+        <v>1658.9789999999998</v>
+      </c>
+      <c r="C217" s="0">
+        <v>61290</v>
+      </c>
+      <c r="D217" s="0">
+        <v>0.27984510080097041</v>
+      </c>
+      <c r="E217" s="0">
+        <v>89750</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="B218" s="0">
+        <v>1659.4349999999999</v>
+      </c>
+      <c r="C218" s="0">
+        <v>61505</v>
+      </c>
+      <c r="D218" s="0">
+        <v>0.28067245624616149</v>
+      </c>
+      <c r="E218" s="0">
+        <v>90950</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B219" s="0">
+        <v>1866.5160000000001</v>
+      </c>
+      <c r="C219" s="0">
+        <v>30282</v>
+      </c>
+      <c r="D219" s="0">
+        <v>0.1092272463071544</v>
+      </c>
+      <c r="E219" s="0">
+        <v>84720</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B220" s="0">
+        <v>2203.2840000000001</v>
+      </c>
+      <c r="C220" s="0">
+        <v>40013</v>
+      </c>
+      <c r="D220" s="0">
+        <v>0.10357859526089933</v>
+      </c>
+      <c r="E220" s="0">
+        <v>109490</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B221" s="0">
+        <v>1334.8629999999998</v>
+      </c>
+      <c r="C221" s="0">
+        <v>102433</v>
+      </c>
+      <c r="D221" s="0">
+        <v>0.72239771826976773</v>
+      </c>
+      <c r="E221" s="0">
+        <v>113642</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B222" s="0">
+        <v>1231.6510000000001</v>
+      </c>
+      <c r="C222" s="0">
+        <v>90025</v>
+      </c>
+      <c r="D222" s="0">
+        <v>0.74575756312950303</v>
+      </c>
+      <c r="E222" s="0">
+        <v>100140</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B223" s="0">
+        <v>1610.7269999999999</v>
+      </c>
+      <c r="C223" s="0">
+        <v>26650</v>
+      </c>
+      <c r="D223" s="0">
+        <v>0.12908126120206928</v>
+      </c>
+      <c r="E223" s="0">
+        <v>71768</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B224" s="0">
+        <v>1500.4090000000001</v>
+      </c>
+      <c r="C224" s="0">
+        <v>123104</v>
+      </c>
+      <c r="D224" s="0">
+        <v>0.68716765264452639</v>
+      </c>
+      <c r="E224" s="0">
+        <v>136804</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B225" s="0">
+        <v>1693.471</v>
+      </c>
+      <c r="C225" s="0">
+        <v>33600</v>
+      </c>
+      <c r="D225" s="0">
+        <v>0.14722908517459921</v>
+      </c>
+      <c r="E225" s="0">
+        <v>96056</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B226" s="0">
+        <v>1748.4769999999996</v>
+      </c>
+      <c r="C226" s="0">
+        <v>32236</v>
+      </c>
+      <c r="D226" s="0">
+        <v>0.13250466347255949</v>
+      </c>
+      <c r="E226" s="0">
+        <v>91147</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B227" s="0">
+        <v>1232.796</v>
+      </c>
+      <c r="C227" s="0">
+        <v>86460</v>
+      </c>
+      <c r="D227" s="0">
+        <v>0.71489566249440284</v>
+      </c>
+      <c r="E227" s="0">
+        <v>96213</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B228" s="0">
+        <v>1242.557</v>
+      </c>
+      <c r="C228" s="0">
+        <v>83804</v>
+      </c>
+      <c r="D228" s="0">
+        <v>0.68209045406266389</v>
+      </c>
+      <c r="E228" s="0">
+        <v>93437</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B229" s="0">
+        <v>1500.894</v>
+      </c>
+      <c r="C229" s="0">
+        <v>21860</v>
+      </c>
+      <c r="D229" s="0">
+        <v>0.12194387142435527</v>
+      </c>
+      <c r="E229" s="0">
+        <v>63196</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="B230" s="0">
+        <v>1188.5639999999999</v>
+      </c>
+      <c r="C230" s="0">
+        <v>78077</v>
+      </c>
+      <c r="D230" s="0">
+        <v>0.6945249277843627</v>
+      </c>
+      <c r="E230" s="0">
+        <v>86653</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B231" s="0">
+        <v>957.87399999999991</v>
+      </c>
+      <c r="C231" s="0">
+        <v>26909</v>
+      </c>
+      <c r="D231" s="0">
+        <v>0.36854510930574419</v>
+      </c>
+      <c r="E231" s="0">
+        <v>37713</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B232" s="0">
+        <v>856.27099999999996</v>
+      </c>
+      <c r="C232" s="0">
+        <v>22925</v>
+      </c>
+      <c r="D232" s="0">
+        <v>0.39291330651674389</v>
+      </c>
+      <c r="E232" s="0">
+        <v>32311</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B233" s="0">
+        <v>1106.5149999999999</v>
+      </c>
+      <c r="C233" s="0">
+        <v>62986</v>
+      </c>
+      <c r="D233" s="0">
+        <v>0.64645646284630798</v>
+      </c>
+      <c r="E233" s="0">
+        <v>69767</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B234" s="0">
+        <v>1367.6689999999999</v>
+      </c>
+      <c r="C234" s="0">
+        <v>79777</v>
+      </c>
+      <c r="D234" s="0">
+        <v>0.53595158345278282</v>
+      </c>
+      <c r="E234" s="0">
+        <v>88902</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B235" s="0">
+        <v>1300.22</v>
+      </c>
+      <c r="C235" s="0">
+        <v>34833</v>
+      </c>
+      <c r="D235" s="0">
+        <v>0.25892087120702512</v>
+      </c>
+      <c r="E235" s="0">
+        <v>49170</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B236" s="0">
+        <v>1274.5710000000001</v>
+      </c>
+      <c r="C236" s="0">
+        <v>92727</v>
+      </c>
+      <c r="D236" s="0">
+        <v>0.71727882083200034</v>
+      </c>
+      <c r="E236" s="0">
+        <v>102695</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B237" s="0">
+        <v>1057.223</v>
+      </c>
+      <c r="C237" s="0">
+        <v>61258</v>
+      </c>
+      <c r="D237" s="0">
+        <v>0.68871488942456804</v>
+      </c>
+      <c r="E237" s="0">
+        <v>67937</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B238" s="0">
+        <v>1076.537</v>
+      </c>
+      <c r="C238" s="0">
+        <v>60563</v>
+      </c>
+      <c r="D238" s="0">
+        <v>0.6566883657226591</v>
+      </c>
+      <c r="E238" s="0">
+        <v>67509</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B239" s="0">
+        <v>954.58899999999994</v>
+      </c>
+      <c r="C239" s="0">
+        <v>28910</v>
+      </c>
+      <c r="D239" s="0">
+        <v>0.39868060127123911</v>
+      </c>
+      <c r="E239" s="0">
+        <v>40247</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="B240" s="0">
+        <v>1101.8240000000001</v>
+      </c>
+      <c r="C240" s="0">
+        <v>29301</v>
+      </c>
+      <c r="D240" s="0">
+        <v>0.30329681557732485</v>
+      </c>
+      <c r="E240" s="0">
+        <v>42252</v>
       </c>
     </row>
   </sheetData>

--- a/Proyecto/tablaNoIndexada.xlsx
+++ b/Proyecto/tablaNoIndexada.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
   <si>
     <t>nombreObjeto</t>
   </si>
@@ -66,30 +66,6 @@
     <t>obj1IMG006.bmp</t>
   </si>
   <si>
-    <t>obj2IMG006.bmp</t>
-  </si>
-  <si>
-    <t>obj3IMG006.bmp</t>
-  </si>
-  <si>
-    <t>obj4IMG006.bmp</t>
-  </si>
-  <si>
-    <t>obj5IMG006.bmp</t>
-  </si>
-  <si>
-    <t>obj6IMG006.bmp</t>
-  </si>
-  <si>
-    <t>obj7IMG006.bmp</t>
-  </si>
-  <si>
-    <t>obj8IMG006.bmp</t>
-  </si>
-  <si>
-    <t>obj9IMG006.bmp</t>
-  </si>
-  <si>
     <t>obj1IMG007.bmp</t>
   </si>
   <si>
@@ -135,21 +111,6 @@
     <t>obj5IMG010.bmp</t>
   </si>
   <si>
-    <t>obj6IMG010.bmp</t>
-  </si>
-  <si>
-    <t>obj7IMG010.bmp</t>
-  </si>
-  <si>
-    <t>obj8IMG010.bmp</t>
-  </si>
-  <si>
-    <t>obj9IMG010.bmp</t>
-  </si>
-  <si>
-    <t>obj10IMG010.bmp</t>
-  </si>
-  <si>
     <t>obj1IMG011.bmp</t>
   </si>
   <si>
@@ -195,6 +156,9 @@
     <t>obj5IMG015.bmp</t>
   </si>
   <si>
+    <t>obj6IMG015.bmp</t>
+  </si>
+  <si>
     <t>obj1IMG016.bmp</t>
   </si>
   <si>
@@ -213,9 +177,6 @@
     <t>obj3IMG018.bmp</t>
   </si>
   <si>
-    <t>obj4IMG018.bmp</t>
-  </si>
-  <si>
     <t>obj1IMG019.bmp</t>
   </si>
   <si>
@@ -252,6 +213,9 @@
     <t>obj2IMG022.bmp</t>
   </si>
   <si>
+    <t>obj3IMG022.bmp</t>
+  </si>
+  <si>
     <t>obj1IMG023.bmp</t>
   </si>
   <si>
@@ -261,6 +225,9 @@
     <t>obj3IMG023.bmp</t>
   </si>
   <si>
+    <t>obj4IMG023.bmp</t>
+  </si>
+  <si>
     <t>obj1IMG024.bmp</t>
   </si>
   <si>
@@ -327,9 +294,6 @@
     <t>obj3IMG029.bmp</t>
   </si>
   <si>
-    <t>obj4IMG029.bmp</t>
-  </si>
-  <si>
     <t>obj1IMG030.bmp</t>
   </si>
   <si>
@@ -339,42 +303,6 @@
     <t>obj3IMG030.bmp</t>
   </si>
   <si>
-    <t>obj4IMG030.bmp</t>
-  </si>
-  <si>
-    <t>obj5IMG030.bmp</t>
-  </si>
-  <si>
-    <t>obj6IMG030.bmp</t>
-  </si>
-  <si>
-    <t>obj7IMG030.bmp</t>
-  </si>
-  <si>
-    <t>obj8IMG030.bmp</t>
-  </si>
-  <si>
-    <t>obj9IMG030.bmp</t>
-  </si>
-  <si>
-    <t>obj10IMG030.bmp</t>
-  </si>
-  <si>
-    <t>obj11IMG030.bmp</t>
-  </si>
-  <si>
-    <t>obj12IMG030.bmp</t>
-  </si>
-  <si>
-    <t>obj13IMG030.bmp</t>
-  </si>
-  <si>
-    <t>obj14IMG030.bmp</t>
-  </si>
-  <si>
-    <t>obj15IMG030.bmp</t>
-  </si>
-  <si>
     <t>obj1IMG031.bmp</t>
   </si>
   <si>
@@ -387,18 +315,6 @@
     <t>obj4IMG031.bmp</t>
   </si>
   <si>
-    <t>obj5IMG031.bmp</t>
-  </si>
-  <si>
-    <t>obj6IMG031.bmp</t>
-  </si>
-  <si>
-    <t>obj7IMG031.bmp</t>
-  </si>
-  <si>
-    <t>obj8IMG031.bmp</t>
-  </si>
-  <si>
     <t>obj1IMG032.bmp</t>
   </si>
   <si>
@@ -408,9 +324,6 @@
     <t>obj3IMG032.bmp</t>
   </si>
   <si>
-    <t>obj4IMG032.bmp</t>
-  </si>
-  <si>
     <t>obj1IMG033.bmp</t>
   </si>
   <si>
@@ -441,15 +354,6 @@
     <t>obj3IMG035.bmp</t>
   </si>
   <si>
-    <t>obj4IMG035.bmp</t>
-  </si>
-  <si>
-    <t>obj5IMG035.bmp</t>
-  </si>
-  <si>
-    <t>obj6IMG035.bmp</t>
-  </si>
-  <si>
     <t>obj1IMG036.bmp</t>
   </si>
   <si>
@@ -480,33 +384,6 @@
     <t>obj3IMG038.bmp</t>
   </si>
   <si>
-    <t>obj4IMG038.bmp</t>
-  </si>
-  <si>
-    <t>obj5IMG038.bmp</t>
-  </si>
-  <si>
-    <t>obj6IMG038.bmp</t>
-  </si>
-  <si>
-    <t>obj7IMG038.bmp</t>
-  </si>
-  <si>
-    <t>obj8IMG038.bmp</t>
-  </si>
-  <si>
-    <t>obj9IMG038.bmp</t>
-  </si>
-  <si>
-    <t>obj10IMG038.bmp</t>
-  </si>
-  <si>
-    <t>obj11IMG038.bmp</t>
-  </si>
-  <si>
-    <t>obj12IMG038.bmp</t>
-  </si>
-  <si>
     <t>obj1IMG039.bmp</t>
   </si>
   <si>
@@ -516,33 +393,6 @@
     <t>obj3IMG039.bmp</t>
   </si>
   <si>
-    <t>obj4IMG039.bmp</t>
-  </si>
-  <si>
-    <t>obj5IMG039.bmp</t>
-  </si>
-  <si>
-    <t>obj6IMG039.bmp</t>
-  </si>
-  <si>
-    <t>obj7IMG039.bmp</t>
-  </si>
-  <si>
-    <t>obj8IMG039.bmp</t>
-  </si>
-  <si>
-    <t>obj9IMG039.bmp</t>
-  </si>
-  <si>
-    <t>obj10IMG039.bmp</t>
-  </si>
-  <si>
-    <t>obj11IMG039.bmp</t>
-  </si>
-  <si>
-    <t>obj12IMG039.bmp</t>
-  </si>
-  <si>
     <t>obj1IMG040.bmp</t>
   </si>
   <si>
@@ -555,18 +405,6 @@
     <t>obj4IMG040.bmp</t>
   </si>
   <si>
-    <t>obj5IMG040.bmp</t>
-  </si>
-  <si>
-    <t>obj6IMG040.bmp</t>
-  </si>
-  <si>
-    <t>obj7IMG040.bmp</t>
-  </si>
-  <si>
-    <t>obj8IMG040.bmp</t>
-  </si>
-  <si>
     <t>obj1IMG041.bmp</t>
   </si>
   <si>
@@ -606,9 +444,6 @@
     <t>obj3IMG044.bmp</t>
   </si>
   <si>
-    <t>obj4IMG044.bmp</t>
-  </si>
-  <si>
     <t>obj1IMG045.bmp</t>
   </si>
   <si>
@@ -618,12 +453,6 @@
     <t>obj3IMG045.bmp</t>
   </si>
   <si>
-    <t>obj4IMG045.bmp</t>
-  </si>
-  <si>
-    <t>obj5IMG045.bmp</t>
-  </si>
-  <si>
     <t>obj1IMG046.bmp</t>
   </si>
   <si>
@@ -655,12 +484,6 @@
   </si>
   <si>
     <t>obj3IMG048.bmp</t>
-  </si>
-  <si>
-    <t>obj4IMG048.bmp</t>
-  </si>
-  <si>
-    <t>obj5IMG048.bmp</t>
   </si>
   <si>
     <t>obj1IMG049.bmp</t>
@@ -790,12 +613,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E240"/>
+  <dimension ref="A1:E181"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="true"/>
+    <col min="1" max="1" width="16.140625" customWidth="true"/>
     <col min="2" max="2" width="10.140625" customWidth="true"/>
-    <col min="3" max="3" width="8.140625" customWidth="true"/>
+    <col min="3" max="3" width="7.140625" customWidth="true"/>
     <col min="4" max="4" width="13.7109375" customWidth="true"/>
     <col min="5" max="5" width="11.5703125" customWidth="true"/>
   </cols>
@@ -805,16 +628,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>240</v>
+        <v>181</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>241</v>
+        <v>182</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>243</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2">
@@ -822,16 +645,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>628.80100000000004</v>
+        <v>650.52700000000004</v>
       </c>
       <c r="C2" s="0">
-        <v>20201</v>
+        <v>19989</v>
       </c>
       <c r="D2" s="0">
-        <v>0.64203142441363181</v>
+        <v>0.59356772570549998</v>
       </c>
       <c r="E2" s="0">
-        <v>20648</v>
+        <v>20400</v>
       </c>
     </row>
     <row r="3">
@@ -1077,16 +900,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="0">
-        <v>4555.8999999999996</v>
+        <v>605.07299999999998</v>
       </c>
       <c r="C17" s="0">
-        <v>1064209</v>
+        <v>10297</v>
       </c>
       <c r="D17" s="0">
-        <v>0.64430043649814195</v>
+        <v>0.3534313168346559</v>
       </c>
       <c r="E17" s="0">
-        <v>1065054</v>
+        <v>14580</v>
       </c>
     </row>
     <row r="18">
@@ -1094,16 +917,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="0">
-        <v>29.02</v>
+        <v>1786.3979999999999</v>
       </c>
       <c r="C18" s="0">
-        <v>67</v>
+        <v>30649</v>
       </c>
       <c r="D18" s="0">
-        <v>0.99974640360917533</v>
+        <v>0.12068956597731492</v>
       </c>
       <c r="E18" s="0">
-        <v>69</v>
+        <v>42391</v>
       </c>
     </row>
     <row r="19">
@@ -1111,16 +934,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="0">
-        <v>21.427999999999997</v>
+        <v>977.75300000000004</v>
       </c>
       <c r="C19" s="0">
-        <v>45</v>
+        <v>14675</v>
       </c>
       <c r="D19" s="0">
-        <v>1.231570003064913</v>
+        <v>0.19289885937337281</v>
       </c>
       <c r="E19" s="0">
-        <v>45</v>
+        <v>21919</v>
       </c>
     </row>
     <row r="20">
@@ -1128,16 +951,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="0">
-        <v>1465.0549999999998</v>
+        <v>1445.2369999999999</v>
       </c>
       <c r="C20" s="0">
-        <v>6125</v>
+        <v>28205</v>
       </c>
       <c r="D20" s="0">
-        <v>0.035859819494490304</v>
+        <v>0.16969061551148384</v>
       </c>
       <c r="E20" s="0">
-        <v>15911</v>
+        <v>40951</v>
       </c>
     </row>
     <row r="21">
@@ -1145,16 +968,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="0">
-        <v>27.986000000000001</v>
+        <v>783.84199999999998</v>
       </c>
       <c r="C21" s="0">
-        <v>65</v>
+        <v>9797</v>
       </c>
       <c r="D21" s="0">
-        <v>1.0428973431664659</v>
+        <v>0.20037609635683015</v>
       </c>
       <c r="E21" s="0">
-        <v>68</v>
+        <v>15579</v>
       </c>
     </row>
     <row r="22">
@@ -1162,16 +985,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="0">
-        <v>95.338999999999999</v>
+        <v>604.70099999999991</v>
       </c>
       <c r="C22" s="0">
-        <v>276</v>
+        <v>10288</v>
       </c>
       <c r="D22" s="0">
-        <v>0.38157310967376262</v>
+        <v>0.35355700474263579</v>
       </c>
       <c r="E22" s="0">
-        <v>418</v>
+        <v>14577</v>
       </c>
     </row>
     <row r="23">
@@ -1179,16 +1002,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="0">
-        <v>124.47499999999999</v>
+        <v>1602.5539999999999</v>
       </c>
       <c r="C23" s="0">
-        <v>653</v>
+        <v>38759</v>
       </c>
       <c r="D23" s="0">
-        <v>0.5296131689582475</v>
+        <v>0.18965184957914949</v>
       </c>
       <c r="E23" s="0">
-        <v>814</v>
+        <v>52322</v>
       </c>
     </row>
     <row r="24">
@@ -1196,16 +1019,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="0">
-        <v>27.704999999999998</v>
+        <v>1022.544</v>
       </c>
       <c r="C24" s="0">
-        <v>69</v>
+        <v>29533</v>
       </c>
       <c r="D24" s="0">
-        <v>1.1296467202858056</v>
+        <v>0.35493875362070504</v>
       </c>
       <c r="E24" s="0">
-        <v>71</v>
+        <v>41115</v>
       </c>
     </row>
     <row r="25">
@@ -1213,16 +1036,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="0">
-        <v>216.86099999999999</v>
+        <v>930.69400000000007</v>
       </c>
       <c r="C25" s="0">
-        <v>789</v>
+        <v>15814</v>
       </c>
       <c r="D25" s="0">
-        <v>0.21082589616203612</v>
+        <v>0.22942343098074358</v>
       </c>
       <c r="E25" s="0">
-        <v>1337</v>
+        <v>22762</v>
       </c>
     </row>
     <row r="26">
@@ -1230,16 +1053,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="0">
-        <v>1786.3979999999999</v>
+        <v>592.85400000000004</v>
       </c>
       <c r="C26" s="0">
-        <v>30649</v>
+        <v>12166</v>
       </c>
       <c r="D26" s="0">
-        <v>0.12068956597731492</v>
+        <v>0.43497286721761746</v>
       </c>
       <c r="E26" s="0">
-        <v>42391</v>
+        <v>16464</v>
       </c>
     </row>
     <row r="27">
@@ -1247,16 +1070,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="0">
-        <v>977.75300000000004</v>
+        <v>33.650999999999996</v>
       </c>
       <c r="C27" s="0">
-        <v>14675</v>
+        <v>86</v>
       </c>
       <c r="D27" s="0">
-        <v>0.19289885937337281</v>
+        <v>0.95436030232745706</v>
       </c>
       <c r="E27" s="0">
-        <v>21919</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28">
@@ -1264,16 +1087,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="0">
-        <v>1445.2369999999999</v>
+        <v>1332.6499999999999</v>
       </c>
       <c r="C28" s="0">
-        <v>28205</v>
+        <v>21214</v>
       </c>
       <c r="D28" s="0">
-        <v>0.16969061551148384</v>
+        <v>0.1501067497368255</v>
       </c>
       <c r="E28" s="0">
-        <v>40951</v>
+        <v>32759</v>
       </c>
     </row>
     <row r="29">
@@ -1281,16 +1104,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="0">
-        <v>783.84199999999998</v>
+        <v>1253.375</v>
       </c>
       <c r="C29" s="0">
-        <v>9797</v>
+        <v>21805</v>
       </c>
       <c r="D29" s="0">
-        <v>0.20037609635683015</v>
+        <v>0.17442305913408002</v>
       </c>
       <c r="E29" s="0">
-        <v>15579</v>
+        <v>31638</v>
       </c>
     </row>
     <row r="30">
@@ -1298,16 +1121,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="0">
-        <v>604.70099999999991</v>
+        <v>844.15500000000009</v>
       </c>
       <c r="C30" s="0">
-        <v>10288</v>
+        <v>10235</v>
       </c>
       <c r="D30" s="0">
-        <v>0.35355700474263579</v>
+        <v>0.18049007136999798</v>
       </c>
       <c r="E30" s="0">
-        <v>14577</v>
+        <v>15201</v>
       </c>
     </row>
     <row r="31">
@@ -1315,16 +1138,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="0">
-        <v>1602.5539999999999</v>
+        <v>402.61799999999994</v>
       </c>
       <c r="C31" s="0">
-        <v>38759</v>
+        <v>7292</v>
       </c>
       <c r="D31" s="0">
-        <v>0.18965184957914949</v>
+        <v>0.56528849901968703</v>
       </c>
       <c r="E31" s="0">
-        <v>52322</v>
+        <v>8351</v>
       </c>
     </row>
     <row r="32">
@@ -1332,16 +1155,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="0">
-        <v>1022.544</v>
+        <v>532.31299999999999</v>
       </c>
       <c r="C32" s="0">
-        <v>29533</v>
+        <v>8354</v>
       </c>
       <c r="D32" s="0">
-        <v>0.35493875362070504</v>
+        <v>0.37048462526367892</v>
       </c>
       <c r="E32" s="0">
-        <v>41115</v>
+        <v>11215</v>
       </c>
     </row>
     <row r="33">
@@ -1349,16 +1172,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="0">
-        <v>930.69400000000007</v>
+        <v>1243.8459999999998</v>
       </c>
       <c r="C33" s="0">
-        <v>15814</v>
+        <v>30750</v>
       </c>
       <c r="D33" s="0">
-        <v>0.22942343098074358</v>
+        <v>0.24975935051780476</v>
       </c>
       <c r="E33" s="0">
-        <v>22762</v>
+        <v>46709</v>
       </c>
     </row>
     <row r="34">
@@ -1366,16 +1189,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="0">
-        <v>592.85400000000004</v>
+        <v>691.62100000000009</v>
       </c>
       <c r="C34" s="0">
-        <v>12166</v>
+        <v>15338</v>
       </c>
       <c r="D34" s="0">
-        <v>0.43497286721761746</v>
+        <v>0.40294173721799975</v>
       </c>
       <c r="E34" s="0">
-        <v>16464</v>
+        <v>21974</v>
       </c>
     </row>
     <row r="35">
@@ -1383,16 +1206,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="0">
-        <v>33.650999999999996</v>
+        <v>926.25099999999998</v>
       </c>
       <c r="C35" s="0">
-        <v>86</v>
+        <v>19570</v>
       </c>
       <c r="D35" s="0">
-        <v>0.95436030232745706</v>
+        <v>0.28664429988482643</v>
       </c>
       <c r="E35" s="0">
-        <v>86</v>
+        <v>29487</v>
       </c>
     </row>
     <row r="36">
@@ -1400,16 +1223,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="0">
-        <v>2191.9959999999996</v>
+        <v>833.1869999999999</v>
       </c>
       <c r="C36" s="0">
-        <v>26499</v>
+        <v>16933</v>
       </c>
       <c r="D36" s="0">
-        <v>0.069304244662914349</v>
+        <v>0.30651998957132248</v>
       </c>
       <c r="E36" s="0">
-        <v>43352</v>
+        <v>24405</v>
       </c>
     </row>
     <row r="37">
@@ -1417,16 +1240,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="0">
-        <v>1476.1480000000001</v>
+        <v>848.36699999999996</v>
       </c>
       <c r="C37" s="0">
-        <v>17608</v>
+        <v>19227</v>
       </c>
       <c r="D37" s="0">
-        <v>0.1015453611860527</v>
+        <v>0.33570194430058764</v>
       </c>
       <c r="E37" s="0">
-        <v>28780</v>
+        <v>28966</v>
       </c>
     </row>
     <row r="38">
@@ -1434,16 +1257,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="0">
-        <v>83.891999999999996</v>
+        <v>878.94100000000003</v>
       </c>
       <c r="C38" s="0">
-        <v>167</v>
+        <v>19085</v>
       </c>
       <c r="D38" s="0">
-        <v>0.29818461965868276</v>
+        <v>0.31044350728974268</v>
       </c>
       <c r="E38" s="0">
-        <v>270</v>
+        <v>28822</v>
       </c>
     </row>
     <row r="39">
@@ -1451,16 +1274,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="0">
-        <v>51.183999999999997</v>
+        <v>1246.3599999999999</v>
       </c>
       <c r="C39" s="0">
-        <v>128</v>
+        <v>28957</v>
       </c>
       <c r="D39" s="0">
-        <v>0.61397599018953219</v>
+        <v>0.23424828774551645</v>
       </c>
       <c r="E39" s="0">
-        <v>167</v>
+        <v>45567</v>
       </c>
     </row>
     <row r="40">
@@ -1468,16 +1291,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="0">
-        <v>1163.6090000000002</v>
+        <v>1053.55</v>
       </c>
       <c r="C40" s="0">
-        <v>11928</v>
+        <v>27786</v>
       </c>
       <c r="D40" s="0">
-        <v>0.11070400965603105</v>
+        <v>0.31457600483486547</v>
       </c>
       <c r="E40" s="0">
-        <v>20197</v>
+        <v>42576</v>
       </c>
     </row>
     <row r="41">
@@ -1485,16 +1308,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="0">
-        <v>546.37799999999993</v>
+        <v>1228.5609999999999</v>
       </c>
       <c r="C41" s="0">
-        <v>8694</v>
+        <v>31569</v>
       </c>
       <c r="D41" s="0">
-        <v>0.36596798236384914</v>
+        <v>0.2628313946999607</v>
       </c>
       <c r="E41" s="0">
-        <v>11574</v>
+        <v>48873</v>
       </c>
     </row>
     <row r="42">
@@ -1502,16 +1325,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="0">
-        <v>23.578000000000003</v>
+        <v>1370.8720000000001</v>
       </c>
       <c r="C42" s="0">
-        <v>54</v>
+        <v>12035</v>
       </c>
       <c r="D42" s="0">
-        <v>1.2206459011176738</v>
+        <v>0.080475215157799776</v>
       </c>
       <c r="E42" s="0">
-        <v>57</v>
+        <v>31936</v>
       </c>
     </row>
     <row r="43">
@@ -1519,16 +1342,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="0">
-        <v>794.43299999999999</v>
+        <v>1276.8939999999998</v>
       </c>
       <c r="C43" s="0">
-        <v>9947</v>
+        <v>33133</v>
       </c>
       <c r="D43" s="0">
-        <v>0.19805573833007578</v>
+        <v>0.2553647405916718</v>
       </c>
       <c r="E43" s="0">
-        <v>14893</v>
+        <v>50231</v>
       </c>
     </row>
     <row r="44">
@@ -1536,16 +1359,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="0">
-        <v>120.289</v>
+        <v>1085.0059999999999</v>
       </c>
       <c r="C44" s="0">
-        <v>598</v>
+        <v>29803</v>
       </c>
       <c r="D44" s="0">
-        <v>0.51934890353457319</v>
+        <v>0.31813068983984549</v>
       </c>
       <c r="E44" s="0">
-        <v>800</v>
+        <v>42677</v>
       </c>
     </row>
     <row r="45">
@@ -1553,16 +1376,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="0">
-        <v>112.416</v>
+        <v>1013.1030000000001</v>
       </c>
       <c r="C45" s="0">
-        <v>362</v>
+        <v>24178</v>
       </c>
       <c r="D45" s="0">
-        <v>0.35996657704929064</v>
+        <v>0.29602134972920324</v>
       </c>
       <c r="E45" s="0">
-        <v>436</v>
+        <v>35347</v>
       </c>
     </row>
     <row r="46">
@@ -1570,16 +1393,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="0">
-        <v>1253.059</v>
+        <v>69.213000000000008</v>
       </c>
       <c r="C46" s="0">
-        <v>30799</v>
+        <v>248</v>
       </c>
       <c r="D46" s="0">
-        <v>0.24649234674079784</v>
+        <v>0.65055826246927995</v>
       </c>
       <c r="E46" s="0">
-        <v>46804</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47">
@@ -1587,16 +1410,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="0">
-        <v>692.48099999999999</v>
+        <v>1252.1099999999999</v>
       </c>
       <c r="C47" s="0">
-        <v>15225</v>
+        <v>33516</v>
       </c>
       <c r="D47" s="0">
-        <v>0.39898028985320072</v>
+        <v>0.26864395814520331</v>
       </c>
       <c r="E47" s="0">
-        <v>21850</v>
+        <v>50701</v>
       </c>
     </row>
     <row r="48">
@@ -1604,16 +1427,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="0">
-        <v>925.05999999999995</v>
+        <v>1697.6149999999998</v>
       </c>
       <c r="C48" s="0">
-        <v>19415</v>
+        <v>17949</v>
       </c>
       <c r="D48" s="0">
-        <v>0.28510672035697826</v>
+        <v>0.078265743209571664</v>
       </c>
       <c r="E48" s="0">
-        <v>29433</v>
+        <v>48945</v>
       </c>
     </row>
     <row r="49">
@@ -1621,16 +1444,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="0">
-        <v>839.54700000000003</v>
+        <v>1543.6059999999998</v>
       </c>
       <c r="C49" s="0">
-        <v>16757</v>
+        <v>21008</v>
       </c>
       <c r="D49" s="0">
-        <v>0.29875563501409108</v>
+        <v>0.1107953813799028</v>
       </c>
       <c r="E49" s="0">
-        <v>24314</v>
+        <v>57859</v>
       </c>
     </row>
     <row r="50">
@@ -1638,16 +1461,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="0">
-        <v>848.62400000000002</v>
+        <v>1267.4090000000001</v>
       </c>
       <c r="C50" s="0">
-        <v>19103</v>
+        <v>22312</v>
       </c>
       <c r="D50" s="0">
-        <v>0.33333492564126666</v>
+        <v>0.17454796574948994</v>
       </c>
       <c r="E50" s="0">
-        <v>28834</v>
+        <v>58489</v>
       </c>
     </row>
     <row r="51">
@@ -1655,16 +1478,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="0">
-        <v>881.75999999999999</v>
+        <v>1332.0479999999998</v>
       </c>
       <c r="C51" s="0">
-        <v>18875</v>
+        <v>21818</v>
       </c>
       <c r="D51" s="0">
-        <v>0.30506756595613554</v>
+        <v>0.15452012536782453</v>
       </c>
       <c r="E51" s="0">
-        <v>28644</v>
+        <v>58759</v>
       </c>
     </row>
     <row r="52">
@@ -1672,16 +1495,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="0">
-        <v>1241.8519999999999</v>
+        <v>1286.8699999999999</v>
       </c>
       <c r="C52" s="0">
-        <v>29906</v>
+        <v>22966</v>
       </c>
       <c r="D52" s="0">
-        <v>0.24368483939741245</v>
+        <v>0.17427130020343407</v>
       </c>
       <c r="E52" s="0">
-        <v>46166</v>
+        <v>58884</v>
       </c>
     </row>
     <row r="53">
@@ -1689,16 +1512,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="0">
-        <v>1047.2229999999997</v>
+        <v>1371.9010000000001</v>
       </c>
       <c r="C53" s="0">
-        <v>28522</v>
+        <v>22800</v>
       </c>
       <c r="D53" s="0">
-        <v>0.3268221597166851</v>
+        <v>0.15222962084530411</v>
       </c>
       <c r="E53" s="0">
-        <v>43319</v>
+        <v>58816</v>
       </c>
     </row>
     <row r="54">
@@ -1706,16 +1529,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="0">
-        <v>1219.3229999999999</v>
+        <v>1340.5889999999999</v>
       </c>
       <c r="C54" s="0">
-        <v>32453</v>
+        <v>22928</v>
       </c>
       <c r="D54" s="0">
-        <v>0.27430086800967723</v>
+        <v>0.1603189035600274</v>
       </c>
       <c r="E54" s="0">
-        <v>49711</v>
+        <v>59105</v>
       </c>
     </row>
     <row r="55">
@@ -1723,16 +1546,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="0">
-        <v>935.35299999999984</v>
+        <v>1356.886</v>
       </c>
       <c r="C55" s="0">
-        <v>22364</v>
+        <v>21507</v>
       </c>
       <c r="D55" s="0">
-        <v>0.32122420324664336</v>
+        <v>0.14679219886864775</v>
       </c>
       <c r="E55" s="0">
-        <v>32525</v>
+        <v>58354</v>
       </c>
     </row>
     <row r="56">
@@ -1740,16 +1563,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="0">
-        <v>1283.7909999999999</v>
+        <v>1342.252</v>
       </c>
       <c r="C56" s="0">
-        <v>34386</v>
+        <v>21569</v>
       </c>
       <c r="D56" s="0">
-        <v>0.26218199837788847</v>
+        <v>0.15044292026397679</v>
       </c>
       <c r="E56" s="0">
-        <v>51315</v>
+        <v>58391</v>
       </c>
     </row>
     <row r="57">
@@ -1757,16 +1580,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="0">
-        <v>1099.396</v>
+        <v>1396.3579999999999</v>
       </c>
       <c r="C57" s="0">
-        <v>30654</v>
+        <v>21192</v>
       </c>
       <c r="D57" s="0">
-        <v>0.31870487899763555</v>
+        <v>0.13658036036636353</v>
       </c>
       <c r="E57" s="0">
-        <v>43426</v>
+        <v>58342</v>
       </c>
     </row>
     <row r="58">
@@ -1774,16 +1597,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="0">
-        <v>1012.665</v>
+        <v>1341.6590000000001</v>
       </c>
       <c r="C58" s="0">
-        <v>25036</v>
+        <v>21349</v>
       </c>
       <c r="D58" s="0">
-        <v>0.30679141805567889</v>
+        <v>0.14904009017599254</v>
       </c>
       <c r="E58" s="0">
-        <v>36017</v>
+        <v>57978</v>
       </c>
     </row>
     <row r="59">
@@ -1791,16 +1614,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="0">
-        <v>1263.855</v>
+        <v>1350.3519999999999</v>
       </c>
       <c r="C59" s="0">
-        <v>34790</v>
+        <v>21640</v>
       </c>
       <c r="D59" s="0">
-        <v>0.27369684485316903</v>
+        <v>0.14913278782717843</v>
       </c>
       <c r="E59" s="0">
-        <v>51693</v>
+        <v>59512</v>
       </c>
     </row>
     <row r="60">
@@ -1808,16 +1631,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="0">
-        <v>1654.52</v>
+        <v>1415.2719999999999</v>
       </c>
       <c r="C60" s="0">
-        <v>19850</v>
+        <v>21792</v>
       </c>
       <c r="D60" s="0">
-        <v>0.091122648155369412</v>
+        <v>0.13671844968438027</v>
       </c>
       <c r="E60" s="0">
-        <v>49827</v>
+        <v>59286</v>
       </c>
     </row>
     <row r="61">
@@ -1825,16 +1648,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="0">
-        <v>1543.6059999999998</v>
+        <v>1272.9830000000002</v>
       </c>
       <c r="C61" s="0">
-        <v>21008</v>
+        <v>21896</v>
       </c>
       <c r="D61" s="0">
-        <v>0.1107953813799028</v>
+        <v>0.16979677627923229</v>
       </c>
       <c r="E61" s="0">
-        <v>57859</v>
+        <v>59206</v>
       </c>
     </row>
     <row r="62">
@@ -1842,16 +1665,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="0">
-        <v>1267.4090000000001</v>
+        <v>1271.8520000000001</v>
       </c>
       <c r="C62" s="0">
-        <v>22312</v>
+        <v>21678</v>
       </c>
       <c r="D62" s="0">
-        <v>0.17454796574948994</v>
+        <v>0.16840536441021162</v>
       </c>
       <c r="E62" s="0">
-        <v>58489</v>
+        <v>59057</v>
       </c>
     </row>
     <row r="63">
@@ -1859,16 +1682,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="0">
-        <v>1332.0479999999998</v>
+        <v>1448.1590000000001</v>
       </c>
       <c r="C63" s="0">
-        <v>21818</v>
+        <v>21853</v>
       </c>
       <c r="D63" s="0">
-        <v>0.15452012536782453</v>
+        <v>0.13094485360551777</v>
       </c>
       <c r="E63" s="0">
-        <v>58759</v>
+        <v>59290</v>
       </c>
     </row>
     <row r="64">
@@ -1876,16 +1699,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="0">
-        <v>1582.1950000000002</v>
+        <v>1229.6299999999999</v>
       </c>
       <c r="C64" s="0">
-        <v>21103</v>
+        <v>83360</v>
       </c>
       <c r="D64" s="0">
-        <v>0.10593367710007026</v>
+        <v>0.69281721316261824</v>
       </c>
       <c r="E64" s="0">
-        <v>58735</v>
+        <v>92819</v>
       </c>
     </row>
     <row r="65">
@@ -1893,16 +1716,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="0">
-        <v>1608.576</v>
+        <v>1273.211</v>
       </c>
       <c r="C65" s="0">
-        <v>20984</v>
+        <v>52563</v>
       </c>
       <c r="D65" s="0">
-        <v>0.10190957071035762</v>
+        <v>0.40746399993848026</v>
       </c>
       <c r="E65" s="0">
-        <v>58540</v>
+        <v>63876</v>
       </c>
     </row>
     <row r="66">
@@ -1910,16 +1733,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="0">
-        <v>22.841999999999999</v>
+        <v>364.63099999999997</v>
       </c>
       <c r="C66" s="0">
-        <v>37</v>
+        <v>1181</v>
       </c>
       <c r="D66" s="0">
-        <v>0.8911346561946214</v>
+        <v>0.11162271576538417</v>
       </c>
       <c r="E66" s="0">
-        <v>42</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="67">
@@ -1927,16 +1750,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="0">
-        <v>1476.924</v>
+        <v>1105.4610000000002</v>
       </c>
       <c r="C67" s="0">
-        <v>21343</v>
+        <v>57488</v>
       </c>
       <c r="D67" s="0">
-        <v>0.12295580365047534</v>
+        <v>0.59115342865307086</v>
       </c>
       <c r="E67" s="0">
-        <v>58804</v>
+        <v>63986</v>
       </c>
     </row>
     <row r="68">
@@ -1944,16 +1767,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="0">
-        <v>1356.886</v>
+        <v>1502.1709999999998</v>
       </c>
       <c r="C68" s="0">
-        <v>21507</v>
+        <v>52443</v>
       </c>
       <c r="D68" s="0">
-        <v>0.14679219886864775</v>
+        <v>0.29205096430743333</v>
       </c>
       <c r="E68" s="0">
-        <v>58354</v>
+        <v>61872</v>
       </c>
     </row>
     <row r="69">
@@ -1961,16 +1784,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="0">
-        <v>1342.252</v>
+        <v>1097.104</v>
       </c>
       <c r="C69" s="0">
-        <v>21569</v>
+        <v>54198</v>
       </c>
       <c r="D69" s="0">
-        <v>0.15044292026397679</v>
+        <v>0.56584505864154055</v>
       </c>
       <c r="E69" s="0">
-        <v>58391</v>
+        <v>61191</v>
       </c>
     </row>
     <row r="70">
@@ -1978,16 +1801,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="0">
-        <v>1396.3579999999999</v>
+        <v>70.263999999999996</v>
       </c>
       <c r="C70" s="0">
-        <v>21192</v>
+        <v>254</v>
       </c>
       <c r="D70" s="0">
-        <v>0.13658036036636353</v>
+        <v>0.64651386209673511</v>
       </c>
       <c r="E70" s="0">
-        <v>58342</v>
+        <v>274</v>
       </c>
     </row>
     <row r="71">
@@ -1995,16 +1818,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="0">
-        <v>1341.6590000000001</v>
+        <v>1029.9559999999999</v>
       </c>
       <c r="C71" s="0">
-        <v>21349</v>
+        <v>58306</v>
       </c>
       <c r="D71" s="0">
-        <v>0.14904009017599254</v>
+        <v>0.69069413537569291</v>
       </c>
       <c r="E71" s="0">
-        <v>57978</v>
+        <v>64365</v>
       </c>
     </row>
     <row r="72">
@@ -2012,16 +1835,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="0">
-        <v>1350.3519999999999</v>
+        <v>1103.0830000000001</v>
       </c>
       <c r="C72" s="0">
-        <v>21640</v>
+        <v>65057</v>
       </c>
       <c r="D72" s="0">
-        <v>0.14913278782717843</v>
+        <v>0.67187350227994991</v>
       </c>
       <c r="E72" s="0">
-        <v>59512</v>
+        <v>72672</v>
       </c>
     </row>
     <row r="73">
@@ -2029,16 +1852,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="0">
-        <v>1415.2719999999999</v>
+        <v>1130.6779999999999</v>
       </c>
       <c r="C73" s="0">
-        <v>21792</v>
+        <v>65679</v>
       </c>
       <c r="D73" s="0">
-        <v>0.13671844968438027</v>
+        <v>0.64559255247523117</v>
       </c>
       <c r="E73" s="0">
-        <v>59286</v>
+        <v>73000</v>
       </c>
     </row>
     <row r="74">
@@ -2046,16 +1869,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="0">
-        <v>1272.9830000000002</v>
+        <v>1178.5959999999998</v>
       </c>
       <c r="C74" s="0">
-        <v>21896</v>
+        <v>71632</v>
       </c>
       <c r="D74" s="0">
-        <v>0.16979677627923229</v>
+        <v>0.64801791939048459</v>
       </c>
       <c r="E74" s="0">
-        <v>59206</v>
+        <v>80477</v>
       </c>
     </row>
     <row r="75">
@@ -2063,16 +1886,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="0">
-        <v>1271.8520000000001</v>
+        <v>1223.7719999999999</v>
       </c>
       <c r="C75" s="0">
-        <v>21678</v>
+        <v>69339</v>
       </c>
       <c r="D75" s="0">
-        <v>0.16840536441021162</v>
+        <v>0.58181700912083367</v>
       </c>
       <c r="E75" s="0">
-        <v>59057</v>
+        <v>77647</v>
       </c>
     </row>
     <row r="76">
@@ -2080,16 +1903,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="0">
-        <v>1448.1590000000001</v>
+        <v>1085.319</v>
       </c>
       <c r="C76" s="0">
-        <v>21853</v>
+        <v>57046</v>
       </c>
       <c r="D76" s="0">
-        <v>0.13094485360551777</v>
+        <v>0.6085836066229009</v>
       </c>
       <c r="E76" s="0">
-        <v>59290</v>
+        <v>63650</v>
       </c>
     </row>
     <row r="77">
@@ -2097,16 +1920,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="0">
-        <v>1228.886</v>
+        <v>1013.22</v>
       </c>
       <c r="C77" s="0">
-        <v>83497</v>
+        <v>60393</v>
       </c>
       <c r="D77" s="0">
-        <v>0.69479637300553077</v>
+        <v>0.73924596048407432</v>
       </c>
       <c r="E77" s="0">
-        <v>92914</v>
+        <v>66869</v>
       </c>
     </row>
     <row r="78">
@@ -2114,16 +1937,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="0">
-        <v>1581.6229999999998</v>
+        <v>981.39700000000005</v>
       </c>
       <c r="C78" s="0">
-        <v>57153</v>
+        <v>55506</v>
       </c>
       <c r="D78" s="0">
-        <v>0.28710645182250683</v>
+        <v>0.72420303949702503</v>
       </c>
       <c r="E78" s="0">
-        <v>67613</v>
+        <v>61891</v>
       </c>
     </row>
     <row r="79">
@@ -2131,16 +1954,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="0">
-        <v>1057.2049999999999</v>
+        <v>983.11800000000005</v>
       </c>
       <c r="C79" s="0">
-        <v>58367</v>
+        <v>50720</v>
       </c>
       <c r="D79" s="0">
-        <v>0.65623413749477177</v>
+        <v>0.65944383649349281</v>
       </c>
       <c r="E79" s="0">
-        <v>64709</v>
+        <v>56785</v>
       </c>
     </row>
     <row r="80">
@@ -2148,16 +1971,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="0">
-        <v>1076.096</v>
+        <v>985.95699999999988</v>
       </c>
       <c r="C80" s="0">
-        <v>55810</v>
+        <v>57150</v>
       </c>
       <c r="D80" s="0">
-        <v>0.60564739336404383</v>
+        <v>0.73877152767044785</v>
       </c>
       <c r="E80" s="0">
-        <v>63040</v>
+        <v>63440</v>
       </c>
     </row>
     <row r="81">
@@ -2165,16 +1988,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="0">
-        <v>1038.874</v>
+        <v>604.12699999999995</v>
       </c>
       <c r="C81" s="0">
-        <v>56875</v>
+        <v>22693</v>
       </c>
       <c r="D81" s="0">
-        <v>0.66222491938960792</v>
+        <v>0.78134940421766252</v>
       </c>
       <c r="E81" s="0">
-        <v>63394</v>
+        <v>23042</v>
       </c>
     </row>
     <row r="82">
@@ -2182,16 +2005,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="0">
-        <v>1086.144</v>
+        <v>1445.6889999999999</v>
       </c>
       <c r="C82" s="0">
-        <v>59497</v>
+        <v>23565</v>
       </c>
       <c r="D82" s="0">
-        <v>0.63376772266281922</v>
+        <v>0.14168620073332305</v>
       </c>
       <c r="E82" s="0">
-        <v>66492</v>
+        <v>35171</v>
       </c>
     </row>
     <row r="83">
@@ -2199,16 +2022,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="0">
-        <v>1103.0830000000001</v>
+        <v>679.39499999999998</v>
       </c>
       <c r="C83" s="0">
-        <v>65057</v>
+        <v>28621</v>
       </c>
       <c r="D83" s="0">
-        <v>0.67187350227994991</v>
+        <v>0.77920184997486175</v>
       </c>
       <c r="E83" s="0">
-        <v>72672</v>
+        <v>28971</v>
       </c>
     </row>
     <row r="84">
@@ -2216,16 +2039,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="0">
-        <v>1130.6779999999999</v>
+        <v>1319.4970000000001</v>
       </c>
       <c r="C84" s="0">
-        <v>65679</v>
+        <v>21356</v>
       </c>
       <c r="D84" s="0">
-        <v>0.64559255247523117</v>
+        <v>0.15413915077063442</v>
       </c>
       <c r="E84" s="0">
-        <v>73000</v>
+        <v>30076</v>
       </c>
     </row>
     <row r="85">
@@ -2233,16 +2056,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="0">
-        <v>1178.5959999999998</v>
+        <v>1444.4480000000001</v>
       </c>
       <c r="C85" s="0">
-        <v>71632</v>
+        <v>30048</v>
       </c>
       <c r="D85" s="0">
-        <v>0.64801791939048459</v>
+        <v>0.18097626076572271</v>
       </c>
       <c r="E85" s="0">
-        <v>80477</v>
+        <v>36121</v>
       </c>
     </row>
     <row r="86">
@@ -2250,16 +2073,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="0">
-        <v>1223.7719999999999</v>
+        <v>467.47899999999998</v>
       </c>
       <c r="C86" s="0">
-        <v>69339</v>
+        <v>13875</v>
       </c>
       <c r="D86" s="0">
-        <v>0.58181700912083367</v>
+        <v>0.79784521199060299</v>
       </c>
       <c r="E86" s="0">
-        <v>77647</v>
+        <v>14077</v>
       </c>
     </row>
     <row r="87">
@@ -2267,16 +2090,16 @@
         <v>86</v>
       </c>
       <c r="B87" s="0">
-        <v>1085.319</v>
+        <v>1370.7449999999997</v>
       </c>
       <c r="C87" s="0">
-        <v>57046</v>
+        <v>23386</v>
       </c>
       <c r="D87" s="0">
-        <v>0.6085836066229009</v>
+        <v>0.15640566119779881</v>
       </c>
       <c r="E87" s="0">
-        <v>63650</v>
+        <v>33393</v>
       </c>
     </row>
     <row r="88">
@@ -2284,16 +2107,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="0">
-        <v>1013.22</v>
+        <v>446.49899999999991</v>
       </c>
       <c r="C88" s="0">
-        <v>60393</v>
+        <v>12075</v>
       </c>
       <c r="D88" s="0">
-        <v>0.73924596048407432</v>
+        <v>0.76112506180235295</v>
       </c>
       <c r="E88" s="0">
-        <v>66869</v>
+        <v>12310</v>
       </c>
     </row>
     <row r="89">
@@ -2301,16 +2124,16 @@
         <v>88</v>
       </c>
       <c r="B89" s="0">
-        <v>981.39700000000005</v>
+        <v>666.92299999999989</v>
       </c>
       <c r="C89" s="0">
-        <v>55506</v>
+        <v>27366</v>
       </c>
       <c r="D89" s="0">
-        <v>0.72420303949702503</v>
+        <v>0.77316074610521179</v>
       </c>
       <c r="E89" s="0">
-        <v>61891</v>
+        <v>27759</v>
       </c>
     </row>
     <row r="90">
@@ -2318,16 +2141,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="0">
-        <v>983.11800000000005</v>
+        <v>683.65200000000004</v>
       </c>
       <c r="C90" s="0">
-        <v>50720</v>
+        <v>9289</v>
       </c>
       <c r="D90" s="0">
-        <v>0.65944383649349281</v>
+        <v>0.24975181303212549</v>
       </c>
       <c r="E90" s="0">
-        <v>56785</v>
+        <v>12991</v>
       </c>
     </row>
     <row r="91">
@@ -2335,16 +2158,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="0">
-        <v>985.95699999999988</v>
+        <v>1585.222</v>
       </c>
       <c r="C91" s="0">
-        <v>57150</v>
+        <v>27839</v>
       </c>
       <c r="D91" s="0">
-        <v>0.73877152767044785</v>
+        <v>0.1392141285598556</v>
       </c>
       <c r="E91" s="0">
-        <v>63440</v>
+        <v>78702</v>
       </c>
     </row>
     <row r="92">
@@ -2352,16 +2175,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="0">
-        <v>604.12699999999995</v>
+        <v>811.74599999999987</v>
       </c>
       <c r="C92" s="0">
-        <v>22693</v>
+        <v>42284</v>
       </c>
       <c r="D92" s="0">
-        <v>0.78134940421766252</v>
+        <v>0.80639089162816624</v>
       </c>
       <c r="E92" s="0">
-        <v>23042</v>
+        <v>42687</v>
       </c>
     </row>
     <row r="93">
@@ -2369,16 +2192,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="0">
-        <v>1445.6889999999999</v>
+        <v>1888.375</v>
       </c>
       <c r="C93" s="0">
-        <v>23565</v>
+        <v>32735</v>
       </c>
       <c r="D93" s="0">
-        <v>0.14168620073332305</v>
+        <v>0.11535747059386622</v>
       </c>
       <c r="E93" s="0">
-        <v>35171</v>
+        <v>89020</v>
       </c>
     </row>
     <row r="94">
@@ -2386,16 +2209,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="0">
-        <v>679.39499999999998</v>
+        <v>2056.098</v>
       </c>
       <c r="C94" s="0">
-        <v>28621</v>
+        <v>35348</v>
       </c>
       <c r="D94" s="0">
-        <v>0.77920184997486175</v>
+        <v>0.105072021804881</v>
       </c>
       <c r="E94" s="0">
-        <v>28971</v>
+        <v>92368</v>
       </c>
     </row>
     <row r="95">
@@ -2403,16 +2226,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="0">
-        <v>1319.4970000000001</v>
+        <v>908.80999999999995</v>
       </c>
       <c r="C95" s="0">
-        <v>21356</v>
+        <v>57681</v>
       </c>
       <c r="D95" s="0">
-        <v>0.15413915077063442</v>
+        <v>0.87759966912371479</v>
       </c>
       <c r="E95" s="0">
-        <v>30076</v>
+        <v>58050</v>
       </c>
     </row>
     <row r="96">
@@ -2420,16 +2243,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="0">
-        <v>1444.4480000000001</v>
+        <v>781.57299999999998</v>
       </c>
       <c r="C96" s="0">
-        <v>30048</v>
+        <v>42233</v>
       </c>
       <c r="D96" s="0">
-        <v>0.18097626076572271</v>
+        <v>0.8688057779790137</v>
       </c>
       <c r="E96" s="0">
-        <v>36121</v>
+        <v>42550</v>
       </c>
     </row>
     <row r="97">
@@ -2437,16 +2260,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="0">
-        <v>467.47899999999998</v>
+        <v>1744.8399999999999</v>
       </c>
       <c r="C97" s="0">
-        <v>13875</v>
+        <v>24413</v>
       </c>
       <c r="D97" s="0">
-        <v>0.79784521199060299</v>
+        <v>0.10076734073177436</v>
       </c>
       <c r="E97" s="0">
-        <v>14077</v>
+        <v>71407</v>
       </c>
     </row>
     <row r="98">
@@ -2454,16 +2277,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="0">
-        <v>1370.7449999999997</v>
+        <v>761.34099999999989</v>
       </c>
       <c r="C98" s="0">
-        <v>23386</v>
+        <v>39174</v>
       </c>
       <c r="D98" s="0">
-        <v>0.15640566119779881</v>
+        <v>0.84927696845210354</v>
       </c>
       <c r="E98" s="0">
-        <v>33393</v>
+        <v>39503</v>
       </c>
     </row>
     <row r="99">
@@ -2471,16 +2294,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="0">
-        <v>446.49899999999991</v>
+        <v>2169.9969999999998</v>
       </c>
       <c r="C99" s="0">
-        <v>12075</v>
+        <v>29511</v>
       </c>
       <c r="D99" s="0">
-        <v>0.76112506180235295</v>
+        <v>0.0787545262340624</v>
       </c>
       <c r="E99" s="0">
-        <v>12310</v>
+        <v>84728</v>
       </c>
     </row>
     <row r="100">
@@ -2488,16 +2311,16 @@
         <v>99</v>
       </c>
       <c r="B100" s="0">
-        <v>666.92299999999989</v>
+        <v>897.97300000000007</v>
       </c>
       <c r="C100" s="0">
-        <v>27366</v>
+        <v>54880</v>
       </c>
       <c r="D100" s="0">
-        <v>0.77316074610521179</v>
+        <v>0.85525852040505668</v>
       </c>
       <c r="E100" s="0">
-        <v>27759</v>
+        <v>55303</v>
       </c>
     </row>
     <row r="101">
@@ -2505,16 +2328,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="0">
-        <v>683.65200000000004</v>
+        <v>886.77999999999997</v>
       </c>
       <c r="C101" s="0">
-        <v>9289</v>
+        <v>58769</v>
       </c>
       <c r="D101" s="0">
-        <v>0.24975181303212549</v>
+        <v>0.9391314520582551</v>
       </c>
       <c r="E101" s="0">
-        <v>12991</v>
+        <v>59238</v>
       </c>
     </row>
     <row r="102">
@@ -2522,16 +2345,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="0">
-        <v>1582.8630000000001</v>
+        <v>2119.5969999999998</v>
       </c>
       <c r="C102" s="0">
-        <v>28518</v>
+        <v>103349</v>
       </c>
       <c r="D102" s="0">
-        <v>0.14303498470044171</v>
+        <v>0.28907434513842917</v>
       </c>
       <c r="E102" s="0">
-        <v>79360</v>
+        <v>120043</v>
       </c>
     </row>
     <row r="103">
@@ -2539,16 +2362,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="0">
-        <v>753.4899999999999</v>
+        <v>723.65200000000004</v>
       </c>
       <c r="C103" s="0">
-        <v>42520</v>
+        <v>39581</v>
       </c>
       <c r="D103" s="0">
-        <v>0.94112678539141215</v>
+        <v>0.94981077674428172</v>
       </c>
       <c r="E103" s="0">
-        <v>42811</v>
+        <v>39875</v>
       </c>
     </row>
     <row r="104">
@@ -2556,16 +2379,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="0">
-        <v>1827.011</v>
+        <v>1636.7339999999999</v>
       </c>
       <c r="C104" s="0">
-        <v>34124</v>
+        <v>133127</v>
       </c>
       <c r="D104" s="0">
-        <v>0.12846578440557294</v>
+        <v>0.6244818220596926</v>
       </c>
       <c r="E104" s="0">
-        <v>89708</v>
+        <v>148339</v>
       </c>
     </row>
     <row r="105">
@@ -2573,16 +2396,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="0">
-        <v>36.265000000000001</v>
+        <v>1451</v>
       </c>
       <c r="C105" s="0">
-        <v>30</v>
+        <v>120546</v>
       </c>
       <c r="D105" s="0">
-        <v>0.28665251411166742</v>
+        <v>0.71949510429535313</v>
       </c>
       <c r="E105" s="0">
-        <v>53</v>
+        <v>134064</v>
       </c>
     </row>
     <row r="106">
@@ -2590,16 +2413,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="0">
-        <v>35.850999999999999</v>
+        <v>893.42099999999994</v>
       </c>
       <c r="C106" s="0">
-        <v>42</v>
+        <v>60968</v>
       </c>
       <c r="D106" s="0">
-        <v>0.41063560809069993</v>
+        <v>0.95984144810403416</v>
       </c>
       <c r="E106" s="0">
-        <v>56</v>
+        <v>61306</v>
       </c>
     </row>
     <row r="107">
@@ -2607,16 +2430,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="0">
-        <v>2083.0250000000001</v>
+        <v>1070.6589999999999</v>
       </c>
       <c r="C107" s="0">
-        <v>34922</v>
+        <v>59599</v>
       </c>
       <c r="D107" s="0">
-        <v>0.10113931489646139</v>
+        <v>0.65335089865400908</v>
       </c>
       <c r="E107" s="0">
-        <v>92211</v>
+        <v>66272</v>
       </c>
     </row>
     <row r="108">
@@ -2624,16 +2447,16 @@
         <v>107</v>
       </c>
       <c r="B108" s="0">
-        <v>906.55200000000002</v>
+        <v>545.6099999999999</v>
       </c>
       <c r="C108" s="0">
-        <v>57565</v>
+        <v>23108</v>
       </c>
       <c r="D108" s="0">
-        <v>0.88020317806550785</v>
+        <v>0.97545576517551202</v>
       </c>
       <c r="E108" s="0">
-        <v>57898</v>
+        <v>23268</v>
       </c>
     </row>
     <row r="109">
@@ -2641,16 +2464,16 @@
         <v>108</v>
       </c>
       <c r="B109" s="0">
-        <v>40.640000000000001</v>
+        <v>1083.3199999999997</v>
       </c>
       <c r="C109" s="0">
-        <v>46</v>
+        <v>59343</v>
       </c>
       <c r="D109" s="0">
-        <v>0.349993756551501</v>
+        <v>0.63542725608342232</v>
       </c>
       <c r="E109" s="0">
-        <v>73</v>
+        <v>66052</v>
       </c>
     </row>
     <row r="110">
@@ -2658,16 +2481,16 @@
         <v>109</v>
       </c>
       <c r="B110" s="0">
-        <v>20.113</v>
+        <v>643.42999999999995</v>
       </c>
       <c r="C110" s="0">
-        <v>38</v>
+        <v>31698</v>
       </c>
       <c r="D110" s="0">
-        <v>1.1804286820226635</v>
+        <v>0.96214186664983092</v>
       </c>
       <c r="E110" s="0">
-        <v>40</v>
+        <v>31936</v>
       </c>
     </row>
     <row r="111">
@@ -2675,16 +2498,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="0">
-        <v>29.690000000000001</v>
+        <v>1974.2149999999997</v>
       </c>
       <c r="C111" s="0">
-        <v>35</v>
+        <v>98139</v>
       </c>
       <c r="D111" s="0">
-        <v>0.49895055860436704</v>
+        <v>0.3164190320912762</v>
       </c>
       <c r="E111" s="0">
-        <v>50</v>
+        <v>144277</v>
       </c>
     </row>
     <row r="112">
@@ -2692,16 +2515,16 @@
         <v>111</v>
       </c>
       <c r="B112" s="0">
-        <v>27.340999999999998</v>
+        <v>1227.654</v>
       </c>
       <c r="C112" s="0">
-        <v>40</v>
+        <v>116290</v>
       </c>
       <c r="D112" s="0">
-        <v>0.67242068629239515</v>
+        <v>0.96961710469733642</v>
       </c>
       <c r="E112" s="0">
-        <v>47</v>
+        <v>116749</v>
       </c>
     </row>
     <row r="113">
@@ -2709,16 +2532,16 @@
         <v>112</v>
       </c>
       <c r="B113" s="0">
-        <v>36.338999999999999</v>
+        <v>1658.6759999999999</v>
       </c>
       <c r="C113" s="0">
-        <v>37</v>
+        <v>65242</v>
       </c>
       <c r="D113" s="0">
-        <v>0.35209969121868001</v>
+        <v>0.29799845226976318</v>
       </c>
       <c r="E113" s="0">
-        <v>51</v>
+        <v>92100</v>
       </c>
     </row>
     <row r="114">
@@ -2726,16 +2549,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="0">
-        <v>29.805999999999997</v>
+        <v>626.625</v>
       </c>
       <c r="C114" s="0">
-        <v>44</v>
+        <v>25075</v>
       </c>
       <c r="D114" s="0">
-        <v>0.62237930924863882</v>
+        <v>0.80248213061852469</v>
       </c>
       <c r="E114" s="0">
-        <v>53</v>
+        <v>25514</v>
       </c>
     </row>
     <row r="115">
@@ -2743,16 +2566,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="0">
-        <v>780.16700000000003</v>
+        <v>1052.432</v>
       </c>
       <c r="C115" s="0">
-        <v>42117</v>
+        <v>26486</v>
       </c>
       <c r="D115" s="0">
-        <v>0.86954515616393258</v>
+        <v>0.30049562225064791</v>
       </c>
       <c r="E115" s="0">
-        <v>42435</v>
+        <v>39237</v>
       </c>
     </row>
     <row r="116">
@@ -2760,16 +2583,16 @@
         <v>115</v>
       </c>
       <c r="B116" s="0">
-        <v>35.271999999999998</v>
+        <v>411.88099999999997</v>
       </c>
       <c r="C116" s="0">
-        <v>38</v>
+        <v>12403</v>
       </c>
       <c r="D116" s="0">
-        <v>0.38382502687603309</v>
+        <v>0.91874098516381708</v>
       </c>
       <c r="E116" s="0">
-        <v>52</v>
+        <v>12579</v>
       </c>
     </row>
     <row r="117">
@@ -2777,16 +2600,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="0">
-        <v>25.835999999999999</v>
+        <v>517.36699999999985</v>
       </c>
       <c r="C117" s="0">
-        <v>39</v>
+        <v>19887</v>
       </c>
       <c r="D117" s="0">
-        <v>0.7342161266436128</v>
+        <v>0.93364481512116826</v>
       </c>
       <c r="E117" s="0">
-        <v>45</v>
+        <v>20106</v>
       </c>
     </row>
     <row r="118">
@@ -2794,16 +2617,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="0">
-        <v>42.972000000000001</v>
+        <v>611.755</v>
       </c>
       <c r="C118" s="0">
-        <v>55</v>
+        <v>27948</v>
       </c>
       <c r="D118" s="0">
-        <v>0.37428413550529421</v>
+        <v>0.93843790945967198</v>
       </c>
       <c r="E118" s="0">
-        <v>75</v>
+        <v>28228</v>
       </c>
     </row>
     <row r="119">
@@ -2811,16 +2634,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="0">
-        <v>27.588999999999995</v>
+        <v>1146.126</v>
       </c>
       <c r="C119" s="0">
-        <v>39</v>
+        <v>32825</v>
       </c>
       <c r="D119" s="0">
-        <v>0.64387646744642513</v>
+        <v>0.31401462064021135</v>
       </c>
       <c r="E119" s="0">
-        <v>44</v>
+        <v>48535</v>
       </c>
     </row>
     <row r="120">
@@ -2828,16 +2651,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="0">
-        <v>24.826999999999998</v>
+        <v>1202.4879999999998</v>
       </c>
       <c r="C120" s="0">
-        <v>31</v>
+        <v>31375</v>
       </c>
       <c r="D120" s="0">
-        <v>0.63200871851415263</v>
+        <v>0.27266669639022167</v>
       </c>
       <c r="E120" s="0">
-        <v>38</v>
+        <v>46119</v>
       </c>
     </row>
     <row r="121">
@@ -2845,16 +2668,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="0">
-        <v>19.658000000000001</v>
+        <v>2997.6700000000001</v>
       </c>
       <c r="C121" s="0">
-        <v>30</v>
+        <v>79818</v>
       </c>
       <c r="D121" s="0">
-        <v>0.97555656821373615</v>
+        <v>0.11162026834145101</v>
       </c>
       <c r="E121" s="0">
-        <v>35</v>
+        <v>117564</v>
       </c>
     </row>
     <row r="122">
@@ -2862,16 +2685,16 @@
         <v>121</v>
       </c>
       <c r="B122" s="0">
-        <v>1646.2769999999998</v>
+        <v>1222.4349999999999</v>
       </c>
       <c r="C122" s="0">
-        <v>26028</v>
+        <v>31683</v>
       </c>
       <c r="D122" s="0">
-        <v>0.12068265071789866</v>
+        <v>0.26643091093235044</v>
       </c>
       <c r="E122" s="0">
-        <v>72148</v>
+        <v>41701</v>
       </c>
     </row>
     <row r="123">
@@ -2879,16 +2702,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="0">
-        <v>752.34699999999998</v>
+        <v>2183.886</v>
       </c>
       <c r="C123" s="0">
-        <v>39641</v>
+        <v>50878</v>
       </c>
       <c r="D123" s="0">
-        <v>0.88007174603867777</v>
+        <v>0.13405405841637483</v>
       </c>
       <c r="E123" s="0">
-        <v>39906</v>
+        <v>135771</v>
       </c>
     </row>
     <row r="124">
@@ -2896,16 +2719,16 @@
         <v>123</v>
       </c>
       <c r="B124" s="0">
-        <v>24.314</v>
+        <v>2569.1950000000002</v>
       </c>
       <c r="C124" s="0">
-        <v>30</v>
+        <v>54323</v>
       </c>
       <c r="D124" s="0">
-        <v>0.63770275616139593</v>
+        <v>0.10341879510884197</v>
       </c>
       <c r="E124" s="0">
-        <v>33</v>
+        <v>142415</v>
       </c>
     </row>
     <row r="125">
@@ -2913,16 +2736,16 @@
         <v>124</v>
       </c>
       <c r="B125" s="0">
-        <v>31.277999999999999</v>
+        <v>2456.9209999999998</v>
       </c>
       <c r="C125" s="0">
-        <v>34</v>
+        <v>79745</v>
       </c>
       <c r="D125" s="0">
-        <v>0.4367277924933215</v>
+        <v>0.16600873554949025</v>
       </c>
       <c r="E125" s="0">
-        <v>59</v>
+        <v>109600</v>
       </c>
     </row>
     <row r="126">
@@ -2930,16 +2753,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="0">
-        <v>20.418999999999997</v>
+        <v>1900.903</v>
       </c>
       <c r="C126" s="0">
-        <v>32</v>
+        <v>40366</v>
       </c>
       <c r="D126" s="0">
-        <v>0.96447484281508344</v>
+        <v>0.14038013887630293</v>
       </c>
       <c r="E126" s="0">
-        <v>38</v>
+        <v>111390</v>
       </c>
     </row>
     <row r="127">
@@ -2947,16 +2770,16 @@
         <v>126</v>
       </c>
       <c r="B127" s="0">
-        <v>1966.4409999999998</v>
+        <v>2544.6570000000002</v>
       </c>
       <c r="C127" s="0">
-        <v>32784</v>
+        <v>46444</v>
       </c>
       <c r="D127" s="0">
-        <v>0.10653933063076625</v>
+        <v>0.09013240888803345</v>
       </c>
       <c r="E127" s="0">
-        <v>86798</v>
+        <v>129247</v>
       </c>
     </row>
     <row r="128">
@@ -2964,16 +2787,16 @@
         <v>127</v>
       </c>
       <c r="B128" s="0">
-        <v>888.94499999999994</v>
+        <v>2927.1999999999998</v>
       </c>
       <c r="C128" s="0">
-        <v>55210</v>
+        <v>75613</v>
       </c>
       <c r="D128" s="0">
-        <v>0.87796626343450745</v>
+        <v>0.11089233809958735</v>
       </c>
       <c r="E128" s="0">
-        <v>55512</v>
+        <v>116173</v>
       </c>
     </row>
     <row r="129">
@@ -2981,16 +2804,16 @@
         <v>128</v>
       </c>
       <c r="B129" s="0">
-        <v>878.42799999999988</v>
+        <v>1333.3869999999999</v>
       </c>
       <c r="C129" s="0">
-        <v>58784</v>
+        <v>23102</v>
       </c>
       <c r="D129" s="0">
-        <v>0.95731895400261613</v>
+        <v>0.16328527060845435</v>
       </c>
       <c r="E129" s="0">
-        <v>59188</v>
+        <v>30719</v>
       </c>
     </row>
     <row r="130">
@@ -2998,16 +2821,16 @@
         <v>129</v>
       </c>
       <c r="B130" s="0">
-        <v>1414.0539999999999</v>
+        <v>1865.0419999999999</v>
       </c>
       <c r="C130" s="0">
-        <v>109410</v>
+        <v>36338</v>
       </c>
       <c r="D130" s="0">
-        <v>0.68759845592198809</v>
+        <v>0.13127851391471757</v>
       </c>
       <c r="E130" s="0">
-        <v>121255</v>
+        <v>108155</v>
       </c>
     </row>
     <row r="131">
@@ -3015,16 +2838,16 @@
         <v>130</v>
       </c>
       <c r="B131" s="0">
-        <v>716.07600000000002</v>
+        <v>600.47799999999995</v>
       </c>
       <c r="C131" s="0">
-        <v>39461</v>
+        <v>9160</v>
       </c>
       <c r="D131" s="0">
-        <v>0.96707401576909968</v>
+        <v>0.31923546784160961</v>
       </c>
       <c r="E131" s="0">
-        <v>39716</v>
+        <v>12786</v>
       </c>
     </row>
     <row r="132">
@@ -3032,16 +2855,16 @@
         <v>131</v>
       </c>
       <c r="B132" s="0">
-        <v>51.440000000000005</v>
+        <v>869.34099999999989</v>
       </c>
       <c r="C132" s="0">
-        <v>38</v>
+        <v>22027</v>
       </c>
       <c r="D132" s="0">
-        <v>0.18046439953357624</v>
+        <v>0.36625612063377089</v>
       </c>
       <c r="E132" s="0">
-        <v>61</v>
+        <v>30208</v>
       </c>
     </row>
     <row r="133">
@@ -3049,16 +2872,16 @@
         <v>132</v>
       </c>
       <c r="B133" s="0">
-        <v>1636.7339999999999</v>
+        <v>936.33500000000004</v>
       </c>
       <c r="C133" s="0">
-        <v>133127</v>
+        <v>21884</v>
       </c>
       <c r="D133" s="0">
-        <v>0.6244818220596926</v>
+        <v>0.313670773645086</v>
       </c>
       <c r="E133" s="0">
-        <v>148339</v>
+        <v>30252</v>
       </c>
     </row>
     <row r="134">
@@ -3066,16 +2889,16 @@
         <v>133</v>
       </c>
       <c r="B134" s="0">
-        <v>1451</v>
+        <v>1433.489</v>
       </c>
       <c r="C134" s="0">
-        <v>120546</v>
+        <v>28690</v>
       </c>
       <c r="D134" s="0">
-        <v>0.71949510429535313</v>
+        <v>0.17544931738894637</v>
       </c>
       <c r="E134" s="0">
-        <v>134064</v>
+        <v>41747</v>
       </c>
     </row>
     <row r="135">
@@ -3083,16 +2906,16 @@
         <v>134</v>
       </c>
       <c r="B135" s="0">
-        <v>893.42099999999994</v>
+        <v>828.26200000000006</v>
       </c>
       <c r="C135" s="0">
-        <v>60968</v>
+        <v>22784</v>
       </c>
       <c r="D135" s="0">
-        <v>0.95984144810403416</v>
+        <v>0.41735379078976204</v>
       </c>
       <c r="E135" s="0">
-        <v>61306</v>
+        <v>31201</v>
       </c>
     </row>
     <row r="136">
@@ -3100,16 +2923,16 @@
         <v>135</v>
       </c>
       <c r="B136" s="0">
-        <v>1070.6589999999999</v>
+        <v>749.2299999999999</v>
       </c>
       <c r="C136" s="0">
-        <v>59599</v>
+        <v>12037</v>
       </c>
       <c r="D136" s="0">
-        <v>0.65335089865400908</v>
+        <v>0.26946217267619599</v>
       </c>
       <c r="E136" s="0">
-        <v>66272</v>
+        <v>17657</v>
       </c>
     </row>
     <row r="137">
@@ -3117,16 +2940,16 @@
         <v>136</v>
       </c>
       <c r="B137" s="0">
-        <v>545.6099999999999</v>
+        <v>1231.8419999999999</v>
       </c>
       <c r="C137" s="0">
-        <v>23108</v>
+        <v>20795</v>
       </c>
       <c r="D137" s="0">
-        <v>0.97545576517551202</v>
+        <v>0.17221016146069845</v>
       </c>
       <c r="E137" s="0">
-        <v>23268</v>
+        <v>29991</v>
       </c>
     </row>
     <row r="138">
@@ -3134,16 +2957,16 @@
         <v>137</v>
       </c>
       <c r="B138" s="0">
-        <v>1083.3199999999997</v>
+        <v>1118.271</v>
       </c>
       <c r="C138" s="0">
-        <v>59343</v>
+        <v>24656</v>
       </c>
       <c r="D138" s="0">
-        <v>0.63542725608342232</v>
+        <v>0.24776408928471705</v>
       </c>
       <c r="E138" s="0">
-        <v>66052</v>
+        <v>38059</v>
       </c>
     </row>
     <row r="139">
@@ -3151,16 +2974,16 @@
         <v>138</v>
       </c>
       <c r="B139" s="0">
-        <v>643.42999999999995</v>
+        <v>448.16999999999996</v>
       </c>
       <c r="C139" s="0">
-        <v>31698</v>
+        <v>6244</v>
       </c>
       <c r="D139" s="0">
-        <v>0.96214186664983092</v>
+        <v>0.39064942953395831</v>
       </c>
       <c r="E139" s="0">
-        <v>31936</v>
+        <v>7546</v>
       </c>
     </row>
     <row r="140">
@@ -3168,16 +2991,16 @@
         <v>139</v>
       </c>
       <c r="B140" s="0">
-        <v>2045.7830000000001</v>
+        <v>1293.319</v>
       </c>
       <c r="C140" s="0">
-        <v>103113</v>
+        <v>12510</v>
       </c>
       <c r="D140" s="0">
-        <v>0.30960228389800343</v>
+        <v>0.093984418377195109</v>
       </c>
       <c r="E140" s="0">
-        <v>149136</v>
+        <v>28470</v>
       </c>
     </row>
     <row r="141">
@@ -3185,16 +3008,16 @@
         <v>140</v>
       </c>
       <c r="B141" s="0">
-        <v>17.879999999999999</v>
+        <v>816.61599999999999</v>
       </c>
       <c r="C141" s="0">
-        <v>31</v>
+        <v>20662</v>
       </c>
       <c r="D141" s="0">
-        <v>1.2185308502280126</v>
+        <v>0.38935562345317426</v>
       </c>
       <c r="E141" s="0">
-        <v>32</v>
+        <v>26148</v>
       </c>
     </row>
     <row r="142">
@@ -3202,16 +3025,16 @@
         <v>141</v>
       </c>
       <c r="B142" s="0">
-        <v>1244.318</v>
+        <v>2501.8019999999997</v>
       </c>
       <c r="C142" s="0">
-        <v>117695</v>
+        <v>53979</v>
       </c>
       <c r="D142" s="0">
-        <v>0.95522374608192429</v>
+        <v>0.10837492949795405</v>
       </c>
       <c r="E142" s="0">
-        <v>118289</v>
+        <v>80228</v>
       </c>
     </row>
     <row r="143">
@@ -3219,16 +3042,16 @@
         <v>142</v>
       </c>
       <c r="B143" s="0">
-        <v>1683.0409999999999</v>
+        <v>1336.0009999999997</v>
       </c>
       <c r="C143" s="0">
-        <v>68864</v>
+        <v>100077</v>
       </c>
       <c r="D143" s="0">
-        <v>0.30550105737207073</v>
+        <v>0.70458042896259088</v>
       </c>
       <c r="E143" s="0">
-        <v>95535</v>
+        <v>111692</v>
       </c>
     </row>
     <row r="144">
@@ -3236,16 +3059,16 @@
         <v>143</v>
       </c>
       <c r="B144" s="0">
-        <v>50.646000000000001</v>
+        <v>1708.3849999999998</v>
       </c>
       <c r="C144" s="0">
-        <v>41</v>
+        <v>171332</v>
       </c>
       <c r="D144" s="0">
-        <v>0.20086460702424594</v>
+        <v>0.73769501621280076</v>
       </c>
       <c r="E144" s="0">
-        <v>62</v>
+        <v>190508</v>
       </c>
     </row>
     <row r="145">
@@ -3253,16 +3076,16 @@
         <v>144</v>
       </c>
       <c r="B145" s="0">
-        <v>19.376999999999999</v>
+        <v>3016.5369999999998</v>
       </c>
       <c r="C145" s="0">
-        <v>35</v>
+        <v>100333</v>
       </c>
       <c r="D145" s="0">
-        <v>1.1713989484912342</v>
+        <v>0.1385595131816964</v>
       </c>
       <c r="E145" s="0">
-        <v>36</v>
+        <v>146419</v>
       </c>
     </row>
     <row r="146">
@@ -3270,16 +3093,16 @@
         <v>145</v>
       </c>
       <c r="B146" s="0">
-        <v>626.625</v>
+        <v>1655.5079999999998</v>
       </c>
       <c r="C146" s="0">
-        <v>25075</v>
+        <v>154468</v>
       </c>
       <c r="D146" s="0">
-        <v>0.80248213061852469</v>
+        <v>0.7082487553666551</v>
       </c>
       <c r="E146" s="0">
-        <v>25514</v>
+        <v>171438</v>
       </c>
     </row>
     <row r="147">
@@ -3287,16 +3110,16 @@
         <v>146</v>
       </c>
       <c r="B147" s="0">
-        <v>1052.432</v>
+        <v>1362.6769999999999</v>
       </c>
       <c r="C147" s="0">
-        <v>26486</v>
+        <v>108185</v>
       </c>
       <c r="D147" s="0">
-        <v>0.30049562225064791</v>
+        <v>0.73213481965518334</v>
       </c>
       <c r="E147" s="0">
-        <v>39237</v>
+        <v>120221</v>
       </c>
     </row>
     <row r="148">
@@ -3304,16 +3127,16 @@
         <v>147</v>
       </c>
       <c r="B148" s="0">
-        <v>411.88099999999997</v>
+        <v>1539.0640000000001</v>
       </c>
       <c r="C148" s="0">
-        <v>12403</v>
+        <v>124176</v>
       </c>
       <c r="D148" s="0">
-        <v>0.91874098516381708</v>
+        <v>0.65877054169407456</v>
       </c>
       <c r="E148" s="0">
-        <v>12579</v>
+        <v>137920</v>
       </c>
     </row>
     <row r="149">
@@ -3321,16 +3144,16 @@
         <v>148</v>
       </c>
       <c r="B149" s="0">
-        <v>517.36699999999985</v>
+        <v>2291.2809999999999</v>
       </c>
       <c r="C149" s="0">
-        <v>19887</v>
+        <v>59510</v>
       </c>
       <c r="D149" s="0">
-        <v>0.93364481512116826</v>
+        <v>0.14244365428676145</v>
       </c>
       <c r="E149" s="0">
-        <v>20106</v>
+        <v>85187</v>
       </c>
     </row>
     <row r="150">
@@ -3338,16 +3161,16 @@
         <v>149</v>
       </c>
       <c r="B150" s="0">
-        <v>611.755</v>
+        <v>1368.2360000000001</v>
       </c>
       <c r="C150" s="0">
-        <v>27948</v>
+        <v>96436</v>
       </c>
       <c r="D150" s="0">
-        <v>0.93843790945967198</v>
+        <v>0.64733192524929473</v>
       </c>
       <c r="E150" s="0">
-        <v>28228</v>
+        <v>107502</v>
       </c>
     </row>
     <row r="151">
@@ -3355,16 +3178,16 @@
         <v>150</v>
       </c>
       <c r="B151" s="0">
-        <v>1146.126</v>
+        <v>936.37300000000005</v>
       </c>
       <c r="C151" s="0">
-        <v>32825</v>
+        <v>19664</v>
       </c>
       <c r="D151" s="0">
-        <v>0.31401462064021135</v>
+        <v>0.28182788705486983</v>
       </c>
       <c r="E151" s="0">
-        <v>48535</v>
+        <v>25598</v>
       </c>
     </row>
     <row r="152">
@@ -3372,16 +3195,16 @@
         <v>151</v>
       </c>
       <c r="B152" s="0">
-        <v>1202.4879999999998</v>
+        <v>1700.1689999999999</v>
       </c>
       <c r="C152" s="0">
-        <v>31375</v>
+        <v>33007</v>
       </c>
       <c r="D152" s="0">
-        <v>0.27266669639022167</v>
+        <v>0.1434933354668792</v>
       </c>
       <c r="E152" s="0">
-        <v>46119</v>
+        <v>92068</v>
       </c>
     </row>
     <row r="153">
@@ -3389,16 +3212,16 @@
         <v>152</v>
       </c>
       <c r="B153" s="0">
-        <v>46.105999999999995</v>
+        <v>2229.4879999999998</v>
       </c>
       <c r="C153" s="0">
-        <v>40</v>
+        <v>41219</v>
       </c>
       <c r="D153" s="0">
-        <v>0.23645851808040538</v>
+        <v>0.10420703450370043</v>
       </c>
       <c r="E153" s="0">
-        <v>71</v>
+        <v>107899</v>
       </c>
     </row>
     <row r="154">
@@ -3406,16 +3229,16 @@
         <v>153</v>
       </c>
       <c r="B154" s="0">
-        <v>2831.5900000000001</v>
+        <v>1740.4770000000001</v>
       </c>
       <c r="C154" s="0">
-        <v>81242</v>
+        <v>64815</v>
       </c>
       <c r="D154" s="0">
-        <v>0.12732970428009391</v>
+        <v>0.26887400254452137</v>
       </c>
       <c r="E154" s="0">
-        <v>118146</v>
+        <v>95074</v>
       </c>
     </row>
     <row r="155">
@@ -3423,16 +3246,16 @@
         <v>154</v>
       </c>
       <c r="B155" s="0">
-        <v>39.927999999999997</v>
+        <v>1832.3680000000002</v>
       </c>
       <c r="C155" s="0">
-        <v>39</v>
+        <v>83100</v>
       </c>
       <c r="D155" s="0">
-        <v>0.30741096719537447</v>
+        <v>0.31101797562513067</v>
       </c>
       <c r="E155" s="0">
-        <v>56</v>
+        <v>121863</v>
       </c>
     </row>
     <row r="156">
@@ -3440,16 +3263,16 @@
         <v>155</v>
       </c>
       <c r="B156" s="0">
-        <v>26.232999999999997</v>
+        <v>2338.1549999999997</v>
       </c>
       <c r="C156" s="0">
-        <v>43</v>
+        <v>42177</v>
       </c>
       <c r="D156" s="0">
-        <v>0.78520381518162952</v>
+        <v>0.096948022277282997</v>
       </c>
       <c r="E156" s="0">
-        <v>50</v>
+        <v>116002</v>
       </c>
     </row>
     <row r="157">
@@ -3457,16 +3280,16 @@
         <v>156</v>
       </c>
       <c r="B157" s="0">
-        <v>26.878</v>
+        <v>1944.4919999999997</v>
       </c>
       <c r="C157" s="0">
-        <v>37</v>
+        <v>82534</v>
       </c>
       <c r="D157" s="0">
-        <v>0.64360245033639896</v>
+        <v>0.27430292345170915</v>
       </c>
       <c r="E157" s="0">
-        <v>43</v>
+        <v>121100</v>
       </c>
     </row>
     <row r="158">
@@ -3474,16 +3297,16 @@
         <v>157</v>
       </c>
       <c r="B158" s="0">
-        <v>35.892000000000003</v>
+        <v>1658.9789999999998</v>
       </c>
       <c r="C158" s="0">
-        <v>30</v>
+        <v>61290</v>
       </c>
       <c r="D158" s="0">
-        <v>0.29264142343351168</v>
+        <v>0.27984510080097041</v>
       </c>
       <c r="E158" s="0">
-        <v>44</v>
+        <v>89750</v>
       </c>
     </row>
     <row r="159">
@@ -3491,16 +3314,16 @@
         <v>158</v>
       </c>
       <c r="B159" s="0">
-        <v>1160.4069999999999</v>
+        <v>1659.4349999999999</v>
       </c>
       <c r="C159" s="0">
-        <v>32641</v>
+        <v>61505</v>
       </c>
       <c r="D159" s="0">
-        <v>0.30461594991039453</v>
+        <v>0.28067245624616149</v>
       </c>
       <c r="E159" s="0">
-        <v>42241</v>
+        <v>90950</v>
       </c>
     </row>
     <row r="160">
@@ -3508,16 +3331,16 @@
         <v>159</v>
       </c>
       <c r="B160" s="0">
-        <v>53.093999999999994</v>
+        <v>1866.5160000000001</v>
       </c>
       <c r="C160" s="0">
-        <v>34</v>
+        <v>30282</v>
       </c>
       <c r="D160" s="0">
-        <v>0.15156463923024904</v>
+        <v>0.1092272463071544</v>
       </c>
       <c r="E160" s="0">
-        <v>49</v>
+        <v>84720</v>
       </c>
     </row>
     <row r="161">
@@ -3525,16 +3348,16 @@
         <v>160</v>
       </c>
       <c r="B161" s="0">
-        <v>25.562999999999999</v>
+        <v>2203.2840000000001</v>
       </c>
       <c r="C161" s="0">
-        <v>38</v>
+        <v>40013</v>
       </c>
       <c r="D161" s="0">
-        <v>0.73075167682369657</v>
+        <v>0.10357859526089933</v>
       </c>
       <c r="E161" s="0">
-        <v>44</v>
+        <v>109490</v>
       </c>
     </row>
     <row r="162">
@@ -3542,16 +3365,16 @@
         <v>161</v>
       </c>
       <c r="B162" s="0">
-        <v>2108.873</v>
+        <v>1334.8629999999998</v>
       </c>
       <c r="C162" s="0">
-        <v>52044</v>
+        <v>102433</v>
       </c>
       <c r="D162" s="0">
-        <v>0.1470549605903301</v>
+        <v>0.72239771826976773</v>
       </c>
       <c r="E162" s="0">
-        <v>136424</v>
+        <v>113642</v>
       </c>
     </row>
     <row r="163">
@@ -3559,16 +3382,16 @@
         <v>162</v>
       </c>
       <c r="B163" s="0">
-        <v>23.760000000000002</v>
+        <v>1231.6510000000001</v>
       </c>
       <c r="C163" s="0">
-        <v>32</v>
+        <v>90025</v>
       </c>
       <c r="D163" s="0">
-        <v>0.71230660218113628</v>
+        <v>0.74575756312950303</v>
       </c>
       <c r="E163" s="0">
-        <v>37</v>
+        <v>100140</v>
       </c>
     </row>
     <row r="164">
@@ -3576,16 +3399,16 @@
         <v>163</v>
       </c>
       <c r="B164" s="0">
-        <v>26.637999999999998</v>
+        <v>1610.7269999999999</v>
       </c>
       <c r="C164" s="0">
-        <v>32</v>
+        <v>26650</v>
       </c>
       <c r="D164" s="0">
-        <v>0.56670443728851783</v>
+        <v>0.12908126120206928</v>
       </c>
       <c r="E164" s="0">
-        <v>34</v>
+        <v>71768</v>
       </c>
     </row>
     <row r="165">
@@ -3593,16 +3416,16 @@
         <v>164</v>
       </c>
       <c r="B165" s="0">
-        <v>23.049000000000003</v>
+        <v>1500.4090000000001</v>
       </c>
       <c r="C165" s="0">
-        <v>38</v>
+        <v>123104</v>
       </c>
       <c r="D165" s="0">
-        <v>0.89885426782019784</v>
+        <v>0.68716765264452639</v>
       </c>
       <c r="E165" s="0">
-        <v>42</v>
+        <v>136804</v>
       </c>
     </row>
     <row r="166">
@@ -3610,16 +3433,16 @@
         <v>165</v>
       </c>
       <c r="B166" s="0">
-        <v>2526.3679999999999</v>
+        <v>1693.471</v>
       </c>
       <c r="C166" s="0">
-        <v>52531</v>
+        <v>33600</v>
       </c>
       <c r="D166" s="0">
-        <v>0.10342661445184965</v>
+        <v>0.14722908517459921</v>
       </c>
       <c r="E166" s="0">
-        <v>140825</v>
+        <v>96056</v>
       </c>
     </row>
     <row r="167">
@@ -3627,16 +3450,16 @@
         <v>166</v>
       </c>
       <c r="B167" s="0">
-        <v>23.206</v>
+        <v>1748.4769999999996</v>
       </c>
       <c r="C167" s="0">
-        <v>38</v>
+        <v>32236</v>
       </c>
       <c r="D167" s="0">
-        <v>0.88673302792116215</v>
+        <v>0.13250466347255949</v>
       </c>
       <c r="E167" s="0">
-        <v>41</v>
+        <v>91147</v>
       </c>
     </row>
     <row r="168">
@@ -3644,16 +3467,16 @@
         <v>167</v>
       </c>
       <c r="B168" s="0">
-        <v>32.335999999999999</v>
+        <v>1232.796</v>
       </c>
       <c r="C168" s="0">
-        <v>31</v>
+        <v>86460</v>
       </c>
       <c r="D168" s="0">
-        <v>0.37256235102491531</v>
+        <v>0.71489566249440284</v>
       </c>
       <c r="E168" s="0">
-        <v>37</v>
+        <v>96213</v>
       </c>
     </row>
     <row r="169">
@@ -3661,16 +3484,16 @@
         <v>168</v>
       </c>
       <c r="B169" s="0">
-        <v>2882.6349999999998</v>
+        <v>1242.557</v>
       </c>
       <c r="C169" s="0">
-        <v>73338</v>
+        <v>83804</v>
       </c>
       <c r="D169" s="0">
-        <v>0.11090716790014118</v>
+        <v>0.68209045406266389</v>
       </c>
       <c r="E169" s="0">
-        <v>104932</v>
+        <v>93437</v>
       </c>
     </row>
     <row r="170">
@@ -3678,16 +3501,16 @@
         <v>169</v>
       </c>
       <c r="B170" s="0">
-        <v>46.055999999999997</v>
+        <v>1500.894</v>
       </c>
       <c r="C170" s="0">
-        <v>38</v>
+        <v>21860</v>
       </c>
       <c r="D170" s="0">
-        <v>0.225123601400576</v>
+        <v>0.12194387142435527</v>
       </c>
       <c r="E170" s="0">
-        <v>43</v>
+        <v>63196</v>
       </c>
     </row>
     <row r="171">
@@ -3695,16 +3518,16 @@
         <v>170</v>
       </c>
       <c r="B171" s="0">
-        <v>27.977999999999998</v>
+        <v>1188.5639999999999</v>
       </c>
       <c r="C171" s="0">
-        <v>50</v>
+        <v>78077</v>
       </c>
       <c r="D171" s="0">
-        <v>0.80268756798588581</v>
+        <v>0.6945249277843627</v>
       </c>
       <c r="E171" s="0">
-        <v>53</v>
+        <v>86653</v>
       </c>
     </row>
     <row r="172">
@@ -3712,16 +3535,16 @@
         <v>171</v>
       </c>
       <c r="B172" s="0">
-        <v>29.548999999999996</v>
+        <v>957.87399999999991</v>
       </c>
       <c r="C172" s="0">
-        <v>32</v>
+        <v>26909</v>
       </c>
       <c r="D172" s="0">
-        <v>0.46054732727630565</v>
+        <v>0.36854510930574419</v>
       </c>
       <c r="E172" s="0">
-        <v>42</v>
+        <v>37713</v>
       </c>
     </row>
     <row r="173">
@@ -3729,16 +3552,16 @@
         <v>172</v>
       </c>
       <c r="B173" s="0">
-        <v>38.480999999999995</v>
+        <v>856.27099999999996</v>
       </c>
       <c r="C173" s="0">
-        <v>37</v>
+        <v>22925</v>
       </c>
       <c r="D173" s="0">
-        <v>0.31399222128509879</v>
+        <v>0.39291330651674389</v>
       </c>
       <c r="E173" s="0">
-        <v>56</v>
+        <v>32311</v>
       </c>
     </row>
     <row r="174">
@@ -3746,16 +3569,16 @@
         <v>173</v>
       </c>
       <c r="B174" s="0">
-        <v>1808.7860000000001</v>
+        <v>1106.5149999999999</v>
       </c>
       <c r="C174" s="0">
-        <v>39241</v>
+        <v>62986</v>
       </c>
       <c r="D174" s="0">
-        <v>0.15072162035214928</v>
+        <v>0.64645646284630798</v>
       </c>
       <c r="E174" s="0">
-        <v>110031</v>
+        <v>69767</v>
       </c>
     </row>
     <row r="175">
@@ -3763,16 +3586,16 @@
         <v>174</v>
       </c>
       <c r="B175" s="0">
-        <v>23.181000000000001</v>
+        <v>1367.6689999999999</v>
       </c>
       <c r="C175" s="0">
-        <v>30</v>
+        <v>79777</v>
       </c>
       <c r="D175" s="0">
-        <v>0.70156317490611286</v>
+        <v>0.53595158345278282</v>
       </c>
       <c r="E175" s="0">
-        <v>31</v>
+        <v>88902</v>
       </c>
     </row>
     <row r="176">
@@ -3780,16 +3603,16 @@
         <v>175</v>
       </c>
       <c r="B176" s="0">
-        <v>45.071999999999996</v>
+        <v>1300.22</v>
       </c>
       <c r="C176" s="0">
-        <v>50</v>
+        <v>34833</v>
       </c>
       <c r="D176" s="0">
-        <v>0.30929023537390404</v>
+        <v>0.25892087120702512</v>
       </c>
       <c r="E176" s="0">
-        <v>64</v>
+        <v>49170</v>
       </c>
     </row>
     <row r="177">
@@ -3797,16 +3620,16 @@
         <v>176</v>
       </c>
       <c r="B177" s="0">
-        <v>2480.9520000000002</v>
+        <v>1274.5710000000001</v>
       </c>
       <c r="C177" s="0">
-        <v>49406</v>
+        <v>92727</v>
       </c>
       <c r="D177" s="0">
-        <v>0.1008678663437553</v>
+        <v>0.71727882083200034</v>
       </c>
       <c r="E177" s="0">
-        <v>131876</v>
+        <v>102695</v>
       </c>
     </row>
     <row r="178">
@@ -3814,16 +3637,16 @@
         <v>177</v>
       </c>
       <c r="B178" s="0">
-        <v>2721.732</v>
+        <v>1057.223</v>
       </c>
       <c r="C178" s="0">
-        <v>81869</v>
+        <v>61258</v>
       </c>
       <c r="D178" s="0">
-        <v>0.1388796555994562</v>
+        <v>0.68871488942456804</v>
       </c>
       <c r="E178" s="0">
-        <v>119107</v>
+        <v>67937</v>
       </c>
     </row>
     <row r="179">
@@ -3831,16 +3654,16 @@
         <v>178</v>
       </c>
       <c r="B179" s="0">
-        <v>1150.0550000000001</v>
+        <v>1076.537</v>
       </c>
       <c r="C179" s="0">
-        <v>25491</v>
+        <v>60563</v>
       </c>
       <c r="D179" s="0">
-        <v>0.24219184523975534</v>
+        <v>0.6566883657226591</v>
       </c>
       <c r="E179" s="0">
-        <v>32390</v>
+        <v>67509</v>
       </c>
     </row>
     <row r="180">
@@ -3848,16 +3671,16 @@
         <v>179</v>
       </c>
       <c r="B180" s="0">
-        <v>26.134</v>
+        <v>954.58899999999994</v>
       </c>
       <c r="C180" s="0">
-        <v>40</v>
+        <v>28910</v>
       </c>
       <c r="D180" s="0">
-        <v>0.73596656001279026</v>
+        <v>0.39868060127123911</v>
       </c>
       <c r="E180" s="0">
-        <v>45</v>
+        <v>40247</v>
       </c>
     </row>
     <row r="181">
@@ -3865,1018 +3688,15 @@
         <v>180</v>
       </c>
       <c r="B181" s="0">
-        <v>1726.4879999999998</v>
+        <v>1101.8240000000001</v>
       </c>
       <c r="C181" s="0">
-        <v>38762</v>
+        <v>29301</v>
       </c>
       <c r="D181" s="0">
-        <v>0.16341386918482845</v>
+        <v>0.30329681557732485</v>
       </c>
       <c r="E181" s="0">
-        <v>109377</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="B182" s="0">
-        <v>29.135999999999999</v>
-      </c>
-      <c r="C182" s="0">
-        <v>36</v>
-      </c>
-      <c r="D182" s="0">
-        <v>0.5329083288307529</v>
-      </c>
-      <c r="E182" s="0">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="B183" s="0">
-        <v>23.049000000000003</v>
-      </c>
-      <c r="C183" s="0">
-        <v>33</v>
-      </c>
-      <c r="D183" s="0">
-        <v>0.7805839694228035</v>
-      </c>
-      <c r="E183" s="0">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="B184" s="0">
-        <v>37.183000000000007</v>
-      </c>
-      <c r="C184" s="0">
-        <v>40</v>
-      </c>
-      <c r="D184" s="0">
-        <v>0.36356410812543105</v>
-      </c>
-      <c r="E184" s="0">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="B185" s="0">
-        <v>600.47799999999995</v>
-      </c>
-      <c r="C185" s="0">
-        <v>9160</v>
-      </c>
-      <c r="D185" s="0">
-        <v>0.31923546784160961</v>
-      </c>
-      <c r="E185" s="0">
-        <v>12786</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="B186" s="0">
-        <v>869.34099999999989</v>
-      </c>
-      <c r="C186" s="0">
-        <v>22027</v>
-      </c>
-      <c r="D186" s="0">
-        <v>0.36625612063377089</v>
-      </c>
-      <c r="E186" s="0">
-        <v>30208</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="B187" s="0">
-        <v>936.33500000000004</v>
-      </c>
-      <c r="C187" s="0">
-        <v>21884</v>
-      </c>
-      <c r="D187" s="0">
-        <v>0.313670773645086</v>
-      </c>
-      <c r="E187" s="0">
-        <v>30252</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="B188" s="0">
-        <v>1433.489</v>
-      </c>
-      <c r="C188" s="0">
-        <v>28690</v>
-      </c>
-      <c r="D188" s="0">
-        <v>0.17544931738894637</v>
-      </c>
-      <c r="E188" s="0">
-        <v>41747</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="B189" s="0">
-        <v>828.26200000000006</v>
-      </c>
-      <c r="C189" s="0">
-        <v>22784</v>
-      </c>
-      <c r="D189" s="0">
-        <v>0.41735379078976204</v>
-      </c>
-      <c r="E189" s="0">
-        <v>31201</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="B190" s="0">
-        <v>749.2299999999999</v>
-      </c>
-      <c r="C190" s="0">
-        <v>12037</v>
-      </c>
-      <c r="D190" s="0">
-        <v>0.26946217267619599</v>
-      </c>
-      <c r="E190" s="0">
-        <v>17657</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="B191" s="0">
-        <v>1231.8419999999999</v>
-      </c>
-      <c r="C191" s="0">
-        <v>20795</v>
-      </c>
-      <c r="D191" s="0">
-        <v>0.17221016146069845</v>
-      </c>
-      <c r="E191" s="0">
-        <v>29991</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="B192" s="0">
-        <v>1118.271</v>
-      </c>
-      <c r="C192" s="0">
-        <v>24656</v>
-      </c>
-      <c r="D192" s="0">
-        <v>0.24776408928471705</v>
-      </c>
-      <c r="E192" s="0">
-        <v>38059</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="B193" s="0">
-        <v>448.16999999999996</v>
-      </c>
-      <c r="C193" s="0">
-        <v>6244</v>
-      </c>
-      <c r="D193" s="0">
-        <v>0.39064942953395831</v>
-      </c>
-      <c r="E193" s="0">
-        <v>7546</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="B194" s="0">
-        <v>1293.319</v>
-      </c>
-      <c r="C194" s="0">
-        <v>12510</v>
-      </c>
-      <c r="D194" s="0">
-        <v>0.093984418377195109</v>
-      </c>
-      <c r="E194" s="0">
-        <v>28470</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="B195" s="0">
-        <v>877.19399999999996</v>
-      </c>
-      <c r="C195" s="0">
-        <v>19142</v>
-      </c>
-      <c r="D195" s="0">
-        <v>0.31261216274292403</v>
-      </c>
-      <c r="E195" s="0">
-        <v>25028</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="B196" s="0">
-        <v>2528.8789999999999</v>
-      </c>
-      <c r="C196" s="0">
-        <v>51583</v>
-      </c>
-      <c r="D196" s="0">
-        <v>0.10135854333612644</v>
-      </c>
-      <c r="E196" s="0">
-        <v>78871</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="B197" s="0">
-        <v>43.600000000000001</v>
-      </c>
-      <c r="C197" s="0">
-        <v>112</v>
-      </c>
-      <c r="D197" s="0">
-        <v>0.74038039138552481</v>
-      </c>
-      <c r="E197" s="0">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="B198" s="0">
-        <v>1313.9369999999999</v>
-      </c>
-      <c r="C198" s="0">
-        <v>99637</v>
-      </c>
-      <c r="D198" s="0">
-        <v>0.72523945356604547</v>
-      </c>
-      <c r="E198" s="0">
-        <v>110843</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="B199" s="0">
-        <v>1724.5699999999999</v>
-      </c>
-      <c r="C199" s="0">
-        <v>171885</v>
-      </c>
-      <c r="D199" s="0">
-        <v>0.72625007208483128</v>
-      </c>
-      <c r="E199" s="0">
-        <v>191168</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="B200" s="0">
-        <v>20.691999999999997</v>
-      </c>
-      <c r="C200" s="0">
-        <v>32</v>
-      </c>
-      <c r="D200" s="0">
-        <v>0.93919312075597627</v>
-      </c>
-      <c r="E200" s="0">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="B201" s="0">
-        <v>2931.8719999999998</v>
-      </c>
-      <c r="C201" s="0">
-        <v>103460</v>
-      </c>
-      <c r="D201" s="0">
-        <v>0.15124893534071196</v>
-      </c>
-      <c r="E201" s="0">
-        <v>148635</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="B202" s="0">
-        <v>24.735999999999997</v>
-      </c>
-      <c r="C202" s="0">
-        <v>35</v>
-      </c>
-      <c r="D202" s="0">
-        <v>0.71881803328035898</v>
-      </c>
-      <c r="E202" s="0">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="B203" s="0">
-        <v>1659.1639999999998</v>
-      </c>
-      <c r="C203" s="0">
-        <v>154834</v>
-      </c>
-      <c r="D203" s="0">
-        <v>0.70680166783565879</v>
-      </c>
-      <c r="E203" s="0">
-        <v>171774</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="B204" s="0">
-        <v>1362.6769999999999</v>
-      </c>
-      <c r="C204" s="0">
-        <v>108185</v>
-      </c>
-      <c r="D204" s="0">
-        <v>0.73213481965518334</v>
-      </c>
-      <c r="E204" s="0">
-        <v>120221</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="B205" s="0">
-        <v>1539.0640000000001</v>
-      </c>
-      <c r="C205" s="0">
-        <v>124176</v>
-      </c>
-      <c r="D205" s="0">
-        <v>0.65877054169407456</v>
-      </c>
-      <c r="E205" s="0">
-        <v>137920</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="B206" s="0">
-        <v>2291.2809999999999</v>
-      </c>
-      <c r="C206" s="0">
-        <v>59510</v>
-      </c>
-      <c r="D206" s="0">
-        <v>0.14244365428676145</v>
-      </c>
-      <c r="E206" s="0">
-        <v>85187</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="B207" s="0">
-        <v>1368.2360000000001</v>
-      </c>
-      <c r="C207" s="0">
-        <v>96436</v>
-      </c>
-      <c r="D207" s="0">
-        <v>0.64733192524929473</v>
-      </c>
-      <c r="E207" s="0">
-        <v>107502</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="B208" s="0">
-        <v>936.37300000000005</v>
-      </c>
-      <c r="C208" s="0">
-        <v>19664</v>
-      </c>
-      <c r="D208" s="0">
-        <v>0.28182788705486983</v>
-      </c>
-      <c r="E208" s="0">
-        <v>25598</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="B209" s="0">
-        <v>1700.1689999999999</v>
-      </c>
-      <c r="C209" s="0">
-        <v>33007</v>
-      </c>
-      <c r="D209" s="0">
-        <v>0.1434933354668792</v>
-      </c>
-      <c r="E209" s="0">
-        <v>92068</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="B210" s="0">
-        <v>2229.4879999999998</v>
-      </c>
-      <c r="C210" s="0">
-        <v>41219</v>
-      </c>
-      <c r="D210" s="0">
-        <v>0.10420703450370043</v>
-      </c>
-      <c r="E210" s="0">
-        <v>107899</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="B211" s="0">
-        <v>1740.4770000000001</v>
-      </c>
-      <c r="C211" s="0">
-        <v>64815</v>
-      </c>
-      <c r="D211" s="0">
-        <v>0.26887400254452137</v>
-      </c>
-      <c r="E211" s="0">
-        <v>95074</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="B212" s="0">
-        <v>26.878</v>
-      </c>
-      <c r="C212" s="0">
-        <v>35</v>
-      </c>
-      <c r="D212" s="0">
-        <v>0.60881312869659354</v>
-      </c>
-      <c r="E212" s="0">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="B213" s="0">
-        <v>33.676000000000002</v>
-      </c>
-      <c r="C213" s="0">
-        <v>43</v>
-      </c>
-      <c r="D213" s="0">
-        <v>0.47647192716233489</v>
-      </c>
-      <c r="E213" s="0">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="B214" s="0">
-        <v>1787.4559999999999</v>
-      </c>
-      <c r="C214" s="0">
-        <v>83649</v>
-      </c>
-      <c r="D214" s="0">
-        <v>0.32900302983936214</v>
-      </c>
-      <c r="E214" s="0">
-        <v>122385</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="B215" s="0">
-        <v>2298.8899999999999</v>
-      </c>
-      <c r="C215" s="0">
-        <v>42445</v>
-      </c>
-      <c r="D215" s="0">
-        <v>0.10092529318022678</v>
-      </c>
-      <c r="E215" s="0">
-        <v>116214</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="B216" s="0">
-        <v>1871.7599999999998</v>
-      </c>
-      <c r="C216" s="0">
-        <v>83099</v>
-      </c>
-      <c r="D216" s="0">
-        <v>0.29806112581256006</v>
-      </c>
-      <c r="E216" s="0">
-        <v>121612</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="B217" s="0">
-        <v>1658.9789999999998</v>
-      </c>
-      <c r="C217" s="0">
-        <v>61290</v>
-      </c>
-      <c r="D217" s="0">
-        <v>0.27984510080097041</v>
-      </c>
-      <c r="E217" s="0">
-        <v>89750</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="B218" s="0">
-        <v>1659.4349999999999</v>
-      </c>
-      <c r="C218" s="0">
-        <v>61505</v>
-      </c>
-      <c r="D218" s="0">
-        <v>0.28067245624616149</v>
-      </c>
-      <c r="E218" s="0">
-        <v>90950</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="B219" s="0">
-        <v>1866.5160000000001</v>
-      </c>
-      <c r="C219" s="0">
-        <v>30282</v>
-      </c>
-      <c r="D219" s="0">
-        <v>0.1092272463071544</v>
-      </c>
-      <c r="E219" s="0">
-        <v>84720</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="B220" s="0">
-        <v>2203.2840000000001</v>
-      </c>
-      <c r="C220" s="0">
-        <v>40013</v>
-      </c>
-      <c r="D220" s="0">
-        <v>0.10357859526089933</v>
-      </c>
-      <c r="E220" s="0">
-        <v>109490</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="B221" s="0">
-        <v>1334.8629999999998</v>
-      </c>
-      <c r="C221" s="0">
-        <v>102433</v>
-      </c>
-      <c r="D221" s="0">
-        <v>0.72239771826976773</v>
-      </c>
-      <c r="E221" s="0">
-        <v>113642</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="B222" s="0">
-        <v>1231.6510000000001</v>
-      </c>
-      <c r="C222" s="0">
-        <v>90025</v>
-      </c>
-      <c r="D222" s="0">
-        <v>0.74575756312950303</v>
-      </c>
-      <c r="E222" s="0">
-        <v>100140</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="B223" s="0">
-        <v>1610.7269999999999</v>
-      </c>
-      <c r="C223" s="0">
-        <v>26650</v>
-      </c>
-      <c r="D223" s="0">
-        <v>0.12908126120206928</v>
-      </c>
-      <c r="E223" s="0">
-        <v>71768</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="B224" s="0">
-        <v>1500.4090000000001</v>
-      </c>
-      <c r="C224" s="0">
-        <v>123104</v>
-      </c>
-      <c r="D224" s="0">
-        <v>0.68716765264452639</v>
-      </c>
-      <c r="E224" s="0">
-        <v>136804</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B225" s="0">
-        <v>1693.471</v>
-      </c>
-      <c r="C225" s="0">
-        <v>33600</v>
-      </c>
-      <c r="D225" s="0">
-        <v>0.14722908517459921</v>
-      </c>
-      <c r="E225" s="0">
-        <v>96056</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="B226" s="0">
-        <v>1748.4769999999996</v>
-      </c>
-      <c r="C226" s="0">
-        <v>32236</v>
-      </c>
-      <c r="D226" s="0">
-        <v>0.13250466347255949</v>
-      </c>
-      <c r="E226" s="0">
-        <v>91147</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="B227" s="0">
-        <v>1232.796</v>
-      </c>
-      <c r="C227" s="0">
-        <v>86460</v>
-      </c>
-      <c r="D227" s="0">
-        <v>0.71489566249440284</v>
-      </c>
-      <c r="E227" s="0">
-        <v>96213</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B228" s="0">
-        <v>1242.557</v>
-      </c>
-      <c r="C228" s="0">
-        <v>83804</v>
-      </c>
-      <c r="D228" s="0">
-        <v>0.68209045406266389</v>
-      </c>
-      <c r="E228" s="0">
-        <v>93437</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="B229" s="0">
-        <v>1500.894</v>
-      </c>
-      <c r="C229" s="0">
-        <v>21860</v>
-      </c>
-      <c r="D229" s="0">
-        <v>0.12194387142435527</v>
-      </c>
-      <c r="E229" s="0">
-        <v>63196</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="B230" s="0">
-        <v>1188.5639999999999</v>
-      </c>
-      <c r="C230" s="0">
-        <v>78077</v>
-      </c>
-      <c r="D230" s="0">
-        <v>0.6945249277843627</v>
-      </c>
-      <c r="E230" s="0">
-        <v>86653</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B231" s="0">
-        <v>957.87399999999991</v>
-      </c>
-      <c r="C231" s="0">
-        <v>26909</v>
-      </c>
-      <c r="D231" s="0">
-        <v>0.36854510930574419</v>
-      </c>
-      <c r="E231" s="0">
-        <v>37713</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="B232" s="0">
-        <v>856.27099999999996</v>
-      </c>
-      <c r="C232" s="0">
-        <v>22925</v>
-      </c>
-      <c r="D232" s="0">
-        <v>0.39291330651674389</v>
-      </c>
-      <c r="E232" s="0">
-        <v>32311</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="B233" s="0">
-        <v>1106.5149999999999</v>
-      </c>
-      <c r="C233" s="0">
-        <v>62986</v>
-      </c>
-      <c r="D233" s="0">
-        <v>0.64645646284630798</v>
-      </c>
-      <c r="E233" s="0">
-        <v>69767</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="B234" s="0">
-        <v>1367.6689999999999</v>
-      </c>
-      <c r="C234" s="0">
-        <v>79777</v>
-      </c>
-      <c r="D234" s="0">
-        <v>0.53595158345278282</v>
-      </c>
-      <c r="E234" s="0">
-        <v>88902</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="B235" s="0">
-        <v>1300.22</v>
-      </c>
-      <c r="C235" s="0">
-        <v>34833</v>
-      </c>
-      <c r="D235" s="0">
-        <v>0.25892087120702512</v>
-      </c>
-      <c r="E235" s="0">
-        <v>49170</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="B236" s="0">
-        <v>1274.5710000000001</v>
-      </c>
-      <c r="C236" s="0">
-        <v>92727</v>
-      </c>
-      <c r="D236" s="0">
-        <v>0.71727882083200034</v>
-      </c>
-      <c r="E236" s="0">
-        <v>102695</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="B237" s="0">
-        <v>1057.223</v>
-      </c>
-      <c r="C237" s="0">
-        <v>61258</v>
-      </c>
-      <c r="D237" s="0">
-        <v>0.68871488942456804</v>
-      </c>
-      <c r="E237" s="0">
-        <v>67937</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="B238" s="0">
-        <v>1076.537</v>
-      </c>
-      <c r="C238" s="0">
-        <v>60563</v>
-      </c>
-      <c r="D238" s="0">
-        <v>0.6566883657226591</v>
-      </c>
-      <c r="E238" s="0">
-        <v>67509</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="B239" s="0">
-        <v>954.58899999999994</v>
-      </c>
-      <c r="C239" s="0">
-        <v>28910</v>
-      </c>
-      <c r="D239" s="0">
-        <v>0.39868060127123911</v>
-      </c>
-      <c r="E239" s="0">
-        <v>40247</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="B240" s="0">
-        <v>1101.8240000000001</v>
-      </c>
-      <c r="C240" s="0">
-        <v>29301</v>
-      </c>
-      <c r="D240" s="0">
-        <v>0.30329681557732485</v>
-      </c>
-      <c r="E240" s="0">
         <v>42252</v>
       </c>
     </row>

--- a/Proyecto/tablaNoIndexada.xlsx
+++ b/Proyecto/tablaNoIndexada.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t>nombreObjeto</t>
   </si>
@@ -154,9 +154,6 @@
   </si>
   <si>
     <t>obj5IMG015.bmp</t>
-  </si>
-  <si>
-    <t>obj6IMG015.bmp</t>
   </si>
   <si>
     <t>obj1IMG016.bmp</t>
@@ -613,12 +610,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E181"/>
+  <dimension ref="A1:E180"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="true"/>
     <col min="2" max="2" width="10.140625" customWidth="true"/>
-    <col min="3" max="3" width="7.140625" customWidth="true"/>
+    <col min="3" max="3" width="6.140625" customWidth="true"/>
     <col min="4" max="4" width="13.7109375" customWidth="true"/>
     <col min="5" max="5" width="11.5703125" customWidth="true"/>
   </cols>
@@ -628,16 +625,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>183</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="2">
@@ -645,16 +642,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>650.52700000000004</v>
+        <v>352.52500000000003</v>
       </c>
       <c r="C2" s="0">
-        <v>19989</v>
+        <v>6914</v>
       </c>
       <c r="D2" s="0">
-        <v>0.59356772570549998</v>
+        <v>0.69913234773375799</v>
       </c>
       <c r="E2" s="0">
-        <v>20400</v>
+        <v>7062</v>
       </c>
     </row>
     <row r="3">
@@ -662,16 +659,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>711.37099999999998</v>
+        <v>372.69499999999994</v>
       </c>
       <c r="C3" s="0">
-        <v>25795</v>
+        <v>8952</v>
       </c>
       <c r="D3" s="0">
-        <v>0.64055007003743381</v>
+        <v>0.80988397315224059</v>
       </c>
       <c r="E3" s="0">
-        <v>26349</v>
+        <v>9072</v>
       </c>
     </row>
     <row r="4">
@@ -679,16 +676,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>610.88800000000003</v>
+        <v>333.13100000000003</v>
       </c>
       <c r="C4" s="0">
-        <v>20905</v>
+        <v>7248</v>
       </c>
       <c r="D4" s="0">
-        <v>0.70394195122734438</v>
+        <v>0.8207255463336196</v>
       </c>
       <c r="E4" s="0">
-        <v>21273</v>
+        <v>7351</v>
       </c>
     </row>
     <row r="5">
@@ -696,16 +693,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>565.66500000000008</v>
+        <v>325.55499999999995</v>
       </c>
       <c r="C5" s="0">
-        <v>20286</v>
+        <v>7017</v>
       </c>
       <c r="D5" s="0">
-        <v>0.79668688732571213</v>
+        <v>0.83197945318580346</v>
       </c>
       <c r="E5" s="0">
-        <v>20538</v>
+        <v>7110</v>
       </c>
     </row>
     <row r="6">
@@ -713,16 +710,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>453.31499999999994</v>
+        <v>250.297</v>
       </c>
       <c r="C6" s="0">
-        <v>11977</v>
+        <v>4151</v>
       </c>
       <c r="D6" s="0">
-        <v>0.73241584928044612</v>
+        <v>0.83262857011534808</v>
       </c>
       <c r="E6" s="0">
-        <v>12216</v>
+        <v>4225</v>
       </c>
     </row>
     <row r="7">
@@ -730,16 +727,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>723.85900000000004</v>
+        <v>384.87</v>
       </c>
       <c r="C7" s="0">
-        <v>27027</v>
+        <v>9358</v>
       </c>
       <c r="D7" s="0">
-        <v>0.64818615231915067</v>
+        <v>0.79389814131381375</v>
       </c>
       <c r="E7" s="0">
-        <v>27616</v>
+        <v>9518</v>
       </c>
     </row>
     <row r="8">
@@ -747,16 +744,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>980.18299999999999</v>
+        <v>535.51900000000001</v>
       </c>
       <c r="C8" s="0">
-        <v>53840</v>
+        <v>18616</v>
       </c>
       <c r="D8" s="0">
-        <v>0.70420739815111155</v>
+        <v>0.81573005941880961</v>
       </c>
       <c r="E8" s="0">
-        <v>54441</v>
+        <v>18800</v>
       </c>
     </row>
     <row r="9">
@@ -764,16 +761,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>580.81499999999994</v>
+        <v>329.88900000000001</v>
       </c>
       <c r="C9" s="0">
-        <v>20701</v>
+        <v>7157</v>
       </c>
       <c r="D9" s="0">
-        <v>0.77112634672490465</v>
+        <v>0.82642836038775724</v>
       </c>
       <c r="E9" s="0">
-        <v>21002</v>
+        <v>7262</v>
       </c>
     </row>
     <row r="10">
@@ -781,16 +778,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>702.59499999999991</v>
+        <v>378.59200000000004</v>
       </c>
       <c r="C10" s="0">
-        <v>26824</v>
+        <v>9282</v>
       </c>
       <c r="D10" s="0">
-        <v>0.68284682558089893</v>
+        <v>0.81378290553129295</v>
       </c>
       <c r="E10" s="0">
-        <v>27292</v>
+        <v>9410</v>
       </c>
     </row>
     <row r="11">
@@ -798,16 +795,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>461.39400000000001</v>
+        <v>256.96300000000002</v>
       </c>
       <c r="C11" s="0">
-        <v>12131</v>
+        <v>4196</v>
       </c>
       <c r="D11" s="0">
-        <v>0.71608171046782421</v>
+        <v>0.79855375402996465</v>
       </c>
       <c r="E11" s="0">
-        <v>12405</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="12">
@@ -815,16 +812,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>911.23400000000004</v>
+        <v>527.91899999999998</v>
       </c>
       <c r="C12" s="0">
-        <v>53608</v>
+        <v>18566</v>
       </c>
       <c r="D12" s="0">
-        <v>0.81129656533955929</v>
+        <v>0.83713138560309164</v>
       </c>
       <c r="E12" s="0">
-        <v>54002</v>
+        <v>18727</v>
       </c>
     </row>
     <row r="13">
@@ -832,16 +829,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>408.86099999999999</v>
+        <v>236.13799999999998</v>
       </c>
       <c r="C13" s="0">
-        <v>10911</v>
+        <v>3782</v>
       </c>
       <c r="D13" s="0">
-        <v>0.82020619802127204</v>
+        <v>0.85231401010263474</v>
       </c>
       <c r="E13" s="0">
-        <v>11057</v>
+        <v>3832</v>
       </c>
     </row>
     <row r="14">
@@ -849,16 +846,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="0">
-        <v>545.80700000000002</v>
+        <v>317.61600000000004</v>
       </c>
       <c r="C14" s="0">
-        <v>19390</v>
+        <v>6721</v>
       </c>
       <c r="D14" s="0">
-        <v>0.81791744406425249</v>
+        <v>0.8372188836557316</v>
       </c>
       <c r="E14" s="0">
-        <v>19583</v>
+        <v>6818</v>
       </c>
     </row>
     <row r="15">
@@ -866,16 +863,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="0">
-        <v>650.6819999999999</v>
+        <v>369.495</v>
       </c>
       <c r="C15" s="0">
-        <v>25811</v>
+        <v>8924</v>
       </c>
       <c r="D15" s="0">
-        <v>0.76608526486804718</v>
+        <v>0.82139545191048269</v>
       </c>
       <c r="E15" s="0">
-        <v>26152</v>
+        <v>9055</v>
       </c>
     </row>
     <row r="16">
@@ -883,16 +880,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="0">
-        <v>767.37399999999991</v>
+        <v>445.928</v>
       </c>
       <c r="C16" s="0">
-        <v>37922</v>
+        <v>13103</v>
       </c>
       <c r="D16" s="0">
-        <v>0.80925788013716493</v>
+        <v>0.82803962418415022</v>
       </c>
       <c r="E16" s="0">
-        <v>38268</v>
+        <v>13248</v>
       </c>
     </row>
     <row r="17">
@@ -900,16 +897,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="0">
-        <v>605.07299999999998</v>
+        <v>347.952</v>
       </c>
       <c r="C17" s="0">
-        <v>10297</v>
+        <v>3568</v>
       </c>
       <c r="D17" s="0">
-        <v>0.3534313168346559</v>
+        <v>0.37033608870748053</v>
       </c>
       <c r="E17" s="0">
-        <v>14580</v>
+        <v>5033</v>
       </c>
     </row>
     <row r="18">
@@ -917,16 +914,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="0">
-        <v>1786.3979999999999</v>
+        <v>1045.5729999999999</v>
       </c>
       <c r="C18" s="0">
-        <v>30649</v>
+        <v>10599</v>
       </c>
       <c r="D18" s="0">
-        <v>0.12068956597731492</v>
+        <v>0.12183330805197765</v>
       </c>
       <c r="E18" s="0">
-        <v>42391</v>
+        <v>14729</v>
       </c>
     </row>
     <row r="19">
@@ -934,16 +931,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="0">
-        <v>977.75300000000004</v>
+        <v>573.61599999999999</v>
       </c>
       <c r="C19" s="0">
-        <v>14675</v>
+        <v>5063</v>
       </c>
       <c r="D19" s="0">
-        <v>0.19289885937337281</v>
+        <v>0.19336384707619172</v>
       </c>
       <c r="E19" s="0">
-        <v>21919</v>
+        <v>7583</v>
       </c>
     </row>
     <row r="20">
@@ -951,16 +948,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="0">
-        <v>1445.2369999999999</v>
+        <v>812.78800000000001</v>
       </c>
       <c r="C20" s="0">
-        <v>28205</v>
+        <v>9732</v>
       </c>
       <c r="D20" s="0">
-        <v>0.16969061551148384</v>
+        <v>0.18512172912848227</v>
       </c>
       <c r="E20" s="0">
-        <v>40951</v>
+        <v>14048</v>
       </c>
     </row>
     <row r="21">
@@ -968,16 +965,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="0">
-        <v>783.84199999999998</v>
+        <v>441.54599999999999</v>
       </c>
       <c r="C21" s="0">
-        <v>9797</v>
+        <v>3393</v>
       </c>
       <c r="D21" s="0">
-        <v>0.20037609635683015</v>
+        <v>0.21869649061460719</v>
       </c>
       <c r="E21" s="0">
-        <v>15579</v>
+        <v>5388</v>
       </c>
     </row>
     <row r="22">
@@ -985,16 +982,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="0">
-        <v>604.70099999999991</v>
+        <v>348.04300000000001</v>
       </c>
       <c r="C22" s="0">
-        <v>10288</v>
+        <v>3563</v>
       </c>
       <c r="D22" s="0">
-        <v>0.35355700474263579</v>
+        <v>0.36962375904731992</v>
       </c>
       <c r="E22" s="0">
-        <v>14577</v>
+        <v>5033</v>
       </c>
     </row>
     <row r="23">
@@ -1002,16 +999,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="0">
-        <v>1602.5539999999999</v>
+        <v>934.74600000000009</v>
       </c>
       <c r="C23" s="0">
-        <v>38759</v>
+        <v>13424</v>
       </c>
       <c r="D23" s="0">
-        <v>0.18965184957914949</v>
+        <v>0.19306545672107281</v>
       </c>
       <c r="E23" s="0">
-        <v>52322</v>
+        <v>18171</v>
       </c>
     </row>
     <row r="24">
@@ -1019,16 +1016,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="0">
-        <v>1022.544</v>
+        <v>597.327</v>
       </c>
       <c r="C24" s="0">
-        <v>29533</v>
+        <v>10193</v>
       </c>
       <c r="D24" s="0">
-        <v>0.35493875362070504</v>
+        <v>0.35899433587464813</v>
       </c>
       <c r="E24" s="0">
-        <v>41115</v>
+        <v>14244</v>
       </c>
     </row>
     <row r="25">
@@ -1036,16 +1033,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="0">
-        <v>930.69400000000007</v>
+        <v>545.84399999999994</v>
       </c>
       <c r="C25" s="0">
-        <v>15814</v>
+        <v>5470</v>
       </c>
       <c r="D25" s="0">
-        <v>0.22942343098074358</v>
+        <v>0.23070664769725954</v>
       </c>
       <c r="E25" s="0">
-        <v>22762</v>
+        <v>7920</v>
       </c>
     </row>
     <row r="26">
@@ -1053,16 +1050,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="0">
-        <v>592.85400000000004</v>
+        <v>345.58499999999998</v>
       </c>
       <c r="C26" s="0">
-        <v>12166</v>
+        <v>4188</v>
       </c>
       <c r="D26" s="0">
-        <v>0.43497286721761746</v>
+        <v>0.44066318531589888</v>
       </c>
       <c r="E26" s="0">
-        <v>16464</v>
+        <v>5694</v>
       </c>
     </row>
     <row r="27">
@@ -1070,16 +1067,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="0">
-        <v>33.650999999999996</v>
+        <v>19.260999999999999</v>
       </c>
       <c r="C27" s="0">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="D27" s="0">
-        <v>0.95436030232745706</v>
+        <v>1.0839323546001161</v>
       </c>
       <c r="E27" s="0">
-        <v>86</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28">
@@ -1087,16 +1084,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="0">
-        <v>1332.6499999999999</v>
+        <v>779.75099999999986</v>
       </c>
       <c r="C28" s="0">
-        <v>21214</v>
+        <v>7335</v>
       </c>
       <c r="D28" s="0">
-        <v>0.1501067497368255</v>
+        <v>0.15159961606157088</v>
       </c>
       <c r="E28" s="0">
-        <v>32759</v>
+        <v>11324</v>
       </c>
     </row>
     <row r="29">
@@ -1104,16 +1101,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="0">
-        <v>1253.375</v>
+        <v>734.93899999999985</v>
       </c>
       <c r="C29" s="0">
-        <v>21805</v>
+        <v>7529</v>
       </c>
       <c r="D29" s="0">
-        <v>0.17442305913408002</v>
+        <v>0.17516388662027613</v>
       </c>
       <c r="E29" s="0">
-        <v>31638</v>
+        <v>10999</v>
       </c>
     </row>
     <row r="30">
@@ -1121,16 +1118,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="0">
-        <v>844.15500000000009</v>
+        <v>495.46199999999999</v>
       </c>
       <c r="C30" s="0">
-        <v>10235</v>
+        <v>3547</v>
       </c>
       <c r="D30" s="0">
-        <v>0.18049007136999798</v>
+        <v>0.1815726155724359</v>
       </c>
       <c r="E30" s="0">
-        <v>15201</v>
+        <v>5310</v>
       </c>
     </row>
     <row r="31">
@@ -1138,16 +1135,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="0">
-        <v>402.61799999999994</v>
+        <v>235.02299999999997</v>
       </c>
       <c r="C31" s="0">
-        <v>7292</v>
+        <v>2521</v>
       </c>
       <c r="D31" s="0">
-        <v>0.56528849901968703</v>
+        <v>0.57353771068801251</v>
       </c>
       <c r="E31" s="0">
-        <v>8351</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="32">
@@ -1155,16 +1152,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="0">
-        <v>532.31299999999999</v>
+        <v>312.10999999999996</v>
       </c>
       <c r="C32" s="0">
-        <v>8354</v>
+        <v>2906</v>
       </c>
       <c r="D32" s="0">
-        <v>0.37048462526367892</v>
+        <v>0.37487813151663246</v>
       </c>
       <c r="E32" s="0">
-        <v>11215</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="33">
@@ -1172,16 +1169,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="0">
-        <v>1243.8459999999998</v>
+        <v>720.01099999999997</v>
       </c>
       <c r="C33" s="0">
-        <v>30750</v>
+        <v>10634</v>
       </c>
       <c r="D33" s="0">
-        <v>0.24975935051780476</v>
+        <v>0.25776755795483713</v>
       </c>
       <c r="E33" s="0">
-        <v>46709</v>
+        <v>16174</v>
       </c>
     </row>
     <row r="34">
@@ -1189,16 +1186,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="0">
-        <v>691.62100000000009</v>
+        <v>404.71099999999996</v>
       </c>
       <c r="C34" s="0">
-        <v>15338</v>
+        <v>5309</v>
       </c>
       <c r="D34" s="0">
-        <v>0.40294173721799975</v>
+        <v>0.40731703347949472</v>
       </c>
       <c r="E34" s="0">
-        <v>21974</v>
+        <v>7628</v>
       </c>
     </row>
     <row r="35">
@@ -1206,16 +1203,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="0">
-        <v>926.25099999999998</v>
+        <v>540.99299999999994</v>
       </c>
       <c r="C35" s="0">
-        <v>19570</v>
+        <v>6771</v>
       </c>
       <c r="D35" s="0">
-        <v>0.28664429988482643</v>
+        <v>0.29072299654421152</v>
       </c>
       <c r="E35" s="0">
-        <v>29487</v>
+        <v>10233</v>
       </c>
     </row>
     <row r="36">
@@ -1223,16 +1220,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="0">
-        <v>833.1869999999999</v>
+        <v>491.12499999999994</v>
       </c>
       <c r="C36" s="0">
-        <v>16933</v>
+        <v>5865</v>
       </c>
       <c r="D36" s="0">
-        <v>0.30651998957132248</v>
+        <v>0.30555809716420784</v>
       </c>
       <c r="E36" s="0">
-        <v>24405</v>
+        <v>8479</v>
       </c>
     </row>
     <row r="37">
@@ -1240,16 +1237,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="0">
-        <v>848.36699999999996</v>
+        <v>492.04500000000002</v>
       </c>
       <c r="C37" s="0">
-        <v>19227</v>
+        <v>6663</v>
       </c>
       <c r="D37" s="0">
-        <v>0.33570194430058764</v>
+        <v>0.34583586609742356</v>
       </c>
       <c r="E37" s="0">
-        <v>28966</v>
+        <v>10041</v>
       </c>
     </row>
     <row r="38">
@@ -1257,16 +1254,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="0">
-        <v>878.94100000000003</v>
+        <v>515.44799999999998</v>
       </c>
       <c r="C38" s="0">
-        <v>19085</v>
+        <v>6610</v>
       </c>
       <c r="D38" s="0">
-        <v>0.31044350728974268</v>
+        <v>0.31263788627390926</v>
       </c>
       <c r="E38" s="0">
-        <v>28822</v>
+        <v>10008</v>
       </c>
     </row>
     <row r="39">
@@ -1274,16 +1271,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="0">
-        <v>1246.3599999999999</v>
+        <v>709.65800000000002</v>
       </c>
       <c r="C39" s="0">
-        <v>28957</v>
+        <v>10036</v>
       </c>
       <c r="D39" s="0">
-        <v>0.23424828774551645</v>
+        <v>0.25042190257513952</v>
       </c>
       <c r="E39" s="0">
-        <v>45567</v>
+        <v>15748</v>
       </c>
     </row>
     <row r="40">
@@ -1291,16 +1288,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="0">
-        <v>1053.55</v>
+        <v>604.79200000000003</v>
       </c>
       <c r="C40" s="0">
-        <v>27786</v>
+        <v>9625</v>
       </c>
       <c r="D40" s="0">
-        <v>0.31457600483486547</v>
+        <v>0.33067284091955429</v>
       </c>
       <c r="E40" s="0">
-        <v>42576</v>
+        <v>14826</v>
       </c>
     </row>
     <row r="41">
@@ -1308,16 +1305,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="0">
-        <v>1228.5609999999999</v>
+        <v>709.80599999999993</v>
       </c>
       <c r="C41" s="0">
-        <v>31569</v>
+        <v>10936</v>
       </c>
       <c r="D41" s="0">
-        <v>0.2628313946999607</v>
+        <v>0.27276524527396795</v>
       </c>
       <c r="E41" s="0">
-        <v>48873</v>
+        <v>16908</v>
       </c>
     </row>
     <row r="42">
@@ -1325,16 +1322,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="0">
-        <v>1370.8720000000001</v>
+        <v>793.03899999999999</v>
       </c>
       <c r="C42" s="0">
-        <v>12035</v>
+        <v>4187</v>
       </c>
       <c r="D42" s="0">
-        <v>0.080475215157799776</v>
+        <v>0.083661131463113964</v>
       </c>
       <c r="E42" s="0">
-        <v>31936</v>
+        <v>11034</v>
       </c>
     </row>
     <row r="43">
@@ -1342,16 +1339,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="0">
-        <v>1276.8939999999998</v>
+        <v>759.09699999999998</v>
       </c>
       <c r="C43" s="0">
-        <v>33133</v>
+        <v>11560</v>
       </c>
       <c r="D43" s="0">
-        <v>0.2553647405916718</v>
+        <v>0.25210017547453145</v>
       </c>
       <c r="E43" s="0">
-        <v>50231</v>
+        <v>17535</v>
       </c>
     </row>
     <row r="44">
@@ -1359,16 +1356,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="0">
-        <v>1085.0059999999999</v>
+        <v>633.82599999999991</v>
       </c>
       <c r="C44" s="0">
-        <v>29803</v>
+        <v>10308</v>
       </c>
       <c r="D44" s="0">
-        <v>0.31813068983984549</v>
+        <v>0.32243648144697951</v>
       </c>
       <c r="E44" s="0">
-        <v>42677</v>
+        <v>14820</v>
       </c>
     </row>
     <row r="45">
@@ -1376,16 +1373,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="0">
-        <v>1013.1030000000001</v>
+        <v>589.28200000000004</v>
       </c>
       <c r="C45" s="0">
-        <v>24178</v>
+        <v>8357</v>
       </c>
       <c r="D45" s="0">
-        <v>0.29602134972920324</v>
+        <v>0.30242237187174192</v>
       </c>
       <c r="E45" s="0">
-        <v>35347</v>
+        <v>12217</v>
       </c>
     </row>
     <row r="46">
@@ -1393,16 +1390,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="0">
-        <v>69.213000000000008</v>
+        <v>736.59899999999993</v>
       </c>
       <c r="C46" s="0">
-        <v>248</v>
+        <v>11585</v>
       </c>
       <c r="D46" s="0">
-        <v>0.65055826246927995</v>
+        <v>0.26831419681116897</v>
       </c>
       <c r="E46" s="0">
-        <v>294</v>
+        <v>17663</v>
       </c>
     </row>
     <row r="47">
@@ -1410,16 +1407,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="0">
-        <v>1252.1099999999999</v>
+        <v>987.80700000000002</v>
       </c>
       <c r="C47" s="0">
-        <v>33516</v>
+        <v>6198</v>
       </c>
       <c r="D47" s="0">
-        <v>0.26864395814520331</v>
+        <v>0.079821013369720042</v>
       </c>
       <c r="E47" s="0">
-        <v>50701</v>
+        <v>16944</v>
       </c>
     </row>
     <row r="48">
@@ -1427,16 +1424,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="0">
-        <v>1697.6149999999998</v>
+        <v>907.32100000000003</v>
       </c>
       <c r="C48" s="0">
-        <v>17949</v>
+        <v>7260</v>
       </c>
       <c r="D48" s="0">
-        <v>0.078265743209571664</v>
+        <v>0.11082163652670296</v>
       </c>
       <c r="E48" s="0">
-        <v>48945</v>
+        <v>20053</v>
       </c>
     </row>
     <row r="49">
@@ -1444,16 +1441,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="0">
-        <v>1543.6059999999998</v>
+        <v>745.91300000000001</v>
       </c>
       <c r="C49" s="0">
-        <v>21008</v>
+        <v>7672</v>
       </c>
       <c r="D49" s="0">
-        <v>0.1107953813799028</v>
+        <v>0.1732774729763899</v>
       </c>
       <c r="E49" s="0">
-        <v>57859</v>
+        <v>20309</v>
       </c>
     </row>
     <row r="50">
@@ -1461,16 +1458,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="0">
-        <v>1267.4090000000001</v>
+        <v>785.69299999999998</v>
       </c>
       <c r="C50" s="0">
-        <v>22312</v>
+        <v>7569</v>
       </c>
       <c r="D50" s="0">
-        <v>0.17454796574948994</v>
+        <v>0.15407869855835968</v>
       </c>
       <c r="E50" s="0">
-        <v>58489</v>
+        <v>20397</v>
       </c>
     </row>
     <row r="51">
@@ -1478,16 +1475,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="0">
-        <v>1332.0479999999998</v>
+        <v>768.09399999999994</v>
       </c>
       <c r="C51" s="0">
-        <v>21818</v>
+        <v>7859</v>
       </c>
       <c r="D51" s="0">
-        <v>0.15452012536782453</v>
+        <v>0.16739728408755941</v>
       </c>
       <c r="E51" s="0">
-        <v>58759</v>
+        <v>20339</v>
       </c>
     </row>
     <row r="52">
@@ -1495,16 +1492,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="0">
-        <v>1286.8699999999999</v>
+        <v>804.226</v>
       </c>
       <c r="C52" s="0">
-        <v>22966</v>
+        <v>7873</v>
       </c>
       <c r="D52" s="0">
-        <v>0.17427130020343407</v>
+        <v>0.15296564301561155</v>
       </c>
       <c r="E52" s="0">
-        <v>58884</v>
+        <v>20547</v>
       </c>
     </row>
     <row r="53">
@@ -1512,16 +1509,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="0">
-        <v>1371.9010000000001</v>
+        <v>784.27700000000004</v>
       </c>
       <c r="C53" s="0">
-        <v>22800</v>
+        <v>7994</v>
       </c>
       <c r="D53" s="0">
-        <v>0.15222962084530411</v>
+        <v>0.16331837501009219</v>
       </c>
       <c r="E53" s="0">
-        <v>58816</v>
+        <v>20443</v>
       </c>
     </row>
     <row r="54">
@@ -1529,16 +1526,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="0">
-        <v>1340.5889999999999</v>
+        <v>793.40899999999999</v>
       </c>
       <c r="C54" s="0">
-        <v>22928</v>
+        <v>7508</v>
       </c>
       <c r="D54" s="0">
-        <v>0.1603189035600274</v>
+        <v>0.14987868803587009</v>
       </c>
       <c r="E54" s="0">
-        <v>59105</v>
+        <v>20105</v>
       </c>
     </row>
     <row r="55">
@@ -1546,16 +1543,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="0">
-        <v>1356.886</v>
+        <v>790.93500000000006</v>
       </c>
       <c r="C55" s="0">
-        <v>21507</v>
+        <v>7415</v>
       </c>
       <c r="D55" s="0">
-        <v>0.14679219886864775</v>
+        <v>0.14894963082896748</v>
       </c>
       <c r="E55" s="0">
-        <v>58354</v>
+        <v>20267</v>
       </c>
     </row>
     <row r="56">
@@ -1563,16 +1560,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="0">
-        <v>1342.252</v>
+        <v>819.27800000000002</v>
       </c>
       <c r="C56" s="0">
-        <v>21569</v>
+        <v>7351</v>
       </c>
       <c r="D56" s="0">
-        <v>0.15044292026397679</v>
+        <v>0.13762384933456823</v>
       </c>
       <c r="E56" s="0">
-        <v>58391</v>
+        <v>20220</v>
       </c>
     </row>
     <row r="57">
@@ -1580,16 +1577,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="0">
-        <v>1396.3579999999999</v>
+        <v>786.73500000000001</v>
       </c>
       <c r="C57" s="0">
-        <v>21192</v>
+        <v>7439</v>
       </c>
       <c r="D57" s="0">
-        <v>0.13658036036636353</v>
+        <v>0.1510314806438868</v>
       </c>
       <c r="E57" s="0">
-        <v>58342</v>
+        <v>20079</v>
       </c>
     </row>
     <row r="58">
@@ -1597,16 +1594,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="0">
-        <v>1341.6590000000001</v>
+        <v>789.58899999999994</v>
       </c>
       <c r="C58" s="0">
-        <v>21349</v>
+        <v>7455</v>
       </c>
       <c r="D58" s="0">
-        <v>0.14904009017599254</v>
+        <v>0.15026413406611072</v>
       </c>
       <c r="E58" s="0">
-        <v>57978</v>
+        <v>20542</v>
       </c>
     </row>
     <row r="59">
@@ -1614,16 +1611,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="0">
-        <v>1350.3519999999999</v>
+        <v>835.11599999999999</v>
       </c>
       <c r="C59" s="0">
-        <v>21640</v>
+        <v>7566</v>
       </c>
       <c r="D59" s="0">
-        <v>0.14913278782717843</v>
+        <v>0.13632722424460067</v>
       </c>
       <c r="E59" s="0">
-        <v>59512</v>
+        <v>20580</v>
       </c>
     </row>
     <row r="60">
@@ -1631,16 +1628,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="0">
-        <v>1415.2719999999999</v>
+        <v>753.01699999999994</v>
       </c>
       <c r="C60" s="0">
-        <v>21792</v>
+        <v>7571</v>
       </c>
       <c r="D60" s="0">
-        <v>0.13671844968438027</v>
+        <v>0.16778516079486697</v>
       </c>
       <c r="E60" s="0">
-        <v>59286</v>
+        <v>20538</v>
       </c>
     </row>
     <row r="61">
@@ -1648,16 +1645,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="0">
-        <v>1272.9830000000002</v>
+        <v>748.726</v>
       </c>
       <c r="C61" s="0">
-        <v>21896</v>
+        <v>7552</v>
       </c>
       <c r="D61" s="0">
-        <v>0.16979677627923229</v>
+        <v>0.16928793842271347</v>
       </c>
       <c r="E61" s="0">
-        <v>59206</v>
+        <v>20507</v>
       </c>
     </row>
     <row r="62">
@@ -1665,16 +1662,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="0">
-        <v>1271.8520000000001</v>
+        <v>863.17499999999995</v>
       </c>
       <c r="C62" s="0">
-        <v>21678</v>
+        <v>7615</v>
       </c>
       <c r="D62" s="0">
-        <v>0.16840536441021162</v>
+        <v>0.12843460807534426</v>
       </c>
       <c r="E62" s="0">
-        <v>59057</v>
+        <v>20617</v>
       </c>
     </row>
     <row r="63">
@@ -1682,16 +1679,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="0">
-        <v>1448.1590000000001</v>
+        <v>719.76899999999989</v>
       </c>
       <c r="C63" s="0">
-        <v>21853</v>
+        <v>28851</v>
       </c>
       <c r="D63" s="0">
-        <v>0.13094485360551777</v>
+        <v>0.69981695286100276</v>
       </c>
       <c r="E63" s="0">
-        <v>59290</v>
+        <v>32191</v>
       </c>
     </row>
     <row r="64">
@@ -1699,16 +1696,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="0">
-        <v>1229.6299999999999</v>
+        <v>820.23799999999994</v>
       </c>
       <c r="C64" s="0">
-        <v>83360</v>
+        <v>17792</v>
       </c>
       <c r="D64" s="0">
-        <v>0.69281721316261824</v>
+        <v>0.33231876336570121</v>
       </c>
       <c r="E64" s="0">
-        <v>92819</v>
+        <v>22114</v>
       </c>
     </row>
     <row r="65">
@@ -1716,16 +1713,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="0">
-        <v>1273.211</v>
+        <v>208.10999999999999</v>
       </c>
       <c r="C65" s="0">
-        <v>52563</v>
+        <v>407</v>
       </c>
       <c r="D65" s="0">
-        <v>0.40746399993848026</v>
+        <v>0.1180914281477871</v>
       </c>
       <c r="E65" s="0">
-        <v>63876</v>
+        <v>884</v>
       </c>
     </row>
     <row r="66">
@@ -1733,16 +1730,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="0">
-        <v>364.63099999999997</v>
+        <v>628.41999999999985</v>
       </c>
       <c r="C66" s="0">
-        <v>1181</v>
+        <v>19894</v>
       </c>
       <c r="D66" s="0">
-        <v>0.11162271576538417</v>
+        <v>0.63304120713822831</v>
       </c>
       <c r="E66" s="0">
-        <v>2547</v>
+        <v>22128</v>
       </c>
     </row>
     <row r="67">
@@ -1750,16 +1747,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="0">
-        <v>1105.4610000000002</v>
+        <v>686.88700000000006</v>
       </c>
       <c r="C67" s="0">
-        <v>57488</v>
+        <v>18377</v>
       </c>
       <c r="D67" s="0">
-        <v>0.59115342865307086</v>
+        <v>0.48945625769424184</v>
       </c>
       <c r="E67" s="0">
-        <v>63986</v>
+        <v>21467</v>
       </c>
     </row>
     <row r="68">
@@ -1767,16 +1764,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="0">
-        <v>1502.1709999999998</v>
+        <v>634.49900000000002</v>
       </c>
       <c r="C68" s="0">
-        <v>52443</v>
+        <v>18761</v>
       </c>
       <c r="D68" s="0">
-        <v>0.29205096430743333</v>
+        <v>0.58560390428422282</v>
       </c>
       <c r="E68" s="0">
-        <v>61872</v>
+        <v>21217</v>
       </c>
     </row>
     <row r="69">
@@ -1784,16 +1781,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="0">
-        <v>1097.104</v>
+        <v>38.704999999999998</v>
       </c>
       <c r="C69" s="0">
-        <v>54198</v>
+        <v>87</v>
       </c>
       <c r="D69" s="0">
-        <v>0.56584505864154055</v>
+        <v>0.72978506792682973</v>
       </c>
       <c r="E69" s="0">
-        <v>61191</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70">
@@ -1801,16 +1798,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="0">
-        <v>70.263999999999996</v>
+        <v>604.46599999999989</v>
       </c>
       <c r="C70" s="0">
-        <v>254</v>
+        <v>20178</v>
       </c>
       <c r="D70" s="0">
-        <v>0.64651386209673511</v>
+        <v>0.69397564042216819</v>
       </c>
       <c r="E70" s="0">
-        <v>274</v>
+        <v>22311</v>
       </c>
     </row>
     <row r="71">
@@ -1818,16 +1815,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="0">
-        <v>1029.9559999999999</v>
+        <v>644.95899999999995</v>
       </c>
       <c r="C71" s="0">
-        <v>58306</v>
+        <v>22504</v>
       </c>
       <c r="D71" s="0">
-        <v>0.69069413537569291</v>
+        <v>0.67983789384997795</v>
       </c>
       <c r="E71" s="0">
-        <v>64365</v>
+        <v>25143</v>
       </c>
     </row>
     <row r="72">
@@ -1835,16 +1832,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="0">
-        <v>1103.0830000000001</v>
+        <v>663.52200000000005</v>
       </c>
       <c r="C72" s="0">
-        <v>65057</v>
+        <v>22732</v>
       </c>
       <c r="D72" s="0">
-        <v>0.67187350227994991</v>
+        <v>0.64883886696100201</v>
       </c>
       <c r="E72" s="0">
-        <v>72672</v>
+        <v>25301</v>
       </c>
     </row>
     <row r="73">
@@ -1852,16 +1849,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="0">
-        <v>1130.6779999999999</v>
+        <v>689.72199999999998</v>
       </c>
       <c r="C73" s="0">
-        <v>65679</v>
+        <v>24772</v>
       </c>
       <c r="D73" s="0">
-        <v>0.64559255247523117</v>
+        <v>0.65436909146165279</v>
       </c>
       <c r="E73" s="0">
-        <v>73000</v>
+        <v>27898</v>
       </c>
     </row>
     <row r="74">
@@ -1869,16 +1866,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="0">
-        <v>1178.5959999999998</v>
+        <v>715.6149999999999</v>
       </c>
       <c r="C74" s="0">
-        <v>71632</v>
+        <v>24005</v>
       </c>
       <c r="D74" s="0">
-        <v>0.64801791939048459</v>
+        <v>0.58905073721577106</v>
       </c>
       <c r="E74" s="0">
-        <v>80477</v>
+        <v>26905</v>
       </c>
     </row>
     <row r="75">
@@ -1886,16 +1883,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="0">
-        <v>1223.7719999999999</v>
+        <v>633.5440000000001</v>
       </c>
       <c r="C75" s="0">
-        <v>69339</v>
+        <v>19724</v>
       </c>
       <c r="D75" s="0">
-        <v>0.58181700912083367</v>
+        <v>0.61752037739273591</v>
       </c>
       <c r="E75" s="0">
-        <v>77647</v>
+        <v>22049</v>
       </c>
     </row>
     <row r="76">
@@ -1903,16 +1900,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="0">
-        <v>1085.319</v>
+        <v>591.25900000000001</v>
       </c>
       <c r="C76" s="0">
-        <v>57046</v>
+        <v>20886</v>
       </c>
       <c r="D76" s="0">
-        <v>0.6085836066229009</v>
+        <v>0.7507746646239325</v>
       </c>
       <c r="E76" s="0">
-        <v>63650</v>
+        <v>23131</v>
       </c>
     </row>
     <row r="77">
@@ -1920,16 +1917,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="0">
-        <v>1013.22</v>
+        <v>574.37999999999988</v>
       </c>
       <c r="C77" s="0">
-        <v>60393</v>
+        <v>19202</v>
       </c>
       <c r="D77" s="0">
-        <v>0.73924596048407432</v>
+        <v>0.731404639373474</v>
       </c>
       <c r="E77" s="0">
-        <v>66869</v>
+        <v>21437</v>
       </c>
     </row>
     <row r="78">
@@ -1937,16 +1934,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="0">
-        <v>981.39700000000005</v>
+        <v>575.19599999999991</v>
       </c>
       <c r="C78" s="0">
-        <v>55506</v>
+        <v>17549</v>
       </c>
       <c r="D78" s="0">
-        <v>0.72420303949702503</v>
+        <v>0.66654660929935305</v>
       </c>
       <c r="E78" s="0">
-        <v>61891</v>
+        <v>19676</v>
       </c>
     </row>
     <row r="79">
@@ -1954,16 +1951,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="0">
-        <v>983.11800000000005</v>
+        <v>578.66599999999994</v>
       </c>
       <c r="C79" s="0">
-        <v>50720</v>
+        <v>19766</v>
       </c>
       <c r="D79" s="0">
-        <v>0.65944383649349281</v>
+        <v>0.7417759073774346</v>
       </c>
       <c r="E79" s="0">
-        <v>56785</v>
+        <v>22013</v>
       </c>
     </row>
     <row r="80">
@@ -1971,16 +1968,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="0">
-        <v>985.95699999999988</v>
+        <v>348.76900000000001</v>
       </c>
       <c r="C80" s="0">
-        <v>57150</v>
+        <v>7864</v>
       </c>
       <c r="D80" s="0">
-        <v>0.73877152767044785</v>
+        <v>0.81241440738823001</v>
       </c>
       <c r="E80" s="0">
-        <v>63440</v>
+        <v>8003</v>
       </c>
     </row>
     <row r="81">
@@ -1988,16 +1985,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="0">
-        <v>604.12699999999995</v>
+        <v>814.72399999999993</v>
       </c>
       <c r="C81" s="0">
-        <v>22693</v>
+        <v>8110</v>
       </c>
       <c r="D81" s="0">
-        <v>0.78134940421766252</v>
+        <v>0.15353581494092255</v>
       </c>
       <c r="E81" s="0">
-        <v>23042</v>
+        <v>11990</v>
       </c>
     </row>
     <row r="82">
@@ -2005,16 +2002,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="0">
-        <v>1445.6889999999999</v>
+        <v>387.77199999999999</v>
       </c>
       <c r="C82" s="0">
-        <v>23565</v>
+        <v>9902</v>
       </c>
       <c r="D82" s="0">
-        <v>0.14168620073332305</v>
+        <v>0.82752265606027609</v>
       </c>
       <c r="E82" s="0">
-        <v>35171</v>
+        <v>10024</v>
       </c>
     </row>
     <row r="83">
@@ -2022,16 +2019,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="0">
-        <v>679.39499999999998</v>
+        <v>745.78699999999992</v>
       </c>
       <c r="C83" s="0">
-        <v>28621</v>
+        <v>7354</v>
       </c>
       <c r="D83" s="0">
-        <v>0.77920184997486175</v>
+        <v>0.16615134909690724</v>
       </c>
       <c r="E83" s="0">
-        <v>28971</v>
+        <v>10344</v>
       </c>
     </row>
     <row r="84">
@@ -2039,16 +2036,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="0">
-        <v>1319.4970000000001</v>
+        <v>784.10599999999999</v>
       </c>
       <c r="C84" s="0">
-        <v>21356</v>
+        <v>10350</v>
       </c>
       <c r="D84" s="0">
-        <v>0.15413915077063442</v>
+        <v>0.21154397448458684</v>
       </c>
       <c r="E84" s="0">
-        <v>30076</v>
+        <v>12361</v>
       </c>
     </row>
     <row r="85">
@@ -2056,16 +2053,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="0">
-        <v>1444.4480000000001</v>
+        <v>268.65700000000004</v>
       </c>
       <c r="C85" s="0">
-        <v>30048</v>
+        <v>4811</v>
       </c>
       <c r="D85" s="0">
-        <v>0.18097626076572271</v>
+        <v>0.83762358883163324</v>
       </c>
       <c r="E85" s="0">
-        <v>36121</v>
+        <v>4891</v>
       </c>
     </row>
     <row r="86">
@@ -2073,16 +2070,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="0">
-        <v>467.47899999999998</v>
+        <v>761.49900000000002</v>
       </c>
       <c r="C86" s="0">
-        <v>13875</v>
+        <v>8085</v>
       </c>
       <c r="D86" s="0">
-        <v>0.79784521199060299</v>
+        <v>0.17520690322394294</v>
       </c>
       <c r="E86" s="0">
-        <v>14077</v>
+        <v>11331</v>
       </c>
     </row>
     <row r="87">
@@ -2090,16 +2087,16 @@
         <v>86</v>
       </c>
       <c r="B87" s="0">
-        <v>1370.7449999999997</v>
+        <v>255.756</v>
       </c>
       <c r="C87" s="0">
-        <v>23386</v>
+        <v>4180</v>
       </c>
       <c r="D87" s="0">
-        <v>0.15640566119779881</v>
+        <v>0.80303501765769147</v>
       </c>
       <c r="E87" s="0">
-        <v>33393</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="88">
@@ -2107,16 +2104,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="0">
-        <v>446.49899999999991</v>
+        <v>382.90100000000001</v>
       </c>
       <c r="C88" s="0">
-        <v>12075</v>
+        <v>9481</v>
       </c>
       <c r="D88" s="0">
-        <v>0.76112506180235295</v>
+        <v>0.81262655381295323</v>
       </c>
       <c r="E88" s="0">
-        <v>12310</v>
+        <v>9627</v>
       </c>
     </row>
     <row r="89">
@@ -2124,16 +2121,16 @@
         <v>88</v>
       </c>
       <c r="B89" s="0">
-        <v>666.92299999999989</v>
+        <v>390.82400000000001</v>
       </c>
       <c r="C89" s="0">
-        <v>27366</v>
+        <v>3207</v>
       </c>
       <c r="D89" s="0">
-        <v>0.77316074610521179</v>
+        <v>0.26384348410750047</v>
       </c>
       <c r="E89" s="0">
-        <v>27759</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="90">
@@ -2141,16 +2138,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="0">
-        <v>683.65200000000004</v>
+        <v>909.42499999999995</v>
       </c>
       <c r="C90" s="0">
-        <v>9289</v>
+        <v>9628</v>
       </c>
       <c r="D90" s="0">
-        <v>0.24975181303212549</v>
+        <v>0.14628916739750711</v>
       </c>
       <c r="E90" s="0">
-        <v>12991</v>
+        <v>27251</v>
       </c>
     </row>
     <row r="91">
@@ -2158,16 +2155,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="0">
-        <v>1585.222</v>
+        <v>450.76099999999997</v>
       </c>
       <c r="C91" s="0">
-        <v>27839</v>
+        <v>14613</v>
       </c>
       <c r="D91" s="0">
-        <v>0.1392141285598556</v>
+        <v>0.90376721103319968</v>
       </c>
       <c r="E91" s="0">
-        <v>78702</v>
+        <v>14797</v>
       </c>
     </row>
     <row r="92">
@@ -2175,16 +2172,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="0">
-        <v>811.74599999999987</v>
+        <v>1058.8689999999999</v>
       </c>
       <c r="C92" s="0">
-        <v>42284</v>
+        <v>11328</v>
       </c>
       <c r="D92" s="0">
-        <v>0.80639089162816624</v>
+        <v>0.12696342707472591</v>
       </c>
       <c r="E92" s="0">
-        <v>42687</v>
+        <v>30766</v>
       </c>
     </row>
     <row r="93">
@@ -2192,16 +2189,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="0">
-        <v>1888.375</v>
+        <v>1205.8069999999998</v>
       </c>
       <c r="C93" s="0">
-        <v>32735</v>
+        <v>12238</v>
       </c>
       <c r="D93" s="0">
-        <v>0.11535747059386622</v>
+        <v>0.1057705375253552</v>
       </c>
       <c r="E93" s="0">
-        <v>89020</v>
+        <v>32061</v>
       </c>
     </row>
     <row r="94">
@@ -2209,16 +2206,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="0">
-        <v>2056.098</v>
+        <v>531.16099999999994</v>
       </c>
       <c r="C94" s="0">
-        <v>35348</v>
+        <v>19969</v>
       </c>
       <c r="D94" s="0">
-        <v>0.105072021804881</v>
+        <v>0.88943419304768734</v>
       </c>
       <c r="E94" s="0">
-        <v>92368</v>
+        <v>20135</v>
       </c>
     </row>
     <row r="95">
@@ -2226,16 +2223,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="0">
-        <v>908.80999999999995</v>
+        <v>458.06099999999998</v>
       </c>
       <c r="C95" s="0">
-        <v>57681</v>
+        <v>14624</v>
       </c>
       <c r="D95" s="0">
-        <v>0.87759966912371479</v>
+        <v>0.87584934329745368</v>
       </c>
       <c r="E95" s="0">
-        <v>58050</v>
+        <v>14759</v>
       </c>
     </row>
     <row r="96">
@@ -2243,16 +2240,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="0">
-        <v>781.57299999999998</v>
+        <v>987.80700000000002</v>
       </c>
       <c r="C96" s="0">
-        <v>42233</v>
+        <v>8463</v>
       </c>
       <c r="D96" s="0">
-        <v>0.8688057779790137</v>
+        <v>0.10899084158566325</v>
       </c>
       <c r="E96" s="0">
-        <v>42550</v>
+        <v>24721</v>
       </c>
     </row>
     <row r="97">
@@ -2260,16 +2257,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="0">
-        <v>1744.8399999999999</v>
+        <v>439.56</v>
       </c>
       <c r="C97" s="0">
-        <v>24413</v>
+        <v>13573</v>
       </c>
       <c r="D97" s="0">
-        <v>0.10076734073177436</v>
+        <v>0.88277369534373296</v>
       </c>
       <c r="E97" s="0">
-        <v>71407</v>
+        <v>13701</v>
       </c>
     </row>
     <row r="98">
@@ -2277,16 +2274,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="0">
-        <v>761.34099999999989</v>
+        <v>1228.4370000000001</v>
       </c>
       <c r="C98" s="0">
-        <v>39174</v>
+        <v>10245</v>
       </c>
       <c r="D98" s="0">
-        <v>0.84927696845210354</v>
+        <v>0.085313164079792503</v>
       </c>
       <c r="E98" s="0">
-        <v>39503</v>
+        <v>29355</v>
       </c>
     </row>
     <row r="99">
@@ -2294,16 +2291,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="0">
-        <v>2169.9969999999998</v>
+        <v>520.56699999999989</v>
       </c>
       <c r="C99" s="0">
-        <v>29511</v>
+        <v>18976</v>
       </c>
       <c r="D99" s="0">
-        <v>0.0787545262340624</v>
+        <v>0.8799566311222714</v>
       </c>
       <c r="E99" s="0">
-        <v>84728</v>
+        <v>19141</v>
       </c>
     </row>
     <row r="100">
@@ -2311,16 +2308,16 @@
         <v>99</v>
       </c>
       <c r="B100" s="0">
-        <v>897.97300000000007</v>
+        <v>516.21699999999998</v>
       </c>
       <c r="C100" s="0">
-        <v>54880</v>
+        <v>20338</v>
       </c>
       <c r="D100" s="0">
-        <v>0.85525852040505668</v>
+        <v>0.95907705681917044</v>
       </c>
       <c r="E100" s="0">
-        <v>55303</v>
+        <v>20535</v>
       </c>
     </row>
     <row r="101">
@@ -2328,16 +2325,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="0">
-        <v>886.77999999999997</v>
+        <v>1201.3399999999999</v>
       </c>
       <c r="C101" s="0">
-        <v>58769</v>
+        <v>35763</v>
       </c>
       <c r="D101" s="0">
-        <v>0.9391314520582551</v>
+        <v>0.31139521259470748</v>
       </c>
       <c r="E101" s="0">
-        <v>59238</v>
+        <v>41570</v>
       </c>
     </row>
     <row r="102">
@@ -2345,16 +2342,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="0">
-        <v>2119.5969999999998</v>
+        <v>419.56399999999996</v>
       </c>
       <c r="C102" s="0">
-        <v>103349</v>
+        <v>13691</v>
       </c>
       <c r="D102" s="0">
-        <v>0.28907434513842917</v>
+        <v>0.97734658562945509</v>
       </c>
       <c r="E102" s="0">
-        <v>120043</v>
+        <v>13809</v>
       </c>
     </row>
     <row r="103">
@@ -2362,16 +2359,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="0">
-        <v>723.65200000000004</v>
+        <v>945.79199999999992</v>
       </c>
       <c r="C103" s="0">
-        <v>39581</v>
+        <v>46061</v>
       </c>
       <c r="D103" s="0">
-        <v>0.94981077674428172</v>
+        <v>0.64707102634944791</v>
       </c>
       <c r="E103" s="0">
-        <v>39875</v>
+        <v>51376</v>
       </c>
     </row>
     <row r="104">
@@ -2379,16 +2376,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="0">
-        <v>1636.7339999999999</v>
+        <v>847.29899999999998</v>
       </c>
       <c r="C104" s="0">
-        <v>133127</v>
+        <v>41708</v>
       </c>
       <c r="D104" s="0">
-        <v>0.6244818220596926</v>
+        <v>0.73005543958261576</v>
       </c>
       <c r="E104" s="0">
-        <v>148339</v>
+        <v>46445</v>
       </c>
     </row>
     <row r="105">
@@ -2396,16 +2393,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="0">
-        <v>1451</v>
+        <v>521.94100000000003</v>
       </c>
       <c r="C105" s="0">
-        <v>120546</v>
+        <v>21098</v>
       </c>
       <c r="D105" s="0">
-        <v>0.71949510429535313</v>
+        <v>0.97321394988494414</v>
       </c>
       <c r="E105" s="0">
-        <v>134064</v>
+        <v>21263</v>
       </c>
     </row>
     <row r="106">
@@ -2413,16 +2410,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="0">
-        <v>893.42099999999994</v>
+        <v>627.36000000000001</v>
       </c>
       <c r="C106" s="0">
-        <v>60968</v>
+        <v>20633</v>
       </c>
       <c r="D106" s="0">
-        <v>0.95984144810403416</v>
+        <v>0.65877724896222312</v>
       </c>
       <c r="E106" s="0">
-        <v>61306</v>
+        <v>22991</v>
       </c>
     </row>
     <row r="107">
@@ -2430,16 +2427,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="0">
-        <v>1070.6589999999999</v>
+        <v>319.93299999999999</v>
       </c>
       <c r="C107" s="0">
-        <v>59599</v>
+        <v>7994</v>
       </c>
       <c r="D107" s="0">
-        <v>0.65335089865400908</v>
+        <v>0.98142232104207727</v>
       </c>
       <c r="E107" s="0">
-        <v>66272</v>
+        <v>8081</v>
       </c>
     </row>
     <row r="108">
@@ -2447,16 +2444,16 @@
         <v>107</v>
       </c>
       <c r="B108" s="0">
-        <v>545.6099999999999</v>
+        <v>634.60799999999995</v>
       </c>
       <c r="C108" s="0">
-        <v>23108</v>
+        <v>20529</v>
       </c>
       <c r="D108" s="0">
-        <v>0.97545576517551202</v>
+        <v>0.64056996779068975</v>
       </c>
       <c r="E108" s="0">
-        <v>23268</v>
+        <v>22907</v>
       </c>
     </row>
     <row r="109">
@@ -2464,16 +2461,16 @@
         <v>108</v>
       </c>
       <c r="B109" s="0">
-        <v>1083.3199999999997</v>
+        <v>375.18599999999998</v>
       </c>
       <c r="C109" s="0">
-        <v>59343</v>
+        <v>10958</v>
       </c>
       <c r="D109" s="0">
-        <v>0.63542725608342232</v>
+        <v>0.97824561838220869</v>
       </c>
       <c r="E109" s="0">
-        <v>66052</v>
+        <v>11057</v>
       </c>
     </row>
     <row r="110">
@@ -2481,16 +2478,16 @@
         <v>109</v>
       </c>
       <c r="B110" s="0">
-        <v>643.42999999999995</v>
+        <v>1141.819</v>
       </c>
       <c r="C110" s="0">
-        <v>31698</v>
+        <v>33965</v>
       </c>
       <c r="D110" s="0">
-        <v>0.96214186664983092</v>
+        <v>0.32737608596386891</v>
       </c>
       <c r="E110" s="0">
-        <v>31936</v>
+        <v>49959</v>
       </c>
     </row>
     <row r="111">
@@ -2498,16 +2495,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="0">
-        <v>1974.2149999999997</v>
+        <v>719.63999999999999</v>
       </c>
       <c r="C111" s="0">
-        <v>98139</v>
+        <v>40255</v>
       </c>
       <c r="D111" s="0">
-        <v>0.3164190320912762</v>
+        <v>0.97678527773463386</v>
       </c>
       <c r="E111" s="0">
-        <v>144277</v>
+        <v>40476</v>
       </c>
     </row>
     <row r="112">
@@ -2515,16 +2512,16 @@
         <v>111</v>
       </c>
       <c r="B112" s="0">
-        <v>1227.654</v>
+        <v>962.90700000000004</v>
       </c>
       <c r="C112" s="0">
-        <v>116290</v>
+        <v>22591</v>
       </c>
       <c r="D112" s="0">
-        <v>0.96961710469733642</v>
+        <v>0.30617986823635157</v>
       </c>
       <c r="E112" s="0">
-        <v>116749</v>
+        <v>31950</v>
       </c>
     </row>
     <row r="113">
@@ -2532,16 +2529,16 @@
         <v>112</v>
       </c>
       <c r="B113" s="0">
-        <v>1658.6759999999999</v>
+        <v>346.18299999999999</v>
       </c>
       <c r="C113" s="0">
-        <v>65242</v>
+        <v>8675</v>
       </c>
       <c r="D113" s="0">
-        <v>0.29799845226976318</v>
+        <v>0.90963648877641057</v>
       </c>
       <c r="E113" s="0">
-        <v>92100</v>
+        <v>8823</v>
       </c>
     </row>
     <row r="114">
@@ -2549,16 +2546,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="0">
-        <v>626.625</v>
+        <v>582.39599999999996</v>
       </c>
       <c r="C114" s="0">
-        <v>25075</v>
+        <v>9186</v>
       </c>
       <c r="D114" s="0">
-        <v>0.80248213061852469</v>
+        <v>0.34032945487816102</v>
       </c>
       <c r="E114" s="0">
-        <v>25514</v>
+        <v>13521</v>
       </c>
     </row>
     <row r="115">
@@ -2566,16 +2563,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="0">
-        <v>1052.432</v>
+        <v>236.35399999999996</v>
       </c>
       <c r="C115" s="0">
-        <v>26486</v>
+        <v>4302</v>
       </c>
       <c r="D115" s="0">
-        <v>0.30049562225064791</v>
+        <v>0.96773033941263631</v>
       </c>
       <c r="E115" s="0">
-        <v>39237</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="116">
@@ -2583,16 +2580,16 @@
         <v>115</v>
       </c>
       <c r="B116" s="0">
-        <v>411.88099999999997</v>
+        <v>297.76899999999995</v>
       </c>
       <c r="C116" s="0">
-        <v>12403</v>
+        <v>6889</v>
       </c>
       <c r="D116" s="0">
-        <v>0.91874098516381708</v>
+        <v>0.97635349203291311</v>
       </c>
       <c r="E116" s="0">
-        <v>12579</v>
+        <v>6967</v>
       </c>
     </row>
     <row r="117">
@@ -2600,16 +2597,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="0">
-        <v>517.36699999999985</v>
+        <v>353.36099999999999</v>
       </c>
       <c r="C117" s="0">
-        <v>19887</v>
+        <v>9685</v>
       </c>
       <c r="D117" s="0">
-        <v>0.93364481512116826</v>
+        <v>0.97470290064390508</v>
       </c>
       <c r="E117" s="0">
-        <v>20106</v>
+        <v>9783</v>
       </c>
     </row>
     <row r="118">
@@ -2617,16 +2614,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="0">
-        <v>611.755</v>
+        <v>639.67700000000002</v>
       </c>
       <c r="C118" s="0">
-        <v>27948</v>
+        <v>11378</v>
       </c>
       <c r="D118" s="0">
-        <v>0.93843790945967198</v>
+        <v>0.34942528023156133</v>
       </c>
       <c r="E118" s="0">
-        <v>28228</v>
+        <v>16778</v>
       </c>
     </row>
     <row r="119">
@@ -2634,16 +2631,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="0">
-        <v>1146.126</v>
+        <v>685.58999999999992</v>
       </c>
       <c r="C119" s="0">
-        <v>32825</v>
+        <v>10874</v>
       </c>
       <c r="D119" s="0">
-        <v>0.31401462064021135</v>
+        <v>0.29071687657448303</v>
       </c>
       <c r="E119" s="0">
-        <v>48535</v>
+        <v>15967</v>
       </c>
     </row>
     <row r="120">
@@ -2651,16 +2648,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="0">
-        <v>1202.4879999999998</v>
+        <v>1691.1319999999998</v>
       </c>
       <c r="C120" s="0">
-        <v>31375</v>
+        <v>27598</v>
       </c>
       <c r="D120" s="0">
-        <v>0.27266669639022167</v>
+        <v>0.12126415908034519</v>
       </c>
       <c r="E120" s="0">
-        <v>46119</v>
+        <v>40683</v>
       </c>
     </row>
     <row r="121">
@@ -2668,16 +2665,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="0">
-        <v>2997.6700000000001</v>
+        <v>685.20300000000009</v>
       </c>
       <c r="C121" s="0">
-        <v>79818</v>
+        <v>10954</v>
       </c>
       <c r="D121" s="0">
-        <v>0.11162026834145101</v>
+        <v>0.29318658108093154</v>
       </c>
       <c r="E121" s="0">
-        <v>117564</v>
+        <v>14421</v>
       </c>
     </row>
     <row r="122">
@@ -2685,16 +2682,16 @@
         <v>121</v>
       </c>
       <c r="B122" s="0">
-        <v>1222.4349999999999</v>
+        <v>1224.1489999999999</v>
       </c>
       <c r="C122" s="0">
-        <v>31683</v>
+        <v>17609</v>
       </c>
       <c r="D122" s="0">
-        <v>0.26643091093235044</v>
+        <v>0.14766446396244015</v>
       </c>
       <c r="E122" s="0">
-        <v>41701</v>
+        <v>46859</v>
       </c>
     </row>
     <row r="123">
@@ -2702,16 +2699,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="0">
-        <v>2183.886</v>
+        <v>1473.7549999999999</v>
       </c>
       <c r="C123" s="0">
-        <v>50878</v>
+        <v>18803</v>
       </c>
       <c r="D123" s="0">
-        <v>0.13405405841637483</v>
+        <v>0.10878936129261857</v>
       </c>
       <c r="E123" s="0">
-        <v>135771</v>
+        <v>49115</v>
       </c>
     </row>
     <row r="124">
@@ -2719,16 +2716,16 @@
         <v>123</v>
       </c>
       <c r="B124" s="0">
-        <v>2569.1950000000002</v>
+        <v>1277.54</v>
       </c>
       <c r="C124" s="0">
-        <v>54323</v>
+        <v>27539</v>
       </c>
       <c r="D124" s="0">
-        <v>0.10341879510884197</v>
+        <v>0.21203571368653851</v>
       </c>
       <c r="E124" s="0">
-        <v>142415</v>
+        <v>37744</v>
       </c>
     </row>
     <row r="125">
@@ -2736,16 +2733,16 @@
         <v>124</v>
       </c>
       <c r="B125" s="0">
-        <v>2456.9209999999998</v>
+        <v>1067.3829999999998</v>
       </c>
       <c r="C125" s="0">
-        <v>79745</v>
+        <v>13967</v>
       </c>
       <c r="D125" s="0">
-        <v>0.16600873554949025</v>
+        <v>0.15405380658701884</v>
       </c>
       <c r="E125" s="0">
-        <v>109600</v>
+        <v>38488</v>
       </c>
     </row>
     <row r="126">
@@ -2753,16 +2750,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="0">
-        <v>1900.903</v>
+        <v>1457.3419999999999</v>
       </c>
       <c r="C126" s="0">
-        <v>40366</v>
+        <v>16089</v>
       </c>
       <c r="D126" s="0">
-        <v>0.14038013887630293</v>
+        <v>0.09519539783039549</v>
       </c>
       <c r="E126" s="0">
-        <v>111390</v>
+        <v>44938</v>
       </c>
     </row>
     <row r="127">
@@ -2770,16 +2767,16 @@
         <v>126</v>
       </c>
       <c r="B127" s="0">
-        <v>2544.6570000000002</v>
+        <v>1635.6509999999998</v>
       </c>
       <c r="C127" s="0">
-        <v>46444</v>
+        <v>26162</v>
       </c>
       <c r="D127" s="0">
-        <v>0.09013240888803345</v>
+        <v>0.12288518237122771</v>
       </c>
       <c r="E127" s="0">
-        <v>129247</v>
+        <v>40115</v>
       </c>
     </row>
     <row r="128">
@@ -2787,16 +2784,16 @@
         <v>127</v>
       </c>
       <c r="B128" s="0">
-        <v>2927.1999999999998</v>
+        <v>725.91999999999985</v>
       </c>
       <c r="C128" s="0">
-        <v>75613</v>
+        <v>7978</v>
       </c>
       <c r="D128" s="0">
-        <v>0.11089233809958735</v>
+        <v>0.1902507476542287</v>
       </c>
       <c r="E128" s="0">
-        <v>116173</v>
+        <v>10644</v>
       </c>
     </row>
     <row r="129">
@@ -2804,16 +2801,16 @@
         <v>128</v>
       </c>
       <c r="B129" s="0">
-        <v>1333.3869999999999</v>
+        <v>1062.9279999999999</v>
       </c>
       <c r="C129" s="0">
-        <v>23102</v>
+        <v>12572</v>
       </c>
       <c r="D129" s="0">
-        <v>0.16328527060845435</v>
+        <v>0.13983199096732377</v>
       </c>
       <c r="E129" s="0">
-        <v>30719</v>
+        <v>37476</v>
       </c>
     </row>
     <row r="130">
@@ -2821,16 +2818,16 @@
         <v>129</v>
       </c>
       <c r="B130" s="0">
-        <v>1865.0419999999999</v>
+        <v>330.90199999999999</v>
       </c>
       <c r="C130" s="0">
-        <v>36338</v>
+        <v>3185</v>
       </c>
       <c r="D130" s="0">
-        <v>0.13127851391471757</v>
+        <v>0.36552788750955362</v>
       </c>
       <c r="E130" s="0">
-        <v>108155</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="131">
@@ -2838,16 +2835,16 @@
         <v>130</v>
       </c>
       <c r="B131" s="0">
-        <v>600.47799999999995</v>
+        <v>492.73200000000003</v>
       </c>
       <c r="C131" s="0">
-        <v>9160</v>
+        <v>7637</v>
       </c>
       <c r="D131" s="0">
-        <v>0.31923546784160961</v>
+        <v>0.39528571378675331</v>
       </c>
       <c r="E131" s="0">
-        <v>12786</v>
+        <v>10446</v>
       </c>
     </row>
     <row r="132">
@@ -2855,16 +2852,16 @@
         <v>131</v>
       </c>
       <c r="B132" s="0">
-        <v>869.34099999999989</v>
+        <v>538.28999999999996</v>
       </c>
       <c r="C132" s="0">
-        <v>22027</v>
+        <v>7577</v>
       </c>
       <c r="D132" s="0">
-        <v>0.36625612063377089</v>
+        <v>0.32860527259171557</v>
       </c>
       <c r="E132" s="0">
-        <v>30208</v>
+        <v>10489</v>
       </c>
     </row>
     <row r="133">
@@ -2872,16 +2869,16 @@
         <v>132</v>
       </c>
       <c r="B133" s="0">
-        <v>936.33500000000004</v>
+        <v>811.35599999999999</v>
       </c>
       <c r="C133" s="0">
-        <v>21884</v>
+        <v>9948</v>
       </c>
       <c r="D133" s="0">
-        <v>0.313670773645086</v>
+        <v>0.18989902562095445</v>
       </c>
       <c r="E133" s="0">
-        <v>30252</v>
+        <v>14395</v>
       </c>
     </row>
     <row r="134">
@@ -2889,16 +2886,16 @@
         <v>133</v>
       </c>
       <c r="B134" s="0">
-        <v>1433.489</v>
+        <v>477.87799999999999</v>
       </c>
       <c r="C134" s="0">
-        <v>28690</v>
+        <v>7889</v>
       </c>
       <c r="D134" s="0">
-        <v>0.17544931738894637</v>
+        <v>0.43410795589419193</v>
       </c>
       <c r="E134" s="0">
-        <v>41747</v>
+        <v>10850</v>
       </c>
     </row>
     <row r="135">
@@ -2906,16 +2903,16 @@
         <v>134</v>
       </c>
       <c r="B135" s="0">
-        <v>828.26200000000006</v>
+        <v>421.63</v>
       </c>
       <c r="C135" s="0">
-        <v>22784</v>
+        <v>4175</v>
       </c>
       <c r="D135" s="0">
-        <v>0.41735379078976204</v>
+        <v>0.29512318895595419</v>
       </c>
       <c r="E135" s="0">
-        <v>31201</v>
+        <v>6145</v>
       </c>
     </row>
     <row r="136">
@@ -2923,16 +2920,16 @@
         <v>135</v>
       </c>
       <c r="B136" s="0">
-        <v>749.2299999999999</v>
+        <v>664.37199999999996</v>
       </c>
       <c r="C136" s="0">
-        <v>12037</v>
+        <v>7206</v>
       </c>
       <c r="D136" s="0">
-        <v>0.26946217267619599</v>
+        <v>0.20515470439853267</v>
       </c>
       <c r="E136" s="0">
-        <v>17657</v>
+        <v>10315</v>
       </c>
     </row>
     <row r="137">
@@ -2940,16 +2937,16 @@
         <v>136</v>
       </c>
       <c r="B137" s="0">
-        <v>1231.8419999999999</v>
+        <v>629.64999999999998</v>
       </c>
       <c r="C137" s="0">
-        <v>20795</v>
+        <v>8549</v>
       </c>
       <c r="D137" s="0">
-        <v>0.17221016146069845</v>
+        <v>0.27097346557375929</v>
       </c>
       <c r="E137" s="0">
-        <v>29991</v>
+        <v>13229</v>
       </c>
     </row>
     <row r="138">
@@ -2957,16 +2954,16 @@
         <v>137</v>
       </c>
       <c r="B138" s="0">
-        <v>1118.271</v>
+        <v>248.23000000000002</v>
       </c>
       <c r="C138" s="0">
-        <v>24656</v>
+        <v>2160</v>
       </c>
       <c r="D138" s="0">
-        <v>0.24776408928471705</v>
+        <v>0.44050929896020602</v>
       </c>
       <c r="E138" s="0">
-        <v>38059</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="139">
@@ -2974,16 +2971,16 @@
         <v>138</v>
       </c>
       <c r="B139" s="0">
-        <v>448.16999999999996</v>
+        <v>736.06399999999996</v>
       </c>
       <c r="C139" s="0">
-        <v>6244</v>
+        <v>4328</v>
       </c>
       <c r="D139" s="0">
-        <v>0.39064942953395831</v>
+        <v>0.1003843384481623</v>
       </c>
       <c r="E139" s="0">
-        <v>7546</v>
+        <v>9843</v>
       </c>
     </row>
     <row r="140">
@@ -2991,16 +2988,16 @@
         <v>139</v>
       </c>
       <c r="B140" s="0">
-        <v>1293.319</v>
+        <v>467.96100000000001</v>
       </c>
       <c r="C140" s="0">
-        <v>12510</v>
+        <v>7144</v>
       </c>
       <c r="D140" s="0">
-        <v>0.093984418377195109</v>
+        <v>0.40995103686397871</v>
       </c>
       <c r="E140" s="0">
-        <v>28470</v>
+        <v>9067</v>
       </c>
     </row>
     <row r="141">
@@ -3008,16 +3005,16 @@
         <v>140</v>
       </c>
       <c r="B141" s="0">
-        <v>816.61599999999999</v>
+        <v>1428.444</v>
       </c>
       <c r="C141" s="0">
-        <v>20662</v>
+        <v>18682</v>
       </c>
       <c r="D141" s="0">
-        <v>0.38935562345317426</v>
+        <v>0.11505534350838241</v>
       </c>
       <c r="E141" s="0">
-        <v>26148</v>
+        <v>27824</v>
       </c>
     </row>
     <row r="142">
@@ -3025,16 +3022,16 @@
         <v>141</v>
       </c>
       <c r="B142" s="0">
-        <v>2501.8019999999997</v>
+        <v>780.29399999999998</v>
       </c>
       <c r="C142" s="0">
-        <v>53979</v>
+        <v>34638</v>
       </c>
       <c r="D142" s="0">
-        <v>0.10837492949795405</v>
+        <v>0.71490138260492964</v>
       </c>
       <c r="E142" s="0">
-        <v>80228</v>
+        <v>38692</v>
       </c>
     </row>
     <row r="143">
@@ -3042,16 +3039,16 @@
         <v>142</v>
       </c>
       <c r="B143" s="0">
-        <v>1336.0009999999997</v>
+        <v>1001.128</v>
       </c>
       <c r="C143" s="0">
-        <v>100077</v>
+        <v>59319</v>
       </c>
       <c r="D143" s="0">
-        <v>0.70458042896259088</v>
+        <v>0.74374570183969024</v>
       </c>
       <c r="E143" s="0">
-        <v>111692</v>
+        <v>66031</v>
       </c>
     </row>
     <row r="144">
@@ -3059,16 +3056,16 @@
         <v>143</v>
       </c>
       <c r="B144" s="0">
-        <v>1708.3849999999998</v>
+        <v>1708.2260000000001</v>
       </c>
       <c r="C144" s="0">
-        <v>171332</v>
+        <v>34725</v>
       </c>
       <c r="D144" s="0">
-        <v>0.73769501621280076</v>
+        <v>0.1495414071495289</v>
       </c>
       <c r="E144" s="0">
-        <v>190508</v>
+        <v>50586</v>
       </c>
     </row>
     <row r="145">
@@ -3076,16 +3073,16 @@
         <v>144</v>
       </c>
       <c r="B145" s="0">
-        <v>3016.5369999999998</v>
+        <v>970.74700000000007</v>
       </c>
       <c r="C145" s="0">
-        <v>100333</v>
+        <v>53468</v>
       </c>
       <c r="D145" s="0">
-        <v>0.1385595131816964</v>
+        <v>0.71300354518922693</v>
       </c>
       <c r="E145" s="0">
-        <v>146419</v>
+        <v>59401</v>
       </c>
     </row>
     <row r="146">
@@ -3093,16 +3090,16 @@
         <v>145</v>
       </c>
       <c r="B146" s="0">
-        <v>1655.5079999999998</v>
+        <v>799.38699999999994</v>
       </c>
       <c r="C146" s="0">
-        <v>154468</v>
+        <v>37445</v>
       </c>
       <c r="D146" s="0">
-        <v>0.7082487553666551</v>
+        <v>0.73635889336945481</v>
       </c>
       <c r="E146" s="0">
-        <v>171438</v>
+        <v>41702</v>
       </c>
     </row>
     <row r="147">
@@ -3110,16 +3107,16 @@
         <v>146</v>
       </c>
       <c r="B147" s="0">
-        <v>1362.6769999999999</v>
+        <v>902.11400000000003</v>
       </c>
       <c r="C147" s="0">
-        <v>108185</v>
+        <v>42989</v>
       </c>
       <c r="D147" s="0">
-        <v>0.73213481965518334</v>
+        <v>0.6638108723961863</v>
       </c>
       <c r="E147" s="0">
-        <v>120221</v>
+        <v>47765</v>
       </c>
     </row>
     <row r="148">
@@ -3127,16 +3124,16 @@
         <v>147</v>
       </c>
       <c r="B148" s="0">
-        <v>1539.0640000000001</v>
+        <v>1293.9269999999999</v>
       </c>
       <c r="C148" s="0">
-        <v>124176</v>
+        <v>20594</v>
       </c>
       <c r="D148" s="0">
-        <v>0.65877054169407456</v>
+        <v>0.15457206962946385</v>
       </c>
       <c r="E148" s="0">
-        <v>137920</v>
+        <v>29457</v>
       </c>
     </row>
     <row r="149">
@@ -3144,16 +3141,16 @@
         <v>148</v>
       </c>
       <c r="B149" s="0">
-        <v>2291.2809999999999</v>
+        <v>801.52999999999997</v>
       </c>
       <c r="C149" s="0">
-        <v>59510</v>
+        <v>33376</v>
       </c>
       <c r="D149" s="0">
-        <v>0.14244365428676145</v>
+        <v>0.65283673915916784</v>
       </c>
       <c r="E149" s="0">
-        <v>85187</v>
+        <v>37311</v>
       </c>
     </row>
     <row r="150">
@@ -3161,16 +3158,16 @@
         <v>149</v>
       </c>
       <c r="B150" s="0">
-        <v>1368.2360000000001</v>
+        <v>513.86299999999994</v>
       </c>
       <c r="C150" s="0">
-        <v>96436</v>
+        <v>6807</v>
       </c>
       <c r="D150" s="0">
-        <v>0.64733192524929473</v>
+        <v>0.32394472956349479</v>
       </c>
       <c r="E150" s="0">
-        <v>107502</v>
+        <v>8868</v>
       </c>
     </row>
     <row r="151">
@@ -3178,16 +3175,16 @@
         <v>150</v>
       </c>
       <c r="B151" s="0">
-        <v>936.37300000000005</v>
+        <v>992.17600000000004</v>
       </c>
       <c r="C151" s="0">
-        <v>19664</v>
+        <v>11421</v>
       </c>
       <c r="D151" s="0">
-        <v>0.28182788705486983</v>
+        <v>0.14579296234873798</v>
       </c>
       <c r="E151" s="0">
-        <v>25598</v>
+        <v>32027</v>
       </c>
     </row>
     <row r="152">
@@ -3195,16 +3192,16 @@
         <v>151</v>
       </c>
       <c r="B152" s="0">
-        <v>1700.1689999999999</v>
+        <v>1305.1229999999998</v>
       </c>
       <c r="C152" s="0">
-        <v>33007</v>
+        <v>14235</v>
       </c>
       <c r="D152" s="0">
-        <v>0.1434933354668792</v>
+        <v>0.10501817068055337</v>
       </c>
       <c r="E152" s="0">
-        <v>92068</v>
+        <v>37510</v>
       </c>
     </row>
     <row r="153">
@@ -3212,16 +3209,16 @@
         <v>152</v>
       </c>
       <c r="B153" s="0">
-        <v>2229.4879999999998</v>
+        <v>1001.3029999999999</v>
       </c>
       <c r="C153" s="0">
-        <v>41219</v>
+        <v>22419</v>
       </c>
       <c r="D153" s="0">
-        <v>0.10420703450370043</v>
+        <v>0.28099271870640269</v>
       </c>
       <c r="E153" s="0">
-        <v>107899</v>
+        <v>32805</v>
       </c>
     </row>
     <row r="154">
@@ -3229,16 +3226,16 @@
         <v>153</v>
       </c>
       <c r="B154" s="0">
-        <v>1740.4770000000001</v>
+        <v>1026.7879999999998</v>
       </c>
       <c r="C154" s="0">
-        <v>64815</v>
+        <v>28748</v>
       </c>
       <c r="D154" s="0">
-        <v>0.26887400254452137</v>
+        <v>0.34265409888549886</v>
       </c>
       <c r="E154" s="0">
-        <v>95074</v>
+        <v>42021</v>
       </c>
     </row>
     <row r="155">
@@ -3246,16 +3243,16 @@
         <v>154</v>
       </c>
       <c r="B155" s="0">
-        <v>1832.3680000000002</v>
+        <v>1355.6100000000001</v>
       </c>
       <c r="C155" s="0">
-        <v>83100</v>
+        <v>14592</v>
       </c>
       <c r="D155" s="0">
-        <v>0.31101797562513067</v>
+        <v>0.099782678411194189</v>
       </c>
       <c r="E155" s="0">
-        <v>121863</v>
+        <v>40306</v>
       </c>
     </row>
     <row r="156">
@@ -3263,16 +3260,16 @@
         <v>155</v>
       </c>
       <c r="B156" s="0">
-        <v>2338.1549999999997</v>
+        <v>1089.327</v>
       </c>
       <c r="C156" s="0">
-        <v>42177</v>
+        <v>28525</v>
       </c>
       <c r="D156" s="0">
-        <v>0.096948022277282997</v>
+        <v>0.30207791899066877</v>
       </c>
       <c r="E156" s="0">
-        <v>116002</v>
+        <v>41922</v>
       </c>
     </row>
     <row r="157">
@@ -3280,16 +3277,16 @@
         <v>156</v>
       </c>
       <c r="B157" s="0">
-        <v>1944.4919999999997</v>
+        <v>946.66499999999996</v>
       </c>
       <c r="C157" s="0">
-        <v>82534</v>
+        <v>21205</v>
       </c>
       <c r="D157" s="0">
-        <v>0.27430292345170915</v>
+        <v>0.29734148040914332</v>
       </c>
       <c r="E157" s="0">
-        <v>121100</v>
+        <v>30938</v>
       </c>
     </row>
     <row r="158">
@@ -3297,16 +3294,16 @@
         <v>157</v>
       </c>
       <c r="B158" s="0">
-        <v>1658.9789999999998</v>
+        <v>1315.501</v>
       </c>
       <c r="C158" s="0">
-        <v>61290</v>
+        <v>14309</v>
       </c>
       <c r="D158" s="0">
-        <v>0.27984510080097041</v>
+        <v>0.10390508036232909</v>
       </c>
       <c r="E158" s="0">
-        <v>89750</v>
+        <v>31479</v>
       </c>
     </row>
     <row r="159">
@@ -3314,16 +3311,16 @@
         <v>158</v>
       </c>
       <c r="B159" s="0">
-        <v>1659.4349999999999</v>
+        <v>1093.2540000000001</v>
       </c>
       <c r="C159" s="0">
-        <v>61505</v>
+        <v>10453</v>
       </c>
       <c r="D159" s="0">
-        <v>0.28067245624616149</v>
+        <v>0.10990277653449233</v>
       </c>
       <c r="E159" s="0">
-        <v>90950</v>
+        <v>29374</v>
       </c>
     </row>
     <row r="160">
@@ -3331,16 +3328,16 @@
         <v>159</v>
       </c>
       <c r="B160" s="0">
-        <v>1866.5160000000001</v>
+        <v>1277.7819999999999</v>
       </c>
       <c r="C160" s="0">
-        <v>30282</v>
+        <v>13862</v>
       </c>
       <c r="D160" s="0">
-        <v>0.1092272463071544</v>
+        <v>0.10668963432182639</v>
       </c>
       <c r="E160" s="0">
-        <v>84720</v>
+        <v>37874</v>
       </c>
     </row>
     <row r="161">
@@ -3348,16 +3345,16 @@
         <v>160</v>
       </c>
       <c r="B161" s="0">
-        <v>2203.2840000000001</v>
+        <v>782.01599999999996</v>
       </c>
       <c r="C161" s="0">
-        <v>40013</v>
+        <v>35447</v>
       </c>
       <c r="D161" s="0">
-        <v>0.10357859526089933</v>
+        <v>0.72838009954983485</v>
       </c>
       <c r="E161" s="0">
-        <v>109490</v>
+        <v>39397</v>
       </c>
     </row>
     <row r="162">
@@ -3365,16 +3362,16 @@
         <v>161</v>
       </c>
       <c r="B162" s="0">
-        <v>1334.8629999999998</v>
+        <v>723.524</v>
       </c>
       <c r="C162" s="0">
-        <v>102433</v>
+        <v>31150</v>
       </c>
       <c r="D162" s="0">
-        <v>0.72239771826976773</v>
+        <v>0.74775965908855646</v>
       </c>
       <c r="E162" s="0">
-        <v>113642</v>
+        <v>34705</v>
       </c>
     </row>
     <row r="163">
@@ -3382,16 +3379,16 @@
         <v>162</v>
       </c>
       <c r="B163" s="0">
-        <v>1231.6510000000001</v>
+        <v>945.41799999999989</v>
       </c>
       <c r="C163" s="0">
-        <v>90025</v>
+        <v>9218</v>
       </c>
       <c r="D163" s="0">
-        <v>0.74575756312950303</v>
+        <v>0.12959815967206953</v>
       </c>
       <c r="E163" s="0">
-        <v>100140</v>
+        <v>24867</v>
       </c>
     </row>
     <row r="164">
@@ -3399,16 +3396,16 @@
         <v>163</v>
       </c>
       <c r="B164" s="0">
-        <v>1610.7269999999999</v>
+        <v>879.23799999999983</v>
       </c>
       <c r="C164" s="0">
-        <v>26650</v>
+        <v>42613</v>
       </c>
       <c r="D164" s="0">
-        <v>0.12908126120206928</v>
+        <v>0.69269024991117123</v>
       </c>
       <c r="E164" s="0">
-        <v>71768</v>
+        <v>47433</v>
       </c>
     </row>
     <row r="165">
@@ -3416,16 +3413,16 @@
         <v>164</v>
       </c>
       <c r="B165" s="0">
-        <v>1500.4090000000001</v>
+        <v>991.27199999999993</v>
       </c>
       <c r="C165" s="0">
-        <v>123104</v>
+        <v>11637</v>
       </c>
       <c r="D165" s="0">
-        <v>0.68716765264452639</v>
+        <v>0.14882134329799895</v>
       </c>
       <c r="E165" s="0">
-        <v>136804</v>
+        <v>33235</v>
       </c>
     </row>
     <row r="166">
@@ -3433,16 +3430,16 @@
         <v>165</v>
       </c>
       <c r="B166" s="0">
-        <v>1693.471</v>
+        <v>1022.4670000000001</v>
       </c>
       <c r="C166" s="0">
-        <v>33600</v>
+        <v>11141</v>
       </c>
       <c r="D166" s="0">
-        <v>0.14722908517459921</v>
+        <v>0.13391691561077707</v>
       </c>
       <c r="E166" s="0">
-        <v>96056</v>
+        <v>31567</v>
       </c>
     </row>
     <row r="167">
@@ -3450,16 +3447,16 @@
         <v>166</v>
       </c>
       <c r="B167" s="0">
-        <v>1748.4769999999996</v>
+        <v>722.16499999999985</v>
       </c>
       <c r="C167" s="0">
-        <v>32236</v>
+        <v>29918</v>
       </c>
       <c r="D167" s="0">
-        <v>0.13250466347255949</v>
+        <v>0.72089090965003655</v>
       </c>
       <c r="E167" s="0">
-        <v>91147</v>
+        <v>33381</v>
       </c>
     </row>
     <row r="168">
@@ -3467,16 +3464,16 @@
         <v>167</v>
       </c>
       <c r="B168" s="0">
-        <v>1232.796</v>
+        <v>729.94200000000001</v>
       </c>
       <c r="C168" s="0">
-        <v>86460</v>
+        <v>28996</v>
       </c>
       <c r="D168" s="0">
-        <v>0.71489566249440284</v>
+        <v>0.68386637237351233</v>
       </c>
       <c r="E168" s="0">
-        <v>96213</v>
+        <v>32381</v>
       </c>
     </row>
     <row r="169">
@@ -3484,16 +3481,16 @@
         <v>168</v>
       </c>
       <c r="B169" s="0">
-        <v>1242.557</v>
+        <v>874.28200000000004</v>
       </c>
       <c r="C169" s="0">
-        <v>83804</v>
+        <v>7561</v>
       </c>
       <c r="D169" s="0">
-        <v>0.68209045406266389</v>
+        <v>0.12430426441348393</v>
       </c>
       <c r="E169" s="0">
-        <v>93437</v>
+        <v>21851</v>
       </c>
     </row>
     <row r="170">
@@ -3501,16 +3498,16 @@
         <v>169</v>
       </c>
       <c r="B170" s="0">
-        <v>1500.894</v>
+        <v>696.16800000000001</v>
       </c>
       <c r="C170" s="0">
-        <v>21860</v>
+        <v>27018</v>
       </c>
       <c r="D170" s="0">
-        <v>0.12194387142435527</v>
+        <v>0.70054324226730735</v>
       </c>
       <c r="E170" s="0">
-        <v>63196</v>
+        <v>30007</v>
       </c>
     </row>
     <row r="171">
@@ -3518,16 +3515,16 @@
         <v>170</v>
       </c>
       <c r="B171" s="0">
-        <v>1188.5639999999999</v>
+        <v>556.56099999999992</v>
       </c>
       <c r="C171" s="0">
-        <v>78077</v>
+        <v>9326</v>
       </c>
       <c r="D171" s="0">
-        <v>0.6945249277843627</v>
+        <v>0.37833779971401527</v>
       </c>
       <c r="E171" s="0">
-        <v>86653</v>
+        <v>13114</v>
       </c>
     </row>
     <row r="172">
@@ -3535,16 +3532,16 @@
         <v>171</v>
       </c>
       <c r="B172" s="0">
-        <v>957.87399999999991</v>
+        <v>499.5619999999999</v>
       </c>
       <c r="C172" s="0">
-        <v>26909</v>
+        <v>7933</v>
       </c>
       <c r="D172" s="0">
-        <v>0.36854510930574419</v>
+        <v>0.3994556120344801</v>
       </c>
       <c r="E172" s="0">
-        <v>37713</v>
+        <v>11198</v>
       </c>
     </row>
     <row r="173">
@@ -3552,16 +3549,16 @@
         <v>172</v>
       </c>
       <c r="B173" s="0">
-        <v>856.27099999999996</v>
+        <v>646.38</v>
       </c>
       <c r="C173" s="0">
-        <v>22925</v>
+        <v>21789</v>
       </c>
       <c r="D173" s="0">
-        <v>0.39291330651674389</v>
+        <v>0.65534704037519953</v>
       </c>
       <c r="E173" s="0">
-        <v>32311</v>
+        <v>24164</v>
       </c>
     </row>
     <row r="174">
@@ -3569,16 +3566,16 @@
         <v>173</v>
       </c>
       <c r="B174" s="0">
-        <v>1106.5149999999999</v>
+        <v>790.95899999999995</v>
       </c>
       <c r="C174" s="0">
-        <v>62986</v>
+        <v>27616</v>
       </c>
       <c r="D174" s="0">
-        <v>0.64645646284630798</v>
+        <v>0.55470578342670973</v>
       </c>
       <c r="E174" s="0">
-        <v>69767</v>
+        <v>30807</v>
       </c>
     </row>
     <row r="175">
@@ -3586,16 +3583,16 @@
         <v>174</v>
       </c>
       <c r="B175" s="0">
-        <v>1367.6689999999999</v>
+        <v>740.44500000000005</v>
       </c>
       <c r="C175" s="0">
-        <v>79777</v>
+        <v>12050</v>
       </c>
       <c r="D175" s="0">
-        <v>0.53595158345278282</v>
+        <v>0.2761921312498905</v>
       </c>
       <c r="E175" s="0">
-        <v>88902</v>
+        <v>17060</v>
       </c>
     </row>
     <row r="176">
@@ -3603,16 +3600,16 @@
         <v>175</v>
       </c>
       <c r="B176" s="0">
-        <v>1300.22</v>
+        <v>745.78699999999992</v>
       </c>
       <c r="C176" s="0">
-        <v>34833</v>
+        <v>32083</v>
       </c>
       <c r="D176" s="0">
-        <v>0.25892087120702512</v>
+        <v>0.72486180759805208</v>
       </c>
       <c r="E176" s="0">
-        <v>49170</v>
+        <v>35603</v>
       </c>
     </row>
     <row r="177">
@@ -3620,16 +3617,16 @@
         <v>176</v>
       </c>
       <c r="B177" s="0">
-        <v>1274.5710000000001</v>
+        <v>613.78800000000001</v>
       </c>
       <c r="C177" s="0">
-        <v>92727</v>
+        <v>21197</v>
       </c>
       <c r="D177" s="0">
-        <v>0.71727882083200034</v>
+        <v>0.70704568637576626</v>
       </c>
       <c r="E177" s="0">
-        <v>102695</v>
+        <v>23474</v>
       </c>
     </row>
     <row r="178">
@@ -3637,16 +3634,16 @@
         <v>177</v>
       </c>
       <c r="B178" s="0">
-        <v>1057.223</v>
+        <v>629.79900000000009</v>
       </c>
       <c r="C178" s="0">
-        <v>61258</v>
+        <v>20953</v>
       </c>
       <c r="D178" s="0">
-        <v>0.68871488942456804</v>
+        <v>0.66382276749221247</v>
       </c>
       <c r="E178" s="0">
-        <v>67937</v>
+        <v>23397</v>
       </c>
     </row>
     <row r="179">
@@ -3654,16 +3651,16 @@
         <v>178</v>
       </c>
       <c r="B179" s="0">
-        <v>1076.537</v>
+        <v>555.55200000000002</v>
       </c>
       <c r="C179" s="0">
-        <v>60563</v>
+        <v>10012</v>
       </c>
       <c r="D179" s="0">
-        <v>0.6566883657226591</v>
+        <v>0.40764420622386599</v>
       </c>
       <c r="E179" s="0">
-        <v>67509</v>
+        <v>13917</v>
       </c>
     </row>
     <row r="180">
@@ -3671,33 +3668,16 @@
         <v>179</v>
       </c>
       <c r="B180" s="0">
-        <v>954.58899999999994</v>
+        <v>644.69999999999993</v>
       </c>
       <c r="C180" s="0">
-        <v>28910</v>
+        <v>10135</v>
       </c>
       <c r="D180" s="0">
-        <v>0.39868060127123911</v>
+        <v>0.30642082436797419</v>
       </c>
       <c r="E180" s="0">
-        <v>40247</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="B181" s="0">
-        <v>1101.8240000000001</v>
-      </c>
-      <c r="C181" s="0">
-        <v>29301</v>
-      </c>
-      <c r="D181" s="0">
-        <v>0.30329681557732485</v>
-      </c>
-      <c r="E181" s="0">
-        <v>42252</v>
+        <v>14648</v>
       </c>
     </row>
   </sheetData>

--- a/Proyecto/tablaNoIndexada.xlsx
+++ b/Proyecto/tablaNoIndexada.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t>nombreObjeto</t>
   </si>
@@ -93,9 +93,6 @@
     <t>obj4IMG009.bmp</t>
   </si>
   <si>
-    <t>obj5IMG009.bmp</t>
-  </si>
-  <si>
     <t>obj1IMG010.bmp</t>
   </si>
   <si>
@@ -210,9 +207,6 @@
     <t>obj2IMG022.bmp</t>
   </si>
   <si>
-    <t>obj3IMG022.bmp</t>
-  </si>
-  <si>
     <t>obj1IMG023.bmp</t>
   </si>
   <si>
@@ -220,9 +214,6 @@
   </si>
   <si>
     <t>obj3IMG023.bmp</t>
-  </si>
-  <si>
-    <t>obj4IMG023.bmp</t>
   </si>
   <si>
     <t>obj1IMG024.bmp</t>
@@ -610,12 +601,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E180"/>
+  <dimension ref="A1:E177"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="true"/>
     <col min="2" max="2" width="10.140625" customWidth="true"/>
-    <col min="3" max="3" width="6.140625" customWidth="true"/>
+    <col min="3" max="3" width="5.140625" customWidth="true"/>
     <col min="4" max="4" width="13.7109375" customWidth="true"/>
     <col min="5" max="5" width="11.5703125" customWidth="true"/>
   </cols>
@@ -625,16 +616,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="2">
@@ -642,16 +633,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>352.52500000000003</v>
+        <v>188.023</v>
       </c>
       <c r="C2" s="0">
-        <v>6914</v>
+        <v>2549</v>
       </c>
       <c r="D2" s="0">
-        <v>0.69913234773375799</v>
+        <v>0.90606163975877918</v>
       </c>
       <c r="E2" s="0">
-        <v>7062</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="3">
@@ -659,16 +650,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>372.69499999999994</v>
+        <v>188.67600000000002</v>
       </c>
       <c r="C3" s="0">
-        <v>8952</v>
+        <v>2531</v>
       </c>
       <c r="D3" s="0">
-        <v>0.80988397315224059</v>
+        <v>0.89344678056558469</v>
       </c>
       <c r="E3" s="0">
-        <v>9072</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="4">
@@ -676,16 +667,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>333.13100000000003</v>
+        <v>184.649</v>
       </c>
       <c r="C4" s="0">
-        <v>7248</v>
+        <v>2534</v>
       </c>
       <c r="D4" s="0">
-        <v>0.8207255463336196</v>
+        <v>0.93394769497861341</v>
       </c>
       <c r="E4" s="0">
-        <v>7351</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="5">
@@ -693,16 +684,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>325.55499999999995</v>
+        <v>183.61500000000001</v>
       </c>
       <c r="C5" s="0">
-        <v>7017</v>
+        <v>2528</v>
       </c>
       <c r="D5" s="0">
-        <v>0.83197945318580346</v>
+        <v>0.94225970586549224</v>
       </c>
       <c r="E5" s="0">
-        <v>7110</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="6">
@@ -710,16 +701,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>250.297</v>
+        <v>190.64399999999998</v>
       </c>
       <c r="C6" s="0">
-        <v>4151</v>
+        <v>2527</v>
       </c>
       <c r="D6" s="0">
-        <v>0.83262857011534808</v>
+        <v>0.87371305054021342</v>
       </c>
       <c r="E6" s="0">
-        <v>4225</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="7">
@@ -727,16 +718,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>384.87</v>
+        <v>188.88299999999998</v>
       </c>
       <c r="C7" s="0">
-        <v>9358</v>
+        <v>2548</v>
       </c>
       <c r="D7" s="0">
-        <v>0.79389814131381375</v>
+        <v>0.89747744680666508</v>
       </c>
       <c r="E7" s="0">
-        <v>9518</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="8">
@@ -744,16 +735,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>535.51900000000001</v>
+        <v>186.52600000000001</v>
       </c>
       <c r="C8" s="0">
-        <v>18616</v>
+        <v>2549</v>
       </c>
       <c r="D8" s="0">
-        <v>0.81573005941880961</v>
+        <v>0.92066354185264276</v>
       </c>
       <c r="E8" s="0">
-        <v>18800</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="9">
@@ -761,16 +752,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>329.88900000000001</v>
+        <v>189.61899999999997</v>
       </c>
       <c r="C9" s="0">
-        <v>7157</v>
+        <v>2528</v>
       </c>
       <c r="D9" s="0">
-        <v>0.82642836038775724</v>
+        <v>0.88353392521119001</v>
       </c>
       <c r="E9" s="0">
-        <v>7262</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="10">
@@ -778,16 +769,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>378.59200000000004</v>
+        <v>186.38599999999997</v>
       </c>
       <c r="C10" s="0">
-        <v>9282</v>
+        <v>2544</v>
       </c>
       <c r="D10" s="0">
-        <v>0.81378290553129295</v>
+        <v>0.92023849131778801</v>
       </c>
       <c r="E10" s="0">
-        <v>9410</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="11">
@@ -795,16 +786,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>256.96300000000002</v>
+        <v>188.70099999999999</v>
       </c>
       <c r="C11" s="0">
-        <v>4196</v>
+        <v>2547</v>
       </c>
       <c r="D11" s="0">
-        <v>0.79855375402996465</v>
+        <v>0.89885658759098941</v>
       </c>
       <c r="E11" s="0">
-        <v>4283</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="12">
@@ -812,16 +803,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>527.91899999999998</v>
+        <v>190.107</v>
       </c>
       <c r="C12" s="0">
-        <v>18566</v>
+        <v>2526</v>
       </c>
       <c r="D12" s="0">
-        <v>0.83713138560309164</v>
+        <v>0.87830831302249024</v>
       </c>
       <c r="E12" s="0">
-        <v>18727</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="13">
@@ -829,16 +820,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>236.13799999999998</v>
+        <v>184.46699999999998</v>
       </c>
       <c r="C13" s="0">
-        <v>3782</v>
+        <v>2530</v>
       </c>
       <c r="D13" s="0">
-        <v>0.85231401010263474</v>
+        <v>0.93431434206869113</v>
       </c>
       <c r="E13" s="0">
-        <v>3832</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="14">
@@ -846,16 +837,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="0">
-        <v>317.61600000000004</v>
+        <v>185.67400000000001</v>
       </c>
       <c r="C14" s="0">
-        <v>6721</v>
+        <v>2552</v>
       </c>
       <c r="D14" s="0">
-        <v>0.8372188836557316</v>
+        <v>0.93022572787739333</v>
       </c>
       <c r="E14" s="0">
-        <v>6818</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="15">
@@ -863,16 +854,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="0">
-        <v>369.495</v>
+        <v>185.839</v>
       </c>
       <c r="C15" s="0">
-        <v>8924</v>
+        <v>2548</v>
       </c>
       <c r="D15" s="0">
-        <v>0.82139545191048269</v>
+        <v>0.92711918475384603</v>
       </c>
       <c r="E15" s="0">
-        <v>9055</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="16">
@@ -880,16 +871,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="0">
-        <v>445.928</v>
+        <v>190.07399999999998</v>
       </c>
       <c r="C16" s="0">
-        <v>13103</v>
+        <v>2545</v>
       </c>
       <c r="D16" s="0">
-        <v>0.82803962418415022</v>
+        <v>0.88522204770323409</v>
       </c>
       <c r="E16" s="0">
-        <v>13248</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="17">
@@ -897,16 +888,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="0">
-        <v>347.952</v>
+        <v>308.68900000000002</v>
       </c>
       <c r="C17" s="0">
-        <v>3568</v>
+        <v>562</v>
       </c>
       <c r="D17" s="0">
-        <v>0.37033608870748053</v>
+        <v>0.074114617547924769</v>
       </c>
       <c r="E17" s="0">
-        <v>5033</v>
+        <v>878</v>
       </c>
     </row>
     <row r="18">
@@ -914,16 +905,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="0">
-        <v>1045.5729999999999</v>
+        <v>184.58599999999998</v>
       </c>
       <c r="C18" s="0">
-        <v>10599</v>
+        <v>734</v>
       </c>
       <c r="D18" s="0">
-        <v>0.12183330805197765</v>
+        <v>0.27071256046461917</v>
       </c>
       <c r="E18" s="0">
-        <v>14729</v>
+        <v>996</v>
       </c>
     </row>
     <row r="19">
@@ -931,16 +922,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="0">
-        <v>573.61599999999999</v>
+        <v>194.06200000000001</v>
       </c>
       <c r="C19" s="0">
-        <v>5063</v>
+        <v>807</v>
       </c>
       <c r="D19" s="0">
-        <v>0.19336384707619172</v>
+        <v>0.26927894240729744</v>
       </c>
       <c r="E19" s="0">
-        <v>7583</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="20">
@@ -948,16 +939,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="0">
-        <v>812.78800000000001</v>
+        <v>197.53300000000002</v>
       </c>
       <c r="C20" s="0">
-        <v>9732</v>
+        <v>830</v>
       </c>
       <c r="D20" s="0">
-        <v>0.18512172912848227</v>
+        <v>0.26730595701130666</v>
       </c>
       <c r="E20" s="0">
-        <v>14048</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="21">
@@ -965,16 +956,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="0">
-        <v>441.54599999999999</v>
+        <v>184.58599999999998</v>
       </c>
       <c r="C21" s="0">
-        <v>3393</v>
+        <v>739</v>
       </c>
       <c r="D21" s="0">
-        <v>0.21869649061460719</v>
+        <v>0.27255665147595853</v>
       </c>
       <c r="E21" s="0">
-        <v>5388</v>
+        <v>996</v>
       </c>
     </row>
     <row r="22">
@@ -982,16 +973,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="0">
-        <v>348.04300000000001</v>
+        <v>194.06200000000001</v>
       </c>
       <c r="C22" s="0">
-        <v>3563</v>
+        <v>811</v>
       </c>
       <c r="D22" s="0">
-        <v>0.36962375904731992</v>
+        <v>0.27061365835479334</v>
       </c>
       <c r="E22" s="0">
-        <v>5033</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="23">
@@ -999,16 +990,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="0">
-        <v>934.74600000000009</v>
+        <v>197.53300000000002</v>
       </c>
       <c r="C23" s="0">
-        <v>13424</v>
+        <v>830</v>
       </c>
       <c r="D23" s="0">
-        <v>0.19306545672107281</v>
+        <v>0.26730595701130666</v>
       </c>
       <c r="E23" s="0">
-        <v>18171</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="24">
@@ -1016,16 +1007,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="0">
-        <v>597.327</v>
+        <v>184.58599999999998</v>
       </c>
       <c r="C24" s="0">
-        <v>10193</v>
+        <v>739</v>
       </c>
       <c r="D24" s="0">
-        <v>0.35899433587464813</v>
+        <v>0.27255665147595853</v>
       </c>
       <c r="E24" s="0">
-        <v>14244</v>
+        <v>996</v>
       </c>
     </row>
     <row r="25">
@@ -1033,16 +1024,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="0">
-        <v>545.84399999999994</v>
+        <v>194.06200000000001</v>
       </c>
       <c r="C25" s="0">
-        <v>5470</v>
+        <v>811</v>
       </c>
       <c r="D25" s="0">
-        <v>0.23070664769725954</v>
+        <v>0.27061365835479334</v>
       </c>
       <c r="E25" s="0">
-        <v>7920</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="26">
@@ -1050,16 +1041,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="0">
-        <v>345.58499999999998</v>
+        <v>203.172</v>
       </c>
       <c r="C26" s="0">
-        <v>4188</v>
+        <v>855</v>
       </c>
       <c r="D26" s="0">
-        <v>0.44066318531589888</v>
+        <v>0.26028447643627955</v>
       </c>
       <c r="E26" s="0">
-        <v>5694</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="27">
@@ -1067,16 +1058,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="0">
-        <v>19.260999999999999</v>
+        <v>198.38499999999999</v>
       </c>
       <c r="C27" s="0">
-        <v>32</v>
+        <v>834</v>
       </c>
       <c r="D27" s="0">
-        <v>1.0839323546001161</v>
+        <v>0.26629208067066734</v>
       </c>
       <c r="E27" s="0">
-        <v>33</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="28">
@@ -1084,16 +1075,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="0">
-        <v>779.75099999999986</v>
+        <v>184.21399999999997</v>
       </c>
       <c r="C28" s="0">
-        <v>7335</v>
+        <v>742</v>
       </c>
       <c r="D28" s="0">
-        <v>0.15159961606157088</v>
+        <v>0.27476948741252222</v>
       </c>
       <c r="E28" s="0">
-        <v>11324</v>
+        <v>996</v>
       </c>
     </row>
     <row r="29">
@@ -1101,16 +1092,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="0">
-        <v>734.93899999999985</v>
+        <v>203.834</v>
       </c>
       <c r="C29" s="0">
-        <v>7529</v>
+        <v>861</v>
       </c>
       <c r="D29" s="0">
-        <v>0.17516388662027613</v>
+        <v>0.26041126146162052</v>
       </c>
       <c r="E29" s="0">
-        <v>10999</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="30">
@@ -1118,16 +1109,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="0">
-        <v>495.46199999999999</v>
+        <v>194.06200000000001</v>
       </c>
       <c r="C30" s="0">
-        <v>3547</v>
+        <v>814</v>
       </c>
       <c r="D30" s="0">
-        <v>0.1815726155724359</v>
+        <v>0.27161469531541527</v>
       </c>
       <c r="E30" s="0">
-        <v>5310</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="31">
@@ -1135,16 +1126,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="0">
-        <v>235.02299999999997</v>
+        <v>203.81700000000001</v>
       </c>
       <c r="C31" s="0">
-        <v>2521</v>
+        <v>860</v>
       </c>
       <c r="D31" s="0">
-        <v>0.57353771068801251</v>
+        <v>0.26015220155923269</v>
       </c>
       <c r="E31" s="0">
-        <v>2904</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="32">
@@ -1152,16 +1143,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="0">
-        <v>312.10999999999996</v>
+        <v>254.93699999999998</v>
       </c>
       <c r="C32" s="0">
-        <v>2906</v>
+        <v>2304</v>
       </c>
       <c r="D32" s="0">
-        <v>0.37487813151663246</v>
+        <v>0.44547834443039658</v>
       </c>
       <c r="E32" s="0">
-        <v>3883</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="33">
@@ -1169,16 +1160,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="0">
-        <v>720.01099999999997</v>
+        <v>254.38300000000001</v>
       </c>
       <c r="C33" s="0">
-        <v>10634</v>
+        <v>2307</v>
       </c>
       <c r="D33" s="0">
-        <v>0.25776755795483713</v>
+        <v>0.44800337839983956</v>
       </c>
       <c r="E33" s="0">
-        <v>16174</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="34">
@@ -1186,16 +1177,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="0">
-        <v>404.71099999999996</v>
+        <v>239.81999999999996</v>
       </c>
       <c r="C34" s="0">
-        <v>5309</v>
+        <v>2374</v>
       </c>
       <c r="D34" s="0">
-        <v>0.40731703347949472</v>
+        <v>0.51870422008832617</v>
       </c>
       <c r="E34" s="0">
-        <v>7628</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="35">
@@ -1203,16 +1194,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="0">
-        <v>540.99299999999994</v>
+        <v>248.00700000000001</v>
       </c>
       <c r="C35" s="0">
-        <v>6771</v>
+        <v>2186</v>
       </c>
       <c r="D35" s="0">
-        <v>0.29072299654421152</v>
+        <v>0.44661380557316799</v>
       </c>
       <c r="E35" s="0">
-        <v>10233</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="36">
@@ -1220,16 +1211,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="0">
-        <v>491.12499999999994</v>
+        <v>235.69300000000001</v>
       </c>
       <c r="C36" s="0">
-        <v>5865</v>
+        <v>2369</v>
       </c>
       <c r="D36" s="0">
-        <v>0.30555809716420784</v>
+        <v>0.53589728414420013</v>
       </c>
       <c r="E36" s="0">
-        <v>8479</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="37">
@@ -1237,16 +1228,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="0">
-        <v>492.04500000000002</v>
+        <v>246.964</v>
       </c>
       <c r="C37" s="0">
-        <v>6663</v>
+        <v>2306</v>
       </c>
       <c r="D37" s="0">
-        <v>0.34583586609742356</v>
+        <v>0.47511841739569155</v>
       </c>
       <c r="E37" s="0">
-        <v>10041</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="38">
@@ -1254,16 +1245,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="0">
-        <v>515.44799999999998</v>
+        <v>235.24599999999998</v>
       </c>
       <c r="C38" s="0">
-        <v>6610</v>
+        <v>2419</v>
       </c>
       <c r="D38" s="0">
-        <v>0.31263788627390926</v>
+        <v>0.54928942385061941</v>
       </c>
       <c r="E38" s="0">
-        <v>10008</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="39">
@@ -1271,16 +1262,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="0">
-        <v>709.65800000000002</v>
+        <v>252.67099999999999</v>
       </c>
       <c r="C39" s="0">
-        <v>10036</v>
+        <v>2311</v>
       </c>
       <c r="D39" s="0">
-        <v>0.25042190257513952</v>
+        <v>0.45488227162051964</v>
       </c>
       <c r="E39" s="0">
-        <v>15748</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="40">
@@ -1288,16 +1279,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="0">
-        <v>604.79200000000003</v>
+        <v>236.107</v>
       </c>
       <c r="C40" s="0">
-        <v>9625</v>
+        <v>2370</v>
       </c>
       <c r="D40" s="0">
-        <v>0.33067284091955429</v>
+        <v>0.53424502170503796</v>
       </c>
       <c r="E40" s="0">
-        <v>14826</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="41">
@@ -1305,16 +1296,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="0">
-        <v>709.80599999999993</v>
+        <v>248.94200000000001</v>
       </c>
       <c r="C41" s="0">
-        <v>10936</v>
+        <v>2314</v>
       </c>
       <c r="D41" s="0">
-        <v>0.27276524527396795</v>
+        <v>0.46922038329576726</v>
       </c>
       <c r="E41" s="0">
-        <v>16908</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="42">
@@ -1322,16 +1313,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="0">
-        <v>793.03899999999999</v>
+        <v>233.99699999999999</v>
       </c>
       <c r="C42" s="0">
-        <v>4187</v>
+        <v>2423</v>
       </c>
       <c r="D42" s="0">
-        <v>0.083661131463113964</v>
+        <v>0.55608694462082231</v>
       </c>
       <c r="E42" s="0">
-        <v>11034</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="43">
@@ -1339,16 +1330,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="0">
-        <v>759.09699999999998</v>
+        <v>250.04099999999997</v>
       </c>
       <c r="C43" s="0">
-        <v>11560</v>
+        <v>2315</v>
       </c>
       <c r="D43" s="0">
-        <v>0.25210017547453145</v>
+        <v>0.46530573475999953</v>
       </c>
       <c r="E43" s="0">
-        <v>17535</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="44">
@@ -1356,16 +1347,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="0">
-        <v>633.82599999999991</v>
+        <v>239.40700000000001</v>
       </c>
       <c r="C44" s="0">
-        <v>10308</v>
+        <v>2421</v>
       </c>
       <c r="D44" s="0">
-        <v>0.32243648144697951</v>
+        <v>0.53080006131083868</v>
       </c>
       <c r="E44" s="0">
-        <v>14820</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="45">
@@ -1373,16 +1364,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="0">
-        <v>589.28200000000004</v>
+        <v>237.505</v>
       </c>
       <c r="C45" s="0">
-        <v>8357</v>
+        <v>2374</v>
       </c>
       <c r="D45" s="0">
-        <v>0.30242237187174192</v>
+        <v>0.52886529010886263</v>
       </c>
       <c r="E45" s="0">
-        <v>12217</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="46">
@@ -1390,16 +1381,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="0">
-        <v>736.59899999999993</v>
+        <v>248.76000000000002</v>
       </c>
       <c r="C46" s="0">
-        <v>11585</v>
+        <v>2316</v>
       </c>
       <c r="D46" s="0">
-        <v>0.26831419681116897</v>
+        <v>0.47031336763125031</v>
       </c>
       <c r="E46" s="0">
-        <v>17663</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="47">
@@ -1407,16 +1398,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="0">
-        <v>987.80700000000002</v>
+        <v>316.43000000000001</v>
       </c>
       <c r="C47" s="0">
-        <v>6198</v>
+        <v>1190</v>
       </c>
       <c r="D47" s="0">
-        <v>0.079821013369720042</v>
+        <v>0.14934872623244477</v>
       </c>
       <c r="E47" s="0">
-        <v>16944</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="48">
@@ -1424,16 +1415,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="0">
-        <v>907.32100000000003</v>
+        <v>294.44799999999998</v>
       </c>
       <c r="C48" s="0">
-        <v>7260</v>
+        <v>1275</v>
       </c>
       <c r="D48" s="0">
-        <v>0.11082163652670296</v>
+        <v>0.18480036779869413</v>
       </c>
       <c r="E48" s="0">
-        <v>20053</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="49">
@@ -1441,16 +1432,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="0">
-        <v>745.91300000000001</v>
+        <v>305.315</v>
       </c>
       <c r="C49" s="0">
-        <v>7672</v>
+        <v>1201</v>
       </c>
       <c r="D49" s="0">
-        <v>0.1732774729763899</v>
+        <v>0.1619036308550261</v>
       </c>
       <c r="E49" s="0">
-        <v>20309</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="50">
@@ -1458,16 +1449,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="0">
-        <v>785.69299999999998</v>
+        <v>296.029</v>
       </c>
       <c r="C50" s="0">
-        <v>7569</v>
+        <v>1286</v>
       </c>
       <c r="D50" s="0">
-        <v>0.15407869855835968</v>
+        <v>0.18440908646573015</v>
       </c>
       <c r="E50" s="0">
-        <v>20397</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="51">
@@ -1475,16 +1466,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="0">
-        <v>768.09399999999994</v>
+        <v>314.85099999999994</v>
       </c>
       <c r="C51" s="0">
-        <v>7859</v>
+        <v>1276</v>
       </c>
       <c r="D51" s="0">
-        <v>0.16739728408755941</v>
+        <v>0.16175227007762508</v>
       </c>
       <c r="E51" s="0">
-        <v>20339</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="52">
@@ -1492,16 +1483,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="0">
-        <v>804.226</v>
+        <v>302.15599999999995</v>
       </c>
       <c r="C52" s="0">
-        <v>7873</v>
+        <v>1262</v>
       </c>
       <c r="D52" s="0">
-        <v>0.15296564301561155</v>
+        <v>0.17370278186452323</v>
       </c>
       <c r="E52" s="0">
-        <v>20547</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="53">
@@ -1509,16 +1500,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="0">
-        <v>784.27700000000004</v>
+        <v>291.05700000000002</v>
       </c>
       <c r="C53" s="0">
-        <v>7994</v>
+        <v>1215</v>
       </c>
       <c r="D53" s="0">
-        <v>0.16331837501009219</v>
+        <v>0.18023122920227172</v>
       </c>
       <c r="E53" s="0">
-        <v>20443</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="54">
@@ -1526,16 +1517,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="0">
-        <v>793.40899999999999</v>
+        <v>312.73400000000004</v>
       </c>
       <c r="C54" s="0">
-        <v>7508</v>
+        <v>1202</v>
       </c>
       <c r="D54" s="0">
-        <v>0.14987868803587009</v>
+        <v>0.15444154312884217</v>
       </c>
       <c r="E54" s="0">
-        <v>20105</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="55">
@@ -1543,16 +1534,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="0">
-        <v>790.93500000000006</v>
+        <v>310.01299999999998</v>
       </c>
       <c r="C55" s="0">
-        <v>7415</v>
+        <v>1197</v>
       </c>
       <c r="D55" s="0">
-        <v>0.14894963082896748</v>
+        <v>0.15651076089703206</v>
       </c>
       <c r="E55" s="0">
-        <v>20267</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="56">
@@ -1560,16 +1551,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="0">
-        <v>819.27800000000002</v>
+        <v>309.83100000000002</v>
       </c>
       <c r="C56" s="0">
-        <v>7351</v>
+        <v>1200</v>
       </c>
       <c r="D56" s="0">
-        <v>0.13762384933456823</v>
+        <v>0.15708740758818571</v>
       </c>
       <c r="E56" s="0">
-        <v>20220</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="57">
@@ -1577,16 +1568,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="0">
-        <v>786.73500000000001</v>
+        <v>302.95100000000002</v>
       </c>
       <c r="C57" s="0">
-        <v>7439</v>
+        <v>1201</v>
       </c>
       <c r="D57" s="0">
-        <v>0.1510314806438868</v>
+        <v>0.16444023572181246</v>
       </c>
       <c r="E57" s="0">
-        <v>20079</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="58">
@@ -1594,16 +1585,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="0">
-        <v>789.58899999999994</v>
+        <v>331.54899999999998</v>
       </c>
       <c r="C58" s="0">
-        <v>7455</v>
+        <v>1245</v>
       </c>
       <c r="D58" s="0">
-        <v>0.15026413406611072</v>
+        <v>0.14232584493836739</v>
       </c>
       <c r="E58" s="0">
-        <v>20542</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="59">
@@ -1611,16 +1602,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="0">
-        <v>835.11599999999999</v>
+        <v>291.48699999999997</v>
       </c>
       <c r="C59" s="0">
-        <v>7566</v>
+        <v>1215</v>
       </c>
       <c r="D59" s="0">
-        <v>0.13632722424460067</v>
+        <v>0.17969986920889883</v>
       </c>
       <c r="E59" s="0">
-        <v>20580</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="60">
@@ -1628,16 +1619,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="0">
-        <v>753.01699999999994</v>
+        <v>291.81099999999998</v>
       </c>
       <c r="C60" s="0">
-        <v>7571</v>
+        <v>1201</v>
       </c>
       <c r="D60" s="0">
-        <v>0.16778516079486697</v>
+        <v>0.17723502615499956</v>
       </c>
       <c r="E60" s="0">
-        <v>20538</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="61">
@@ -1645,16 +1636,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="0">
-        <v>748.726</v>
+        <v>343.59000000000003</v>
       </c>
       <c r="C61" s="0">
-        <v>7552</v>
+        <v>1203</v>
       </c>
       <c r="D61" s="0">
-        <v>0.16928793842271347</v>
+        <v>0.12805438670000688</v>
       </c>
       <c r="E61" s="0">
-        <v>20507</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="62">
@@ -1662,16 +1653,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="0">
-        <v>863.17499999999995</v>
+        <v>297.70999999999998</v>
       </c>
       <c r="C62" s="0">
-        <v>7615</v>
+        <v>4588</v>
       </c>
       <c r="D62" s="0">
-        <v>0.12843460807534426</v>
+        <v>0.65049869224028978</v>
       </c>
       <c r="E62" s="0">
-        <v>20617</v>
+        <v>5243</v>
       </c>
     </row>
     <row r="63">
@@ -1679,16 +1670,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="0">
-        <v>719.76899999999989</v>
+        <v>297.55399999999997</v>
       </c>
       <c r="C63" s="0">
-        <v>28851</v>
+        <v>4589</v>
       </c>
       <c r="D63" s="0">
-        <v>0.69981695286100276</v>
+        <v>0.65132288223521506</v>
       </c>
       <c r="E63" s="0">
-        <v>32191</v>
+        <v>5239</v>
       </c>
     </row>
     <row r="64">
@@ -1696,16 +1687,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="0">
-        <v>820.23799999999994</v>
+        <v>291.72299999999996</v>
       </c>
       <c r="C64" s="0">
-        <v>17792</v>
+        <v>4682</v>
       </c>
       <c r="D64" s="0">
-        <v>0.33231876336570121</v>
+        <v>0.69135312655014292</v>
       </c>
       <c r="E64" s="0">
-        <v>22114</v>
+        <v>5314</v>
       </c>
     </row>
     <row r="65">
@@ -1713,16 +1704,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="0">
-        <v>208.10999999999999</v>
+        <v>291.20299999999997</v>
       </c>
       <c r="C65" s="0">
-        <v>407</v>
+        <v>4681</v>
       </c>
       <c r="D65" s="0">
-        <v>0.1180914281477871</v>
+        <v>0.69367623419357749</v>
       </c>
       <c r="E65" s="0">
-        <v>884</v>
+        <v>5283</v>
       </c>
     </row>
     <row r="66">
@@ -1730,16 +1721,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="0">
-        <v>628.41999999999985</v>
+        <v>297.59099999999995</v>
       </c>
       <c r="C66" s="0">
-        <v>19894</v>
+        <v>4595</v>
       </c>
       <c r="D66" s="0">
-        <v>0.63304120713822831</v>
+        <v>0.65201230836500312</v>
       </c>
       <c r="E66" s="0">
-        <v>22128</v>
+        <v>5219</v>
       </c>
     </row>
     <row r="67">
@@ -1747,16 +1738,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="0">
-        <v>686.88700000000006</v>
+        <v>295.81899999999996</v>
       </c>
       <c r="C67" s="0">
-        <v>18377</v>
+        <v>4587</v>
       </c>
       <c r="D67" s="0">
-        <v>0.48945625769424184</v>
+        <v>0.65869819733490143</v>
       </c>
       <c r="E67" s="0">
-        <v>21467</v>
+        <v>5207</v>
       </c>
     </row>
     <row r="68">
@@ -1764,16 +1755,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="0">
-        <v>634.49900000000002</v>
+        <v>291.20299999999997</v>
       </c>
       <c r="C68" s="0">
-        <v>18761</v>
+        <v>4681</v>
       </c>
       <c r="D68" s="0">
-        <v>0.58560390428422282</v>
+        <v>0.69367623419357749</v>
       </c>
       <c r="E68" s="0">
-        <v>21217</v>
+        <v>5283</v>
       </c>
     </row>
     <row r="69">
@@ -1781,16 +1772,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="0">
-        <v>38.704999999999998</v>
+        <v>296.89600000000002</v>
       </c>
       <c r="C69" s="0">
-        <v>87</v>
+        <v>4679</v>
       </c>
       <c r="D69" s="0">
-        <v>0.72978506792682973</v>
+        <v>0.66704359163758886</v>
       </c>
       <c r="E69" s="0">
-        <v>94</v>
+        <v>5293</v>
       </c>
     </row>
     <row r="70">
@@ -1798,16 +1789,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="0">
-        <v>604.46599999999989</v>
+        <v>296.767</v>
       </c>
       <c r="C70" s="0">
-        <v>20178</v>
+        <v>4675</v>
       </c>
       <c r="D70" s="0">
-        <v>0.69397564042216819</v>
+        <v>0.66705288419291886</v>
       </c>
       <c r="E70" s="0">
-        <v>22311</v>
+        <v>5326</v>
       </c>
     </row>
     <row r="71">
@@ -1815,16 +1806,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="0">
-        <v>644.95899999999995</v>
+        <v>292.44999999999999</v>
       </c>
       <c r="C71" s="0">
-        <v>22504</v>
+        <v>4439</v>
       </c>
       <c r="D71" s="0">
-        <v>0.67983789384997795</v>
+        <v>0.6522164641177548</v>
       </c>
       <c r="E71" s="0">
-        <v>25143</v>
+        <v>5078</v>
       </c>
     </row>
     <row r="72">
@@ -1832,16 +1823,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="0">
-        <v>663.52200000000005</v>
+        <v>291.20299999999997</v>
       </c>
       <c r="C72" s="0">
-        <v>22732</v>
+        <v>4681</v>
       </c>
       <c r="D72" s="0">
-        <v>0.64883886696100201</v>
+        <v>0.69367623419357749</v>
       </c>
       <c r="E72" s="0">
-        <v>25301</v>
+        <v>5283</v>
       </c>
     </row>
     <row r="73">
@@ -1849,16 +1840,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="0">
-        <v>689.72199999999998</v>
+        <v>296.89600000000002</v>
       </c>
       <c r="C73" s="0">
-        <v>24772</v>
+        <v>4679</v>
       </c>
       <c r="D73" s="0">
-        <v>0.65436909146165279</v>
+        <v>0.66704359163758886</v>
       </c>
       <c r="E73" s="0">
-        <v>27898</v>
+        <v>5293</v>
       </c>
     </row>
     <row r="74">
@@ -1866,16 +1857,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="0">
-        <v>715.6149999999999</v>
+        <v>289.01799999999997</v>
       </c>
       <c r="C74" s="0">
-        <v>24005</v>
+        <v>4673</v>
       </c>
       <c r="D74" s="0">
-        <v>0.58905073721577106</v>
+        <v>0.70300086962656749</v>
       </c>
       <c r="E74" s="0">
-        <v>26905</v>
+        <v>5304</v>
       </c>
     </row>
     <row r="75">
@@ -1883,16 +1874,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="0">
-        <v>633.5440000000001</v>
+        <v>292.44999999999999</v>
       </c>
       <c r="C75" s="0">
-        <v>19724</v>
+        <v>4439</v>
       </c>
       <c r="D75" s="0">
-        <v>0.61752037739273591</v>
+        <v>0.6522164641177548</v>
       </c>
       <c r="E75" s="0">
-        <v>22049</v>
+        <v>5078</v>
       </c>
     </row>
     <row r="76">
@@ -1900,16 +1891,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="0">
-        <v>591.25900000000001</v>
+        <v>297.22199999999998</v>
       </c>
       <c r="C76" s="0">
-        <v>20886</v>
+        <v>4678</v>
       </c>
       <c r="D76" s="0">
-        <v>0.7507746646239325</v>
+        <v>0.6654388876786006</v>
       </c>
       <c r="E76" s="0">
-        <v>23131</v>
+        <v>5322</v>
       </c>
     </row>
     <row r="77">
@@ -1917,16 +1908,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="0">
-        <v>574.37999999999988</v>
+        <v>135.72199999999998</v>
       </c>
       <c r="C77" s="0">
-        <v>19202</v>
+        <v>1266</v>
       </c>
       <c r="D77" s="0">
-        <v>0.731404639373474</v>
+        <v>0.86366052144401428</v>
       </c>
       <c r="E77" s="0">
-        <v>21437</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="78">
@@ -1934,16 +1925,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="0">
-        <v>575.19599999999991</v>
+        <v>314.15700000000004</v>
       </c>
       <c r="C78" s="0">
-        <v>17549</v>
+        <v>1283</v>
       </c>
       <c r="D78" s="0">
-        <v>0.66654660929935305</v>
+        <v>0.16335898949915234</v>
       </c>
       <c r="E78" s="0">
-        <v>19676</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="79">
@@ -1951,16 +1942,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="0">
-        <v>578.66599999999994</v>
+        <v>152.196</v>
       </c>
       <c r="C79" s="0">
-        <v>19766</v>
+        <v>1581</v>
       </c>
       <c r="D79" s="0">
-        <v>0.7417759073774346</v>
+        <v>0.8576996975904192</v>
       </c>
       <c r="E79" s="0">
-        <v>22013</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="80">
@@ -1968,16 +1959,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="0">
-        <v>348.76900000000001</v>
+        <v>288.75200000000001</v>
       </c>
       <c r="C80" s="0">
-        <v>7864</v>
+        <v>1153</v>
       </c>
       <c r="D80" s="0">
-        <v>0.81241440738823001</v>
+        <v>0.17377574911019869</v>
       </c>
       <c r="E80" s="0">
-        <v>8003</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="81">
@@ -1985,16 +1976,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="0">
-        <v>814.72399999999993</v>
+        <v>244.31799999999998</v>
       </c>
       <c r="C81" s="0">
-        <v>8110</v>
+        <v>1641</v>
       </c>
       <c r="D81" s="0">
-        <v>0.15353581494092255</v>
+        <v>0.34546775354769799</v>
       </c>
       <c r="E81" s="0">
-        <v>11990</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="82">
@@ -2002,16 +1993,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="0">
-        <v>387.77199999999999</v>
+        <v>104.93199999999999</v>
       </c>
       <c r="C82" s="0">
-        <v>9902</v>
+        <v>777</v>
       </c>
       <c r="D82" s="0">
-        <v>0.82752265606027609</v>
+        <v>0.88677814592460191</v>
       </c>
       <c r="E82" s="0">
-        <v>10024</v>
+        <v>794</v>
       </c>
     </row>
     <row r="83">
@@ -2019,16 +2010,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="0">
-        <v>745.78699999999992</v>
+        <v>291.97699999999998</v>
       </c>
       <c r="C83" s="0">
-        <v>7354</v>
+        <v>1301</v>
       </c>
       <c r="D83" s="0">
-        <v>0.16615134909690724</v>
+        <v>0.19177406616027246</v>
       </c>
       <c r="E83" s="0">
-        <v>10344</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="84">
@@ -2036,16 +2027,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="0">
-        <v>784.10599999999999</v>
+        <v>98.075999999999993</v>
       </c>
       <c r="C84" s="0">
-        <v>10350</v>
+        <v>669</v>
       </c>
       <c r="D84" s="0">
-        <v>0.21154397448458684</v>
+        <v>0.87399810672588862</v>
       </c>
       <c r="E84" s="0">
-        <v>12361</v>
+        <v>686</v>
       </c>
     </row>
     <row r="85">
@@ -2053,16 +2044,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="0">
-        <v>268.65700000000004</v>
+        <v>149.78099999999998</v>
       </c>
       <c r="C85" s="0">
-        <v>4811</v>
+        <v>1524</v>
       </c>
       <c r="D85" s="0">
-        <v>0.83762358883163324</v>
+        <v>0.85365301677480676</v>
       </c>
       <c r="E85" s="0">
-        <v>4891</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="86">
@@ -2070,16 +2061,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="0">
-        <v>761.49900000000002</v>
+        <v>147.696</v>
       </c>
       <c r="C86" s="0">
-        <v>8085</v>
+        <v>520</v>
       </c>
       <c r="D86" s="0">
-        <v>0.17520690322394294</v>
+        <v>0.29955442573458096</v>
       </c>
       <c r="E86" s="0">
-        <v>11331</v>
+        <v>744</v>
       </c>
     </row>
     <row r="87">
@@ -2087,16 +2078,16 @@
         <v>86</v>
       </c>
       <c r="B87" s="0">
-        <v>255.756</v>
+        <v>354.17599999999999</v>
       </c>
       <c r="C87" s="0">
-        <v>4180</v>
+        <v>1513</v>
       </c>
       <c r="D87" s="0">
-        <v>0.80303501765769147</v>
+        <v>0.15156905206105564</v>
       </c>
       <c r="E87" s="0">
-        <v>4266</v>
+        <v>4355</v>
       </c>
     </row>
     <row r="88">
@@ -2104,16 +2095,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="0">
-        <v>382.90100000000001</v>
+        <v>170.97</v>
       </c>
       <c r="C88" s="0">
-        <v>9481</v>
+        <v>2332</v>
       </c>
       <c r="D88" s="0">
-        <v>0.81262655381295323</v>
+        <v>1.0025327915203679</v>
       </c>
       <c r="E88" s="0">
-        <v>9627</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="89">
@@ -2121,16 +2112,16 @@
         <v>88</v>
       </c>
       <c r="B89" s="0">
-        <v>390.82400000000001</v>
+        <v>391.33600000000001</v>
       </c>
       <c r="C89" s="0">
-        <v>3207</v>
+        <v>1790</v>
       </c>
       <c r="D89" s="0">
-        <v>0.26384348410750047</v>
+        <v>0.14688021237402138</v>
       </c>
       <c r="E89" s="0">
-        <v>4467</v>
+        <v>4882</v>
       </c>
     </row>
     <row r="90">
@@ -2138,16 +2129,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="0">
-        <v>909.42499999999995</v>
+        <v>471.685</v>
       </c>
       <c r="C90" s="0">
-        <v>9628</v>
+        <v>1962</v>
       </c>
       <c r="D90" s="0">
-        <v>0.14628916739750711</v>
+        <v>0.11081657824306987</v>
       </c>
       <c r="E90" s="0">
-        <v>27251</v>
+        <v>5164</v>
       </c>
     </row>
     <row r="91">
@@ -2155,16 +2146,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="0">
-        <v>450.76099999999997</v>
+        <v>210.352</v>
       </c>
       <c r="C91" s="0">
-        <v>14613</v>
+        <v>3192</v>
       </c>
       <c r="D91" s="0">
-        <v>0.90376721103319968</v>
+        <v>0.90652431122166</v>
       </c>
       <c r="E91" s="0">
-        <v>14797</v>
+        <v>3234</v>
       </c>
     </row>
     <row r="92">
@@ -2172,16 +2163,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="0">
-        <v>1058.8689999999999</v>
+        <v>179.554</v>
       </c>
       <c r="C92" s="0">
-        <v>11328</v>
+        <v>2346</v>
       </c>
       <c r="D92" s="0">
-        <v>0.12696342707472591</v>
+        <v>0.91442418254429747</v>
       </c>
       <c r="E92" s="0">
-        <v>30766</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="93">
@@ -2189,16 +2180,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="0">
-        <v>1205.8069999999998</v>
+        <v>380.62199999999996</v>
       </c>
       <c r="C93" s="0">
-        <v>12238</v>
+        <v>1358</v>
       </c>
       <c r="D93" s="0">
-        <v>0.1057705375253552</v>
+        <v>0.11779364480644308</v>
       </c>
       <c r="E93" s="0">
-        <v>32061</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="94">
@@ -2206,16 +2197,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="0">
-        <v>531.16099999999994</v>
+        <v>173.74000000000001</v>
       </c>
       <c r="C94" s="0">
-        <v>19969</v>
+        <v>2174</v>
       </c>
       <c r="D94" s="0">
-        <v>0.88943419304768734</v>
+        <v>0.90504415808081995</v>
       </c>
       <c r="E94" s="0">
-        <v>20135</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="95">
@@ -2223,16 +2214,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="0">
-        <v>458.06099999999998</v>
+        <v>444.97699999999998</v>
       </c>
       <c r="C95" s="0">
-        <v>14624</v>
+        <v>1659</v>
       </c>
       <c r="D95" s="0">
-        <v>0.87584934329745368</v>
+        <v>0.10528854462836899</v>
       </c>
       <c r="E95" s="0">
-        <v>14759</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="96">
@@ -2240,16 +2231,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="0">
-        <v>987.80700000000002</v>
+        <v>205.18299999999999</v>
       </c>
       <c r="C96" s="0">
-        <v>8463</v>
+        <v>3037</v>
       </c>
       <c r="D96" s="0">
-        <v>0.10899084158566325</v>
+        <v>0.9065085511279668</v>
       </c>
       <c r="E96" s="0">
-        <v>24721</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="97">
@@ -2257,16 +2248,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="0">
-        <v>439.56</v>
+        <v>203.108</v>
       </c>
       <c r="C97" s="0">
-        <v>13573</v>
+        <v>3263</v>
       </c>
       <c r="D97" s="0">
-        <v>0.88277369534373296</v>
+        <v>0.99396908841296305</v>
       </c>
       <c r="E97" s="0">
-        <v>13701</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="98">
@@ -2274,16 +2265,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="0">
-        <v>1228.4370000000001</v>
+        <v>445.29699999999991</v>
       </c>
       <c r="C98" s="0">
-        <v>10245</v>
+        <v>5737</v>
       </c>
       <c r="D98" s="0">
-        <v>0.085313164079792503</v>
+        <v>0.36357597327050112</v>
       </c>
       <c r="E98" s="0">
-        <v>29355</v>
+        <v>6601</v>
       </c>
     </row>
     <row r="99">
@@ -2291,16 +2282,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="0">
-        <v>520.56699999999989</v>
+        <v>166.01599999999996</v>
       </c>
       <c r="C99" s="0">
-        <v>18976</v>
+        <v>2197</v>
       </c>
       <c r="D99" s="0">
-        <v>0.8799566311222714</v>
+        <v>1.0017054334463658</v>
       </c>
       <c r="E99" s="0">
-        <v>19141</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="100">
@@ -2308,16 +2299,16 @@
         <v>99</v>
       </c>
       <c r="B100" s="0">
-        <v>516.21699999999998</v>
+        <v>370.13399999999996</v>
       </c>
       <c r="C100" s="0">
-        <v>20338</v>
+        <v>7380</v>
       </c>
       <c r="D100" s="0">
-        <v>0.95907705681917044</v>
+        <v>0.6769370190217926</v>
       </c>
       <c r="E100" s="0">
-        <v>20535</v>
+        <v>8265</v>
       </c>
     </row>
     <row r="101">
@@ -2325,16 +2316,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="0">
-        <v>1201.3399999999999</v>
+        <v>337.73000000000002</v>
       </c>
       <c r="C101" s="0">
-        <v>35763</v>
+        <v>6678</v>
       </c>
       <c r="D101" s="0">
-        <v>0.31139521259470748</v>
+        <v>0.73572751579371631</v>
       </c>
       <c r="E101" s="0">
-        <v>41570</v>
+        <v>7483</v>
       </c>
     </row>
     <row r="102">
@@ -2342,16 +2333,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="0">
-        <v>419.56399999999996</v>
+        <v>205.98599999999999</v>
       </c>
       <c r="C102" s="0">
-        <v>13691</v>
+        <v>3366</v>
       </c>
       <c r="D102" s="0">
-        <v>0.97734658562945509</v>
+        <v>0.99689304768689324</v>
       </c>
       <c r="E102" s="0">
-        <v>13809</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="103">
@@ -2359,16 +2350,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="0">
-        <v>945.79199999999992</v>
+        <v>248.66000000000003</v>
       </c>
       <c r="C103" s="0">
-        <v>46061</v>
+        <v>3309</v>
       </c>
       <c r="D103" s="0">
-        <v>0.64707102634944791</v>
+        <v>0.67250384627216764</v>
       </c>
       <c r="E103" s="0">
-        <v>51376</v>
+        <v>3704</v>
       </c>
     </row>
     <row r="104">
@@ -2376,16 +2367,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="0">
-        <v>847.29899999999998</v>
+        <v>125.55</v>
       </c>
       <c r="C104" s="0">
-        <v>41708</v>
+        <v>1285</v>
       </c>
       <c r="D104" s="0">
-        <v>0.73005543958261576</v>
+        <v>1.0244235591641484</v>
       </c>
       <c r="E104" s="0">
-        <v>46445</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="105">
@@ -2393,16 +2384,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="0">
-        <v>521.94100000000003</v>
+        <v>251.05600000000001</v>
       </c>
       <c r="C105" s="0">
-        <v>21098</v>
+        <v>3272</v>
       </c>
       <c r="D105" s="0">
-        <v>0.97321394988494414</v>
+        <v>0.65235192595459013</v>
       </c>
       <c r="E105" s="0">
-        <v>21263</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="106">
@@ -2410,16 +2401,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="0">
-        <v>627.36000000000001</v>
+        <v>147.82999999999998</v>
       </c>
       <c r="C106" s="0">
-        <v>20633</v>
+        <v>1750</v>
       </c>
       <c r="D106" s="0">
-        <v>0.65877724896222312</v>
+        <v>1.006289077783431</v>
       </c>
       <c r="E106" s="0">
-        <v>22991</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="107">
@@ -2427,16 +2418,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="0">
-        <v>319.93299999999999</v>
+        <v>434.327</v>
       </c>
       <c r="C107" s="0">
-        <v>7994</v>
+        <v>5457</v>
       </c>
       <c r="D107" s="0">
-        <v>0.98142232104207727</v>
+        <v>0.36352154998460762</v>
       </c>
       <c r="E107" s="0">
-        <v>8081</v>
+        <v>8021</v>
       </c>
     </row>
     <row r="108">
@@ -2444,16 +2435,16 @@
         <v>107</v>
       </c>
       <c r="B108" s="0">
-        <v>634.60799999999995</v>
+        <v>285.87599999999998</v>
       </c>
       <c r="C108" s="0">
-        <v>20529</v>
+        <v>6460</v>
       </c>
       <c r="D108" s="0">
-        <v>0.64056996779068975</v>
+        <v>0.99331498778672245</v>
       </c>
       <c r="E108" s="0">
-        <v>22907</v>
+        <v>6527</v>
       </c>
     </row>
     <row r="109">
@@ -2461,16 +2452,16 @@
         <v>108</v>
       </c>
       <c r="B109" s="0">
-        <v>375.18599999999998</v>
+        <v>370.29000000000002</v>
       </c>
       <c r="C109" s="0">
-        <v>10958</v>
+        <v>3624</v>
       </c>
       <c r="D109" s="0">
-        <v>0.97824561838220869</v>
+        <v>0.33213457337088842</v>
       </c>
       <c r="E109" s="0">
-        <v>11057</v>
+        <v>5170</v>
       </c>
     </row>
     <row r="110">
@@ -2478,16 +2469,16 @@
         <v>109</v>
       </c>
       <c r="B110" s="0">
-        <v>1141.819</v>
+        <v>131.66200000000001</v>
       </c>
       <c r="C110" s="0">
-        <v>33965</v>
+        <v>1381</v>
       </c>
       <c r="D110" s="0">
-        <v>0.32737608596386891</v>
+        <v>1.0011119530065851</v>
       </c>
       <c r="E110" s="0">
-        <v>49959</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="111">
@@ -2495,16 +2486,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="0">
-        <v>719.63999999999999</v>
+        <v>212.809</v>
       </c>
       <c r="C111" s="0">
-        <v>40255</v>
+        <v>1488</v>
       </c>
       <c r="D111" s="0">
-        <v>0.97678527773463386</v>
+        <v>0.41288852518946251</v>
       </c>
       <c r="E111" s="0">
-        <v>40476</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="112">
@@ -2512,16 +2503,16 @@
         <v>111</v>
       </c>
       <c r="B112" s="0">
-        <v>962.90700000000004</v>
+        <v>92.799999999999997</v>
       </c>
       <c r="C112" s="0">
-        <v>22591</v>
+        <v>698</v>
       </c>
       <c r="D112" s="0">
-        <v>0.30617986823635157</v>
+        <v>1.0185194672477313</v>
       </c>
       <c r="E112" s="0">
-        <v>31950</v>
+        <v>715</v>
       </c>
     </row>
     <row r="113">
@@ -2529,16 +2520,16 @@
         <v>112</v>
       </c>
       <c r="B113" s="0">
-        <v>346.18299999999999</v>
+        <v>117.52799999999999</v>
       </c>
       <c r="C113" s="0">
-        <v>8675</v>
+        <v>1111</v>
       </c>
       <c r="D113" s="0">
-        <v>0.90963648877641057</v>
+        <v>1.0107441386109608</v>
       </c>
       <c r="E113" s="0">
-        <v>8823</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="114">
@@ -2546,16 +2537,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="0">
-        <v>582.39599999999996</v>
+        <v>139.14600000000002</v>
       </c>
       <c r="C114" s="0">
-        <v>9186</v>
+        <v>1553</v>
       </c>
       <c r="D114" s="0">
-        <v>0.34032945487816102</v>
+        <v>1.0079520377457756</v>
       </c>
       <c r="E114" s="0">
-        <v>13521</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="115">
@@ -2563,16 +2554,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="0">
-        <v>236.35399999999996</v>
+        <v>236.58599999999998</v>
       </c>
       <c r="C115" s="0">
-        <v>4302</v>
+        <v>1833</v>
       </c>
       <c r="D115" s="0">
-        <v>0.96773033941263631</v>
+        <v>0.41152312583138989</v>
       </c>
       <c r="E115" s="0">
-        <v>4367</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="116">
@@ -2580,16 +2571,16 @@
         <v>115</v>
       </c>
       <c r="B116" s="0">
-        <v>297.76899999999995</v>
+        <v>261.59399999999999</v>
       </c>
       <c r="C116" s="0">
-        <v>6889</v>
+        <v>1745</v>
       </c>
       <c r="D116" s="0">
-        <v>0.97635349203291311</v>
+        <v>0.3204422245536781</v>
       </c>
       <c r="E116" s="0">
-        <v>6967</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="117">
@@ -2597,16 +2588,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="0">
-        <v>353.36099999999999</v>
+        <v>567.34199999999998</v>
       </c>
       <c r="C117" s="0">
-        <v>9685</v>
+        <v>4361</v>
       </c>
       <c r="D117" s="0">
-        <v>0.97470290064390508</v>
+        <v>0.1702574325581151</v>
       </c>
       <c r="E117" s="0">
-        <v>9783</v>
+        <v>6414</v>
       </c>
     </row>
     <row r="118">
@@ -2614,16 +2605,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="0">
-        <v>639.67700000000002</v>
+        <v>229.20899999999997</v>
       </c>
       <c r="C118" s="0">
-        <v>11378</v>
+        <v>1746</v>
       </c>
       <c r="D118" s="0">
-        <v>0.34942528023156133</v>
+        <v>0.41762911759537708</v>
       </c>
       <c r="E118" s="0">
-        <v>16778</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="119">
@@ -2631,16 +2622,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="0">
-        <v>685.58999999999992</v>
+        <v>457.95099999999996</v>
       </c>
       <c r="C119" s="0">
-        <v>10874</v>
+        <v>2796</v>
       </c>
       <c r="D119" s="0">
-        <v>0.29071687657448303</v>
+        <v>0.16753633386235289</v>
       </c>
       <c r="E119" s="0">
-        <v>15967</v>
+        <v>7479</v>
       </c>
     </row>
     <row r="120">
@@ -2648,16 +2639,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="0">
-        <v>1691.1319999999998</v>
+        <v>576.32599999999991</v>
       </c>
       <c r="C120" s="0">
-        <v>27598</v>
+        <v>3022</v>
       </c>
       <c r="D120" s="0">
-        <v>0.12126415908034519</v>
+        <v>0.11433202589955999</v>
       </c>
       <c r="E120" s="0">
-        <v>40683</v>
+        <v>7955</v>
       </c>
     </row>
     <row r="121">
@@ -2665,16 +2656,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="0">
-        <v>685.20300000000009</v>
+        <v>421.02999999999997</v>
       </c>
       <c r="C121" s="0">
-        <v>10954</v>
+        <v>4412</v>
       </c>
       <c r="D121" s="0">
-        <v>0.29318658108093154</v>
+        <v>0.31276581831795541</v>
       </c>
       <c r="E121" s="0">
-        <v>14421</v>
+        <v>6020</v>
       </c>
     </row>
     <row r="122">
@@ -2682,16 +2673,16 @@
         <v>121</v>
       </c>
       <c r="B122" s="0">
-        <v>1224.1489999999999</v>
+        <v>417.50700000000001</v>
       </c>
       <c r="C122" s="0">
-        <v>17609</v>
+        <v>2232</v>
       </c>
       <c r="D122" s="0">
-        <v>0.14766446396244015</v>
+        <v>0.16090759051094647</v>
       </c>
       <c r="E122" s="0">
-        <v>46859</v>
+        <v>6136</v>
       </c>
     </row>
     <row r="123">
@@ -2699,16 +2690,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="0">
-        <v>1473.7549999999999</v>
+        <v>562.39099999999996</v>
       </c>
       <c r="C123" s="0">
-        <v>18803</v>
+        <v>2583</v>
       </c>
       <c r="D123" s="0">
-        <v>0.10878936129261857</v>
+        <v>0.10262603407808367</v>
       </c>
       <c r="E123" s="0">
-        <v>49115</v>
+        <v>7191</v>
       </c>
     </row>
     <row r="124">
@@ -2716,16 +2707,16 @@
         <v>123</v>
       </c>
       <c r="B124" s="0">
-        <v>1277.54</v>
+        <v>593.78499999999997</v>
       </c>
       <c r="C124" s="0">
-        <v>27539</v>
+        <v>4195</v>
       </c>
       <c r="D124" s="0">
-        <v>0.21203571368653851</v>
+        <v>0.14951452463980811</v>
       </c>
       <c r="E124" s="0">
-        <v>37744</v>
+        <v>6418</v>
       </c>
     </row>
     <row r="125">
@@ -2733,16 +2724,16 @@
         <v>124</v>
       </c>
       <c r="B125" s="0">
-        <v>1067.3829999999998</v>
+        <v>222.24599999999998</v>
       </c>
       <c r="C125" s="0">
-        <v>13967</v>
+        <v>1281</v>
       </c>
       <c r="D125" s="0">
-        <v>0.15405380658701884</v>
+        <v>0.32590504791758929</v>
       </c>
       <c r="E125" s="0">
-        <v>38488</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="126">
@@ -2750,16 +2741,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="0">
-        <v>1457.3419999999999</v>
+        <v>415.63099999999997</v>
       </c>
       <c r="C126" s="0">
-        <v>16089</v>
+        <v>2006</v>
       </c>
       <c r="D126" s="0">
-        <v>0.09519539783039549</v>
+        <v>0.14592339608748031</v>
       </c>
       <c r="E126" s="0">
-        <v>44938</v>
+        <v>6032</v>
       </c>
     </row>
     <row r="127">
@@ -2767,16 +2758,16 @@
         <v>126</v>
       </c>
       <c r="B127" s="0">
-        <v>1635.6509999999998</v>
+        <v>118.57100000000001</v>
       </c>
       <c r="C127" s="0">
-        <v>26162</v>
+        <v>507</v>
       </c>
       <c r="D127" s="0">
-        <v>0.12288518237122771</v>
+        <v>0.4531696936471486</v>
       </c>
       <c r="E127" s="0">
-        <v>40115</v>
+        <v>693</v>
       </c>
     </row>
     <row r="128">
@@ -2784,16 +2775,16 @@
         <v>127</v>
       </c>
       <c r="B128" s="0">
-        <v>725.91999999999985</v>
+        <v>190.43899999999996</v>
       </c>
       <c r="C128" s="0">
-        <v>7978</v>
+        <v>1227</v>
       </c>
       <c r="D128" s="0">
-        <v>0.1902507476542287</v>
+        <v>0.42515044904403038</v>
       </c>
       <c r="E128" s="0">
-        <v>10644</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="129">
@@ -2801,16 +2792,16 @@
         <v>128</v>
       </c>
       <c r="B129" s="0">
-        <v>1062.9279999999999</v>
+        <v>207.16799999999998</v>
       </c>
       <c r="C129" s="0">
-        <v>12572</v>
+        <v>1223</v>
       </c>
       <c r="D129" s="0">
-        <v>0.13983199096732377</v>
+        <v>0.35808899504944797</v>
       </c>
       <c r="E129" s="0">
-        <v>37476</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="130">
@@ -2818,16 +2809,16 @@
         <v>129</v>
       </c>
       <c r="B130" s="0">
-        <v>330.90199999999999</v>
+        <v>302.29000000000002</v>
       </c>
       <c r="C130" s="0">
-        <v>3185</v>
+        <v>1584</v>
       </c>
       <c r="D130" s="0">
-        <v>0.36552788750955362</v>
+        <v>0.21782989396762725</v>
       </c>
       <c r="E130" s="0">
-        <v>4422</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="131">
@@ -2835,16 +2826,16 @@
         <v>130</v>
       </c>
       <c r="B131" s="0">
-        <v>492.73200000000003</v>
+        <v>185.10400000000001</v>
       </c>
       <c r="C131" s="0">
-        <v>7637</v>
+        <v>1260</v>
       </c>
       <c r="D131" s="0">
-        <v>0.39528571378675331</v>
+        <v>0.46211365500151369</v>
       </c>
       <c r="E131" s="0">
-        <v>10446</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="132">
@@ -2852,16 +2843,16 @@
         <v>131</v>
       </c>
       <c r="B132" s="0">
-        <v>538.28999999999996</v>
+        <v>154.59399999999999</v>
       </c>
       <c r="C132" s="0">
-        <v>7577</v>
+        <v>669</v>
       </c>
       <c r="D132" s="0">
-        <v>0.32860527259171557</v>
+        <v>0.35176345080727212</v>
       </c>
       <c r="E132" s="0">
-        <v>10489</v>
+        <v>989</v>
       </c>
     </row>
     <row r="133">
@@ -2869,16 +2860,16 @@
         <v>132</v>
       </c>
       <c r="B133" s="0">
-        <v>811.35599999999999</v>
+        <v>229.19099999999997</v>
       </c>
       <c r="C133" s="0">
-        <v>9948</v>
+        <v>1161</v>
       </c>
       <c r="D133" s="0">
-        <v>0.18989902562095445</v>
+        <v>0.27774545744194162</v>
       </c>
       <c r="E133" s="0">
-        <v>14395</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="134">
@@ -2886,16 +2877,16 @@
         <v>133</v>
       </c>
       <c r="B134" s="0">
-        <v>477.87799999999999</v>
+        <v>241.97699999999998</v>
       </c>
       <c r="C134" s="0">
-        <v>7889</v>
+        <v>1380</v>
       </c>
       <c r="D134" s="0">
-        <v>0.43410795589419193</v>
+        <v>0.29616980147141281</v>
       </c>
       <c r="E134" s="0">
-        <v>10850</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="135">
@@ -2903,16 +2894,16 @@
         <v>134</v>
       </c>
       <c r="B135" s="0">
-        <v>421.63</v>
+        <v>90.781999999999996</v>
       </c>
       <c r="C135" s="0">
-        <v>4175</v>
+        <v>354</v>
       </c>
       <c r="D135" s="0">
-        <v>0.29512318895595419</v>
+        <v>0.53977607786865589</v>
       </c>
       <c r="E135" s="0">
-        <v>6145</v>
+        <v>424</v>
       </c>
     </row>
     <row r="136">
@@ -2920,16 +2911,16 @@
         <v>135</v>
       </c>
       <c r="B136" s="0">
-        <v>664.37199999999996</v>
+        <v>207.01900000000001</v>
       </c>
       <c r="C136" s="0">
-        <v>7206</v>
+        <v>1106</v>
       </c>
       <c r="D136" s="0">
-        <v>0.20515470439853267</v>
+        <v>0.32429822988945534</v>
       </c>
       <c r="E136" s="0">
-        <v>10315</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="137">
@@ -2937,16 +2928,16 @@
         <v>136</v>
       </c>
       <c r="B137" s="0">
-        <v>629.64999999999998</v>
+        <v>168.24099999999999</v>
       </c>
       <c r="C137" s="0">
-        <v>8549</v>
+        <v>1149</v>
       </c>
       <c r="D137" s="0">
-        <v>0.27097346557375929</v>
+        <v>0.51011278751968836</v>
       </c>
       <c r="E137" s="0">
-        <v>13229</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="138">
@@ -2954,16 +2945,16 @@
         <v>137</v>
       </c>
       <c r="B138" s="0">
-        <v>248.23000000000002</v>
+        <v>501.50900000000001</v>
       </c>
       <c r="C138" s="0">
-        <v>2160</v>
+        <v>2971</v>
       </c>
       <c r="D138" s="0">
-        <v>0.44050929896020602</v>
+        <v>0.14844140401401304</v>
       </c>
       <c r="E138" s="0">
-        <v>2610</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="139">
@@ -2971,16 +2962,16 @@
         <v>138</v>
       </c>
       <c r="B139" s="0">
-        <v>736.06399999999996</v>
+        <v>306.53499999999997</v>
       </c>
       <c r="C139" s="0">
-        <v>4328</v>
+        <v>5557</v>
       </c>
       <c r="D139" s="0">
-        <v>0.1003843384481623</v>
+        <v>0.74317334117047207</v>
       </c>
       <c r="E139" s="0">
-        <v>9843</v>
+        <v>6220</v>
       </c>
     </row>
     <row r="140">
@@ -2988,16 +2979,16 @@
         <v>139</v>
       </c>
       <c r="B140" s="0">
-        <v>467.96100000000001</v>
+        <v>395.75999999999999</v>
       </c>
       <c r="C140" s="0">
-        <v>7144</v>
+        <v>9515</v>
       </c>
       <c r="D140" s="0">
-        <v>0.40995103686397871</v>
+        <v>0.7634047571660777</v>
       </c>
       <c r="E140" s="0">
-        <v>9067</v>
+        <v>10544</v>
       </c>
     </row>
     <row r="141">
@@ -3005,16 +2996,16 @@
         <v>140</v>
       </c>
       <c r="B141" s="0">
-        <v>1428.444</v>
+        <v>604.06400000000008</v>
       </c>
       <c r="C141" s="0">
-        <v>18682</v>
+        <v>5577</v>
       </c>
       <c r="D141" s="0">
-        <v>0.11505534350838241</v>
+        <v>0.192063394490468</v>
       </c>
       <c r="E141" s="0">
-        <v>27824</v>
+        <v>8089</v>
       </c>
     </row>
     <row r="142">
@@ -3022,16 +3013,16 @@
         <v>141</v>
       </c>
       <c r="B142" s="0">
-        <v>780.29399999999998</v>
+        <v>385.19600000000003</v>
       </c>
       <c r="C142" s="0">
-        <v>34638</v>
+        <v>8562</v>
       </c>
       <c r="D142" s="0">
-        <v>0.71490138260492964</v>
+        <v>0.72513947912292631</v>
       </c>
       <c r="E142" s="0">
-        <v>38692</v>
+        <v>9545</v>
       </c>
     </row>
     <row r="143">
@@ -3039,16 +3030,16 @@
         <v>142</v>
       </c>
       <c r="B143" s="0">
-        <v>1001.128</v>
+        <v>317.12</v>
       </c>
       <c r="C143" s="0">
-        <v>59319</v>
+        <v>6000</v>
       </c>
       <c r="D143" s="0">
-        <v>0.74374570183969024</v>
+        <v>0.74974546721208102</v>
       </c>
       <c r="E143" s="0">
-        <v>66031</v>
+        <v>6712</v>
       </c>
     </row>
     <row r="144">
@@ -3056,16 +3047,16 @@
         <v>143</v>
       </c>
       <c r="B144" s="0">
-        <v>1708.2260000000001</v>
+        <v>359.39499999999998</v>
       </c>
       <c r="C144" s="0">
-        <v>34725</v>
+        <v>6910</v>
       </c>
       <c r="D144" s="0">
-        <v>0.1495414071495289</v>
+        <v>0.67227018340601585</v>
       </c>
       <c r="E144" s="0">
-        <v>50586</v>
+        <v>7707</v>
       </c>
     </row>
     <row r="145">
@@ -3073,16 +3064,16 @@
         <v>144</v>
       </c>
       <c r="B145" s="0">
-        <v>970.74700000000007</v>
+        <v>442.35900000000004</v>
       </c>
       <c r="C145" s="0">
-        <v>53468</v>
+        <v>3301</v>
       </c>
       <c r="D145" s="0">
-        <v>0.71300354518922693</v>
+        <v>0.21198525462552506</v>
       </c>
       <c r="E145" s="0">
-        <v>59401</v>
+        <v>4604</v>
       </c>
     </row>
     <row r="146">
@@ -3090,16 +3081,16 @@
         <v>145</v>
       </c>
       <c r="B146" s="0">
-        <v>799.38699999999994</v>
+        <v>318.61699999999996</v>
       </c>
       <c r="C146" s="0">
-        <v>37445</v>
+        <v>5348</v>
       </c>
       <c r="D146" s="0">
-        <v>0.73635889336945481</v>
+        <v>0.66200820835107954</v>
       </c>
       <c r="E146" s="0">
-        <v>41702</v>
+        <v>6012</v>
       </c>
     </row>
     <row r="147">
@@ -3107,16 +3098,16 @@
         <v>146</v>
       </c>
       <c r="B147" s="0">
-        <v>902.11400000000003</v>
+        <v>170.47499999999999</v>
       </c>
       <c r="C147" s="0">
-        <v>42989</v>
+        <v>1086</v>
       </c>
       <c r="D147" s="0">
-        <v>0.6638108723961863</v>
+        <v>0.46958940646849706</v>
       </c>
       <c r="E147" s="0">
-        <v>47765</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="148">
@@ -3124,16 +3115,16 @@
         <v>147</v>
       </c>
       <c r="B148" s="0">
-        <v>1293.9269999999999</v>
+        <v>389.97199999999998</v>
       </c>
       <c r="C148" s="0">
-        <v>20594</v>
+        <v>1808</v>
       </c>
       <c r="D148" s="0">
-        <v>0.15457206962946385</v>
+        <v>0.14939684931507757</v>
       </c>
       <c r="E148" s="0">
-        <v>29457</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="149">
@@ -3141,16 +3132,16 @@
         <v>148</v>
       </c>
       <c r="B149" s="0">
-        <v>801.52999999999997</v>
+        <v>508.048</v>
       </c>
       <c r="C149" s="0">
-        <v>33376</v>
+        <v>2226</v>
       </c>
       <c r="D149" s="0">
-        <v>0.65283673915916784</v>
+        <v>0.10837410700221375</v>
       </c>
       <c r="E149" s="0">
-        <v>37311</v>
+        <v>6005</v>
       </c>
     </row>
     <row r="150">
@@ -3158,16 +3149,16 @@
         <v>149</v>
       </c>
       <c r="B150" s="0">
-        <v>513.86299999999994</v>
+        <v>375.49899999999997</v>
       </c>
       <c r="C150" s="0">
-        <v>6807</v>
+        <v>3575</v>
       </c>
       <c r="D150" s="0">
-        <v>0.32394472956349479</v>
+        <v>0.31861655725468524</v>
       </c>
       <c r="E150" s="0">
-        <v>8868</v>
+        <v>5213</v>
       </c>
     </row>
     <row r="151">
@@ -3175,16 +3166,16 @@
         <v>150</v>
       </c>
       <c r="B151" s="0">
-        <v>992.17600000000004</v>
+        <v>379.26399999999995</v>
       </c>
       <c r="C151" s="0">
-        <v>11421</v>
+        <v>4611</v>
       </c>
       <c r="D151" s="0">
-        <v>0.14579296234873798</v>
+        <v>0.40282994215989176</v>
       </c>
       <c r="E151" s="0">
-        <v>32027</v>
+        <v>6719</v>
       </c>
     </row>
     <row r="152">
@@ -3192,16 +3183,16 @@
         <v>151</v>
       </c>
       <c r="B152" s="0">
-        <v>1305.1229999999998</v>
+        <v>533.81000000000006</v>
       </c>
       <c r="C152" s="0">
-        <v>14235</v>
+        <v>2338</v>
       </c>
       <c r="D152" s="0">
-        <v>0.10501817068055337</v>
+        <v>0.10310529289337975</v>
       </c>
       <c r="E152" s="0">
-        <v>37510</v>
+        <v>6466</v>
       </c>
     </row>
     <row r="153">
@@ -3209,16 +3200,16 @@
         <v>152</v>
       </c>
       <c r="B153" s="0">
-        <v>1001.3029999999999</v>
+        <v>397.43299999999999</v>
       </c>
       <c r="C153" s="0">
-        <v>22419</v>
+        <v>4573</v>
       </c>
       <c r="D153" s="0">
-        <v>0.28099271870640269</v>
+        <v>0.36381719019928066</v>
       </c>
       <c r="E153" s="0">
-        <v>32805</v>
+        <v>6686</v>
       </c>
     </row>
     <row r="154">
@@ -3226,16 +3217,16 @@
         <v>153</v>
       </c>
       <c r="B154" s="0">
-        <v>1026.7879999999998</v>
+        <v>335.19199999999995</v>
       </c>
       <c r="C154" s="0">
-        <v>28748</v>
+        <v>3379</v>
       </c>
       <c r="D154" s="0">
-        <v>0.34265409888549886</v>
+        <v>0.37792947673014798</v>
       </c>
       <c r="E154" s="0">
-        <v>42021</v>
+        <v>4896</v>
       </c>
     </row>
     <row r="155">
@@ -3243,16 +3234,16 @@
         <v>154</v>
       </c>
       <c r="B155" s="0">
-        <v>1355.6100000000001</v>
+        <v>364.69999999999999</v>
       </c>
       <c r="C155" s="0">
-        <v>14592</v>
+        <v>3396</v>
       </c>
       <c r="D155" s="0">
-        <v>0.099782678411194189</v>
+        <v>0.32085293693216416</v>
       </c>
       <c r="E155" s="0">
-        <v>40306</v>
+        <v>5036</v>
       </c>
     </row>
     <row r="156">
@@ -3260,16 +3251,16 @@
         <v>155</v>
       </c>
       <c r="B156" s="0">
-        <v>1089.327</v>
+        <v>434.18599999999998</v>
       </c>
       <c r="C156" s="0">
-        <v>28525</v>
+        <v>1631</v>
       </c>
       <c r="D156" s="0">
-        <v>0.30207791899066877</v>
+        <v>0.10872068834031148</v>
       </c>
       <c r="E156" s="0">
-        <v>41922</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="157">
@@ -3277,16 +3268,16 @@
         <v>156</v>
       </c>
       <c r="B157" s="0">
-        <v>946.66499999999996</v>
+        <v>499.40700000000004</v>
       </c>
       <c r="C157" s="0">
-        <v>21205</v>
+        <v>2195</v>
       </c>
       <c r="D157" s="0">
-        <v>0.29734148040914332</v>
+        <v>0.11059490955718576</v>
       </c>
       <c r="E157" s="0">
-        <v>30938</v>
+        <v>6074</v>
       </c>
     </row>
     <row r="158">
@@ -3294,16 +3285,16 @@
         <v>157</v>
       </c>
       <c r="B158" s="0">
-        <v>1315.501</v>
+        <v>311.19999999999993</v>
       </c>
       <c r="C158" s="0">
-        <v>14309</v>
+        <v>5683</v>
       </c>
       <c r="D158" s="0">
-        <v>0.10390508036232909</v>
+        <v>0.73740884652290495</v>
       </c>
       <c r="E158" s="0">
-        <v>31479</v>
+        <v>6354</v>
       </c>
     </row>
     <row r="159">
@@ -3311,16 +3302,16 @@
         <v>158</v>
       </c>
       <c r="B159" s="0">
-        <v>1093.2540000000001</v>
+        <v>287.10700000000003</v>
       </c>
       <c r="C159" s="0">
-        <v>10453</v>
+        <v>4989</v>
       </c>
       <c r="D159" s="0">
-        <v>0.10990277653449233</v>
+        <v>0.76056407098821033</v>
       </c>
       <c r="E159" s="0">
-        <v>29374</v>
+        <v>5595</v>
       </c>
     </row>
     <row r="160">
@@ -3328,16 +3319,16 @@
         <v>159</v>
       </c>
       <c r="B160" s="0">
-        <v>1277.7819999999999</v>
+        <v>376.548</v>
       </c>
       <c r="C160" s="0">
-        <v>13862</v>
+        <v>1488</v>
       </c>
       <c r="D160" s="0">
-        <v>0.10668963432182639</v>
+        <v>0.13187792486259284</v>
       </c>
       <c r="E160" s="0">
-        <v>37874</v>
+        <v>4034</v>
       </c>
     </row>
     <row r="161">
@@ -3345,16 +3336,16 @@
         <v>160</v>
       </c>
       <c r="B161" s="0">
-        <v>782.01599999999996</v>
+        <v>348.91499999999996</v>
       </c>
       <c r="C161" s="0">
-        <v>35447</v>
+        <v>6837</v>
       </c>
       <c r="D161" s="0">
-        <v>0.72838009954983485</v>
+        <v>0.70572607383735408</v>
       </c>
       <c r="E161" s="0">
-        <v>39397</v>
+        <v>7626</v>
       </c>
     </row>
     <row r="162">
@@ -3362,16 +3353,16 @@
         <v>161</v>
       </c>
       <c r="B162" s="0">
-        <v>723.524</v>
+        <v>389.40100000000001</v>
       </c>
       <c r="C162" s="0">
-        <v>31150</v>
+        <v>1855</v>
       </c>
       <c r="D162" s="0">
-        <v>0.74775965908855646</v>
+        <v>0.15373036312483518</v>
       </c>
       <c r="E162" s="0">
-        <v>34705</v>
+        <v>5320</v>
       </c>
     </row>
     <row r="163">
@@ -3379,16 +3370,16 @@
         <v>162</v>
       </c>
       <c r="B163" s="0">
-        <v>945.41799999999989</v>
+        <v>406.51399999999995</v>
       </c>
       <c r="C163" s="0">
-        <v>9218</v>
+        <v>1782</v>
       </c>
       <c r="D163" s="0">
-        <v>0.12959815967206953</v>
+        <v>0.13550850372976</v>
       </c>
       <c r="E163" s="0">
-        <v>24867</v>
+        <v>5090</v>
       </c>
     </row>
     <row r="164">
@@ -3396,16 +3387,16 @@
         <v>163</v>
       </c>
       <c r="B164" s="0">
-        <v>879.23799999999983</v>
+        <v>287.36599999999999</v>
       </c>
       <c r="C164" s="0">
-        <v>42613</v>
+        <v>4810</v>
       </c>
       <c r="D164" s="0">
-        <v>0.69269024991117123</v>
+        <v>0.73195465095435541</v>
       </c>
       <c r="E164" s="0">
-        <v>47433</v>
+        <v>5352</v>
       </c>
     </row>
     <row r="165">
@@ -3413,16 +3404,16 @@
         <v>164</v>
       </c>
       <c r="B165" s="0">
-        <v>991.27199999999993</v>
+        <v>288.28499999999997</v>
       </c>
       <c r="C165" s="0">
-        <v>11637</v>
+        <v>4644</v>
       </c>
       <c r="D165" s="0">
-        <v>0.14882134329799895</v>
+        <v>0.7021954053279752</v>
       </c>
       <c r="E165" s="0">
-        <v>33235</v>
+        <v>5193</v>
       </c>
     </row>
     <row r="166">
@@ -3430,16 +3421,16 @@
         <v>165</v>
       </c>
       <c r="B166" s="0">
-        <v>1022.4670000000001</v>
+        <v>344.73699999999997</v>
       </c>
       <c r="C166" s="0">
-        <v>11141</v>
+        <v>1187</v>
       </c>
       <c r="D166" s="0">
-        <v>0.13391691561077707</v>
+        <v>0.12551186621361773</v>
       </c>
       <c r="E166" s="0">
-        <v>31567</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="167">
@@ -3447,16 +3438,16 @@
         <v>166</v>
       </c>
       <c r="B167" s="0">
-        <v>722.16499999999985</v>
+        <v>277.36899999999997</v>
       </c>
       <c r="C167" s="0">
-        <v>29918</v>
+        <v>4325</v>
       </c>
       <c r="D167" s="0">
-        <v>0.72089090965003655</v>
+        <v>0.70644789322721491</v>
       </c>
       <c r="E167" s="0">
-        <v>33381</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="168">
@@ -3464,16 +3455,16 @@
         <v>167</v>
       </c>
       <c r="B168" s="0">
-        <v>729.94200000000001</v>
+        <v>219.00399999999999</v>
       </c>
       <c r="C168" s="0">
-        <v>28996</v>
+        <v>1499</v>
       </c>
       <c r="D168" s="0">
-        <v>0.68386637237351233</v>
+        <v>0.39274205001081935</v>
       </c>
       <c r="E168" s="0">
-        <v>32381</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="169">
@@ -3481,16 +3472,16 @@
         <v>168</v>
       </c>
       <c r="B169" s="0">
-        <v>874.28200000000004</v>
+        <v>194.60599999999999</v>
       </c>
       <c r="C169" s="0">
-        <v>7561</v>
+        <v>1278</v>
       </c>
       <c r="D169" s="0">
-        <v>0.12430426441348393</v>
+        <v>0.42406093408967993</v>
       </c>
       <c r="E169" s="0">
-        <v>21851</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="170">
@@ -3498,16 +3489,16 @@
         <v>169</v>
       </c>
       <c r="B170" s="0">
-        <v>696.16800000000001</v>
+        <v>255.333</v>
       </c>
       <c r="C170" s="0">
-        <v>27018</v>
+        <v>3485</v>
       </c>
       <c r="D170" s="0">
-        <v>0.70054324226730735</v>
+        <v>0.67173619599723899</v>
       </c>
       <c r="E170" s="0">
-        <v>30007</v>
+        <v>3892</v>
       </c>
     </row>
     <row r="171">
@@ -3515,16 +3506,16 @@
         <v>170</v>
       </c>
       <c r="B171" s="0">
-        <v>556.56099999999992</v>
+        <v>299.363</v>
       </c>
       <c r="C171" s="0">
-        <v>9326</v>
+        <v>4435</v>
       </c>
       <c r="D171" s="0">
-        <v>0.37833779971401527</v>
+        <v>0.62188093587074733</v>
       </c>
       <c r="E171" s="0">
-        <v>13114</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="172">
@@ -3532,16 +3523,16 @@
         <v>171</v>
       </c>
       <c r="B172" s="0">
-        <v>499.5619999999999</v>
+        <v>272.59299999999996</v>
       </c>
       <c r="C172" s="0">
-        <v>7933</v>
+        <v>1941</v>
       </c>
       <c r="D172" s="0">
-        <v>0.3994556120344801</v>
+        <v>0.32825095697230189</v>
       </c>
       <c r="E172" s="0">
-        <v>11198</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="173">
@@ -3549,16 +3540,16 @@
         <v>172</v>
       </c>
       <c r="B173" s="0">
-        <v>646.38</v>
+        <v>295.57900000000001</v>
       </c>
       <c r="C173" s="0">
-        <v>21789</v>
+        <v>5149</v>
       </c>
       <c r="D173" s="0">
-        <v>0.65534704037519953</v>
+        <v>0.74060323518065097</v>
       </c>
       <c r="E173" s="0">
-        <v>24164</v>
+        <v>5717</v>
       </c>
     </row>
     <row r="174">
@@ -3566,16 +3557,16 @@
         <v>173</v>
       </c>
       <c r="B174" s="0">
-        <v>790.95899999999995</v>
+        <v>243.023</v>
       </c>
       <c r="C174" s="0">
-        <v>27616</v>
+        <v>3406</v>
       </c>
       <c r="D174" s="0">
-        <v>0.55470578342670973</v>
+        <v>0.72470248784451219</v>
       </c>
       <c r="E174" s="0">
-        <v>30807</v>
+        <v>3784</v>
       </c>
     </row>
     <row r="175">
@@ -3583,16 +3574,16 @@
         <v>174</v>
       </c>
       <c r="B175" s="0">
-        <v>740.44500000000005</v>
+        <v>248.49399999999997</v>
       </c>
       <c r="C175" s="0">
-        <v>12050</v>
+        <v>3350</v>
       </c>
       <c r="D175" s="0">
-        <v>0.2761921312498905</v>
+        <v>0.68174640602315106</v>
       </c>
       <c r="E175" s="0">
-        <v>17060</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="176">
@@ -3600,16 +3591,16 @@
         <v>175</v>
       </c>
       <c r="B176" s="0">
-        <v>745.78699999999992</v>
+        <v>212.33699999999999</v>
       </c>
       <c r="C176" s="0">
-        <v>32083</v>
+        <v>1606</v>
       </c>
       <c r="D176" s="0">
-        <v>0.72486180759805208</v>
+        <v>0.44761440114343026</v>
       </c>
       <c r="E176" s="0">
-        <v>35603</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="177">
@@ -3617,67 +3608,16 @@
         <v>176</v>
       </c>
       <c r="B177" s="0">
-        <v>613.78800000000001</v>
+        <v>252.92600000000002</v>
       </c>
       <c r="C177" s="0">
-        <v>21197</v>
+        <v>1617</v>
       </c>
       <c r="D177" s="0">
-        <v>0.70704568637576626</v>
+        <v>0.3176383507700074</v>
       </c>
       <c r="E177" s="0">
-        <v>23474</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="B178" s="0">
-        <v>629.79900000000009</v>
-      </c>
-      <c r="C178" s="0">
-        <v>20953</v>
-      </c>
-      <c r="D178" s="0">
-        <v>0.66382276749221247</v>
-      </c>
-      <c r="E178" s="0">
-        <v>23397</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="B179" s="0">
-        <v>555.55200000000002</v>
-      </c>
-      <c r="C179" s="0">
-        <v>10012</v>
-      </c>
-      <c r="D179" s="0">
-        <v>0.40764420622386599</v>
-      </c>
-      <c r="E179" s="0">
-        <v>13917</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="B180" s="0">
-        <v>644.69999999999993</v>
-      </c>
-      <c r="C180" s="0">
-        <v>10135</v>
-      </c>
-      <c r="D180" s="0">
-        <v>0.30642082436797419</v>
-      </c>
-      <c r="E180" s="0">
-        <v>14648</v>
+        <v>2373</v>
       </c>
     </row>
   </sheetData>
